--- a/city-npc/Ptolus_City_NPC_Encounter.xlsx
+++ b/city-npc/Ptolus_City_NPC_Encounter.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="3"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="START" sheetId="1" state="visible" r:id="rId2"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="531" uniqueCount="400">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="592" uniqueCount="433">
   <si>
     <t xml:space="preserve">MORTAL</t>
   </si>
@@ -1094,7 +1094,7 @@
     <t xml:space="preserve">Zealot</t>
   </si>
   <si>
-    <t xml:space="preserve">CLERIC DOMAINS</t>
+    <t xml:space="preserve">Divine Domains (Generator)</t>
   </si>
   <si>
     <t xml:space="preserve">CIVILIZATION</t>
@@ -1109,7 +1109,16 @@
     <t xml:space="preserve">Life</t>
   </si>
   <si>
-    <t xml:space="preserve">Cleric Domains</t>
+    <t xml:space="preserve">Key</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Value</t>
+  </si>
+  <si>
+    <t xml:space="preserve">arcana</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Arcana</t>
   </si>
   <si>
     <t xml:space="preserve">Civilization</t>
@@ -1121,7 +1130,7 @@
     <t xml:space="preserve">Knowledge</t>
   </si>
   <si>
-    <t xml:space="preserve">Arcana</t>
+    <t xml:space="preserve">civilization</t>
   </si>
   <si>
     <t xml:space="preserve">Asche, God of Cities</t>
@@ -1130,6 +1139,9 @@
     <t xml:space="preserve">Heiran, Sister of Death</t>
   </si>
   <si>
+    <t xml:space="preserve">death</t>
+  </si>
+  <si>
     <t xml:space="preserve">Nareis, Sister of Death</t>
   </si>
   <si>
@@ -1139,6 +1151,12 @@
     <t xml:space="preserve">Gaen, Goddess of Light</t>
   </si>
   <si>
+    <t xml:space="preserve">grave</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Grave</t>
+  </si>
+  <si>
     <t xml:space="preserve">Unnah, Mistress of the Blades</t>
   </si>
   <si>
@@ -1148,46 +1166,76 @@
     <t xml:space="preserve">Melann, Goddess of Farming</t>
   </si>
   <si>
-    <t xml:space="preserve">Grave</t>
+    <t xml:space="preserve">knowledge</t>
   </si>
   <si>
     <t xml:space="preserve">Locharit, the Goddess of the Written Word</t>
   </si>
   <si>
+    <t xml:space="preserve">life</t>
+  </si>
+  <si>
     <t xml:space="preserve">Mocharum, God of Dwarves</t>
   </si>
   <si>
     <t xml:space="preserve">Tevra, the Clockwork Goddess</t>
   </si>
   <si>
+    <t xml:space="preserve">light</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Light</t>
+  </si>
+  <si>
     <t xml:space="preserve">Teun, Mother of All Machines</t>
   </si>
   <si>
-    <t xml:space="preserve">Light</t>
+    <t xml:space="preserve">luck</t>
   </si>
   <si>
     <t xml:space="preserve">Luck</t>
   </si>
   <si>
+    <t xml:space="preserve">nature</t>
+  </si>
+  <si>
     <t xml:space="preserve">Nature</t>
   </si>
   <si>
+    <t xml:space="preserve">night</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Night</t>
+  </si>
+  <si>
     <t xml:space="preserve">Protection</t>
   </si>
   <si>
-    <t xml:space="preserve">Night</t>
+    <t xml:space="preserve">order</t>
   </si>
   <si>
     <t xml:space="preserve">Order</t>
   </si>
   <si>
+    <t xml:space="preserve">peace</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Peace</t>
+  </si>
+  <si>
+    <t xml:space="preserve">protection</t>
+  </si>
+  <si>
     <t xml:space="preserve">The Lady</t>
   </si>
   <si>
     <t xml:space="preserve">Ahaar, Lord of the Air</t>
   </si>
   <si>
-    <t xml:space="preserve">Peace</t>
+    <t xml:space="preserve">technology</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Technology</t>
   </si>
   <si>
     <t xml:space="preserve">Rajek the Wanderer</t>
@@ -1196,34 +1244,85 @@
     <t xml:space="preserve">Harredda, Mistress of Ravens</t>
   </si>
   <si>
+    <t xml:space="preserve">tempest</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tempest</t>
+  </si>
+  <si>
     <t xml:space="preserve">The Fifty-Three Gods of Chance</t>
   </si>
   <si>
     <t xml:space="preserve">Navashtrom, God of Strength and Harmony</t>
   </si>
   <si>
-    <t xml:space="preserve">Technology</t>
+    <t xml:space="preserve">travel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Travel</t>
   </si>
   <si>
     <t xml:space="preserve">Myliesha, Mistress of the Wind’s Path</t>
   </si>
   <si>
-    <t xml:space="preserve">Tempest</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Travel</t>
+    <t xml:space="preserve">trickery</t>
   </si>
   <si>
     <t xml:space="preserve">Trickery</t>
   </si>
   <si>
+    <t xml:space="preserve">twilight</t>
+  </si>
+  <si>
     <t xml:space="preserve">Twilight</t>
   </si>
   <si>
+    <t xml:space="preserve">war</t>
+  </si>
+  <si>
     <t xml:space="preserve">War</t>
   </si>
   <si>
+    <t xml:space="preserve">Deity (Router)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Placeholder</t>
+  </si>
+  <si>
     <t xml:space="preserve">Inurath, Mistress of War</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[generator:deity-28death29-soullink|{}|deity]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[generator:deity-28knowledge29-soullink|{}|deity]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[generator:deity-28life29-soullink|{}|deity]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[generator:deity-28light29-soullink|{}|deity]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[generator:deity-28luck29-soullink|{}|deity]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[generator:deity-28nature29-soullink|{}|deity]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[generator:deity-28protection29-soullink|{}|deity]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[generator:deity-28technology29-soullink|{}|deity]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[generator:deity-28tempest29-soullink|{}|deity]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[generator:deity-28trickery29-soullink|{}|deity]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[generator:deity-28war29-soullink|{}|deity]</t>
   </si>
 </sst>
 </file>
@@ -3809,8 +3908,8 @@
   </sheetPr>
   <dimension ref="A2:AMJ118"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B11" activeCellId="0" sqref="B11"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="H37" activeCellId="0" sqref="H37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -5482,19 +5581,19 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A2:O29"/>
+  <dimension ref="B2:R45"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B5" activeCellId="0" sqref="B5"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="H32" activeCellId="0" sqref="H32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.6875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="25.56"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="8.6"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="1.61"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="25.56"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="8.6"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="3.46"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="13.89"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="48.62"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="8.6"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="1.94"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="1.61"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="25.56"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="8.6"/>
@@ -5505,40 +5604,51 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="0" width="25.56"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="1" width="8.6"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="0" width="1.61"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="0" width="25.56"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="1" width="8.6"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="0" width="1.61"/>
   </cols>
   <sheetData>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="2" t="s">
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B2" s="2" t="s">
         <v>356</v>
       </c>
-      <c r="B2" s="2"/>
-      <c r="C2" s="3"/>
-      <c r="D2" s="2" t="s">
-        <v>357</v>
-      </c>
-      <c r="E2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="0"/>
       <c r="F2" s="3"/>
       <c r="G2" s="2" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="H2" s="2"/>
       <c r="I2" s="3"/>
       <c r="J2" s="2" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="K2" s="2"/>
       <c r="L2" s="3"/>
       <c r="M2" s="2" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="N2" s="2"/>
       <c r="O2" s="3"/>
-    </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="3"/>
-      <c r="B3" s="3"/>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3"/>
+      <c r="P2" s="2" t="s">
+        <v>360</v>
+      </c>
+      <c r="Q2" s="2"/>
+      <c r="R2" s="3"/>
+    </row>
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B3" s="7" t="s">
+        <v>361</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>362</v>
+      </c>
+      <c r="D3" s="5" t="n">
+        <f aca="false">SUM(D4:D22)</f>
+        <v>162</v>
+      </c>
       <c r="E3" s="3"/>
       <c r="F3" s="3"/>
       <c r="G3" s="3"/>
@@ -5550,617 +5660,862 @@
       <c r="M3" s="3"/>
       <c r="N3" s="3"/>
       <c r="O3" s="3"/>
-    </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="7" t="s">
-        <v>361</v>
-      </c>
-      <c r="B4" s="5" t="n">
-        <f aca="false">SUM(B5:B23)</f>
-        <v>160</v>
-      </c>
-      <c r="D4" s="7" t="s">
-        <v>362</v>
-      </c>
-      <c r="E4" s="5" t="n">
-        <f aca="false">SUM(E5:E10)</f>
-        <v>100</v>
-      </c>
+      <c r="P3" s="3"/>
+      <c r="Q3" s="3"/>
+      <c r="R3" s="3"/>
+    </row>
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B4" s="12" t="s">
+        <v>363</v>
+      </c>
+      <c r="C4" s="12" t="s">
+        <v>364</v>
+      </c>
+      <c r="D4" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="E4" s="0"/>
       <c r="G4" s="7" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="H4" s="5" t="n">
         <f aca="false">SUM(H5:H10)</f>
         <v>100</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="K4" s="5" t="n">
         <f aca="false">SUM(K5:K10)</f>
         <v>100</v>
       </c>
       <c r="M4" s="7" t="s">
-        <v>360</v>
+        <v>367</v>
       </c>
       <c r="N4" s="5" t="n">
         <f aca="false">SUM(N5:N10)</f>
         <v>100</v>
       </c>
-    </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="12" t="s">
+      <c r="P4" s="7" t="s">
+        <v>360</v>
+      </c>
+      <c r="Q4" s="5" t="n">
+        <f aca="false">SUM(Q5:Q10)</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B5" s="0" t="s">
+        <v>368</v>
+      </c>
+      <c r="C5" s="0" t="s">
         <v>365</v>
       </c>
-      <c r="B5" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="D5" s="0" t="s">
+      <c r="D5" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="E5" s="0"/>
+      <c r="G5" s="0" t="s">
+        <v>369</v>
+      </c>
+      <c r="H5" s="1" t="n">
+        <v>100</v>
+      </c>
+      <c r="J5" s="0" t="s">
+        <v>370</v>
+      </c>
+      <c r="K5" s="1" t="n">
+        <v>35</v>
+      </c>
+      <c r="M5" s="0" t="s">
+        <v>369</v>
+      </c>
+      <c r="N5" s="10" t="n">
+        <v>30</v>
+      </c>
+      <c r="P5" s="0" t="s">
+        <v>369</v>
+      </c>
+      <c r="Q5" s="1" t="n">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B6" s="0" t="s">
+        <v>371</v>
+      </c>
+      <c r="C6" s="0" t="s">
         <v>366</v>
       </c>
-      <c r="E5" s="1" t="n">
-        <v>100</v>
-      </c>
-      <c r="G5" s="0" t="s">
+      <c r="D6" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="E6" s="0"/>
+      <c r="J6" s="0" t="s">
+        <v>372</v>
+      </c>
+      <c r="K6" s="1" t="n">
+        <v>35</v>
+      </c>
+      <c r="M6" s="12" t="s">
+        <v>373</v>
+      </c>
+      <c r="N6" s="10" t="n">
+        <v>10</v>
+      </c>
+      <c r="P6" s="0" t="s">
+        <v>374</v>
+      </c>
+      <c r="Q6" s="1" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B7" s="0" t="s">
+        <v>375</v>
+      </c>
+      <c r="C7" s="0" t="s">
+        <v>376</v>
+      </c>
+      <c r="D7" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="E7" s="0"/>
+      <c r="J7" s="0" t="s">
+        <v>377</v>
+      </c>
+      <c r="K7" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="M7" s="0" t="s">
+        <v>378</v>
+      </c>
+      <c r="N7" s="10" t="n">
+        <v>20</v>
+      </c>
+      <c r="P7" s="0" t="s">
+        <v>379</v>
+      </c>
+      <c r="Q7" s="1" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B8" s="0" t="s">
+        <v>380</v>
+      </c>
+      <c r="C8" s="0" t="s">
         <v>367</v>
       </c>
-      <c r="H5" s="1" t="n">
-        <v>35</v>
-      </c>
-      <c r="J5" s="0" t="s">
-        <v>366</v>
-      </c>
-      <c r="K5" s="10" t="n">
-        <v>30</v>
-      </c>
-      <c r="M5" s="0" t="s">
-        <v>366</v>
-      </c>
-      <c r="N5" s="1" t="n">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="s">
-        <v>362</v>
-      </c>
-      <c r="B6" s="1" t="n">
-        <v>20</v>
-      </c>
-      <c r="G6" s="0" t="s">
-        <v>368</v>
-      </c>
-      <c r="H6" s="1" t="n">
-        <v>35</v>
-      </c>
-      <c r="J6" s="12" t="s">
-        <v>369</v>
-      </c>
-      <c r="K6" s="10" t="n">
-        <v>10</v>
-      </c>
-      <c r="M6" s="0" t="s">
-        <v>370</v>
-      </c>
-      <c r="N6" s="1" t="n">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="s">
-        <v>363</v>
-      </c>
-      <c r="B7" s="1" t="n">
+      <c r="D8" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="G7" s="0" t="s">
-        <v>371</v>
-      </c>
-      <c r="H7" s="1" t="n">
-        <v>30</v>
-      </c>
-      <c r="J7" s="0" t="s">
-        <v>372</v>
-      </c>
-      <c r="K7" s="10" t="n">
-        <v>20</v>
-      </c>
-      <c r="M7" s="0" t="s">
-        <v>373</v>
-      </c>
-      <c r="N7" s="1" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="s">
-        <v>374</v>
-      </c>
-      <c r="B8" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="D8" s="7"/>
-      <c r="E8" s="5"/>
+      <c r="E8" s="0"/>
       <c r="G8" s="7"/>
       <c r="H8" s="5"/>
-      <c r="J8" s="12" t="s">
-        <v>375</v>
-      </c>
-      <c r="K8" s="10" t="n">
+      <c r="J8" s="7"/>
+      <c r="K8" s="5"/>
+      <c r="M8" s="12" t="s">
+        <v>381</v>
+      </c>
+      <c r="N8" s="10" t="n">
         <v>20</v>
       </c>
-      <c r="M8" s="0" t="s">
-        <v>369</v>
-      </c>
-      <c r="N8" s="1" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="s">
-        <v>364</v>
-      </c>
-      <c r="B9" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="D9" s="7"/>
-      <c r="E9" s="5"/>
+      <c r="P8" s="0" t="s">
+        <v>373</v>
+      </c>
+      <c r="Q8" s="1" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B9" s="0" t="s">
+        <v>382</v>
+      </c>
+      <c r="C9" s="0" t="s">
+        <v>360</v>
+      </c>
+      <c r="D9" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="E9" s="0"/>
       <c r="G9" s="7"/>
       <c r="H9" s="5"/>
-      <c r="J9" s="12" t="s">
-        <v>376</v>
-      </c>
-      <c r="K9" s="10" t="n">
-        <v>10</v>
-      </c>
-      <c r="M9" s="0" t="s">
-        <v>377</v>
-      </c>
-      <c r="N9" s="1" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="0" t="s">
-        <v>360</v>
-      </c>
-      <c r="B10" s="1" t="n">
+      <c r="J9" s="7"/>
+      <c r="K9" s="5"/>
+      <c r="M9" s="12" t="s">
+        <v>383</v>
+      </c>
+      <c r="N9" s="10" t="n">
+        <v>10</v>
+      </c>
+      <c r="P9" s="0" t="s">
+        <v>384</v>
+      </c>
+      <c r="Q9" s="1" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B10" s="0" t="s">
+        <v>385</v>
+      </c>
+      <c r="C10" s="0" t="s">
+        <v>386</v>
+      </c>
+      <c r="D10" s="1" t="n">
         <v>20</v>
       </c>
-      <c r="D10" s="7"/>
-      <c r="E10" s="5"/>
+      <c r="E10" s="0"/>
       <c r="G10" s="7"/>
       <c r="H10" s="5"/>
-      <c r="J10" s="0" t="s">
-        <v>378</v>
-      </c>
-      <c r="K10" s="10" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="0" t="s">
-        <v>379</v>
-      </c>
-      <c r="B11" s="1" t="n">
+      <c r="J10" s="7"/>
+      <c r="K10" s="5"/>
+      <c r="M10" s="0" t="s">
+        <v>387</v>
+      </c>
+      <c r="N10" s="10" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B11" s="12" t="s">
+        <v>388</v>
+      </c>
+      <c r="C11" s="12" t="s">
+        <v>389</v>
+      </c>
+      <c r="D11" s="10" t="n">
         <v>20</v>
       </c>
-      <c r="D11" s="7"/>
-      <c r="E11" s="5"/>
+      <c r="E11" s="0"/>
       <c r="G11" s="7"/>
       <c r="H11" s="5"/>
-      <c r="J11" s="12"/>
+      <c r="J11" s="7"/>
       <c r="K11" s="5"/>
-    </row>
-    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="12" t="s">
+      <c r="M11" s="12"/>
+      <c r="N11" s="5"/>
+    </row>
+    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B12" s="0" t="s">
+        <v>390</v>
+      </c>
+      <c r="C12" s="0" t="s">
+        <v>391</v>
+      </c>
+      <c r="D12" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="E12" s="0"/>
+      <c r="H12" s="0"/>
+      <c r="K12" s="0"/>
+      <c r="N12" s="0"/>
+      <c r="Q12" s="0"/>
+    </row>
+    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B13" s="0" t="s">
+        <v>392</v>
+      </c>
+      <c r="C13" s="0" t="s">
+        <v>393</v>
+      </c>
+      <c r="D13" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="E13" s="0"/>
+      <c r="G13" s="2" t="s">
+        <v>386</v>
+      </c>
+      <c r="H13" s="2"/>
+      <c r="I13" s="3"/>
+      <c r="J13" s="2" t="s">
+        <v>389</v>
+      </c>
+      <c r="K13" s="2"/>
+      <c r="L13" s="3"/>
+      <c r="M13" s="2" t="s">
+        <v>391</v>
+      </c>
+      <c r="N13" s="2"/>
+      <c r="P13" s="2" t="s">
+        <v>394</v>
+      </c>
+      <c r="Q13" s="2"/>
+    </row>
+    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B14" s="0" t="s">
+        <v>395</v>
+      </c>
+      <c r="C14" s="0" t="s">
+        <v>396</v>
+      </c>
+      <c r="D14" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="E14" s="0"/>
+      <c r="G14" s="3"/>
+      <c r="H14" s="3"/>
+      <c r="I14" s="3"/>
+      <c r="J14" s="3"/>
+      <c r="K14" s="3"/>
+      <c r="L14" s="3"/>
+      <c r="M14" s="3"/>
+      <c r="N14" s="3"/>
+      <c r="P14" s="3"/>
+      <c r="Q14" s="3"/>
+    </row>
+    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B15" s="0" t="s">
+        <v>397</v>
+      </c>
+      <c r="C15" s="0" t="s">
+        <v>398</v>
+      </c>
+      <c r="D15" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="E15" s="0"/>
+      <c r="G15" s="7" t="s">
+        <v>386</v>
+      </c>
+      <c r="H15" s="5" t="n">
+        <f aca="false">SUM(H16:H21)</f>
+        <v>100</v>
+      </c>
+      <c r="J15" s="7" t="s">
+        <v>389</v>
+      </c>
+      <c r="K15" s="5" t="n">
+        <f aca="false">SUM(K16:K21)</f>
+        <v>100</v>
+      </c>
+      <c r="M15" s="7" t="s">
+        <v>391</v>
+      </c>
+      <c r="N15" s="5" t="n">
+        <f aca="false">SUM(N16:N21)</f>
+        <v>100</v>
+      </c>
+      <c r="P15" s="7" t="s">
+        <v>394</v>
+      </c>
+      <c r="Q15" s="5" t="n">
+        <f aca="false">SUM(Q16:Q21)</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B16" s="0" t="s">
+        <v>399</v>
+      </c>
+      <c r="C16" s="0" t="s">
+        <v>394</v>
+      </c>
+      <c r="D16" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="E16" s="0"/>
+      <c r="G16" s="0" t="s">
+        <v>374</v>
+      </c>
+      <c r="H16" s="1" t="n">
+        <v>40</v>
+      </c>
+      <c r="J16" s="0" t="s">
+        <v>400</v>
+      </c>
+      <c r="K16" s="1" t="n">
+        <v>35</v>
+      </c>
+      <c r="M16" s="0" t="s">
+        <v>401</v>
+      </c>
+      <c r="N16" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="P16" s="0" t="s">
+        <v>373</v>
+      </c>
+      <c r="Q16" s="1" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B17" s="0" t="s">
+        <v>402</v>
+      </c>
+      <c r="C17" s="0" t="s">
+        <v>403</v>
+      </c>
+      <c r="D17" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="E17" s="0"/>
+      <c r="G17" s="0" t="s">
+        <v>378</v>
+      </c>
+      <c r="H17" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="J17" s="0" t="s">
+        <v>404</v>
+      </c>
+      <c r="K17" s="1" t="n">
+        <v>35</v>
+      </c>
+      <c r="M17" s="0" t="s">
+        <v>405</v>
+      </c>
+      <c r="N17" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="P17" s="0" t="s">
+        <v>405</v>
+      </c>
+      <c r="Q17" s="1" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B18" s="0" t="s">
+        <v>406</v>
+      </c>
+      <c r="C18" s="0" t="s">
+        <v>407</v>
+      </c>
+      <c r="D18" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="E18" s="0"/>
+      <c r="G18" s="0" t="s">
+        <v>381</v>
+      </c>
+      <c r="H18" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="J18" s="0" t="s">
+        <v>408</v>
+      </c>
+      <c r="K18" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="M18" s="0" t="s">
+        <v>379</v>
+      </c>
+      <c r="N18" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="P18" s="0" t="s">
+        <v>409</v>
+      </c>
+      <c r="Q18" s="1" t="n">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B19" s="0" t="s">
+        <v>410</v>
+      </c>
+      <c r="C19" s="0" t="s">
+        <v>411</v>
+      </c>
+      <c r="D19" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="E19" s="0"/>
+      <c r="G19" s="0" t="s">
+        <v>379</v>
+      </c>
+      <c r="H19" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="M19" s="0" t="s">
+        <v>412</v>
+      </c>
+      <c r="N19" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="P19" s="0" t="s">
+        <v>404</v>
+      </c>
+      <c r="Q19" s="1" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B20" s="0" t="s">
+        <v>413</v>
+      </c>
+      <c r="C20" s="0" t="s">
+        <v>414</v>
+      </c>
+      <c r="D20" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="E20" s="0"/>
+      <c r="G20" s="0" t="s">
+        <v>409</v>
+      </c>
+      <c r="H20" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="P20" s="0" t="s">
+        <v>400</v>
+      </c>
+      <c r="Q20" s="1" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B21" s="0" t="s">
+        <v>415</v>
+      </c>
+      <c r="C21" s="0" t="s">
+        <v>416</v>
+      </c>
+      <c r="D21" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="E21" s="0"/>
+      <c r="G21" s="0" t="s">
+        <v>387</v>
+      </c>
+      <c r="H21" s="1" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B22" s="0" t="s">
+        <v>417</v>
+      </c>
+      <c r="C22" s="0" t="s">
+        <v>418</v>
+      </c>
+      <c r="D22" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="E22" s="0"/>
+    </row>
+    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D23" s="0"/>
+      <c r="H23" s="0"/>
+      <c r="K23" s="0"/>
+      <c r="N23" s="0"/>
+      <c r="Q23" s="0"/>
+    </row>
+    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G24" s="2" t="s">
+        <v>403</v>
+      </c>
+      <c r="H24" s="2"/>
+      <c r="I24" s="3"/>
+      <c r="J24" s="2" t="s">
+        <v>407</v>
+      </c>
+      <c r="K24" s="2"/>
+      <c r="L24" s="3"/>
+      <c r="M24" s="2" t="s">
+        <v>414</v>
+      </c>
+      <c r="N24" s="2"/>
+      <c r="O24" s="3"/>
+      <c r="P24" s="2" t="s">
+        <v>418</v>
+      </c>
+      <c r="Q24" s="2"/>
+    </row>
+    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B25" s="2" t="s">
+        <v>419</v>
+      </c>
+      <c r="C25" s="2"/>
+      <c r="D25" s="2"/>
+      <c r="G25" s="3"/>
+      <c r="H25" s="3"/>
+      <c r="I25" s="3"/>
+      <c r="J25" s="3"/>
+      <c r="K25" s="3"/>
+      <c r="L25" s="3"/>
+      <c r="M25" s="3"/>
+      <c r="N25" s="3"/>
+      <c r="O25" s="3"/>
+      <c r="P25" s="3"/>
+      <c r="Q25" s="3"/>
+    </row>
+    <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B26" s="7" t="s">
+        <v>361</v>
+      </c>
+      <c r="C26" s="7" t="s">
+        <v>362</v>
+      </c>
+      <c r="D26" s="5"/>
+      <c r="G26" s="7" t="s">
+        <v>403</v>
+      </c>
+      <c r="H26" s="5" t="n">
+        <f aca="false">SUM(H27:H32)</f>
+        <v>100</v>
+      </c>
+      <c r="J26" s="7" t="s">
+        <v>407</v>
+      </c>
+      <c r="K26" s="5" t="n">
+        <f aca="false">SUM(K27:K32)</f>
+        <v>100</v>
+      </c>
+      <c r="M26" s="7" t="s">
+        <v>414</v>
+      </c>
+      <c r="N26" s="5" t="n">
+        <f aca="false">SUM(N27:N32)</f>
+        <v>100</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>418</v>
+      </c>
+      <c r="Q26" s="5" t="n">
+        <f aca="false">SUM(Q27:Q32)</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B27" s="12" t="s">
+        <v>363</v>
+      </c>
+      <c r="C27" s="0" t="s">
+        <v>420</v>
+      </c>
+      <c r="D27" s="10"/>
+      <c r="G27" s="0" t="s">
+        <v>383</v>
+      </c>
+      <c r="H27" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="J27" s="0" t="s">
+        <v>401</v>
+      </c>
+      <c r="K27" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="M27" s="0" t="s">
+        <v>400</v>
+      </c>
+      <c r="N27" s="1" t="n">
+        <v>35</v>
+      </c>
+      <c r="P27" s="0" t="s">
+        <v>421</v>
+      </c>
+      <c r="Q27" s="1" t="n">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B28" s="0" t="s">
+        <v>368</v>
+      </c>
+      <c r="C28" s="0" t="s">
+        <v>369</v>
+      </c>
+      <c r="G28" s="0" t="s">
+        <v>387</v>
+      </c>
+      <c r="H28" s="1" t="n">
+        <v>50</v>
+      </c>
+      <c r="J28" s="0" t="s">
+        <v>405</v>
+      </c>
+      <c r="K28" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="M28" s="0" t="s">
+        <v>404</v>
+      </c>
+      <c r="N28" s="1" t="n">
+        <v>35</v>
+      </c>
+      <c r="P28" s="0" t="s">
+        <v>409</v>
+      </c>
+      <c r="Q28" s="1" t="n">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B29" s="0" t="s">
+        <v>371</v>
+      </c>
+      <c r="C29" s="0" t="s">
+        <v>422</v>
+      </c>
+      <c r="G29" s="0" t="s">
+        <v>384</v>
+      </c>
+      <c r="H29" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="J29" s="0" t="s">
+        <v>421</v>
+      </c>
+      <c r="K29" s="1" t="n">
+        <v>40</v>
+      </c>
+      <c r="M29" s="0" t="s">
+        <v>408</v>
+      </c>
+      <c r="N29" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="P29" s="0" t="s">
+        <v>377</v>
+      </c>
+      <c r="Q29" s="1" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B30" s="0" t="s">
+        <v>375</v>
+      </c>
+      <c r="C30" s="0" t="s">
+        <v>420</v>
+      </c>
+      <c r="J30" s="0" t="s">
+        <v>412</v>
+      </c>
+      <c r="K30" s="1" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B31" s="0" t="s">
         <v>380</v>
       </c>
-      <c r="B12" s="10" t="n">
-        <v>20</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>379</v>
-      </c>
-      <c r="E12" s="2"/>
-      <c r="F12" s="3"/>
-      <c r="G12" s="2" t="s">
-        <v>380</v>
-      </c>
-      <c r="H12" s="2"/>
-      <c r="I12" s="3"/>
-      <c r="J12" s="2" t="s">
-        <v>381</v>
-      </c>
-      <c r="K12" s="2"/>
-      <c r="M12" s="2" t="s">
+      <c r="C31" s="0" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B32" s="0" t="s">
         <v>382</v>
       </c>
-      <c r="N12" s="2"/>
-    </row>
-    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="0" t="s">
-        <v>381</v>
-      </c>
-      <c r="B13" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="D13" s="3"/>
-      <c r="E13" s="3"/>
-      <c r="F13" s="3"/>
-      <c r="G13" s="3"/>
-      <c r="H13" s="3"/>
-      <c r="I13" s="3"/>
-      <c r="J13" s="3"/>
-      <c r="K13" s="3"/>
-      <c r="M13" s="3"/>
-      <c r="N13" s="3"/>
-    </row>
-    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="0" t="s">
-        <v>383</v>
-      </c>
-      <c r="B14" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="D14" s="7" t="s">
-        <v>379</v>
-      </c>
-      <c r="E14" s="5" t="n">
-        <f aca="false">SUM(E15:E20)</f>
-        <v>100</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>380</v>
-      </c>
-      <c r="H14" s="5" t="n">
-        <f aca="false">SUM(H15:H20)</f>
-        <v>100</v>
-      </c>
-      <c r="J14" s="7" t="s">
-        <v>381</v>
-      </c>
-      <c r="K14" s="5" t="n">
-        <f aca="false">SUM(K15:K20)</f>
-        <v>100</v>
-      </c>
-      <c r="M14" s="7" t="s">
-        <v>382</v>
-      </c>
-      <c r="N14" s="5" t="n">
-        <f aca="false">SUM(N15:N20)</f>
-        <v>100</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="0" t="s">
-        <v>384</v>
-      </c>
-      <c r="B15" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="D15" s="0" t="s">
-        <v>370</v>
-      </c>
-      <c r="E15" s="1" t="n">
-        <v>40</v>
-      </c>
-      <c r="G15" s="0" t="s">
+      <c r="C32" s="0" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B33" s="0" t="s">
         <v>385</v>
       </c>
-      <c r="H15" s="1" t="n">
-        <v>35</v>
-      </c>
-      <c r="J15" s="0" t="s">
-        <v>386</v>
-      </c>
-      <c r="K15" s="1" t="n">
-        <v>30</v>
-      </c>
-      <c r="M15" s="0" t="s">
-        <v>369</v>
-      </c>
-      <c r="N15" s="1" t="n">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="0" t="s">
-        <v>387</v>
-      </c>
-      <c r="B16" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="D16" s="0" t="s">
-        <v>372</v>
-      </c>
-      <c r="E16" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="G16" s="0" t="s">
+      <c r="C33" s="0" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B34" s="12" t="s">
         <v>388</v>
       </c>
-      <c r="H16" s="1" t="n">
-        <v>35</v>
-      </c>
-      <c r="J16" s="0" t="s">
-        <v>389</v>
-      </c>
-      <c r="K16" s="1" t="n">
-        <v>30</v>
-      </c>
-      <c r="M16" s="0" t="s">
-        <v>389</v>
-      </c>
-      <c r="N16" s="1" t="n">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="0" t="s">
-        <v>382</v>
-      </c>
-      <c r="B17" s="1" t="n">
-        <v>20</v>
-      </c>
-      <c r="D17" s="0" t="s">
-        <v>375</v>
-      </c>
-      <c r="E17" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="G17" s="0" t="s">
+      <c r="C34" s="0" t="s">
+        <v>426</v>
+      </c>
+      <c r="D34" s="10"/>
+    </row>
+    <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B35" s="0" t="s">
         <v>390</v>
       </c>
-      <c r="H17" s="1" t="n">
-        <v>30</v>
-      </c>
-      <c r="J17" s="0" t="s">
-        <v>373</v>
-      </c>
-      <c r="K17" s="1" t="n">
-        <v>30</v>
-      </c>
-      <c r="M17" s="0" t="s">
-        <v>391</v>
-      </c>
-      <c r="N17" s="1" t="n">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="0" t="s">
+      <c r="C35" s="0" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B36" s="0" t="s">
         <v>392</v>
       </c>
-      <c r="B18" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="D18" s="0" t="s">
-        <v>373</v>
-      </c>
-      <c r="E18" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="J18" s="0" t="s">
-        <v>393</v>
-      </c>
-      <c r="K18" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="M18" s="0" t="s">
-        <v>388</v>
-      </c>
-      <c r="N18" s="1" t="n">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="0" t="s">
-        <v>394</v>
-      </c>
-      <c r="B19" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="D19" s="0" t="s">
-        <v>391</v>
-      </c>
-      <c r="E19" s="1" t="n">
-        <v>20</v>
-      </c>
-      <c r="M19" s="0" t="s">
-        <v>385</v>
-      </c>
-      <c r="N19" s="1" t="n">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="0" t="s">
+      <c r="C36" s="0" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B37" s="0" t="s">
         <v>395</v>
       </c>
-      <c r="B20" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="D20" s="0" t="s">
-        <v>378</v>
-      </c>
-      <c r="E20" s="1" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="0" t="s">
-        <v>396</v>
-      </c>
-      <c r="B21" s="1" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="0" t="s">
+      <c r="C37" s="0" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B38" s="0" t="s">
         <v>397</v>
       </c>
-      <c r="B22" s="1" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="0" t="s">
-        <v>398</v>
-      </c>
-      <c r="B23" s="1" t="n">
-        <v>20</v>
-      </c>
-      <c r="D23" s="2" t="s">
-        <v>392</v>
-      </c>
-      <c r="E23" s="2"/>
-      <c r="F23" s="3"/>
-      <c r="G23" s="2" t="s">
-        <v>394</v>
-      </c>
-      <c r="H23" s="2"/>
-      <c r="I23" s="3"/>
-      <c r="J23" s="2" t="s">
-        <v>396</v>
-      </c>
-      <c r="K23" s="2"/>
-      <c r="L23" s="3"/>
-      <c r="M23" s="2" t="s">
-        <v>398</v>
-      </c>
-      <c r="N23" s="2"/>
-    </row>
-    <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D24" s="3"/>
-      <c r="E24" s="3"/>
-      <c r="F24" s="3"/>
-      <c r="G24" s="3"/>
-      <c r="H24" s="3"/>
-      <c r="I24" s="3"/>
-      <c r="J24" s="3"/>
-      <c r="K24" s="3"/>
-      <c r="L24" s="3"/>
-      <c r="M24" s="3"/>
-      <c r="N24" s="3"/>
-    </row>
-    <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D25" s="7" t="s">
-        <v>392</v>
-      </c>
-      <c r="E25" s="5" t="n">
-        <f aca="false">SUM(E26:E31)</f>
-        <v>100</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>394</v>
-      </c>
-      <c r="H25" s="5" t="n">
-        <f aca="false">SUM(H26:H31)</f>
-        <v>100</v>
-      </c>
-      <c r="J25" s="7" t="s">
-        <v>396</v>
-      </c>
-      <c r="K25" s="5" t="n">
-        <f aca="false">SUM(K26:K31)</f>
-        <v>100</v>
-      </c>
-      <c r="M25" s="7" t="s">
-        <v>398</v>
-      </c>
-      <c r="N25" s="5" t="n">
-        <f aca="false">SUM(N26:N31)</f>
-        <v>100</v>
-      </c>
-    </row>
-    <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D26" s="0" t="s">
-        <v>376</v>
-      </c>
-      <c r="E26" s="1" t="n">
-        <v>25</v>
-      </c>
-      <c r="G26" s="0" t="s">
-        <v>386</v>
-      </c>
-      <c r="H26" s="1" t="n">
-        <v>20</v>
-      </c>
-      <c r="J26" s="0" t="s">
-        <v>385</v>
-      </c>
-      <c r="K26" s="1" t="n">
-        <v>35</v>
-      </c>
-      <c r="M26" s="0" t="s">
+      <c r="C38" s="0" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B39" s="0" t="s">
         <v>399</v>
       </c>
-      <c r="N26" s="1" t="n">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D27" s="0" t="s">
-        <v>378</v>
-      </c>
-      <c r="E27" s="1" t="n">
-        <v>50</v>
-      </c>
-      <c r="G27" s="0" t="s">
-        <v>389</v>
-      </c>
-      <c r="H27" s="1" t="n">
-        <v>20</v>
-      </c>
-      <c r="J27" s="0" t="s">
-        <v>388</v>
-      </c>
-      <c r="K27" s="1" t="n">
-        <v>35</v>
-      </c>
-      <c r="M27" s="0" t="s">
-        <v>391</v>
-      </c>
-      <c r="N27" s="1" t="n">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D28" s="0" t="s">
-        <v>377</v>
-      </c>
-      <c r="E28" s="1" t="n">
-        <v>25</v>
-      </c>
-      <c r="G28" s="0" t="s">
-        <v>399</v>
-      </c>
-      <c r="H28" s="1" t="n">
-        <v>40</v>
-      </c>
-      <c r="J28" s="0" t="s">
-        <v>390</v>
-      </c>
-      <c r="K28" s="1" t="n">
-        <v>30</v>
-      </c>
-      <c r="M28" s="0" t="s">
-        <v>371</v>
-      </c>
-      <c r="N28" s="1" t="n">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G29" s="0" t="s">
-        <v>393</v>
-      </c>
-      <c r="H29" s="1" t="n">
-        <v>20</v>
+      <c r="C39" s="0" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B40" s="0" t="s">
+        <v>402</v>
+      </c>
+      <c r="C40" s="0" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B41" s="0" t="s">
+        <v>406</v>
+      </c>
+      <c r="C41" s="0" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B42" s="0" t="s">
+        <v>410</v>
+      </c>
+      <c r="C42" s="0" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B43" s="0" t="s">
+        <v>413</v>
+      </c>
+      <c r="C43" s="0" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B44" s="0" t="s">
+        <v>415</v>
+      </c>
+      <c r="C44" s="0" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B45" s="0" t="s">
+        <v>417</v>
+      </c>
+      <c r="C45" s="0" t="s">
+        <v>432</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="B2:D2"/>
+    <mergeCell ref="B25:D25"/>
+  </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
   <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>

--- a/city-npc/Ptolus_City_NPC_Encounter.xlsx
+++ b/city-npc/Ptolus_City_NPC_Encounter.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="4"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="START" sheetId="1" state="visible" r:id="rId2"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="592" uniqueCount="433">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="626" uniqueCount="456">
   <si>
     <t xml:space="preserve">MORTAL</t>
   </si>
@@ -113,31 +113,49 @@
     <t xml:space="preserve">Vermin</t>
   </si>
   <si>
-    <t xml:space="preserve">RACES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MAJOR RACES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SUBRACES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CULTURE</t>
+    <t xml:space="preserve">ORIGIN GENERATORS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MAJOR ORIGIN GENERATOR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MAJOR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SPECIFIC ORIGIN GENERATOR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CULTURAL ORIGIN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KEY</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VALUE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WEIGHT</t>
   </si>
   <si>
     <t xml:space="preserve">City</t>
   </si>
   <si>
-    <t xml:space="preserve">AASIMAR SUBRACE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HUMAN CULTURE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Major</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dwarf</t>
+    <t xml:space="preserve">AASIMAR ORIGIN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HUMAN ORIGIN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">major</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[generator:major-origin-soullink|{}|origin]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dwarf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[generator:dwarf-origin-soullink|{}|origin]</t>
   </si>
   <si>
     <t xml:space="preserve">Protector Aasimar</t>
@@ -146,10 +164,16 @@
     <t xml:space="preserve">Flannae (Flan)</t>
   </si>
   <si>
-    <t xml:space="preserve">Minor</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Elf</t>
+    <t xml:space="preserve">minor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[generator:minor-origin-soullink|{}|origin]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">elf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[generator:elf-origin-soullink|{}|origin]</t>
   </si>
   <si>
     <t xml:space="preserve">Scourge Aasimar</t>
@@ -158,10 +182,16 @@
     <t xml:space="preserve">Oeridian (Oerid)</t>
   </si>
   <si>
-    <t xml:space="preserve">Monstrous</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Halfling</t>
+    <t xml:space="preserve">monstrious</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[generator:monstrous-origin-soullink|{}|origin]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">halfling</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[generator:halfling-origin-soullink|{}|origin]</t>
   </si>
   <si>
     <t xml:space="preserve">Fallen Aasimar</t>
@@ -170,7 +200,10 @@
     <t xml:space="preserve">Suloise (Suel)</t>
   </si>
   <si>
-    <t xml:space="preserve">Human</t>
+    <t xml:space="preserve">human</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[generator:human-origin-soullink|{}|origin]</t>
   </si>
   <si>
     <t xml:space="preserve">Baklunish (Bakluni)</t>
@@ -182,13 +215,13 @@
     <t xml:space="preserve">Down Shadow</t>
   </si>
   <si>
-    <t xml:space="preserve">DRAGONBORN SUBRACES</t>
+    <t xml:space="preserve">DRAGONBORN ORIGINS</t>
   </si>
   <si>
     <t xml:space="preserve">Olman</t>
   </si>
   <si>
-    <t xml:space="preserve">MINOR RACES</t>
+    <t xml:space="preserve">MINOR ORIGIN GENERATOR</t>
   </si>
   <si>
     <t xml:space="preserve">Dragonborn (Blended)</t>
@@ -206,7 +239,10 @@
     <t xml:space="preserve">Dragonborn (Blue)</t>
   </si>
   <si>
-    <t xml:space="preserve">Aasimar</t>
+    <t xml:space="preserve">assimar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[generator:aasimar-origin-soullink|{}|origin]</t>
   </si>
   <si>
     <t xml:space="preserve">Dragonborn (Green)</t>
@@ -215,82 +251,127 @@
     <t xml:space="preserve">Cover</t>
   </si>
   <si>
+    <t xml:space="preserve">centaur</t>
+  </si>
+  <si>
     <t xml:space="preserve">Centaur (Aram)</t>
   </si>
   <si>
     <t xml:space="preserve">Dragonborn (Red)</t>
   </si>
   <si>
+    <t xml:space="preserve">changeling</t>
+  </si>
+  <si>
     <t xml:space="preserve">Changeling</t>
   </si>
   <si>
     <t xml:space="preserve">Dragonborn (White)</t>
   </si>
   <si>
-    <t xml:space="preserve">Dragonborn</t>
+    <t xml:space="preserve">dragonborn</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[generator:dragonborn-origin-soullink|{}|origin]</t>
   </si>
   <si>
     <t xml:space="preserve">Dragonborn (Brass)</t>
   </si>
   <si>
+    <t xml:space="preserve">firbolg</t>
+  </si>
+  <si>
     <t xml:space="preserve">Firbolg</t>
   </si>
   <si>
     <t xml:space="preserve">Dragonborn (Bronze)</t>
   </si>
   <si>
-    <t xml:space="preserve">Genasi</t>
+    <t xml:space="preserve">genasi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[generator:genasi-origin-soullink|{}|origin]</t>
   </si>
   <si>
     <t xml:space="preserve">Dragonborn (Copper)</t>
   </si>
   <si>
-    <t xml:space="preserve">Gnome</t>
+    <t xml:space="preserve">gnome</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[generator:gnome-origin-soullink|{}|origin]</t>
   </si>
   <si>
     <t xml:space="preserve">Dragonborn (Gold)</t>
   </si>
   <si>
+    <t xml:space="preserve">goliath</t>
+  </si>
+  <si>
     <t xml:space="preserve">Goliath</t>
   </si>
   <si>
     <t xml:space="preserve">Dragonborn (Platinum)</t>
   </si>
   <si>
+    <t xml:space="preserve">Half-orc</t>
+  </si>
+  <si>
     <t xml:space="preserve">Half-Orc</t>
   </si>
   <si>
     <t xml:space="preserve">Dragonborn (Amethyst)</t>
   </si>
   <si>
+    <t xml:space="preserve">litorian</t>
+  </si>
+  <si>
     <t xml:space="preserve">Litorians</t>
   </si>
   <si>
     <t xml:space="preserve">Dragonborn (Crystal)</t>
   </si>
   <si>
+    <t xml:space="preserve">lizardfolk</t>
+  </si>
+  <si>
     <t xml:space="preserve">Lizardfolk (Assarai)</t>
   </si>
   <si>
     <t xml:space="preserve">Dragonborn (Emerald)</t>
   </si>
   <si>
+    <t xml:space="preserve">shifter</t>
+  </si>
+  <si>
     <t xml:space="preserve">Shifter</t>
   </si>
   <si>
     <t xml:space="preserve">Dragonborn (Sapphire)</t>
   </si>
   <si>
-    <t xml:space="preserve">Tiefling</t>
+    <t xml:space="preserve">tiefling</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[generator:tiefling-origin-soullink|{}|origin]</t>
   </si>
   <si>
     <t xml:space="preserve">Dragonborn (Topaz)</t>
   </si>
   <si>
+    <t xml:space="preserve">warforged</t>
+  </si>
+  <si>
     <t xml:space="preserve">Warforged</t>
   </si>
   <si>
-    <t xml:space="preserve">GENASI SUBRACE</t>
+    <t xml:space="preserve">Half-elf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[generator:half-elf-origin-soullink|{}|origin]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GENASI ORIGIN</t>
   </si>
   <si>
     <t xml:space="preserve">Air Genasi</t>
@@ -302,7 +383,7 @@
     <t xml:space="preserve">Fire Genasi</t>
   </si>
   <si>
-    <t xml:space="preserve">MONSTROUS RACES</t>
+    <t xml:space="preserve">MONSTROUS ORIGIN GENERATOR</t>
   </si>
   <si>
     <t xml:space="preserve">Water Genasi</t>
@@ -311,7 +392,7 @@
     <t xml:space="preserve">Aarakocra</t>
   </si>
   <si>
-    <t xml:space="preserve">DWARF SUBRACE</t>
+    <t xml:space="preserve">DWARF ORIGIN</t>
   </si>
   <si>
     <t xml:space="preserve">Bugbear</t>
@@ -377,7 +458,7 @@
     <t xml:space="preserve">Kuo-Toa</t>
   </si>
   <si>
-    <t xml:space="preserve">ELF SUBRACE</t>
+    <t xml:space="preserve">ELF ORIGIN</t>
   </si>
   <si>
     <t xml:space="preserve">Lycanthrope</t>
@@ -443,7 +524,7 @@
     <t xml:space="preserve">Dark Elf (Drow Elf)</t>
   </si>
   <si>
-    <t xml:space="preserve">GNOME SUBRACE</t>
+    <t xml:space="preserve">GNOME ORIGIN</t>
   </si>
   <si>
     <t xml:space="preserve">Forest Gnome</t>
@@ -455,7 +536,7 @@
     <t xml:space="preserve">Deep Gnome (Svirfneblin)</t>
   </si>
   <si>
-    <t xml:space="preserve">HALFLING SUBRACES</t>
+    <t xml:space="preserve">HALFLING ORIGINS</t>
   </si>
   <si>
     <t xml:space="preserve">Lightfoot Halflings</t>
@@ -470,7 +551,7 @@
     <t xml:space="preserve">Ghostwise Halfling</t>
   </si>
   <si>
-    <t xml:space="preserve">HALF-ELF</t>
+    <t xml:space="preserve">HALF-ELF ORIGIN</t>
   </si>
   <si>
     <t xml:space="preserve">Half-Elf Human</t>
@@ -491,7 +572,7 @@
     <t xml:space="preserve">Half-Elf Aquatic</t>
   </si>
   <si>
-    <t xml:space="preserve">TIEFLING</t>
+    <t xml:space="preserve">TIEFLING ORIGIN</t>
   </si>
   <si>
     <t xml:space="preserve">Blooded Tiefling</t>
@@ -521,9 +602,6 @@
     <t xml:space="preserve">half-orc</t>
   </si>
   <si>
-    <t xml:space="preserve">gnome</t>
-  </si>
-  <si>
     <t xml:space="preserve">Skin</t>
   </si>
   <si>
@@ -690,15 +768,6 @@
   </si>
   <si>
     <t xml:space="preserve">PROFESSION GENERATOR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">KEY</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VALUE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">WEIGHT</t>
   </si>
   <si>
     <t xml:space="preserve">Weight</t>
@@ -1434,7 +1503,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1467,11 +1536,11 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1485,6 +1554,10 @@
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
@@ -1571,7 +1644,7 @@
   <dimension ref="A2:K25"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D8" activeCellId="0" sqref="D8"/>
+      <selection pane="topLeft" activeCell="A6" activeCellId="0" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1835,43 +1908,47 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:N121"/>
+  <dimension ref="B1:Q121"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J43" activeCellId="0" sqref="J43"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F33" activeCellId="0" sqref="F33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.6875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="25.56"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="8.6"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="1.61"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="25.56"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="8.6"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="1.61"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="27.31"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="2.49"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="13.19"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="44.04"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="8.6"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="2.92"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="12.64"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="43.35"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="8.6"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="1.61"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="25.56"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="27.31"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="8.6"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="1.61"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="0" width="25.56"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="1" width="8.6"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="0" width="1.61"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="0" width="25.56"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="1" width="8.6"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G1" s="7"/>
-      <c r="H1" s="5"/>
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J1" s="7"/>
+      <c r="K1" s="5"/>
     </row>
     <row r="2" s="3" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="2" t="s">
+      <c r="B2" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="B2" s="2"/>
-      <c r="D2" s="2" t="s">
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="E2" s="2"/>
       <c r="G2" s="2" t="s">
         <v>31</v>
       </c>
@@ -1880,1196 +1957,1313 @@
         <v>32</v>
       </c>
       <c r="K2" s="2"/>
-      <c r="M2" s="0"/>
-      <c r="N2" s="0"/>
+      <c r="M2" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="N2" s="2"/>
+      <c r="P2" s="0"/>
+      <c r="Q2" s="0"/>
     </row>
     <row r="3" s="3" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D3" s="8"/>
-      <c r="E3" s="8"/>
-      <c r="M3" s="0"/>
-      <c r="N3" s="0"/>
+      <c r="B3" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="P3" s="0"/>
+      <c r="Q3" s="0"/>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="B4" s="5" t="n">
-        <f aca="false">SUM(B5:B7)</f>
-        <v>100</v>
-      </c>
-      <c r="D4" s="3"/>
-      <c r="E4" s="5" t="n">
-        <f aca="false">SUM(E5:E8)</f>
-        <v>100</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>34</v>
-      </c>
+      <c r="C4" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="D4" s="5" t="n">
+        <f aca="false">SUM(D5:D7)</f>
+        <v>100</v>
+      </c>
+      <c r="E4" s="5"/>
+      <c r="G4" s="3"/>
       <c r="H4" s="5" t="n">
-        <f aca="false">SUM(H5:H7)</f>
-        <v>100</v>
-      </c>
-      <c r="J4" s="7" t="s">
-        <v>35</v>
+        <f aca="false">SUM(H5:H8)</f>
+        <v>100</v>
+      </c>
+      <c r="J4" s="9" t="s">
+        <v>38</v>
       </c>
       <c r="K4" s="5" t="n">
-        <f aca="false">SUM(K5:K11)</f>
-        <v>100</v>
-      </c>
-      <c r="N4" s="0"/>
+        <f aca="false">SUM(K5:K7)</f>
+        <v>100</v>
+      </c>
+      <c r="M4" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="N4" s="5" t="n">
+        <f aca="false">SUM(N5:N11)</f>
+        <v>100</v>
+      </c>
+      <c r="Q4" s="0"/>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="s">
-        <v>36</v>
-      </c>
-      <c r="B5" s="1" t="n">
+      <c r="B5" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="C5" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="D5" s="1" t="n">
         <v>90</v>
       </c>
-      <c r="D5" s="0" t="s">
-        <v>37</v>
-      </c>
-      <c r="E5" s="10" t="n">
-        <v>10</v>
+      <c r="F5" s="0" t="s">
+        <v>42</v>
       </c>
       <c r="G5" s="0" t="s">
-        <v>38</v>
-      </c>
-      <c r="H5" s="1" t="n">
+        <v>43</v>
+      </c>
+      <c r="H5" s="10" t="n">
+        <v>10</v>
+      </c>
+      <c r="J5" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="K5" s="1" t="n">
         <v>40</v>
       </c>
-      <c r="J5" s="0" t="s">
-        <v>39</v>
-      </c>
-      <c r="K5" s="1" t="n">
+      <c r="M5" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="N5" s="1" t="n">
         <v>20</v>
       </c>
-      <c r="N5" s="0"/>
+      <c r="Q5" s="0"/>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="s">
+      <c r="B6" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="C6" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="D6" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="F6" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="G6" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="H6" s="10" t="n">
+        <v>10</v>
+      </c>
+      <c r="J6" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="K6" s="1" t="n">
         <v>40</v>
       </c>
-      <c r="B6" s="1" t="n">
+      <c r="M6" s="0" t="s">
+        <v>51</v>
+      </c>
+      <c r="N6" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="Q6" s="0"/>
+    </row>
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B7" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="C7" s="0" t="s">
+        <v>53</v>
+      </c>
+      <c r="D7" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="D6" s="0" t="s">
-        <v>41</v>
-      </c>
-      <c r="E6" s="10" t="n">
-        <v>10</v>
-      </c>
-      <c r="G6" s="0" t="s">
-        <v>42</v>
-      </c>
-      <c r="H6" s="1" t="n">
-        <v>40</v>
-      </c>
-      <c r="J6" s="0" t="s">
-        <v>43</v>
-      </c>
-      <c r="K6" s="1" t="n">
-        <v>20</v>
-      </c>
-      <c r="N6" s="0"/>
-    </row>
-    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="s">
-        <v>44</v>
-      </c>
-      <c r="B7" s="1" t="n">
+      <c r="F7" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="G7" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="H7" s="10" t="n">
         <v>5</v>
       </c>
-      <c r="D7" s="0" t="s">
-        <v>45</v>
-      </c>
-      <c r="E7" s="10" t="n">
-        <v>5</v>
-      </c>
-      <c r="G7" s="0" t="s">
-        <v>46</v>
-      </c>
-      <c r="H7" s="1" t="n">
-        <v>20</v>
-      </c>
       <c r="J7" s="0" t="s">
-        <v>47</v>
+        <v>56</v>
       </c>
       <c r="K7" s="1" t="n">
         <v>20</v>
       </c>
-      <c r="N7" s="0"/>
+      <c r="M7" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="N7" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="Q7" s="0"/>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D8" s="0" t="s">
-        <v>48</v>
-      </c>
-      <c r="E8" s="10" t="n">
+      <c r="F8" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="G8" s="0" t="s">
+        <v>59</v>
+      </c>
+      <c r="H8" s="10" t="n">
         <v>75</v>
       </c>
-      <c r="J8" s="0" t="s">
+      <c r="M8" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="N8" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="Q8" s="0"/>
+    </row>
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="M9" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="N9" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="Q9" s="0"/>
+    </row>
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C10" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="D10" s="5" t="n">
+        <f aca="false">SUM(D11:D13)</f>
+        <v>100</v>
+      </c>
+      <c r="E10" s="5"/>
+      <c r="J10" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="K10" s="5" t="n">
+        <f aca="false">SUM(K11:K26)</f>
+        <v>100</v>
+      </c>
+      <c r="M10" s="0" t="s">
+        <v>64</v>
+      </c>
+      <c r="N10" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="Q10" s="0"/>
+    </row>
+    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B11" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="C11" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="D11" s="1" t="n">
+        <v>40</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="G11" s="2"/>
+      <c r="H11" s="2"/>
+      <c r="J11" s="0" t="s">
+        <v>66</v>
+      </c>
+      <c r="K11" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="M11" s="0" t="s">
+        <v>67</v>
+      </c>
+      <c r="N11" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="Q11" s="0"/>
+    </row>
+    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B12" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="C12" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="D12" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="G12" s="3"/>
+      <c r="H12" s="3"/>
+      <c r="J12" s="0" t="s">
+        <v>68</v>
+      </c>
+      <c r="K12" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="Q12" s="0"/>
+    </row>
+    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B13" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="C13" s="0" t="s">
+        <v>53</v>
+      </c>
+      <c r="D13" s="1" t="n">
+        <v>40</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="H13" s="5" t="n">
+        <f aca="false">SUM(H14:H27)</f>
+        <v>105</v>
+      </c>
+      <c r="J13" s="0" t="s">
+        <v>70</v>
+      </c>
+      <c r="K13" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="Q13" s="0"/>
+    </row>
+    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F14" s="0" t="s">
+        <v>71</v>
+      </c>
+      <c r="G14" s="0" t="s">
+        <v>72</v>
+      </c>
+      <c r="H14" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="J14" s="0" t="s">
+        <v>73</v>
+      </c>
+      <c r="K14" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="Q14" s="0"/>
+    </row>
+    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C15" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="D15" s="5" t="n">
+        <f aca="false">SUM(D16:D18)</f>
+        <v>100</v>
+      </c>
+      <c r="E15" s="5"/>
+      <c r="F15" s="0" t="s">
+        <v>75</v>
+      </c>
+      <c r="G15" s="0" t="s">
+        <v>76</v>
+      </c>
+      <c r="H15" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="J15" s="0" t="s">
+        <v>77</v>
+      </c>
+      <c r="K15" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="Q15" s="0"/>
+    </row>
+    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B16" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="C16" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="D16" s="1" t="n">
+        <v>100</v>
+      </c>
+      <c r="F16" s="0" t="s">
+        <v>78</v>
+      </c>
+      <c r="G16" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="H16" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="J16" s="0" t="s">
+        <v>80</v>
+      </c>
+      <c r="K16" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="Q16" s="0"/>
+    </row>
+    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F17" s="0" t="s">
+        <v>81</v>
+      </c>
+      <c r="G17" s="0" t="s">
+        <v>82</v>
+      </c>
+      <c r="H17" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="J17" s="0" t="s">
+        <v>83</v>
+      </c>
+      <c r="K17" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="Q17" s="0"/>
+    </row>
+    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F18" s="0" t="s">
+        <v>84</v>
+      </c>
+      <c r="G18" s="0" t="s">
+        <v>85</v>
+      </c>
+      <c r="H18" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="J18" s="0" t="s">
+        <v>86</v>
+      </c>
+      <c r="K18" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="Q18" s="0"/>
+    </row>
+    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F19" s="0" t="s">
+        <v>87</v>
+      </c>
+      <c r="G19" s="11" t="s">
+        <v>88</v>
+      </c>
+      <c r="H19" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="J19" s="0" t="s">
+        <v>89</v>
+      </c>
+      <c r="K19" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="Q19" s="0"/>
+    </row>
+    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F20" s="0" t="s">
+        <v>90</v>
+      </c>
+      <c r="G20" s="0" t="s">
+        <v>91</v>
+      </c>
+      <c r="H20" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="J20" s="0" t="s">
+        <v>92</v>
+      </c>
+      <c r="K20" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="Q20" s="0"/>
+    </row>
+    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F21" s="0" t="s">
+        <v>93</v>
+      </c>
+      <c r="G21" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="H21" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="J21" s="0" t="s">
+        <v>95</v>
+      </c>
+      <c r="K21" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="Q21" s="0"/>
+    </row>
+    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F22" s="0" t="s">
+        <v>96</v>
+      </c>
+      <c r="G22" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="H22" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="J22" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="K22" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q22" s="0"/>
+    </row>
+    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F23" s="0" t="s">
+        <v>99</v>
+      </c>
+      <c r="G23" s="0" t="s">
+        <v>100</v>
+      </c>
+      <c r="H23" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="J23" s="0" t="s">
+        <v>101</v>
+      </c>
+      <c r="K23" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q23" s="0"/>
+    </row>
+    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F24" s="0" t="s">
+        <v>102</v>
+      </c>
+      <c r="G24" s="11" t="s">
+        <v>103</v>
+      </c>
+      <c r="H24" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="J24" s="0" t="s">
+        <v>104</v>
+      </c>
+      <c r="K24" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q24" s="0"/>
+    </row>
+    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F25" s="0" t="s">
+        <v>105</v>
+      </c>
+      <c r="G25" s="0" t="s">
+        <v>106</v>
+      </c>
+      <c r="H25" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="J25" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="K25" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q25" s="0"/>
+    </row>
+    <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F26" s="0" t="s">
+        <v>108</v>
+      </c>
+      <c r="G26" s="0" t="s">
+        <v>109</v>
+      </c>
+      <c r="H26" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="J26" s="0" t="s">
+        <v>110</v>
+      </c>
+      <c r="K26" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q26" s="0"/>
+    </row>
+    <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F27" s="0" t="s">
+        <v>111</v>
+      </c>
+      <c r="G27" s="11" t="s">
+        <v>112</v>
+      </c>
+      <c r="H27" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q27" s="0"/>
+    </row>
+    <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F28" s="0" t="s">
+        <v>113</v>
+      </c>
+      <c r="G28" s="11" t="s">
+        <v>114</v>
+      </c>
+      <c r="H28" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="Q28" s="0"/>
+    </row>
+    <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G29" s="11"/>
+      <c r="J29" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="K29" s="5" t="n">
+        <f aca="false">SUM(K30:K33)</f>
+        <v>100</v>
+      </c>
+      <c r="Q29" s="0"/>
+    </row>
+    <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D30" s="0"/>
+      <c r="E30" s="0"/>
+      <c r="J30" s="12" t="s">
+        <v>116</v>
+      </c>
+      <c r="K30" s="10" t="n">
+        <v>25</v>
+      </c>
+      <c r="Q30" s="0"/>
+    </row>
+    <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D31" s="0"/>
+      <c r="E31" s="0"/>
+      <c r="J31" s="12" t="s">
+        <v>117</v>
+      </c>
+      <c r="K31" s="10" t="n">
+        <v>25</v>
+      </c>
+      <c r="Q31" s="0"/>
+    </row>
+    <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J32" s="12" t="s">
+        <v>118</v>
+      </c>
+      <c r="K32" s="10" t="n">
+        <v>25</v>
+      </c>
+      <c r="Q32" s="0"/>
+    </row>
+    <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F33" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="G33" s="2"/>
+      <c r="H33" s="2"/>
+      <c r="J33" s="12" t="s">
+        <v>120</v>
+      </c>
+      <c r="K33" s="10" t="n">
+        <v>25</v>
+      </c>
+      <c r="Q33" s="0"/>
+    </row>
+    <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G34" s="3"/>
+      <c r="H34" s="3"/>
+      <c r="J34" s="12"/>
+      <c r="K34" s="10"/>
+      <c r="Q34" s="0"/>
+    </row>
+    <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G35" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="H35" s="5" t="n">
+        <f aca="false">SUM(H36:H58)</f>
+        <v>200</v>
+      </c>
+      <c r="Q35" s="0"/>
+    </row>
+    <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G36" s="11" t="s">
+        <v>121</v>
+      </c>
+      <c r="H36" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="J36" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="K36" s="5" t="n">
+        <f aca="false">SUM(K37:K42)</f>
+        <v>100</v>
+      </c>
+      <c r="Q36" s="0"/>
+    </row>
+    <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G37" s="11" t="s">
+        <v>123</v>
+      </c>
+      <c r="H37" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="J37" s="12" t="s">
+        <v>124</v>
+      </c>
+      <c r="K37" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q37" s="0"/>
+    </row>
+    <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G38" s="11" t="s">
+        <v>125</v>
+      </c>
+      <c r="H38" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="J38" s="12" t="s">
+        <v>126</v>
+      </c>
+      <c r="K38" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q38" s="0"/>
+    </row>
+    <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G39" s="11" t="s">
+        <v>127</v>
+      </c>
+      <c r="H39" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="J39" s="12" t="s">
+        <v>128</v>
+      </c>
+      <c r="K39" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q39" s="0"/>
+    </row>
+    <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G40" s="11" t="s">
+        <v>129</v>
+      </c>
+      <c r="H40" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="J40" s="12" t="s">
+        <v>130</v>
+      </c>
+      <c r="K40" s="10" t="n">
+        <v>79</v>
+      </c>
+      <c r="Q40" s="0"/>
+    </row>
+    <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G41" s="0" t="s">
+        <v>131</v>
+      </c>
+      <c r="H41" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="J41" s="12" t="s">
+        <v>132</v>
+      </c>
+      <c r="K41" s="10" t="n">
+        <v>20</v>
+      </c>
+      <c r="Q41" s="0"/>
+    </row>
+    <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G42" s="11" t="s">
+        <v>133</v>
+      </c>
+      <c r="H42" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="J42" s="12" t="s">
+        <v>134</v>
+      </c>
+      <c r="K42" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q42" s="0"/>
+    </row>
+    <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G43" s="11" t="s">
+        <v>135</v>
+      </c>
+      <c r="H43" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="J43" s="12" t="s">
+        <v>136</v>
+      </c>
+      <c r="K43" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q43" s="0"/>
+    </row>
+    <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G44" s="11" t="s">
+        <v>137</v>
+      </c>
+      <c r="H44" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="J44" s="12" t="s">
+        <v>138</v>
+      </c>
+      <c r="K44" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q44" s="0"/>
+    </row>
+    <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G45" s="6" t="s">
+        <v>139</v>
+      </c>
+      <c r="H45" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="J45" s="12" t="s">
+        <v>140</v>
+      </c>
+      <c r="K45" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q45" s="0"/>
+    </row>
+    <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G46" s="11" t="s">
+        <v>141</v>
+      </c>
+      <c r="H46" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="J46" s="12"/>
+      <c r="Q46" s="0"/>
+    </row>
+    <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G47" s="11" t="s">
+        <v>142</v>
+      </c>
+      <c r="H47" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="Q47" s="0"/>
+    </row>
+    <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G48" s="11" t="s">
+        <v>143</v>
+      </c>
+      <c r="H48" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="J48" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="K48" s="5" t="n">
+        <f aca="false">SUM(K49:K56)</f>
+        <v>100</v>
+      </c>
+      <c r="Q48" s="0"/>
+    </row>
+    <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G49" s="6" t="s">
+        <v>145</v>
+      </c>
+      <c r="H49" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="J49" s="12" t="s">
+        <v>146</v>
+      </c>
+      <c r="K49" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q49" s="0"/>
+    </row>
+    <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G50" s="11" t="s">
+        <v>147</v>
+      </c>
+      <c r="H50" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="J50" s="12" t="s">
+        <v>148</v>
+      </c>
+      <c r="K50" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q50" s="0"/>
+    </row>
+    <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G51" s="0" t="s">
+        <v>149</v>
+      </c>
+      <c r="H51" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="J51" s="12" t="s">
+        <v>150</v>
+      </c>
+      <c r="K51" s="10" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q51" s="0"/>
+    </row>
+    <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G52" s="0" t="s">
+        <v>151</v>
+      </c>
+      <c r="H52" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="J52" s="12" t="s">
+        <v>152</v>
+      </c>
+      <c r="K52" s="10" t="n">
+        <v>45</v>
+      </c>
+      <c r="Q52" s="0"/>
+    </row>
+    <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G53" s="0" t="s">
+        <v>153</v>
+      </c>
+      <c r="H53" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="J53" s="12" t="s">
+        <v>154</v>
+      </c>
+      <c r="K53" s="10" t="n">
+        <v>45</v>
+      </c>
+      <c r="Q53" s="0"/>
+    </row>
+    <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G54" s="11" t="s">
+        <v>155</v>
+      </c>
+      <c r="H54" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="J54" s="12" t="s">
+        <v>156</v>
+      </c>
+      <c r="K54" s="10" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q54" s="0"/>
+    </row>
+    <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G55" s="11" t="s">
+        <v>157</v>
+      </c>
+      <c r="H55" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="J55" s="12" t="s">
+        <v>158</v>
+      </c>
+      <c r="K55" s="10" t="n">
+        <v>6</v>
+      </c>
+      <c r="Q55" s="0"/>
+    </row>
+    <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G56" s="11" t="s">
+        <v>159</v>
+      </c>
+      <c r="H56" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="J56" s="12" t="s">
+        <v>160</v>
+      </c>
+      <c r="K56" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q56" s="0"/>
+    </row>
+    <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G57" s="11" t="s">
+        <v>161</v>
+      </c>
+      <c r="H57" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="J57" s="12" t="s">
+        <v>162</v>
+      </c>
+      <c r="K57" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q57" s="0"/>
+    </row>
+    <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G58" s="6" t="s">
+        <v>163</v>
+      </c>
+      <c r="H58" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="J58" s="12" t="s">
+        <v>164</v>
+      </c>
+      <c r="K58" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q58" s="0"/>
+    </row>
+    <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J59" s="12" t="s">
+        <v>165</v>
+      </c>
+      <c r="K59" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q59" s="0"/>
+    </row>
+    <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="Q60" s="0"/>
+    </row>
+    <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="Q61" s="0"/>
+    </row>
+    <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J62" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="K62" s="5" t="n">
+        <f aca="false">SUM(K63:K65)</f>
+        <v>100</v>
+      </c>
+      <c r="Q62" s="0"/>
+    </row>
+    <row r="63" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J63" s="0" t="s">
+        <v>167</v>
+      </c>
+      <c r="K63" s="1" t="n">
         <v>49</v>
       </c>
-      <c r="K8" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="N8" s="0"/>
-    </row>
-    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J9" s="0" t="s">
+      <c r="Q63" s="0"/>
+    </row>
+    <row r="64" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J64" s="0" t="s">
+        <v>168</v>
+      </c>
+      <c r="K64" s="1" t="n">
+        <v>49</v>
+      </c>
+      <c r="Q64" s="0"/>
+    </row>
+    <row r="65" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J65" s="0" t="s">
+        <v>169</v>
+      </c>
+      <c r="K65" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q65" s="0"/>
+    </row>
+    <row r="66" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="Q66" s="0"/>
+    </row>
+    <row r="67" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="Q67" s="0"/>
+    </row>
+    <row r="68" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J68" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="K68" s="5" t="n">
+        <f aca="false">SUM(K69:K70)</f>
+        <v>100</v>
+      </c>
+      <c r="Q68" s="0"/>
+    </row>
+    <row r="69" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J69" s="0" t="s">
+        <v>171</v>
+      </c>
+      <c r="K69" s="1" t="n">
         <v>50</v>
       </c>
-      <c r="K9" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="N9" s="0"/>
-    </row>
-    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="9" t="s">
-        <v>51</v>
-      </c>
-      <c r="B10" s="5" t="n">
-        <f aca="false">SUM(B11:B13)</f>
-        <v>100</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="H10" s="5" t="n">
-        <f aca="false">SUM(H11:H26)</f>
-        <v>100</v>
-      </c>
-      <c r="J10" s="0" t="s">
-        <v>53</v>
-      </c>
-      <c r="K10" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="N10" s="0"/>
-    </row>
-    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="0" t="s">
-        <v>36</v>
-      </c>
-      <c r="B11" s="1" t="n">
-        <v>40</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="E11" s="2"/>
-      <c r="G11" s="0" t="s">
-        <v>55</v>
-      </c>
-      <c r="H11" s="1" t="n">
+      <c r="Q69" s="0"/>
+    </row>
+    <row r="70" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J70" s="0" t="s">
+        <v>172</v>
+      </c>
+      <c r="K70" s="1" t="n">
+        <v>50</v>
+      </c>
+      <c r="Q70" s="0"/>
+    </row>
+    <row r="71" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J71" s="0" t="s">
+        <v>173</v>
+      </c>
+      <c r="K71" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q71" s="0"/>
+    </row>
+    <row r="72" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J72" s="0" t="s">
+        <v>174</v>
+      </c>
+      <c r="K72" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q72" s="0"/>
+    </row>
+    <row r="73" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="Q73" s="0"/>
+    </row>
+    <row r="74" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="Q74" s="0"/>
+    </row>
+    <row r="75" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J75" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="K75" s="5" t="n">
+        <f aca="false">SUM(K76:K81)</f>
+        <v>100</v>
+      </c>
+      <c r="Q75" s="0"/>
+    </row>
+    <row r="76" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J76" s="0" t="s">
+        <v>176</v>
+      </c>
+      <c r="K76" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="Q76" s="0"/>
+    </row>
+    <row r="77" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J77" s="0" t="s">
+        <v>177</v>
+      </c>
+      <c r="K77" s="1" t="n">
         <v>20</v>
       </c>
-      <c r="J11" s="0" t="s">
-        <v>56</v>
-      </c>
-      <c r="K11" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="N11" s="0"/>
-    </row>
-    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="B12" s="1" t="n">
+      <c r="Q77" s="0"/>
+    </row>
+    <row r="78" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J78" s="0" t="s">
+        <v>178</v>
+      </c>
+      <c r="K78" s="1" t="n">
         <v>20</v>
       </c>
-      <c r="D12" s="3"/>
-      <c r="E12" s="3"/>
-      <c r="G12" s="0" t="s">
-        <v>57</v>
-      </c>
-      <c r="H12" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="N12" s="0"/>
-    </row>
-    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="0" t="s">
-        <v>44</v>
-      </c>
-      <c r="B13" s="1" t="n">
-        <v>40</v>
-      </c>
-      <c r="D13" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="E13" s="5" t="n">
-        <f aca="false">SUM(E14:E27)</f>
-        <v>105</v>
-      </c>
-      <c r="G13" s="0" t="s">
-        <v>59</v>
-      </c>
-      <c r="H13" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="N13" s="0"/>
-    </row>
-    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D14" s="0" t="s">
+      <c r="Q78" s="0"/>
+    </row>
+    <row r="79" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J79" s="0" t="s">
+        <v>179</v>
+      </c>
+      <c r="K79" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="Q79" s="0"/>
+    </row>
+    <row r="80" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J80" s="0" t="s">
+        <v>180</v>
+      </c>
+      <c r="K80" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q80" s="0"/>
+    </row>
+    <row r="81" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J81" s="0" t="s">
+        <v>181</v>
+      </c>
+      <c r="K81" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q81" s="0"/>
+    </row>
+    <row r="82" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="Q82" s="0"/>
+    </row>
+    <row r="83" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="Q83" s="0"/>
+    </row>
+    <row r="84" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J84" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="K84" s="5" t="n">
+        <f aca="false">SUM(K85:K89)</f>
+        <v>100</v>
+      </c>
+      <c r="Q84" s="0"/>
+    </row>
+    <row r="85" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J85" s="0" t="s">
+        <v>183</v>
+      </c>
+      <c r="K85" s="1" t="n">
         <v>60</v>
       </c>
-      <c r="E14" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="G14" s="0" t="s">
-        <v>61</v>
-      </c>
-      <c r="H14" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="N14" s="0"/>
-    </row>
-    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="9" t="s">
-        <v>62</v>
-      </c>
-      <c r="B15" s="5" t="n">
-        <f aca="false">SUM(B16:B18)</f>
-        <v>100</v>
-      </c>
-      <c r="D15" s="0" t="s">
-        <v>63</v>
-      </c>
-      <c r="E15" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="G15" s="0" t="s">
-        <v>64</v>
-      </c>
-      <c r="H15" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="N15" s="0"/>
-    </row>
-    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="0" t="s">
-        <v>36</v>
-      </c>
-      <c r="B16" s="1" t="n">
-        <v>100</v>
-      </c>
-      <c r="D16" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="E16" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="G16" s="0" t="s">
-        <v>66</v>
-      </c>
-      <c r="H16" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="N16" s="0"/>
-    </row>
-    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D17" s="0" t="s">
-        <v>67</v>
-      </c>
-      <c r="E17" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="G17" s="0" t="s">
-        <v>68</v>
-      </c>
-      <c r="H17" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="N17" s="0"/>
-    </row>
-    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D18" s="0" t="s">
-        <v>69</v>
-      </c>
-      <c r="E18" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="G18" s="0" t="s">
-        <v>70</v>
-      </c>
-      <c r="H18" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="N18" s="0"/>
-    </row>
-    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D19" s="11" t="s">
-        <v>71</v>
-      </c>
-      <c r="E19" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="G19" s="0" t="s">
-        <v>72</v>
-      </c>
-      <c r="H19" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="N19" s="0"/>
-    </row>
-    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D20" s="0" t="s">
-        <v>73</v>
-      </c>
-      <c r="E20" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="G20" s="0" t="s">
-        <v>74</v>
-      </c>
-      <c r="H20" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="N20" s="0"/>
-    </row>
-    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D21" s="11" t="s">
-        <v>75</v>
-      </c>
-      <c r="E21" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="G21" s="0" t="s">
-        <v>76</v>
-      </c>
-      <c r="H21" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="N21" s="0"/>
-    </row>
-    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D22" s="0" t="s">
-        <v>77</v>
-      </c>
-      <c r="E22" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="G22" s="0" t="s">
-        <v>78</v>
-      </c>
-      <c r="H22" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="N22" s="0"/>
-    </row>
-    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D23" s="0" t="s">
-        <v>79</v>
-      </c>
-      <c r="E23" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="G23" s="0" t="s">
-        <v>80</v>
-      </c>
-      <c r="H23" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="N23" s="0"/>
-    </row>
-    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D24" s="11" t="s">
-        <v>81</v>
-      </c>
-      <c r="E24" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="G24" s="0" t="s">
-        <v>82</v>
-      </c>
-      <c r="H24" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="N24" s="0"/>
-    </row>
-    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D25" s="0" t="s">
-        <v>83</v>
-      </c>
-      <c r="E25" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="G25" s="0" t="s">
-        <v>84</v>
-      </c>
-      <c r="H25" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="N25" s="0"/>
-    </row>
-    <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D26" s="0" t="s">
-        <v>85</v>
-      </c>
-      <c r="E26" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="G26" s="0" t="s">
-        <v>86</v>
-      </c>
-      <c r="H26" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="N26" s="0"/>
-    </row>
-    <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D27" s="11" t="s">
-        <v>87</v>
-      </c>
-      <c r="E27" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="N27" s="0"/>
-    </row>
-    <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D28" s="11"/>
-      <c r="N28" s="0"/>
-    </row>
-    <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D29" s="11"/>
-      <c r="G29" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="H29" s="5" t="n">
-        <f aca="false">SUM(H30:H33)</f>
-        <v>100</v>
-      </c>
-      <c r="N29" s="0"/>
-    </row>
-    <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B30" s="0"/>
-      <c r="G30" s="12" t="s">
-        <v>89</v>
-      </c>
-      <c r="H30" s="10" t="n">
-        <v>25</v>
-      </c>
-      <c r="N30" s="0"/>
-    </row>
-    <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B31" s="0"/>
-      <c r="G31" s="12" t="s">
-        <v>90</v>
-      </c>
-      <c r="H31" s="10" t="n">
-        <v>25</v>
-      </c>
-      <c r="N31" s="0"/>
-    </row>
-    <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G32" s="12" t="s">
-        <v>91</v>
-      </c>
-      <c r="H32" s="10" t="n">
-        <v>25</v>
-      </c>
-      <c r="N32" s="0"/>
-    </row>
-    <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D33" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="E33" s="2"/>
-      <c r="G33" s="12" t="s">
-        <v>93</v>
-      </c>
-      <c r="H33" s="10" t="n">
-        <v>25</v>
-      </c>
-      <c r="N33" s="0"/>
-    </row>
-    <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D34" s="3"/>
-      <c r="E34" s="3"/>
-      <c r="G34" s="12"/>
-      <c r="H34" s="10"/>
-      <c r="N34" s="0"/>
-    </row>
-    <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D35" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="E35" s="5" t="n">
-        <f aca="false">SUM(E36:E58)</f>
-        <v>200</v>
-      </c>
-      <c r="N35" s="0"/>
-    </row>
-    <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D36" s="11" t="s">
-        <v>94</v>
-      </c>
-      <c r="E36" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="G36" s="7" t="s">
-        <v>95</v>
-      </c>
-      <c r="H36" s="5" t="n">
-        <f aca="false">SUM(H37:H42)</f>
-        <v>100</v>
-      </c>
-      <c r="N36" s="0"/>
-    </row>
-    <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D37" s="11" t="s">
-        <v>96</v>
-      </c>
-      <c r="E37" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="G37" s="12" t="s">
-        <v>97</v>
-      </c>
-      <c r="H37" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="N37" s="0"/>
-    </row>
-    <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D38" s="11" t="s">
-        <v>98</v>
-      </c>
-      <c r="E38" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="G38" s="12" t="s">
-        <v>99</v>
-      </c>
-      <c r="H38" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="N38" s="0"/>
-    </row>
-    <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D39" s="11" t="s">
-        <v>100</v>
-      </c>
-      <c r="E39" s="1" t="n">
-        <v>20</v>
-      </c>
-      <c r="G39" s="12" t="s">
-        <v>101</v>
-      </c>
-      <c r="H39" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="N39" s="0"/>
-    </row>
-    <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D40" s="11" t="s">
-        <v>102</v>
-      </c>
-      <c r="E40" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="G40" s="12" t="s">
-        <v>103</v>
-      </c>
-      <c r="H40" s="10" t="n">
-        <v>79</v>
-      </c>
-      <c r="N40" s="0"/>
-    </row>
-    <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D41" s="0" t="s">
-        <v>104</v>
-      </c>
-      <c r="E41" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="G41" s="12" t="s">
-        <v>105</v>
-      </c>
-      <c r="H41" s="10" t="n">
-        <v>20</v>
-      </c>
-      <c r="N41" s="0"/>
-    </row>
-    <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D42" s="11" t="s">
-        <v>106</v>
-      </c>
-      <c r="E42" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="G42" s="12" t="s">
-        <v>107</v>
-      </c>
-      <c r="H42" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="N42" s="0"/>
-    </row>
-    <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D43" s="11" t="s">
-        <v>108</v>
-      </c>
-      <c r="E43" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="G43" s="12" t="s">
-        <v>109</v>
-      </c>
-      <c r="H43" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="N43" s="0"/>
-    </row>
-    <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D44" s="11" t="s">
-        <v>110</v>
-      </c>
-      <c r="E44" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="G44" s="12" t="s">
-        <v>111</v>
-      </c>
-      <c r="H44" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="N44" s="0"/>
-    </row>
-    <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D45" s="6" t="s">
-        <v>112</v>
-      </c>
-      <c r="E45" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="G45" s="12" t="s">
-        <v>113</v>
-      </c>
-      <c r="H45" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="N45" s="0"/>
-    </row>
-    <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D46" s="11" t="s">
-        <v>114</v>
-      </c>
-      <c r="E46" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="G46" s="12"/>
-      <c r="N46" s="0"/>
-    </row>
-    <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D47" s="11" t="s">
-        <v>115</v>
-      </c>
-      <c r="E47" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="N47" s="0"/>
-    </row>
-    <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D48" s="11" t="s">
-        <v>116</v>
-      </c>
-      <c r="E48" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="G48" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="H48" s="5" t="n">
-        <f aca="false">SUM(H49:H56)</f>
-        <v>100</v>
-      </c>
-      <c r="N48" s="0"/>
-    </row>
-    <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D49" s="6" t="s">
-        <v>118</v>
-      </c>
-      <c r="E49" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="G49" s="12" t="s">
-        <v>119</v>
-      </c>
-      <c r="H49" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="N49" s="0"/>
-    </row>
-    <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D50" s="11" t="s">
-        <v>120</v>
-      </c>
-      <c r="E50" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="G50" s="12" t="s">
-        <v>121</v>
-      </c>
-      <c r="H50" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="N50" s="0"/>
-    </row>
-    <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D51" s="0" t="s">
-        <v>122</v>
-      </c>
-      <c r="E51" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="G51" s="12" t="s">
-        <v>123</v>
-      </c>
-      <c r="H51" s="10" t="n">
-        <v>2</v>
-      </c>
-      <c r="N51" s="0"/>
-    </row>
-    <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D52" s="0" t="s">
-        <v>124</v>
-      </c>
-      <c r="E52" s="1" t="n">
-        <v>20</v>
-      </c>
-      <c r="G52" s="12" t="s">
-        <v>125</v>
-      </c>
-      <c r="H52" s="10" t="n">
-        <v>45</v>
-      </c>
-      <c r="N52" s="0"/>
-    </row>
-    <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D53" s="0" t="s">
-        <v>126</v>
-      </c>
-      <c r="E53" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="G53" s="12" t="s">
-        <v>127</v>
-      </c>
-      <c r="H53" s="10" t="n">
-        <v>45</v>
-      </c>
-      <c r="N53" s="0"/>
-    </row>
-    <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D54" s="11" t="s">
-        <v>128</v>
-      </c>
-      <c r="E54" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="G54" s="12" t="s">
-        <v>129</v>
-      </c>
-      <c r="H54" s="10" t="n">
-        <v>2</v>
-      </c>
-      <c r="N54" s="0"/>
-    </row>
-    <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D55" s="11" t="s">
-        <v>130</v>
-      </c>
-      <c r="E55" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="G55" s="12" t="s">
-        <v>131</v>
-      </c>
-      <c r="H55" s="10" t="n">
-        <v>6</v>
-      </c>
-      <c r="N55" s="0"/>
-    </row>
-    <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D56" s="11" t="s">
-        <v>132</v>
-      </c>
-      <c r="E56" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="G56" s="12" t="s">
-        <v>133</v>
-      </c>
-      <c r="H56" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="N56" s="0"/>
-    </row>
-    <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D57" s="11" t="s">
-        <v>134</v>
-      </c>
-      <c r="E57" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="G57" s="12" t="s">
-        <v>135</v>
-      </c>
-      <c r="H57" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="N57" s="0"/>
-    </row>
-    <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D58" s="6" t="s">
-        <v>136</v>
-      </c>
-      <c r="E58" s="1" t="n">
-        <v>20</v>
-      </c>
-      <c r="G58" s="12" t="s">
-        <v>137</v>
-      </c>
-      <c r="H58" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="N58" s="0"/>
-    </row>
-    <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G59" s="12" t="s">
-        <v>138</v>
-      </c>
-      <c r="H59" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="N59" s="0"/>
-    </row>
-    <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="N60" s="0"/>
-    </row>
-    <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="N61" s="0"/>
-    </row>
-    <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G62" s="7" t="s">
-        <v>139</v>
-      </c>
-      <c r="H62" s="5" t="n">
-        <f aca="false">SUM(H63:H65)</f>
-        <v>100</v>
-      </c>
-      <c r="N62" s="0"/>
-    </row>
-    <row r="63" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G63" s="0" t="s">
-        <v>140</v>
-      </c>
-      <c r="H63" s="1" t="n">
-        <v>49</v>
-      </c>
-      <c r="N63" s="0"/>
-    </row>
-    <row r="64" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G64" s="0" t="s">
-        <v>141</v>
-      </c>
-      <c r="H64" s="1" t="n">
-        <v>49</v>
-      </c>
-      <c r="N64" s="0"/>
-    </row>
-    <row r="65" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G65" s="0" t="s">
-        <v>142</v>
-      </c>
-      <c r="H65" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="N65" s="0"/>
-    </row>
-    <row r="66" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="N66" s="0"/>
-    </row>
-    <row r="67" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="N67" s="0"/>
-    </row>
-    <row r="68" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G68" s="7" t="s">
-        <v>143</v>
-      </c>
-      <c r="H68" s="5" t="n">
-        <f aca="false">SUM(H69:H70)</f>
-        <v>100</v>
-      </c>
-      <c r="N68" s="0"/>
-    </row>
-    <row r="69" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G69" s="0" t="s">
-        <v>144</v>
-      </c>
-      <c r="H69" s="1" t="n">
-        <v>50</v>
-      </c>
-      <c r="N69" s="0"/>
-    </row>
-    <row r="70" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G70" s="0" t="s">
-        <v>145</v>
-      </c>
-      <c r="H70" s="1" t="n">
-        <v>50</v>
-      </c>
-      <c r="N70" s="0"/>
-    </row>
-    <row r="71" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G71" s="0" t="s">
-        <v>146</v>
-      </c>
-      <c r="H71" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="N71" s="0"/>
-    </row>
-    <row r="72" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G72" s="0" t="s">
-        <v>147</v>
-      </c>
-      <c r="H72" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="N72" s="0"/>
-    </row>
-    <row r="73" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="N73" s="0"/>
-    </row>
-    <row r="74" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="N74" s="0"/>
-    </row>
-    <row r="75" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G75" s="7" t="s">
-        <v>148</v>
-      </c>
-      <c r="H75" s="5" t="n">
-        <f aca="false">SUM(H76:H81)</f>
-        <v>100</v>
-      </c>
-      <c r="N75" s="0"/>
-    </row>
-    <row r="76" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G76" s="0" t="s">
-        <v>149</v>
-      </c>
-      <c r="H76" s="1" t="n">
-        <v>30</v>
-      </c>
-      <c r="N76" s="0"/>
-    </row>
-    <row r="77" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G77" s="0" t="s">
-        <v>150</v>
-      </c>
-      <c r="H77" s="1" t="n">
-        <v>20</v>
-      </c>
-      <c r="N77" s="0"/>
-    </row>
-    <row r="78" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G78" s="0" t="s">
-        <v>151</v>
-      </c>
-      <c r="H78" s="1" t="n">
-        <v>20</v>
-      </c>
-      <c r="N78" s="0"/>
-    </row>
-    <row r="79" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G79" s="0" t="s">
-        <v>152</v>
-      </c>
-      <c r="H79" s="1" t="n">
-        <v>20</v>
-      </c>
-      <c r="N79" s="0"/>
-    </row>
-    <row r="80" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G80" s="0" t="s">
-        <v>153</v>
-      </c>
-      <c r="H80" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="N80" s="0"/>
-    </row>
-    <row r="81" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G81" s="0" t="s">
-        <v>154</v>
-      </c>
-      <c r="H81" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="N81" s="0"/>
-    </row>
-    <row r="82" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="N82" s="0"/>
-    </row>
-    <row r="83" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="N83" s="0"/>
-    </row>
-    <row r="84" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G84" s="7" t="s">
-        <v>155</v>
-      </c>
-      <c r="H84" s="5" t="n">
-        <f aca="false">SUM(H85:H89)</f>
-        <v>100</v>
-      </c>
-      <c r="N84" s="0"/>
-    </row>
-    <row r="85" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G85" s="0" t="s">
-        <v>156</v>
-      </c>
-      <c r="H85" s="1" t="n">
-        <v>60</v>
-      </c>
-      <c r="N85" s="0"/>
+      <c r="Q85" s="0"/>
     </row>
     <row r="86" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G86" s="0" t="s">
-        <v>157</v>
-      </c>
-      <c r="H86" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="N86" s="0"/>
+      <c r="J86" s="0" t="s">
+        <v>184</v>
+      </c>
+      <c r="K86" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="Q86" s="0"/>
     </row>
     <row r="87" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G87" s="0" t="s">
-        <v>158</v>
-      </c>
-      <c r="H87" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="N87" s="0"/>
+      <c r="J87" s="0" t="s">
+        <v>185</v>
+      </c>
+      <c r="K87" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="Q87" s="0"/>
     </row>
     <row r="88" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G88" s="0" t="s">
-        <v>159</v>
-      </c>
-      <c r="H88" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="N88" s="0"/>
+      <c r="J88" s="0" t="s">
+        <v>186</v>
+      </c>
+      <c r="K88" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="Q88" s="0"/>
     </row>
     <row r="89" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G89" s="0" t="s">
-        <v>160</v>
-      </c>
-      <c r="H89" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="N89" s="0"/>
+      <c r="J89" s="0" t="s">
+        <v>187</v>
+      </c>
+      <c r="K89" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="Q89" s="0"/>
     </row>
     <row r="90" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H90" s="0"/>
-      <c r="N90" s="0"/>
+      <c r="K90" s="0"/>
+      <c r="Q90" s="0"/>
     </row>
     <row r="91" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="N91" s="0"/>
+      <c r="Q91" s="0"/>
     </row>
     <row r="92" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="N92" s="0"/>
+      <c r="Q92" s="0"/>
     </row>
     <row r="93" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="N93" s="0"/>
+      <c r="Q93" s="0"/>
     </row>
     <row r="94" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="N94" s="0"/>
+      <c r="Q94" s="0"/>
     </row>
     <row r="95" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="N95" s="0"/>
+      <c r="Q95" s="0"/>
     </row>
     <row r="96" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="N96" s="0"/>
+      <c r="Q96" s="0"/>
     </row>
     <row r="97" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="N97" s="0"/>
+      <c r="Q97" s="0"/>
     </row>
     <row r="98" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="N98" s="0"/>
+      <c r="Q98" s="0"/>
     </row>
     <row r="99" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="N99" s="0"/>
+      <c r="Q99" s="0"/>
     </row>
     <row r="100" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="N100" s="0"/>
+      <c r="Q100" s="0"/>
     </row>
     <row r="101" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="N101" s="0"/>
+      <c r="Q101" s="0"/>
     </row>
     <row r="102" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="N102" s="0"/>
+      <c r="Q102" s="0"/>
     </row>
     <row r="103" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="N103" s="0"/>
+      <c r="Q103" s="0"/>
     </row>
     <row r="104" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="N104" s="0"/>
+      <c r="Q104" s="0"/>
     </row>
     <row r="105" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="N105" s="0"/>
+      <c r="Q105" s="0"/>
     </row>
     <row r="106" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="N106" s="0"/>
+      <c r="Q106" s="0"/>
     </row>
     <row r="107" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="N107" s="0"/>
+      <c r="Q107" s="0"/>
     </row>
     <row r="108" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="N108" s="0"/>
+      <c r="Q108" s="0"/>
     </row>
     <row r="109" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="N109" s="0"/>
+      <c r="Q109" s="0"/>
     </row>
     <row r="110" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="N110" s="0"/>
+      <c r="Q110" s="0"/>
     </row>
     <row r="111" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="N111" s="0"/>
+      <c r="Q111" s="0"/>
     </row>
     <row r="112" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="N112" s="0"/>
+      <c r="Q112" s="0"/>
     </row>
     <row r="113" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="N113" s="0"/>
+      <c r="Q113" s="0"/>
     </row>
     <row r="114" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="N114" s="0"/>
+      <c r="Q114" s="0"/>
     </row>
     <row r="115" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="N115" s="0"/>
+      <c r="Q115" s="0"/>
     </row>
     <row r="116" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="N116" s="0"/>
+      <c r="Q116" s="0"/>
     </row>
     <row r="117" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="N117" s="0"/>
+      <c r="Q117" s="0"/>
     </row>
     <row r="118" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="N118" s="0"/>
+      <c r="Q118" s="0"/>
     </row>
     <row r="119" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="N119" s="0"/>
+      <c r="Q119" s="0"/>
     </row>
     <row r="120" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="N120" s="0"/>
+      <c r="Q120" s="0"/>
     </row>
     <row r="121" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="N121" s="0"/>
+      <c r="Q121" s="0"/>
     </row>
   </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="B2:D2"/>
+    <mergeCell ref="F2:H2"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="F11:H11"/>
+    <mergeCell ref="F33:H33"/>
+  </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
   <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
@@ -3088,33 +3282,33 @@
   <dimension ref="A1:W125"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H2" activeCellId="0" sqref="H2"/>
+      <selection pane="topLeft" activeCell="I23" activeCellId="0" sqref="I23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1" s="0" t="s">
-        <v>161</v>
+        <v>188</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2" s="0" t="s">
-        <v>162</v>
+        <v>189</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>163</v>
+        <v>190</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>164</v>
+        <v>191</v>
       </c>
       <c r="H2" s="0" t="s">
-        <v>165</v>
+        <v>90</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B4" s="2" t="s">
-        <v>166</v>
+        <v>192</v>
       </c>
       <c r="C4" s="0" t="n">
         <f aca="false">SUM(C5:C13)</f>
@@ -3136,25 +3330,25 @@
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="3"/>
       <c r="B5" s="0" t="s">
-        <v>167</v>
+        <v>193</v>
       </c>
       <c r="C5" s="1" t="n">
         <v>50</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>168</v>
+        <v>194</v>
       </c>
       <c r="E5" s="1" t="n">
         <v>50</v>
       </c>
       <c r="F5" s="0" t="s">
-        <v>169</v>
+        <v>195</v>
       </c>
       <c r="G5" s="1" t="n">
         <v>60</v>
       </c>
       <c r="H5" s="0" t="s">
-        <v>168</v>
+        <v>194</v>
       </c>
       <c r="I5" s="1" t="n">
         <v>50</v>
@@ -3163,25 +3357,25 @@
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="3"/>
       <c r="B6" s="0" t="s">
-        <v>170</v>
+        <v>196</v>
       </c>
       <c r="C6" s="1" t="n">
         <v>50</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>171</v>
+        <v>197</v>
       </c>
       <c r="E6" s="1" t="n">
         <v>50</v>
       </c>
       <c r="F6" s="0" t="s">
-        <v>172</v>
+        <v>198</v>
       </c>
       <c r="G6" s="1" t="n">
         <v>10</v>
       </c>
       <c r="H6" s="0" t="s">
-        <v>173</v>
+        <v>199</v>
       </c>
       <c r="I6" s="1" t="n">
         <v>50</v>
@@ -3191,7 +3385,7 @@
       <c r="A7" s="7"/>
       <c r="B7" s="5"/>
       <c r="F7" s="0" t="s">
-        <v>174</v>
+        <v>200</v>
       </c>
       <c r="G7" s="1" t="n">
         <v>10</v>
@@ -3200,7 +3394,7 @@
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B8" s="1"/>
       <c r="F8" s="0" t="s">
-        <v>175</v>
+        <v>201</v>
       </c>
       <c r="G8" s="1" t="n">
         <v>10</v>
@@ -3209,7 +3403,7 @@
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B9" s="1"/>
       <c r="F9" s="0" t="s">
-        <v>176</v>
+        <v>202</v>
       </c>
       <c r="G9" s="1" t="n">
         <v>10</v>
@@ -3227,7 +3421,7 @@
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B14" s="2" t="s">
-        <v>177</v>
+        <v>203</v>
       </c>
       <c r="C14" s="0" t="n">
         <f aca="false">SUM(C15:C23)</f>
@@ -3248,25 +3442,25 @@
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B15" s="0" t="s">
-        <v>178</v>
+        <v>204</v>
       </c>
       <c r="C15" s="1" t="n">
         <v>30</v>
       </c>
       <c r="D15" s="0" t="s">
-        <v>179</v>
+        <v>205</v>
       </c>
       <c r="E15" s="1" t="n">
         <v>35</v>
       </c>
       <c r="F15" s="0" t="s">
-        <v>180</v>
+        <v>206</v>
       </c>
       <c r="G15" s="1" t="n">
         <v>70</v>
       </c>
       <c r="H15" s="0" t="s">
-        <v>181</v>
+        <v>207</v>
       </c>
       <c r="I15" s="1" t="n">
         <v>100</v>
@@ -3275,19 +3469,19 @@
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="7"/>
       <c r="B16" s="0" t="s">
-        <v>182</v>
+        <v>208</v>
       </c>
       <c r="C16" s="1" t="n">
         <v>30</v>
       </c>
       <c r="D16" s="0" t="s">
-        <v>173</v>
+        <v>199</v>
       </c>
       <c r="E16" s="1" t="n">
         <v>25</v>
       </c>
       <c r="F16" s="0" t="s">
-        <v>183</v>
+        <v>209</v>
       </c>
       <c r="G16" s="1" t="n">
         <v>10</v>
@@ -3295,19 +3489,19 @@
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B17" s="0" t="s">
-        <v>184</v>
+        <v>210</v>
       </c>
       <c r="C17" s="1" t="n">
         <v>40</v>
       </c>
       <c r="D17" s="0" t="s">
-        <v>180</v>
+        <v>206</v>
       </c>
       <c r="E17" s="1" t="n">
         <v>25</v>
       </c>
       <c r="F17" s="0" t="s">
-        <v>185</v>
+        <v>211</v>
       </c>
       <c r="G17" s="1" t="n">
         <v>10</v>
@@ -3315,13 +3509,13 @@
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D18" s="0" t="s">
-        <v>186</v>
+        <v>212</v>
       </c>
       <c r="E18" s="1" t="n">
         <v>15</v>
       </c>
       <c r="F18" s="0" t="s">
-        <v>172</v>
+        <v>198</v>
       </c>
       <c r="G18" s="1" t="n">
         <v>5</v>
@@ -3329,7 +3523,7 @@
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F19" s="0" t="s">
-        <v>187</v>
+        <v>213</v>
       </c>
       <c r="G19" s="1" t="n">
         <v>5</v>
@@ -3350,7 +3544,7 @@
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B24" s="2" t="s">
-        <v>188</v>
+        <v>214</v>
       </c>
       <c r="C24" s="0" t="n">
         <f aca="false">SUM(C25:C33)</f>
@@ -3368,25 +3562,25 @@
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="7"/>
       <c r="B25" s="0" t="s">
-        <v>189</v>
+        <v>215</v>
       </c>
       <c r="C25" s="1" t="n">
         <v>35</v>
       </c>
       <c r="D25" s="0" t="s">
-        <v>173</v>
+        <v>199</v>
       </c>
       <c r="E25" s="1" t="n">
         <v>50</v>
       </c>
       <c r="F25" s="0" t="s">
-        <v>190</v>
+        <v>216</v>
       </c>
       <c r="G25" s="1" t="n">
         <v>30</v>
       </c>
       <c r="H25" s="0" t="s">
-        <v>191</v>
+        <v>217</v>
       </c>
       <c r="I25" s="1" t="n">
         <v>100</v>
@@ -3394,19 +3588,19 @@
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B26" s="0" t="s">
-        <v>173</v>
+        <v>199</v>
       </c>
       <c r="C26" s="1" t="n">
         <v>35</v>
       </c>
       <c r="D26" s="0" t="s">
-        <v>192</v>
+        <v>218</v>
       </c>
       <c r="E26" s="1" t="n">
         <v>50</v>
       </c>
       <c r="F26" s="0" t="s">
-        <v>193</v>
+        <v>219</v>
       </c>
       <c r="G26" s="1" t="n">
         <v>30</v>
@@ -3414,13 +3608,13 @@
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B27" s="0" t="s">
-        <v>194</v>
+        <v>220</v>
       </c>
       <c r="C27" s="1" t="n">
         <v>30</v>
       </c>
       <c r="F27" s="0" t="s">
-        <v>195</v>
+        <v>221</v>
       </c>
       <c r="G27" s="1" t="n">
         <v>30</v>
@@ -3429,7 +3623,7 @@
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B28" s="1"/>
       <c r="F28" s="0" t="s">
-        <v>196</v>
+        <v>222</v>
       </c>
       <c r="G28" s="1" t="n">
         <v>5</v>
@@ -3439,7 +3633,7 @@
       <c r="A29" s="7"/>
       <c r="B29" s="5"/>
       <c r="F29" s="0" t="s">
-        <v>197</v>
+        <v>223</v>
       </c>
       <c r="G29" s="1" t="n">
         <v>5</v>
@@ -3460,7 +3654,7 @@
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="3"/>
       <c r="B34" s="2" t="s">
-        <v>198</v>
+        <v>224</v>
       </c>
       <c r="C34" s="0" t="n">
         <f aca="false">SUM(C35:C43)</f>
@@ -3482,25 +3676,25 @@
     <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="3"/>
       <c r="B35" s="0" t="s">
-        <v>199</v>
+        <v>225</v>
       </c>
       <c r="C35" s="1" t="n">
         <v>100</v>
       </c>
       <c r="D35" s="0" t="s">
-        <v>200</v>
+        <v>226</v>
       </c>
       <c r="E35" s="1" t="n">
         <v>100</v>
       </c>
       <c r="F35" s="0" t="s">
-        <v>201</v>
+        <v>227</v>
       </c>
       <c r="G35" s="1" t="n">
         <v>100</v>
       </c>
       <c r="H35" s="0" t="s">
-        <v>202</v>
+        <v>228</v>
       </c>
       <c r="I35" s="1" t="n">
         <v>100</v>
@@ -3534,7 +3728,7 @@
     </row>
     <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B44" s="2" t="s">
-        <v>203</v>
+        <v>229</v>
       </c>
       <c r="C44" s="0" t="n">
         <f aca="false">SUM(C45:C53)</f>
@@ -3555,25 +3749,25 @@
     </row>
     <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B45" s="0" t="s">
-        <v>204</v>
+        <v>230</v>
       </c>
       <c r="C45" s="1" t="n">
         <v>100</v>
       </c>
       <c r="D45" s="0" t="s">
-        <v>205</v>
+        <v>231</v>
       </c>
       <c r="E45" s="1" t="n">
         <v>100</v>
       </c>
       <c r="F45" s="0" t="s">
-        <v>206</v>
+        <v>232</v>
       </c>
       <c r="G45" s="1" t="n">
         <v>100</v>
       </c>
       <c r="H45" s="0" t="s">
-        <v>206</v>
+        <v>232</v>
       </c>
       <c r="I45" s="1" t="n">
         <v>100</v>
@@ -3608,7 +3802,7 @@
     <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="7"/>
       <c r="B54" s="2" t="s">
-        <v>207</v>
+        <v>233</v>
       </c>
       <c r="C54" s="0" t="n">
         <f aca="false">SUM(C55:C63)</f>
@@ -3629,25 +3823,25 @@
     </row>
     <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B55" s="0" t="s">
-        <v>208</v>
+        <v>234</v>
       </c>
       <c r="C55" s="1" t="n">
         <v>100</v>
       </c>
       <c r="D55" s="0" t="s">
-        <v>209</v>
+        <v>235</v>
       </c>
       <c r="E55" s="1" t="n">
         <v>100</v>
       </c>
       <c r="F55" s="0" t="s">
-        <v>210</v>
+        <v>236</v>
       </c>
       <c r="G55" s="1" t="n">
         <v>100</v>
       </c>
       <c r="H55" s="0" t="s">
-        <v>206</v>
+        <v>232</v>
       </c>
       <c r="I55" s="1" t="n">
         <v>100</v>
@@ -3909,26 +4103,26 @@
   <dimension ref="A2:AMJ118"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H37" activeCellId="0" sqref="H37"/>
+      <selection pane="topLeft" activeCell="K30" activeCellId="0" sqref="K30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="19.45"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="25.56"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="31.26"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="8.6"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="1.61"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="25.56"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="8.6"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="1.61"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="25.56"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="20.14"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="12.5"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="15.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="25.56"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="53.49"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="1" width="15"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="1" width="10.97"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="0" width="11.66"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="0" width="53.49"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="0" width="39.04"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="1" width="11.81"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="0" width="1.39"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="0" width="25.56"/>
@@ -3951,52 +4145,52 @@
   <sheetData>
     <row r="2" s="3" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="s">
-        <v>211</v>
+        <v>237</v>
       </c>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
       <c r="E2" s="2" t="s">
-        <v>212</v>
+        <v>238</v>
       </c>
       <c r="F2" s="2"/>
       <c r="H2" s="2" t="s">
-        <v>213</v>
+        <v>239</v>
       </c>
       <c r="I2" s="2"/>
       <c r="J2" s="2" t="s">
-        <v>214</v>
+        <v>240</v>
       </c>
       <c r="K2" s="2"/>
       <c r="L2" s="2"/>
       <c r="M2" s="2"/>
       <c r="N2" s="2" t="s">
-        <v>215</v>
+        <v>241</v>
       </c>
       <c r="O2" s="2"/>
       <c r="P2" s="2"/>
       <c r="R2" s="2" t="s">
-        <v>216</v>
+        <v>242</v>
       </c>
       <c r="S2" s="2"/>
       <c r="U2" s="2" t="s">
-        <v>217</v>
+        <v>243</v>
       </c>
       <c r="V2" s="2"/>
       <c r="X2" s="2" t="s">
-        <v>218</v>
+        <v>244</v>
       </c>
       <c r="Y2" s="2"/>
       <c r="Z2" s="0"/>
       <c r="AA2" s="2" t="s">
-        <v>219</v>
+        <v>245</v>
       </c>
       <c r="AB2" s="2"/>
       <c r="AD2" s="2" t="s">
-        <v>220</v>
+        <v>246</v>
       </c>
       <c r="AE2" s="2"/>
       <c r="AG2" s="2" t="s">
-        <v>221</v>
+        <v>247</v>
       </c>
       <c r="AH2" s="2"/>
       <c r="AMH2" s="0"/>
@@ -4005,79 +4199,79 @@
     </row>
     <row r="3" s="3" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="3" t="s">
-        <v>222</v>
+        <v>34</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>223</v>
+        <v>35</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>224</v>
-      </c>
-      <c r="E3" s="8" t="s">
-        <v>223</v>
-      </c>
-      <c r="F3" s="8" t="s">
-        <v>224</v>
-      </c>
-      <c r="H3" s="8" t="s">
-        <v>223</v>
-      </c>
-      <c r="I3" s="8" t="s">
-        <v>224</v>
+        <v>36</v>
+      </c>
+      <c r="E3" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="F3" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="H3" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="I3" s="13" t="s">
+        <v>36</v>
       </c>
       <c r="J3" s="3" t="s">
-        <v>222</v>
-      </c>
-      <c r="K3" s="8" t="s">
-        <v>223</v>
-      </c>
-      <c r="L3" s="8" t="s">
-        <v>224</v>
-      </c>
-      <c r="M3" s="8"/>
+        <v>34</v>
+      </c>
+      <c r="K3" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="L3" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="M3" s="13"/>
       <c r="N3" s="3" t="s">
-        <v>222</v>
-      </c>
-      <c r="O3" s="8" t="s">
-        <v>223</v>
-      </c>
-      <c r="P3" s="8" t="s">
-        <v>225</v>
-      </c>
-      <c r="R3" s="8" t="s">
-        <v>223</v>
-      </c>
-      <c r="S3" s="8" t="s">
-        <v>224</v>
+        <v>34</v>
+      </c>
+      <c r="O3" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="P3" s="13" t="s">
+        <v>248</v>
+      </c>
+      <c r="R3" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="S3" s="13" t="s">
+        <v>36</v>
       </c>
       <c r="T3" s="0"/>
-      <c r="U3" s="8" t="s">
-        <v>223</v>
-      </c>
-      <c r="V3" s="8" t="s">
-        <v>224</v>
-      </c>
-      <c r="X3" s="8" t="s">
-        <v>223</v>
-      </c>
-      <c r="Y3" s="8" t="s">
-        <v>224</v>
+      <c r="U3" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="V3" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="X3" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="Y3" s="13" t="s">
+        <v>36</v>
       </c>
       <c r="Z3" s="0"/>
-      <c r="AA3" s="8" t="s">
-        <v>223</v>
-      </c>
-      <c r="AB3" s="8" t="s">
-        <v>224</v>
-      </c>
-      <c r="AD3" s="8" t="s">
-        <v>223</v>
-      </c>
-      <c r="AE3" s="8" t="s">
-        <v>224</v>
-      </c>
-      <c r="AG3" s="8"/>
-      <c r="AH3" s="8"/>
+      <c r="AA3" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="AB3" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="AD3" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="AE3" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="AG3" s="13"/>
+      <c r="AH3" s="13"/>
       <c r="AMH3" s="0"/>
       <c r="AMI3" s="0"/>
       <c r="AMJ3" s="0"/>
@@ -4109,28 +4303,28 @@
         <f aca="false">SUM(P5:P9)</f>
         <v>50</v>
       </c>
-      <c r="S4" s="13" t="n">
+      <c r="S4" s="14" t="n">
         <f aca="false">SUM(S5:S11)</f>
         <v>100</v>
       </c>
-      <c r="V4" s="13" t="n">
+      <c r="V4" s="14" t="n">
         <f aca="false">SUM(V5:V11)</f>
         <v>70</v>
       </c>
-      <c r="Y4" s="13" t="n">
+      <c r="Y4" s="14" t="n">
         <f aca="false">SUM(Y5:Y11)</f>
         <v>100</v>
       </c>
-      <c r="AB4" s="13" t="n">
+      <c r="AB4" s="14" t="n">
         <f aca="false">SUM(AB5:AB11)</f>
         <v>20</v>
       </c>
-      <c r="AE4" s="13" t="n">
+      <c r="AE4" s="14" t="n">
         <f aca="false">SUM(AE5:AE11)</f>
         <v>100</v>
       </c>
       <c r="AG4" s="3" t="s">
-        <v>226</v>
+        <v>249</v>
       </c>
       <c r="AH4" s="5" t="n">
         <f aca="false">SUM(AH5:AH95)</f>
@@ -4139,77 +4333,77 @@
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>227</v>
+        <v>250</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>228</v>
+        <v>251</v>
       </c>
       <c r="C5" s="1" t="n">
         <v>85</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>229</v>
+        <v>252</v>
       </c>
       <c r="F5" s="10" t="n">
         <v>60</v>
       </c>
       <c r="H5" s="0" t="s">
-        <v>230</v>
+        <v>253</v>
       </c>
       <c r="I5" s="10" t="n">
         <v>95</v>
       </c>
       <c r="J5" s="0" t="s">
-        <v>231</v>
+        <v>254</v>
       </c>
       <c r="K5" s="0" t="s">
-        <v>232</v>
+        <v>255</v>
       </c>
       <c r="L5" s="10" t="n">
         <v>70</v>
       </c>
       <c r="M5" s="10"/>
       <c r="N5" s="0" t="s">
-        <v>233</v>
+        <v>256</v>
       </c>
       <c r="O5" s="0" t="s">
-        <v>234</v>
+        <v>257</v>
       </c>
       <c r="P5" s="1" t="n">
         <v>10</v>
       </c>
       <c r="R5" s="0" t="s">
-        <v>235</v>
-      </c>
-      <c r="S5" s="13" t="n">
+        <v>258</v>
+      </c>
+      <c r="S5" s="14" t="n">
         <v>10</v>
       </c>
       <c r="U5" s="0" t="s">
-        <v>236</v>
+        <v>259</v>
       </c>
       <c r="V5" s="10" t="n">
         <v>5</v>
       </c>
       <c r="X5" s="0" t="s">
-        <v>237</v>
-      </c>
-      <c r="Y5" s="13" t="n">
+        <v>260</v>
+      </c>
+      <c r="Y5" s="14" t="n">
         <v>10</v>
       </c>
       <c r="AA5" s="0" t="s">
-        <v>238</v>
+        <v>261</v>
       </c>
       <c r="AB5" s="10" t="n">
         <v>10</v>
       </c>
       <c r="AD5" s="0" t="s">
-        <v>239</v>
+        <v>262</v>
       </c>
       <c r="AE5" s="10" t="n">
         <v>100</v>
       </c>
       <c r="AG5" s="0" t="s">
-        <v>240</v>
+        <v>263</v>
       </c>
       <c r="AH5" s="1" t="n">
         <v>10</v>
@@ -4217,72 +4411,72 @@
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>241</v>
+        <v>264</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>242</v>
+        <v>265</v>
       </c>
       <c r="C6" s="1" t="n">
         <v>5</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>243</v>
+        <v>266</v>
       </c>
       <c r="F6" s="10" t="n">
         <v>40</v>
       </c>
       <c r="H6" s="0" t="s">
-        <v>244</v>
+        <v>267</v>
       </c>
       <c r="I6" s="10" t="n">
         <v>5</v>
       </c>
       <c r="J6" s="0" t="s">
-        <v>245</v>
+        <v>268</v>
       </c>
       <c r="K6" s="0" t="s">
-        <v>246</v>
+        <v>269</v>
       </c>
       <c r="L6" s="10" t="n">
         <v>30</v>
       </c>
       <c r="M6" s="10"/>
       <c r="N6" s="0" t="s">
-        <v>247</v>
+        <v>270</v>
       </c>
       <c r="O6" s="0" t="s">
-        <v>248</v>
+        <v>271</v>
       </c>
       <c r="P6" s="1" t="n">
         <v>10</v>
       </c>
       <c r="R6" s="0" t="s">
-        <v>249</v>
+        <v>272</v>
       </c>
       <c r="S6" s="10" t="n">
         <v>40</v>
       </c>
       <c r="U6" s="0" t="s">
-        <v>250</v>
+        <v>273</v>
       </c>
       <c r="V6" s="10" t="n">
         <v>15</v>
       </c>
       <c r="X6" s="0" t="s">
-        <v>251</v>
+        <v>274</v>
       </c>
       <c r="Y6" s="10" t="n">
         <v>90</v>
       </c>
       <c r="AA6" s="0" t="s">
-        <v>252</v>
+        <v>275</v>
       </c>
       <c r="AB6" s="10" t="n">
         <v>10</v>
       </c>
       <c r="AE6" s="10"/>
       <c r="AG6" s="0" t="s">
-        <v>253</v>
+        <v>276</v>
       </c>
       <c r="AH6" s="1" t="n">
         <v>10</v>
@@ -4290,10 +4484,10 @@
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>254</v>
+        <v>277</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>255</v>
+        <v>278</v>
       </c>
       <c r="C7" s="1" t="n">
         <v>5</v>
@@ -4303,31 +4497,31 @@
       <c r="L7" s="10"/>
       <c r="M7" s="10"/>
       <c r="N7" s="0" t="s">
-        <v>256</v>
+        <v>279</v>
       </c>
       <c r="O7" s="0" t="s">
-        <v>257</v>
+        <v>280</v>
       </c>
       <c r="P7" s="1" t="n">
         <v>10</v>
       </c>
       <c r="R7" s="0" t="s">
-        <v>258</v>
-      </c>
-      <c r="S7" s="13" t="n">
+        <v>281</v>
+      </c>
+      <c r="S7" s="14" t="n">
         <v>10</v>
       </c>
       <c r="U7" s="0" t="s">
-        <v>259</v>
+        <v>282</v>
       </c>
       <c r="V7" s="10" t="n">
         <v>20</v>
       </c>
-      <c r="Y7" s="13"/>
-      <c r="AB7" s="13"/>
-      <c r="AE7" s="13"/>
+      <c r="Y7" s="14"/>
+      <c r="AB7" s="14"/>
+      <c r="AE7" s="14"/>
       <c r="AG7" s="0" t="s">
-        <v>260</v>
+        <v>283</v>
       </c>
       <c r="AH7" s="1" t="n">
         <v>10</v>
@@ -4335,10 +4529,10 @@
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>261</v>
+        <v>284</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>262</v>
+        <v>285</v>
       </c>
       <c r="C8" s="1" t="n">
         <v>5</v>
@@ -4355,31 +4549,31 @@
       </c>
       <c r="M8" s="10"/>
       <c r="N8" s="0" t="s">
-        <v>263</v>
+        <v>286</v>
       </c>
       <c r="O8" s="0" t="s">
-        <v>239</v>
+        <v>262</v>
       </c>
       <c r="P8" s="10" t="n">
         <v>10</v>
       </c>
       <c r="R8" s="0" t="s">
-        <v>264</v>
-      </c>
-      <c r="S8" s="13" t="n">
+        <v>287</v>
+      </c>
+      <c r="S8" s="14" t="n">
         <v>20</v>
       </c>
       <c r="U8" s="0" t="s">
-        <v>265</v>
+        <v>288</v>
       </c>
       <c r="V8" s="10" t="n">
         <v>10</v>
       </c>
-      <c r="Y8" s="13"/>
-      <c r="AB8" s="13"/>
-      <c r="AE8" s="13"/>
+      <c r="Y8" s="14"/>
+      <c r="AB8" s="14"/>
+      <c r="AE8" s="14"/>
       <c r="AG8" s="0" t="s">
-        <v>266</v>
+        <v>289</v>
       </c>
       <c r="AH8" s="1" t="n">
         <v>10</v>
@@ -4387,47 +4581,47 @@
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H9" s="0" t="s">
-        <v>230</v>
+        <v>253</v>
       </c>
       <c r="I9" s="10" t="n">
         <v>90</v>
       </c>
       <c r="J9" s="0" t="s">
-        <v>231</v>
+        <v>254</v>
       </c>
       <c r="K9" s="0" t="s">
-        <v>232</v>
+        <v>255</v>
       </c>
       <c r="L9" s="10" t="n">
         <v>75</v>
       </c>
       <c r="M9" s="5"/>
       <c r="N9" s="0" t="s">
-        <v>267</v>
+        <v>290</v>
       </c>
       <c r="O9" s="0" t="s">
-        <v>268</v>
+        <v>291</v>
       </c>
       <c r="P9" s="10" t="n">
         <v>10</v>
       </c>
       <c r="R9" s="0" t="s">
-        <v>269</v>
-      </c>
-      <c r="S9" s="13" t="n">
+        <v>292</v>
+      </c>
+      <c r="S9" s="14" t="n">
         <v>10</v>
       </c>
       <c r="U9" s="0" t="s">
-        <v>270</v>
+        <v>293</v>
       </c>
       <c r="V9" s="10" t="n">
         <v>20</v>
       </c>
-      <c r="Y9" s="13"/>
-      <c r="AB9" s="13"/>
-      <c r="AE9" s="13"/>
+      <c r="Y9" s="14"/>
+      <c r="AB9" s="14"/>
+      <c r="AE9" s="14"/>
       <c r="AG9" s="0" t="s">
-        <v>271</v>
+        <v>294</v>
       </c>
       <c r="AH9" s="1" t="n">
         <v>10</v>
@@ -4437,16 +4631,16 @@
       <c r="B10" s="7"/>
       <c r="C10" s="5"/>
       <c r="H10" s="0" t="s">
-        <v>244</v>
+        <v>267</v>
       </c>
       <c r="I10" s="10" t="n">
         <v>10</v>
       </c>
       <c r="J10" s="0" t="s">
-        <v>245</v>
+        <v>268</v>
       </c>
       <c r="K10" s="0" t="s">
-        <v>246</v>
+        <v>269</v>
       </c>
       <c r="L10" s="10" t="n">
         <v>25</v>
@@ -4457,17 +4651,17 @@
         <v>50</v>
       </c>
       <c r="R10" s="0" t="s">
-        <v>272</v>
-      </c>
-      <c r="S10" s="13" t="n">
-        <v>10</v>
-      </c>
-      <c r="V10" s="13"/>
-      <c r="Y10" s="13"/>
-      <c r="AB10" s="13"/>
-      <c r="AE10" s="13"/>
+        <v>295</v>
+      </c>
+      <c r="S10" s="14" t="n">
+        <v>10</v>
+      </c>
+      <c r="V10" s="14"/>
+      <c r="Y10" s="14"/>
+      <c r="AB10" s="14"/>
+      <c r="AE10" s="14"/>
       <c r="AG10" s="0" t="s">
-        <v>273</v>
+        <v>296</v>
       </c>
       <c r="AH10" s="1" t="n">
         <v>10</v>
@@ -4478,17 +4672,17 @@
       <c r="L11" s="0"/>
       <c r="M11" s="10"/>
       <c r="N11" s="0" t="s">
-        <v>233</v>
+        <v>256</v>
       </c>
       <c r="O11" s="0" t="s">
-        <v>234</v>
+        <v>257</v>
       </c>
       <c r="P11" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="S11" s="13"/>
+      <c r="S11" s="14"/>
       <c r="AG11" s="0" t="s">
-        <v>274</v>
+        <v>297</v>
       </c>
       <c r="AH11" s="1" t="n">
         <v>10</v>
@@ -4505,17 +4699,17 @@
         <v>100</v>
       </c>
       <c r="N12" s="0" t="s">
-        <v>247</v>
+        <v>270</v>
       </c>
       <c r="O12" s="0" t="s">
-        <v>248</v>
+        <v>271</v>
       </c>
       <c r="P12" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="S12" s="13"/>
+      <c r="S12" s="14"/>
       <c r="AG12" s="0" t="s">
-        <v>275</v>
+        <v>298</v>
       </c>
       <c r="AH12" s="1" t="n">
         <v>10</v>
@@ -4523,32 +4717,32 @@
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H13" s="0" t="s">
-        <v>230</v>
+        <v>253</v>
       </c>
       <c r="I13" s="10" t="n">
         <v>85</v>
       </c>
       <c r="J13" s="0" t="s">
-        <v>231</v>
+        <v>254</v>
       </c>
       <c r="K13" s="0" t="s">
-        <v>232</v>
+        <v>255</v>
       </c>
       <c r="L13" s="10" t="n">
         <v>80</v>
       </c>
       <c r="N13" s="0" t="s">
-        <v>256</v>
+        <v>279</v>
       </c>
       <c r="O13" s="0" t="s">
-        <v>257</v>
+        <v>280</v>
       </c>
       <c r="P13" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="S13" s="13"/>
+      <c r="S13" s="14"/>
       <c r="AG13" s="0" t="s">
-        <v>276</v>
+        <v>299</v>
       </c>
       <c r="AH13" s="1" t="n">
         <v>10</v>
@@ -4556,33 +4750,33 @@
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H14" s="0" t="s">
-        <v>244</v>
+        <v>267</v>
       </c>
       <c r="I14" s="10" t="n">
         <v>15</v>
       </c>
       <c r="J14" s="0" t="s">
-        <v>245</v>
+        <v>268</v>
       </c>
       <c r="K14" s="0" t="s">
-        <v>246</v>
+        <v>269</v>
       </c>
       <c r="L14" s="10" t="n">
         <v>20</v>
       </c>
       <c r="M14" s="5"/>
       <c r="N14" s="0" t="s">
-        <v>263</v>
+        <v>286</v>
       </c>
       <c r="O14" s="0" t="s">
-        <v>239</v>
+        <v>262</v>
       </c>
       <c r="P14" s="10" t="n">
         <v>10</v>
       </c>
-      <c r="S14" s="13"/>
+      <c r="S14" s="14"/>
       <c r="AG14" s="0" t="s">
-        <v>277</v>
+        <v>300</v>
       </c>
       <c r="AH14" s="1" t="n">
         <v>10</v>
@@ -4593,17 +4787,17 @@
       <c r="L15" s="0"/>
       <c r="M15" s="10"/>
       <c r="N15" s="0" t="s">
-        <v>267</v>
+        <v>290</v>
       </c>
       <c r="O15" s="0" t="s">
-        <v>268</v>
+        <v>291</v>
       </c>
       <c r="P15" s="10" t="n">
         <v>10</v>
       </c>
-      <c r="S15" s="13"/>
+      <c r="S15" s="14"/>
       <c r="AG15" s="0" t="s">
-        <v>278</v>
+        <v>301</v>
       </c>
       <c r="AH15" s="1" t="n">
         <v>10</v>
@@ -4624,9 +4818,9 @@
         <f aca="false">SUM(P17:P21)</f>
         <v>50</v>
       </c>
-      <c r="S16" s="13"/>
+      <c r="S16" s="14"/>
       <c r="AG16" s="0" t="s">
-        <v>279</v>
+        <v>302</v>
       </c>
       <c r="AH16" s="1" t="n">
         <v>10</v>
@@ -4634,32 +4828,32 @@
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H17" s="0" t="s">
-        <v>230</v>
+        <v>253</v>
       </c>
       <c r="I17" s="10" t="n">
         <v>80</v>
       </c>
       <c r="J17" s="0" t="s">
-        <v>231</v>
+        <v>254</v>
       </c>
       <c r="K17" s="0" t="s">
-        <v>232</v>
+        <v>255</v>
       </c>
       <c r="L17" s="10" t="n">
         <v>85</v>
       </c>
       <c r="N17" s="0" t="s">
-        <v>233</v>
+        <v>256</v>
       </c>
       <c r="O17" s="0" t="s">
-        <v>234</v>
+        <v>257</v>
       </c>
       <c r="P17" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="S17" s="13"/>
+      <c r="S17" s="14"/>
       <c r="AG17" s="0" t="s">
-        <v>280</v>
+        <v>303</v>
       </c>
       <c r="AH17" s="1" t="n">
         <v>10</v>
@@ -4667,32 +4861,32 @@
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H18" s="0" t="s">
-        <v>244</v>
+        <v>267</v>
       </c>
       <c r="I18" s="10" t="n">
         <v>20</v>
       </c>
       <c r="J18" s="0" t="s">
-        <v>245</v>
+        <v>268</v>
       </c>
       <c r="K18" s="0" t="s">
-        <v>246</v>
+        <v>269</v>
       </c>
       <c r="L18" s="10" t="n">
         <v>15</v>
       </c>
       <c r="N18" s="0" t="s">
-        <v>247</v>
+        <v>270</v>
       </c>
       <c r="O18" s="0" t="s">
-        <v>248</v>
+        <v>271</v>
       </c>
       <c r="P18" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="S18" s="13"/>
+      <c r="S18" s="14"/>
       <c r="AG18" s="0" t="s">
-        <v>281</v>
+        <v>304</v>
       </c>
       <c r="AH18" s="1" t="n">
         <v>10</v>
@@ -4703,17 +4897,17 @@
       <c r="L19" s="0"/>
       <c r="M19" s="5"/>
       <c r="N19" s="0" t="s">
-        <v>256</v>
+        <v>279</v>
       </c>
       <c r="O19" s="0" t="s">
-        <v>257</v>
+        <v>280</v>
       </c>
       <c r="P19" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="S19" s="13"/>
+      <c r="S19" s="14"/>
       <c r="AG19" s="0" t="s">
-        <v>282</v>
+        <v>305</v>
       </c>
       <c r="AH19" s="1" t="n">
         <v>10</v>
@@ -4724,17 +4918,17 @@
       <c r="L20" s="0"/>
       <c r="M20" s="10"/>
       <c r="N20" s="0" t="s">
-        <v>263</v>
+        <v>286</v>
       </c>
       <c r="O20" s="0" t="s">
-        <v>239</v>
+        <v>262</v>
       </c>
       <c r="P20" s="10" t="n">
         <v>10</v>
       </c>
-      <c r="S20" s="13"/>
+      <c r="S20" s="14"/>
       <c r="AG20" s="0" t="s">
-        <v>283</v>
+        <v>306</v>
       </c>
       <c r="AH20" s="1" t="n">
         <v>10</v>
@@ -4745,17 +4939,17 @@
       <c r="L21" s="0"/>
       <c r="M21" s="10"/>
       <c r="N21" s="0" t="s">
-        <v>267</v>
+        <v>290</v>
       </c>
       <c r="O21" s="0" t="s">
-        <v>268</v>
+        <v>291</v>
       </c>
       <c r="P21" s="10" t="n">
         <v>10</v>
       </c>
-      <c r="S21" s="13"/>
+      <c r="S21" s="14"/>
       <c r="AG21" s="0" t="s">
-        <v>284</v>
+        <v>307</v>
       </c>
       <c r="AH21" s="1" t="n">
         <v>10</v>
@@ -4767,9 +4961,9 @@
         <f aca="false">SUM(P23:P27)</f>
         <v>50</v>
       </c>
-      <c r="S22" s="13"/>
+      <c r="S22" s="14"/>
       <c r="AG22" s="0" t="s">
-        <v>285</v>
+        <v>308</v>
       </c>
       <c r="AH22" s="1" t="n">
         <v>10</v>
@@ -4778,17 +4972,17 @@
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="L23" s="0"/>
       <c r="N23" s="0" t="s">
-        <v>233</v>
+        <v>256</v>
       </c>
       <c r="O23" s="0" t="s">
-        <v>234</v>
+        <v>257</v>
       </c>
       <c r="P23" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="S23" s="13"/>
+      <c r="S23" s="14"/>
       <c r="AG23" s="0" t="s">
-        <v>286</v>
+        <v>309</v>
       </c>
       <c r="AH23" s="1" t="n">
         <v>10</v>
@@ -4797,17 +4991,17 @@
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="L24" s="0"/>
       <c r="N24" s="0" t="s">
-        <v>247</v>
+        <v>270</v>
       </c>
       <c r="O24" s="0" t="s">
-        <v>248</v>
+        <v>271</v>
       </c>
       <c r="P24" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="S24" s="13"/>
+      <c r="S24" s="14"/>
       <c r="AG24" s="0" t="s">
-        <v>287</v>
+        <v>310</v>
       </c>
       <c r="AH24" s="1" t="n">
         <v>10</v>
@@ -4815,17 +5009,17 @@
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="N25" s="0" t="s">
-        <v>256</v>
+        <v>279</v>
       </c>
       <c r="O25" s="0" t="s">
-        <v>257</v>
+        <v>280</v>
       </c>
       <c r="P25" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="S25" s="13"/>
+      <c r="S25" s="14"/>
       <c r="AG25" s="0" t="s">
-        <v>288</v>
+        <v>311</v>
       </c>
       <c r="AH25" s="1" t="n">
         <v>10</v>
@@ -4833,17 +5027,17 @@
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="N26" s="0" t="s">
-        <v>263</v>
+        <v>286</v>
       </c>
       <c r="O26" s="0" t="s">
-        <v>239</v>
+        <v>262</v>
       </c>
       <c r="P26" s="10" t="n">
         <v>10</v>
       </c>
-      <c r="S26" s="13"/>
+      <c r="S26" s="14"/>
       <c r="AG26" s="0" t="s">
-        <v>289</v>
+        <v>312</v>
       </c>
       <c r="AH26" s="1" t="n">
         <v>10</v>
@@ -4851,71 +5045,71 @@
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="N27" s="0" t="s">
-        <v>267</v>
+        <v>290</v>
       </c>
       <c r="O27" s="0" t="s">
-        <v>268</v>
+        <v>291</v>
       </c>
       <c r="P27" s="10" t="n">
         <v>10</v>
       </c>
-      <c r="S27" s="13"/>
+      <c r="S27" s="14"/>
       <c r="AG27" s="0" t="s">
-        <v>290</v>
+        <v>313</v>
       </c>
       <c r="AH27" s="1" t="n">
         <v>10</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="S28" s="13"/>
+      <c r="S28" s="14"/>
       <c r="AG28" s="0" t="s">
-        <v>291</v>
+        <v>314</v>
       </c>
       <c r="AH28" s="1" t="n">
         <v>10</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="S29" s="13"/>
+      <c r="S29" s="14"/>
       <c r="AG29" s="0" t="s">
-        <v>292</v>
+        <v>315</v>
       </c>
       <c r="AH29" s="1" t="n">
         <v>10</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="S30" s="13"/>
+      <c r="S30" s="14"/>
       <c r="AG30" s="0" t="s">
-        <v>293</v>
+        <v>316</v>
       </c>
       <c r="AH30" s="1" t="n">
         <v>10</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="S31" s="13"/>
+      <c r="S31" s="14"/>
       <c r="AG31" s="0" t="s">
-        <v>294</v>
+        <v>317</v>
       </c>
       <c r="AH31" s="1" t="n">
         <v>10</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="S32" s="13"/>
+      <c r="S32" s="14"/>
       <c r="AG32" s="0" t="s">
-        <v>295</v>
+        <v>318</v>
       </c>
       <c r="AH32" s="1" t="n">
         <v>10</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="S33" s="13"/>
+      <c r="S33" s="14"/>
       <c r="AG33" s="0" t="s">
-        <v>296</v>
+        <v>319</v>
       </c>
       <c r="AH33" s="1" t="n">
         <v>10</v>
@@ -4925,7 +5119,7 @@
       <c r="P34" s="0"/>
       <c r="S34" s="10"/>
       <c r="AG34" s="0" t="s">
-        <v>297</v>
+        <v>320</v>
       </c>
       <c r="AH34" s="1" t="n">
         <v>10</v>
@@ -4935,7 +5129,7 @@
       <c r="P35" s="0"/>
       <c r="S35" s="10"/>
       <c r="AG35" s="0" t="s">
-        <v>298</v>
+        <v>321</v>
       </c>
       <c r="AH35" s="1" t="n">
         <v>10</v>
@@ -4945,7 +5139,7 @@
       <c r="P36" s="0"/>
       <c r="S36" s="0"/>
       <c r="AG36" s="0" t="s">
-        <v>299</v>
+        <v>322</v>
       </c>
       <c r="AH36" s="1" t="n">
         <v>10</v>
@@ -4955,7 +5149,7 @@
       <c r="P37" s="0"/>
       <c r="S37" s="10"/>
       <c r="AG37" s="0" t="s">
-        <v>300</v>
+        <v>323</v>
       </c>
       <c r="AH37" s="1" t="n">
         <v>10</v>
@@ -4965,7 +5159,7 @@
       <c r="P38" s="0"/>
       <c r="S38" s="0"/>
       <c r="AG38" s="0" t="s">
-        <v>301</v>
+        <v>324</v>
       </c>
       <c r="AH38" s="1" t="n">
         <v>10</v>
@@ -4975,7 +5169,7 @@
       <c r="P39" s="0"/>
       <c r="S39" s="10"/>
       <c r="AG39" s="0" t="s">
-        <v>302</v>
+        <v>325</v>
       </c>
       <c r="AH39" s="1" t="n">
         <v>10</v>
@@ -4983,581 +5177,582 @@
     </row>
     <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="P40" s="0"/>
-      <c r="S40" s="13"/>
+      <c r="S40" s="14"/>
       <c r="AG40" s="0" t="s">
-        <v>303</v>
+        <v>326</v>
       </c>
       <c r="AH40" s="1" t="n">
         <v>10</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="S41" s="13"/>
+      <c r="S41" s="14"/>
       <c r="AG41" s="0" t="s">
-        <v>304</v>
+        <v>327</v>
       </c>
       <c r="AH41" s="1" t="n">
         <v>10</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="S42" s="13"/>
+      <c r="S42" s="14"/>
       <c r="AG42" s="0" t="s">
-        <v>305</v>
+        <v>328</v>
       </c>
       <c r="AH42" s="1" t="n">
         <v>10</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="S43" s="13"/>
+      <c r="S43" s="14"/>
       <c r="AG43" s="0" t="s">
-        <v>306</v>
+        <v>329</v>
       </c>
       <c r="AH43" s="1" t="n">
         <v>10</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="S44" s="13"/>
+      <c r="S44" s="14"/>
       <c r="AG44" s="0" t="s">
-        <v>307</v>
+        <v>330</v>
       </c>
       <c r="AH44" s="1" t="n">
         <v>10</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="S45" s="13"/>
+      <c r="S45" s="14"/>
       <c r="AG45" s="0" t="s">
-        <v>308</v>
+        <v>331</v>
       </c>
       <c r="AH45" s="1" t="n">
         <v>10</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="S46" s="13"/>
+      <c r="S46" s="14"/>
       <c r="AG46" s="0" t="s">
-        <v>309</v>
+        <v>332</v>
       </c>
       <c r="AH46" s="1" t="n">
         <v>10</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="S47" s="13"/>
+      <c r="S47" s="14"/>
       <c r="AG47" s="0" t="s">
-        <v>310</v>
+        <v>333</v>
       </c>
       <c r="AH47" s="1" t="n">
         <v>10</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="S48" s="13"/>
+      <c r="S48" s="14"/>
       <c r="AG48" s="0" t="s">
-        <v>311</v>
+        <v>334</v>
       </c>
       <c r="AH48" s="1" t="n">
         <v>10</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="S49" s="13"/>
+      <c r="S49" s="14"/>
       <c r="AG49" s="0" t="s">
-        <v>312</v>
+        <v>335</v>
       </c>
       <c r="AH49" s="1" t="n">
         <v>10</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="S50" s="13"/>
+      <c r="S50" s="14"/>
       <c r="AG50" s="0" t="s">
-        <v>313</v>
+        <v>336</v>
       </c>
       <c r="AH50" s="1" t="n">
         <v>10</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="S51" s="13"/>
+      <c r="S51" s="14"/>
       <c r="AG51" s="0" t="s">
-        <v>314</v>
+        <v>337</v>
       </c>
       <c r="AH51" s="1" t="n">
         <v>10</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="S52" s="13"/>
+      <c r="S52" s="14"/>
       <c r="AG52" s="0" t="s">
-        <v>315</v>
+        <v>338</v>
       </c>
       <c r="AH52" s="1" t="n">
         <v>10</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="S53" s="13"/>
+      <c r="S53" s="14"/>
       <c r="AG53" s="0" t="s">
-        <v>316</v>
+        <v>339</v>
       </c>
       <c r="AH53" s="1" t="n">
         <v>10</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="S54" s="13"/>
+      <c r="S54" s="14"/>
       <c r="AG54" s="0" t="s">
-        <v>317</v>
+        <v>340</v>
       </c>
       <c r="AH54" s="1" t="n">
         <v>10</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="S55" s="13"/>
+      <c r="S55" s="14"/>
       <c r="AG55" s="0" t="s">
-        <v>318</v>
+        <v>341</v>
       </c>
       <c r="AH55" s="1" t="n">
         <v>10</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="S56" s="13"/>
+      <c r="S56" s="14"/>
       <c r="AG56" s="0" t="s">
-        <v>319</v>
+        <v>342</v>
       </c>
       <c r="AH56" s="1" t="n">
         <v>10</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="S57" s="13"/>
+      <c r="S57" s="14"/>
       <c r="AG57" s="0" t="s">
-        <v>320</v>
+        <v>343</v>
       </c>
       <c r="AH57" s="1" t="n">
         <v>10</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="S58" s="13"/>
+      <c r="S58" s="14"/>
       <c r="AG58" s="0" t="s">
-        <v>321</v>
+        <v>344</v>
       </c>
       <c r="AH58" s="1" t="n">
         <v>10</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="S59" s="13"/>
+      <c r="S59" s="14"/>
       <c r="AG59" s="0" t="s">
-        <v>322</v>
+        <v>345</v>
       </c>
       <c r="AH59" s="1" t="n">
         <v>10</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="S60" s="13"/>
+      <c r="S60" s="14"/>
       <c r="AG60" s="0" t="s">
-        <v>323</v>
+        <v>346</v>
       </c>
       <c r="AH60" s="1" t="n">
         <v>10</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="S61" s="13"/>
+      <c r="S61" s="14"/>
       <c r="AG61" s="0" t="s">
-        <v>324</v>
+        <v>347</v>
       </c>
       <c r="AH61" s="1" t="n">
         <v>10</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="S62" s="13"/>
+      <c r="S62" s="14"/>
       <c r="AG62" s="0" t="s">
-        <v>325</v>
+        <v>348</v>
       </c>
       <c r="AH62" s="1" t="n">
         <v>10</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="S63" s="13"/>
+      <c r="S63" s="14"/>
       <c r="AG63" s="0" t="s">
-        <v>326</v>
+        <v>349</v>
       </c>
       <c r="AH63" s="1" t="n">
         <v>10</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="S64" s="13"/>
+      <c r="S64" s="14"/>
       <c r="AG64" s="0" t="s">
-        <v>327</v>
+        <v>350</v>
       </c>
       <c r="AH64" s="1" t="n">
         <v>10</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="S65" s="13"/>
+      <c r="S65" s="14"/>
       <c r="AG65" s="0" t="s">
-        <v>328</v>
+        <v>351</v>
       </c>
       <c r="AH65" s="1" t="n">
         <v>10</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="S66" s="13"/>
+      <c r="S66" s="14"/>
       <c r="AG66" s="0" t="s">
-        <v>329</v>
+        <v>352</v>
       </c>
       <c r="AH66" s="1" t="n">
         <v>10</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="S67" s="13"/>
+      <c r="S67" s="14"/>
       <c r="AG67" s="0" t="s">
-        <v>330</v>
+        <v>353</v>
       </c>
       <c r="AH67" s="1" t="n">
         <v>10</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="S68" s="13"/>
+      <c r="S68" s="14"/>
       <c r="AG68" s="0" t="s">
-        <v>331</v>
+        <v>354</v>
       </c>
       <c r="AH68" s="1" t="n">
         <v>10</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="S69" s="13"/>
+      <c r="S69" s="14"/>
       <c r="AG69" s="0" t="s">
-        <v>332</v>
+        <v>355</v>
       </c>
       <c r="AH69" s="1" t="n">
         <v>10</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="S70" s="13"/>
+      <c r="S70" s="14"/>
       <c r="AG70" s="0" t="s">
-        <v>333</v>
+        <v>356</v>
       </c>
       <c r="AH70" s="1" t="n">
         <v>10</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="S71" s="13"/>
+      <c r="S71" s="14"/>
       <c r="AG71" s="0" t="s">
-        <v>334</v>
+        <v>357</v>
       </c>
       <c r="AH71" s="1" t="n">
         <v>10</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="S72" s="13"/>
+      <c r="S72" s="14"/>
       <c r="AG72" s="0" t="s">
-        <v>335</v>
+        <v>358</v>
       </c>
       <c r="AH72" s="1" t="n">
         <v>10</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="S73" s="13"/>
+      <c r="S73" s="14"/>
       <c r="AG73" s="0" t="s">
-        <v>336</v>
+        <v>359</v>
       </c>
       <c r="AH73" s="1" t="n">
         <v>10</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="S74" s="13"/>
+      <c r="S74" s="14"/>
       <c r="AG74" s="0" t="s">
-        <v>337</v>
+        <v>360</v>
       </c>
       <c r="AH74" s="1" t="n">
         <v>10</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="S75" s="13"/>
+      <c r="S75" s="14"/>
       <c r="AG75" s="0" t="s">
-        <v>338</v>
+        <v>361</v>
       </c>
       <c r="AH75" s="1" t="n">
         <v>10</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="S76" s="13"/>
+      <c r="S76" s="14"/>
       <c r="AG76" s="0" t="s">
-        <v>339</v>
+        <v>362</v>
       </c>
       <c r="AH76" s="1" t="n">
         <v>10</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="S77" s="13"/>
+      <c r="S77" s="14"/>
       <c r="AG77" s="0" t="s">
-        <v>340</v>
+        <v>363</v>
       </c>
       <c r="AH77" s="1" t="n">
         <v>10</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="S78" s="13"/>
+      <c r="S78" s="14"/>
       <c r="AG78" s="0" t="s">
-        <v>341</v>
+        <v>364</v>
       </c>
       <c r="AH78" s="1" t="n">
         <v>10</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="S79" s="13"/>
+      <c r="S79" s="14"/>
       <c r="AG79" s="0" t="s">
-        <v>342</v>
+        <v>365</v>
       </c>
       <c r="AH79" s="1" t="n">
         <v>10</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="S80" s="13"/>
+      <c r="S80" s="14"/>
       <c r="AG80" s="0" t="s">
-        <v>343</v>
+        <v>366</v>
       </c>
       <c r="AH80" s="1" t="n">
         <v>10</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="S81" s="13"/>
+      <c r="S81" s="14"/>
       <c r="AG81" s="0" t="s">
-        <v>344</v>
+        <v>367</v>
       </c>
       <c r="AH81" s="1" t="n">
         <v>10</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="S82" s="13"/>
+      <c r="S82" s="14"/>
       <c r="AG82" s="0" t="s">
-        <v>344</v>
+        <v>367</v>
       </c>
       <c r="AH82" s="1" t="n">
         <v>10</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="S83" s="13"/>
+      <c r="S83" s="14"/>
       <c r="AG83" s="0" t="s">
-        <v>345</v>
+        <v>368</v>
       </c>
       <c r="AH83" s="1" t="n">
         <v>10</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="S84" s="13"/>
+      <c r="S84" s="14"/>
       <c r="AG84" s="0" t="s">
-        <v>345</v>
+        <v>368</v>
       </c>
       <c r="AH84" s="1" t="n">
         <v>10</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="S85" s="13"/>
+      <c r="S85" s="14"/>
       <c r="AG85" s="0" t="s">
-        <v>346</v>
+        <v>369</v>
       </c>
       <c r="AH85" s="1" t="n">
         <v>10</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="S86" s="13"/>
+      <c r="S86" s="14"/>
       <c r="AG86" s="0" t="s">
-        <v>346</v>
+        <v>369</v>
       </c>
       <c r="AH86" s="1" t="n">
         <v>10</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="S87" s="13"/>
+      <c r="S87" s="14"/>
       <c r="AG87" s="0" t="s">
-        <v>347</v>
+        <v>370</v>
       </c>
       <c r="AH87" s="1" t="n">
         <v>10</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="S88" s="13"/>
+      <c r="S88" s="14"/>
       <c r="AG88" s="0" t="s">
-        <v>348</v>
+        <v>371</v>
       </c>
       <c r="AH88" s="1" t="n">
         <v>10</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="S89" s="13"/>
+      <c r="S89" s="14"/>
       <c r="AG89" s="0" t="s">
-        <v>349</v>
+        <v>372</v>
       </c>
       <c r="AH89" s="1" t="n">
         <v>10</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="S90" s="13"/>
+      <c r="S90" s="14"/>
       <c r="AG90" s="0" t="s">
-        <v>350</v>
+        <v>373</v>
       </c>
       <c r="AH90" s="1" t="n">
         <v>10</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="S91" s="13"/>
+      <c r="S91" s="14"/>
       <c r="AG91" s="0" t="s">
-        <v>351</v>
+        <v>374</v>
       </c>
       <c r="AH91" s="1" t="n">
         <v>10</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="S92" s="13"/>
+      <c r="S92" s="14"/>
       <c r="AG92" s="0" t="s">
-        <v>352</v>
+        <v>375</v>
       </c>
       <c r="AH92" s="1" t="n">
         <v>10</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="S93" s="13"/>
+      <c r="S93" s="14"/>
       <c r="AG93" s="0" t="s">
-        <v>353</v>
+        <v>376</v>
       </c>
       <c r="AH93" s="1" t="n">
         <v>10</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="S94" s="13"/>
+      <c r="S94" s="14"/>
       <c r="AG94" s="0" t="s">
-        <v>354</v>
+        <v>377</v>
       </c>
       <c r="AH94" s="1" t="n">
         <v>10</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="S95" s="13"/>
+      <c r="S95" s="14"/>
       <c r="AG95" s="0" t="s">
-        <v>355</v>
+        <v>378</v>
       </c>
       <c r="AH95" s="1" t="n">
         <v>10</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="S96" s="13"/>
+      <c r="S96" s="14"/>
     </row>
     <row r="97" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="S97" s="13"/>
+      <c r="S97" s="14"/>
     </row>
     <row r="98" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="S98" s="13"/>
+      <c r="S98" s="14"/>
     </row>
     <row r="99" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="S99" s="13"/>
+      <c r="S99" s="14"/>
     </row>
     <row r="100" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="S100" s="13"/>
+      <c r="S100" s="14"/>
     </row>
     <row r="101" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="S101" s="13"/>
+      <c r="S101" s="14"/>
     </row>
     <row r="102" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="S102" s="13"/>
+      <c r="S102" s="14"/>
     </row>
     <row r="103" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="S103" s="13"/>
+      <c r="S103" s="14"/>
     </row>
     <row r="104" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="S104" s="13"/>
+      <c r="S104" s="14"/>
     </row>
     <row r="105" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="S105" s="13"/>
+      <c r="S105" s="14"/>
     </row>
     <row r="106" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="S106" s="13"/>
+      <c r="S106" s="14"/>
     </row>
     <row r="107" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="S107" s="13"/>
+      <c r="S107" s="14"/>
     </row>
     <row r="108" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="S108" s="13"/>
+      <c r="S108" s="14"/>
     </row>
     <row r="109" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="S109" s="13"/>
+      <c r="S109" s="14"/>
     </row>
     <row r="110" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="S110" s="13"/>
+      <c r="S110" s="14"/>
     </row>
     <row r="111" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="S111" s="13"/>
+      <c r="S111" s="14"/>
     </row>
     <row r="112" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="S112" s="13"/>
+      <c r="S112" s="14"/>
     </row>
     <row r="113" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="S113" s="13"/>
+      <c r="S113" s="14"/>
     </row>
     <row r="114" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="S114" s="13"/>
+      <c r="S114" s="14"/>
     </row>
     <row r="115" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="S115" s="13"/>
+      <c r="S115" s="14"/>
     </row>
     <row r="116" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="S116" s="13"/>
+      <c r="S116" s="14"/>
     </row>
     <row r="117" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="S117" s="13"/>
+      <c r="S117" s="14"/>
     </row>
     <row r="118" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="S118" s="13"/>
+      <c r="S118" s="14"/>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="A2:C2"/>
+    <mergeCell ref="H2:I2"/>
     <mergeCell ref="J2:L2"/>
     <mergeCell ref="N2:P2"/>
     <mergeCell ref="U2:V2"/>
@@ -5583,8 +5778,8 @@
   </sheetPr>
   <dimension ref="B2:R45"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H32" activeCellId="0" sqref="H32"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C22" activeCellId="0" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -5611,39 +5806,39 @@
   <sheetData>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2" s="2" t="s">
-        <v>356</v>
+        <v>379</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
       <c r="E2" s="0"/>
       <c r="F2" s="3"/>
       <c r="G2" s="2" t="s">
-        <v>357</v>
+        <v>380</v>
       </c>
       <c r="H2" s="2"/>
       <c r="I2" s="3"/>
       <c r="J2" s="2" t="s">
-        <v>358</v>
+        <v>381</v>
       </c>
       <c r="K2" s="2"/>
       <c r="L2" s="3"/>
       <c r="M2" s="2" t="s">
-        <v>359</v>
+        <v>382</v>
       </c>
       <c r="N2" s="2"/>
       <c r="O2" s="3"/>
       <c r="P2" s="2" t="s">
-        <v>360</v>
+        <v>383</v>
       </c>
       <c r="Q2" s="2"/>
       <c r="R2" s="3"/>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3" s="7" t="s">
-        <v>361</v>
+        <v>384</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>362</v>
+        <v>385</v>
       </c>
       <c r="D3" s="5" t="n">
         <f aca="false">SUM(D4:D22)</f>
@@ -5666,38 +5861,38 @@
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B4" s="12" t="s">
-        <v>363</v>
+        <v>386</v>
       </c>
       <c r="C4" s="12" t="s">
-        <v>364</v>
+        <v>387</v>
       </c>
       <c r="D4" s="10" t="n">
         <v>1</v>
       </c>
       <c r="E4" s="0"/>
       <c r="G4" s="7" t="s">
-        <v>365</v>
+        <v>388</v>
       </c>
       <c r="H4" s="5" t="n">
         <f aca="false">SUM(H5:H10)</f>
         <v>100</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>366</v>
+        <v>389</v>
       </c>
       <c r="K4" s="5" t="n">
         <f aca="false">SUM(K5:K10)</f>
         <v>100</v>
       </c>
       <c r="M4" s="7" t="s">
-        <v>367</v>
+        <v>390</v>
       </c>
       <c r="N4" s="5" t="n">
         <f aca="false">SUM(N5:N10)</f>
         <v>100</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>360</v>
+        <v>383</v>
       </c>
       <c r="Q4" s="5" t="n">
         <f aca="false">SUM(Q5:Q10)</f>
@@ -5706,35 +5901,35 @@
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B5" s="0" t="s">
-        <v>368</v>
+        <v>391</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>365</v>
+        <v>388</v>
       </c>
       <c r="D5" s="1" t="n">
         <v>20</v>
       </c>
       <c r="E5" s="0"/>
       <c r="G5" s="0" t="s">
-        <v>369</v>
+        <v>392</v>
       </c>
       <c r="H5" s="1" t="n">
         <v>100</v>
       </c>
       <c r="J5" s="0" t="s">
-        <v>370</v>
+        <v>393</v>
       </c>
       <c r="K5" s="1" t="n">
         <v>35</v>
       </c>
       <c r="M5" s="0" t="s">
-        <v>369</v>
+        <v>392</v>
       </c>
       <c r="N5" s="10" t="n">
         <v>30</v>
       </c>
       <c r="P5" s="0" t="s">
-        <v>369</v>
+        <v>392</v>
       </c>
       <c r="Q5" s="1" t="n">
         <v>50</v>
@@ -5742,29 +5937,29 @@
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B6" s="0" t="s">
-        <v>371</v>
+        <v>394</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>366</v>
+        <v>389</v>
       </c>
       <c r="D6" s="1" t="n">
         <v>5</v>
       </c>
       <c r="E6" s="0"/>
       <c r="J6" s="0" t="s">
-        <v>372</v>
+        <v>395</v>
       </c>
       <c r="K6" s="1" t="n">
         <v>35</v>
       </c>
       <c r="M6" s="12" t="s">
-        <v>373</v>
+        <v>396</v>
       </c>
       <c r="N6" s="10" t="n">
         <v>10</v>
       </c>
       <c r="P6" s="0" t="s">
-        <v>374</v>
+        <v>397</v>
       </c>
       <c r="Q6" s="1" t="n">
         <v>20</v>
@@ -5772,29 +5967,29 @@
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B7" s="0" t="s">
-        <v>375</v>
+        <v>398</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>376</v>
+        <v>399</v>
       </c>
       <c r="D7" s="1" t="n">
         <v>1</v>
       </c>
       <c r="E7" s="0"/>
       <c r="J7" s="0" t="s">
-        <v>377</v>
+        <v>400</v>
       </c>
       <c r="K7" s="1" t="n">
         <v>30</v>
       </c>
       <c r="M7" s="0" t="s">
-        <v>378</v>
+        <v>401</v>
       </c>
       <c r="N7" s="10" t="n">
         <v>20</v>
       </c>
       <c r="P7" s="0" t="s">
-        <v>379</v>
+        <v>402</v>
       </c>
       <c r="Q7" s="1" t="n">
         <v>10</v>
@@ -5802,10 +5997,10 @@
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B8" s="0" t="s">
-        <v>380</v>
+        <v>403</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>367</v>
+        <v>390</v>
       </c>
       <c r="D8" s="1" t="n">
         <v>5</v>
@@ -5816,13 +6011,13 @@
       <c r="J8" s="7"/>
       <c r="K8" s="5"/>
       <c r="M8" s="12" t="s">
-        <v>381</v>
+        <v>404</v>
       </c>
       <c r="N8" s="10" t="n">
         <v>20</v>
       </c>
       <c r="P8" s="0" t="s">
-        <v>373</v>
+        <v>396</v>
       </c>
       <c r="Q8" s="1" t="n">
         <v>10</v>
@@ -5830,10 +6025,10 @@
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B9" s="0" t="s">
-        <v>382</v>
+        <v>405</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>360</v>
+        <v>383</v>
       </c>
       <c r="D9" s="1" t="n">
         <v>20</v>
@@ -5844,13 +6039,13 @@
       <c r="J9" s="7"/>
       <c r="K9" s="5"/>
       <c r="M9" s="12" t="s">
-        <v>383</v>
+        <v>406</v>
       </c>
       <c r="N9" s="10" t="n">
         <v>10</v>
       </c>
       <c r="P9" s="0" t="s">
-        <v>384</v>
+        <v>407</v>
       </c>
       <c r="Q9" s="1" t="n">
         <v>10</v>
@@ -5858,10 +6053,10 @@
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B10" s="0" t="s">
-        <v>385</v>
+        <v>408</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>386</v>
+        <v>409</v>
       </c>
       <c r="D10" s="1" t="n">
         <v>20</v>
@@ -5872,7 +6067,7 @@
       <c r="J10" s="7"/>
       <c r="K10" s="5"/>
       <c r="M10" s="0" t="s">
-        <v>387</v>
+        <v>410</v>
       </c>
       <c r="N10" s="10" t="n">
         <v>10</v>
@@ -5880,10 +6075,10 @@
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B11" s="12" t="s">
-        <v>388</v>
+        <v>411</v>
       </c>
       <c r="C11" s="12" t="s">
-        <v>389</v>
+        <v>412</v>
       </c>
       <c r="D11" s="10" t="n">
         <v>20</v>
@@ -5898,10 +6093,10 @@
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B12" s="0" t="s">
-        <v>390</v>
+        <v>413</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>391</v>
+        <v>414</v>
       </c>
       <c r="D12" s="1" t="n">
         <v>5</v>
@@ -5914,40 +6109,40 @@
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B13" s="0" t="s">
-        <v>392</v>
+        <v>415</v>
       </c>
       <c r="C13" s="0" t="s">
-        <v>393</v>
+        <v>416</v>
       </c>
       <c r="D13" s="1" t="n">
         <v>1</v>
       </c>
       <c r="E13" s="0"/>
       <c r="G13" s="2" t="s">
-        <v>386</v>
+        <v>409</v>
       </c>
       <c r="H13" s="2"/>
       <c r="I13" s="3"/>
       <c r="J13" s="2" t="s">
-        <v>389</v>
+        <v>412</v>
       </c>
       <c r="K13" s="2"/>
       <c r="L13" s="3"/>
       <c r="M13" s="2" t="s">
-        <v>391</v>
+        <v>414</v>
       </c>
       <c r="N13" s="2"/>
       <c r="P13" s="2" t="s">
-        <v>394</v>
+        <v>417</v>
       </c>
       <c r="Q13" s="2"/>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B14" s="0" t="s">
-        <v>395</v>
+        <v>418</v>
       </c>
       <c r="C14" s="0" t="s">
-        <v>396</v>
+        <v>419</v>
       </c>
       <c r="D14" s="1" t="n">
         <v>1</v>
@@ -5966,38 +6161,38 @@
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B15" s="0" t="s">
-        <v>397</v>
+        <v>420</v>
       </c>
       <c r="C15" s="0" t="s">
-        <v>398</v>
+        <v>421</v>
       </c>
       <c r="D15" s="1" t="n">
         <v>1</v>
       </c>
       <c r="E15" s="0"/>
       <c r="G15" s="7" t="s">
-        <v>386</v>
+        <v>409</v>
       </c>
       <c r="H15" s="5" t="n">
         <f aca="false">SUM(H16:H21)</f>
         <v>100</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>389</v>
+        <v>412</v>
       </c>
       <c r="K15" s="5" t="n">
         <f aca="false">SUM(K16:K21)</f>
         <v>100</v>
       </c>
       <c r="M15" s="7" t="s">
-        <v>391</v>
+        <v>414</v>
       </c>
       <c r="N15" s="5" t="n">
         <f aca="false">SUM(N16:N21)</f>
         <v>100</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>394</v>
+        <v>417</v>
       </c>
       <c r="Q15" s="5" t="n">
         <f aca="false">SUM(Q16:Q21)</f>
@@ -6006,35 +6201,35 @@
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B16" s="0" t="s">
-        <v>399</v>
+        <v>422</v>
       </c>
       <c r="C16" s="0" t="s">
-        <v>394</v>
+        <v>417</v>
       </c>
       <c r="D16" s="1" t="n">
         <v>20</v>
       </c>
       <c r="E16" s="0"/>
       <c r="G16" s="0" t="s">
-        <v>374</v>
+        <v>397</v>
       </c>
       <c r="H16" s="1" t="n">
         <v>40</v>
       </c>
       <c r="J16" s="0" t="s">
-        <v>400</v>
+        <v>423</v>
       </c>
       <c r="K16" s="1" t="n">
         <v>35</v>
       </c>
       <c r="M16" s="0" t="s">
-        <v>401</v>
+        <v>424</v>
       </c>
       <c r="N16" s="1" t="n">
         <v>30</v>
       </c>
       <c r="P16" s="0" t="s">
-        <v>373</v>
+        <v>396</v>
       </c>
       <c r="Q16" s="1" t="n">
         <v>15</v>
@@ -6042,35 +6237,35 @@
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B17" s="0" t="s">
-        <v>402</v>
+        <v>425</v>
       </c>
       <c r="C17" s="0" t="s">
-        <v>403</v>
+        <v>426</v>
       </c>
       <c r="D17" s="1" t="n">
         <v>5</v>
       </c>
       <c r="E17" s="0"/>
       <c r="G17" s="0" t="s">
-        <v>378</v>
+        <v>401</v>
       </c>
       <c r="H17" s="1" t="n">
         <v>10</v>
       </c>
       <c r="J17" s="0" t="s">
-        <v>404</v>
+        <v>427</v>
       </c>
       <c r="K17" s="1" t="n">
         <v>35</v>
       </c>
       <c r="M17" s="0" t="s">
-        <v>405</v>
+        <v>428</v>
       </c>
       <c r="N17" s="1" t="n">
         <v>30</v>
       </c>
       <c r="P17" s="0" t="s">
-        <v>405</v>
+        <v>428</v>
       </c>
       <c r="Q17" s="1" t="n">
         <v>15</v>
@@ -6078,35 +6273,35 @@
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B18" s="0" t="s">
-        <v>406</v>
+        <v>429</v>
       </c>
       <c r="C18" s="0" t="s">
-        <v>407</v>
+        <v>430</v>
       </c>
       <c r="D18" s="1" t="n">
         <v>10</v>
       </c>
       <c r="E18" s="0"/>
       <c r="G18" s="0" t="s">
-        <v>381</v>
+        <v>404</v>
       </c>
       <c r="H18" s="1" t="n">
         <v>10</v>
       </c>
       <c r="J18" s="0" t="s">
-        <v>408</v>
+        <v>431</v>
       </c>
       <c r="K18" s="1" t="n">
         <v>30</v>
       </c>
       <c r="M18" s="0" t="s">
-        <v>379</v>
+        <v>402</v>
       </c>
       <c r="N18" s="1" t="n">
         <v>30</v>
       </c>
       <c r="P18" s="0" t="s">
-        <v>409</v>
+        <v>432</v>
       </c>
       <c r="Q18" s="1" t="n">
         <v>40</v>
@@ -6114,29 +6309,29 @@
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B19" s="0" t="s">
-        <v>410</v>
+        <v>433</v>
       </c>
       <c r="C19" s="0" t="s">
-        <v>411</v>
+        <v>434</v>
       </c>
       <c r="D19" s="1" t="n">
         <v>1</v>
       </c>
       <c r="E19" s="0"/>
       <c r="G19" s="0" t="s">
-        <v>379</v>
+        <v>402</v>
       </c>
       <c r="H19" s="1" t="n">
         <v>10</v>
       </c>
       <c r="M19" s="0" t="s">
-        <v>412</v>
+        <v>435</v>
       </c>
       <c r="N19" s="1" t="n">
         <v>10</v>
       </c>
       <c r="P19" s="0" t="s">
-        <v>404</v>
+        <v>427</v>
       </c>
       <c r="Q19" s="1" t="n">
         <v>15</v>
@@ -6144,23 +6339,23 @@
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B20" s="0" t="s">
-        <v>413</v>
+        <v>436</v>
       </c>
       <c r="C20" s="0" t="s">
-        <v>414</v>
+        <v>437</v>
       </c>
       <c r="D20" s="1" t="n">
         <v>5</v>
       </c>
       <c r="E20" s="0"/>
       <c r="G20" s="0" t="s">
-        <v>409</v>
+        <v>432</v>
       </c>
       <c r="H20" s="1" t="n">
         <v>20</v>
       </c>
       <c r="P20" s="0" t="s">
-        <v>400</v>
+        <v>423</v>
       </c>
       <c r="Q20" s="1" t="n">
         <v>15</v>
@@ -6168,17 +6363,17 @@
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B21" s="0" t="s">
-        <v>415</v>
+        <v>438</v>
       </c>
       <c r="C21" s="0" t="s">
-        <v>416</v>
+        <v>439</v>
       </c>
       <c r="D21" s="1" t="n">
         <v>1</v>
       </c>
       <c r="E21" s="0"/>
       <c r="G21" s="0" t="s">
-        <v>387</v>
+        <v>410</v>
       </c>
       <c r="H21" s="1" t="n">
         <v>10</v>
@@ -6186,10 +6381,10 @@
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B22" s="0" t="s">
-        <v>417</v>
+        <v>440</v>
       </c>
       <c r="C22" s="0" t="s">
-        <v>418</v>
+        <v>441</v>
       </c>
       <c r="D22" s="1" t="n">
         <v>20</v>
@@ -6205,28 +6400,28 @@
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="G24" s="2" t="s">
-        <v>403</v>
+        <v>426</v>
       </c>
       <c r="H24" s="2"/>
       <c r="I24" s="3"/>
       <c r="J24" s="2" t="s">
-        <v>407</v>
+        <v>430</v>
       </c>
       <c r="K24" s="2"/>
       <c r="L24" s="3"/>
       <c r="M24" s="2" t="s">
-        <v>414</v>
+        <v>437</v>
       </c>
       <c r="N24" s="2"/>
       <c r="O24" s="3"/>
       <c r="P24" s="2" t="s">
-        <v>418</v>
+        <v>441</v>
       </c>
       <c r="Q24" s="2"/>
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B25" s="2" t="s">
-        <v>419</v>
+        <v>442</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" s="2"/>
@@ -6244,35 +6439,35 @@
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B26" s="7" t="s">
-        <v>361</v>
+        <v>384</v>
       </c>
       <c r="C26" s="7" t="s">
-        <v>362</v>
+        <v>385</v>
       </c>
       <c r="D26" s="5"/>
       <c r="G26" s="7" t="s">
-        <v>403</v>
+        <v>426</v>
       </c>
       <c r="H26" s="5" t="n">
         <f aca="false">SUM(H27:H32)</f>
         <v>100</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>407</v>
+        <v>430</v>
       </c>
       <c r="K26" s="5" t="n">
         <f aca="false">SUM(K27:K32)</f>
         <v>100</v>
       </c>
       <c r="M26" s="7" t="s">
-        <v>414</v>
+        <v>437</v>
       </c>
       <c r="N26" s="5" t="n">
         <f aca="false">SUM(N27:N32)</f>
         <v>100</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>418</v>
+        <v>441</v>
       </c>
       <c r="Q26" s="5" t="n">
         <f aca="false">SUM(Q27:Q32)</f>
@@ -6281,32 +6476,32 @@
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B27" s="12" t="s">
-        <v>363</v>
+        <v>386</v>
       </c>
       <c r="C27" s="0" t="s">
-        <v>420</v>
+        <v>443</v>
       </c>
       <c r="D27" s="10"/>
       <c r="G27" s="0" t="s">
-        <v>383</v>
+        <v>406</v>
       </c>
       <c r="H27" s="1" t="n">
         <v>25</v>
       </c>
       <c r="J27" s="0" t="s">
-        <v>401</v>
+        <v>424</v>
       </c>
       <c r="K27" s="1" t="n">
         <v>20</v>
       </c>
       <c r="M27" s="0" t="s">
-        <v>400</v>
+        <v>423</v>
       </c>
       <c r="N27" s="1" t="n">
         <v>35</v>
       </c>
       <c r="P27" s="0" t="s">
-        <v>421</v>
+        <v>444</v>
       </c>
       <c r="Q27" s="1" t="n">
         <v>40</v>
@@ -6314,31 +6509,31 @@
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B28" s="0" t="s">
-        <v>368</v>
+        <v>391</v>
       </c>
       <c r="C28" s="0" t="s">
-        <v>369</v>
+        <v>392</v>
       </c>
       <c r="G28" s="0" t="s">
-        <v>387</v>
+        <v>410</v>
       </c>
       <c r="H28" s="1" t="n">
         <v>50</v>
       </c>
       <c r="J28" s="0" t="s">
-        <v>405</v>
+        <v>428</v>
       </c>
       <c r="K28" s="1" t="n">
         <v>20</v>
       </c>
       <c r="M28" s="0" t="s">
-        <v>404</v>
+        <v>427</v>
       </c>
       <c r="N28" s="1" t="n">
         <v>35</v>
       </c>
       <c r="P28" s="0" t="s">
-        <v>409</v>
+        <v>432</v>
       </c>
       <c r="Q28" s="1" t="n">
         <v>40</v>
@@ -6346,31 +6541,31 @@
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B29" s="0" t="s">
-        <v>371</v>
+        <v>394</v>
       </c>
       <c r="C29" s="0" t="s">
-        <v>422</v>
+        <v>445</v>
       </c>
       <c r="G29" s="0" t="s">
-        <v>384</v>
+        <v>407</v>
       </c>
       <c r="H29" s="1" t="n">
         <v>25</v>
       </c>
       <c r="J29" s="0" t="s">
-        <v>421</v>
+        <v>444</v>
       </c>
       <c r="K29" s="1" t="n">
         <v>40</v>
       </c>
       <c r="M29" s="0" t="s">
-        <v>408</v>
+        <v>431</v>
       </c>
       <c r="N29" s="1" t="n">
         <v>30</v>
       </c>
       <c r="P29" s="0" t="s">
-        <v>377</v>
+        <v>400</v>
       </c>
       <c r="Q29" s="1" t="n">
         <v>20</v>
@@ -6378,13 +6573,13 @@
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B30" s="0" t="s">
-        <v>375</v>
+        <v>398</v>
       </c>
       <c r="C30" s="0" t="s">
-        <v>420</v>
+        <v>443</v>
       </c>
       <c r="J30" s="0" t="s">
-        <v>412</v>
+        <v>435</v>
       </c>
       <c r="K30" s="1" t="n">
         <v>20</v>
@@ -6392,123 +6587,123 @@
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B31" s="0" t="s">
-        <v>380</v>
+        <v>403</v>
       </c>
       <c r="C31" s="0" t="s">
-        <v>423</v>
+        <v>446</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B32" s="0" t="s">
-        <v>382</v>
+        <v>405</v>
       </c>
       <c r="C32" s="0" t="s">
-        <v>424</v>
+        <v>447</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B33" s="0" t="s">
-        <v>385</v>
+        <v>408</v>
       </c>
       <c r="C33" s="0" t="s">
-        <v>425</v>
+        <v>448</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B34" s="12" t="s">
-        <v>388</v>
+        <v>411</v>
       </c>
       <c r="C34" s="0" t="s">
-        <v>426</v>
+        <v>449</v>
       </c>
       <c r="D34" s="10"/>
     </row>
     <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B35" s="0" t="s">
-        <v>390</v>
+        <v>413</v>
       </c>
       <c r="C35" s="0" t="s">
-        <v>427</v>
+        <v>450</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B36" s="0" t="s">
-        <v>392</v>
+        <v>415</v>
       </c>
       <c r="C36" s="0" t="s">
-        <v>420</v>
+        <v>443</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B37" s="0" t="s">
-        <v>395</v>
+        <v>418</v>
       </c>
       <c r="C37" s="0" t="s">
-        <v>420</v>
+        <v>443</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B38" s="0" t="s">
-        <v>397</v>
+        <v>420</v>
       </c>
       <c r="C38" s="0" t="s">
-        <v>420</v>
+        <v>443</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B39" s="0" t="s">
-        <v>399</v>
+        <v>422</v>
       </c>
       <c r="C39" s="0" t="s">
-        <v>428</v>
+        <v>451</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B40" s="0" t="s">
-        <v>402</v>
+        <v>425</v>
       </c>
       <c r="C40" s="0" t="s">
-        <v>429</v>
+        <v>452</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B41" s="0" t="s">
-        <v>406</v>
+        <v>429</v>
       </c>
       <c r="C41" s="0" t="s">
-        <v>430</v>
+        <v>453</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B42" s="0" t="s">
-        <v>410</v>
+        <v>433</v>
       </c>
       <c r="C42" s="0" t="s">
-        <v>420</v>
+        <v>443</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B43" s="0" t="s">
-        <v>413</v>
+        <v>436</v>
       </c>
       <c r="C43" s="0" t="s">
-        <v>431</v>
+        <v>454</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B44" s="0" t="s">
-        <v>415</v>
+        <v>438</v>
       </c>
       <c r="C44" s="0" t="s">
-        <v>420</v>
+        <v>443</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B45" s="0" t="s">
-        <v>417</v>
+        <v>440</v>
       </c>
       <c r="C45" s="0" t="s">
-        <v>432</v>
+        <v>455</v>
       </c>
     </row>
   </sheetData>

--- a/city-npc/Ptolus_City_NPC_Encounter.xlsx
+++ b/city-npc/Ptolus_City_NPC_Encounter.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="626" uniqueCount="456">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="645" uniqueCount="463">
   <si>
     <t xml:space="preserve">MORTAL</t>
   </si>
@@ -32,10 +32,25 @@
     <t xml:space="preserve">MORE</t>
   </si>
   <si>
-    <t xml:space="preserve">WORLD</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GENDER</t>
+    <t xml:space="preserve">LESS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MORTALITY ROUTER</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WORLD GENERATOR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GENDER GENERATOR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VALUE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WEIGHT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KEY</t>
   </si>
   <si>
     <t xml:space="preserve">Mortal</t>
@@ -44,6 +59,15 @@
     <t xml:space="preserve">Aberation</t>
   </si>
   <si>
+    <t xml:space="preserve">Beasts</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mortal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[template:mortal-soullink|{}]</t>
+  </si>
+  <si>
     <t xml:space="preserve">This World</t>
   </si>
   <si>
@@ -56,6 +80,15 @@
     <t xml:space="preserve">Celestial</t>
   </si>
   <si>
+    <t xml:space="preserve">Oozes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">more-than-mortal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[template:more-than-mortal-soullink|{}]</t>
+  </si>
+  <si>
     <t xml:space="preserve">Another World</t>
   </si>
   <si>
@@ -68,12 +101,24 @@
     <t xml:space="preserve">Constructs</t>
   </si>
   <si>
+    <t xml:space="preserve">Plant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">less-than-mortal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[template:less-than-mortal-soullink|{}]</t>
+  </si>
+  <si>
     <t xml:space="preserve">Beyond</t>
   </si>
   <si>
     <t xml:space="preserve">Dragon</t>
   </si>
   <si>
+    <t xml:space="preserve">Vermin</t>
+  </si>
+  <si>
     <t xml:space="preserve">Elemental</t>
   </si>
   <si>
@@ -98,21 +143,6 @@
     <t xml:space="preserve">Undead</t>
   </si>
   <si>
-    <t xml:space="preserve">LESS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Beasts</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Oozes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Plant</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Vermin</t>
-  </si>
-  <si>
     <t xml:space="preserve">ORIGIN GENERATORS</t>
   </si>
   <si>
@@ -126,15 +156,6 @@
   </si>
   <si>
     <t xml:space="preserve">CULTURAL ORIGIN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">KEY</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VALUE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">WEIGHT</t>
   </si>
   <si>
     <t xml:space="preserve">City</t>
@@ -1503,7 +1524,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="14">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1536,6 +1557,10 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1550,14 +1575,6 @@
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
@@ -1641,13 +1658,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A2:K25"/>
+  <dimension ref="A2:AMJ25"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A6" activeCellId="0" sqref="A6"/>
+      <selection pane="topLeft" activeCell="N7" activeCellId="0" sqref="N7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.6953125" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="25.56"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="8.6"/>
@@ -1658,12 +1675,17 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="25.56"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="8.6"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="1.61"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="25.56"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="8.6"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="1.61"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="18.34"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="37.1"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="2.49"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="0" width="28.48"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="0" width="9.72"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="0" width="2.08"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="0" width="15"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="1024" style="0" width="11.52"/>
   </cols>
   <sheetData>
-    <row r="2" s="3" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" s="3" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -1676,13 +1698,66 @@
         <v>2</v>
       </c>
       <c r="H2" s="2"/>
+      <c r="I2" s="0"/>
       <c r="J2" s="2" t="s">
         <v>3</v>
       </c>
       <c r="K2" s="2"/>
-    </row>
-    <row r="3" s="3" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="M2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="N2" s="2"/>
+      <c r="P2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q2" s="2"/>
+      <c r="R2" s="0"/>
+      <c r="S2" s="0"/>
+      <c r="AMJ2" s="0"/>
+    </row>
+    <row r="3" s="3" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="I3" s="0"/>
+      <c r="J3" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K3" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="M3" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="N3" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="P3" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q3" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="R3" s="0"/>
+      <c r="S3" s="0"/>
+      <c r="AMJ3" s="0"/>
+    </row>
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B4" s="5" t="n">
         <f aca="false">SUM(B5:B7)</f>
         <v>100</v>
@@ -1692,207 +1767,236 @@
         <v>135</v>
       </c>
       <c r="H4" s="5" t="n">
-        <f aca="false">SUM(H5:H7)</f>
-        <v>100</v>
-      </c>
-      <c r="K4" s="5" t="n">
-        <f aca="false">SUM(K5:K7)</f>
-        <v>100</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <f aca="false">SUM(H5:H8)</f>
+        <v>100</v>
+      </c>
+      <c r="K4" s="0"/>
+      <c r="N4" s="5" t="n">
+        <f aca="false">SUM(N5:N7)</f>
+        <v>100</v>
+      </c>
+      <c r="Q4" s="5" t="n">
+        <f aca="false">SUM(Q5:Q7)</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="B5" s="1" t="n">
         <v>80</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="E5" s="1" t="n">
         <v>10</v>
       </c>
       <c r="G5" s="0" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="H5" s="1" t="n">
+        <v>40</v>
+      </c>
+      <c r="J5" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="K5" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="M5" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="N5" s="1" t="n">
         <v>90</v>
       </c>
-      <c r="J5" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="K5" s="1" t="n">
+      <c r="P5" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q5" s="1" t="n">
         <v>60</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="6" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="B6" s="1" t="n">
         <v>18</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="E6" s="1" t="n">
         <v>10</v>
       </c>
       <c r="G6" s="0" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="H6" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="J6" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="K6" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="M6" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="N6" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="J6" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="K6" s="1" t="n">
+      <c r="P6" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q6" s="1" t="n">
         <v>40</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="6" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="B7" s="1" t="n">
         <v>2</v>
       </c>
       <c r="D7" s="0" t="s">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="E7" s="1" t="n">
         <v>10</v>
       </c>
       <c r="G7" s="0" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="H7" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="J7" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="K7" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="M7" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="N7" s="1" t="n">
         <v>5</v>
       </c>
-    </row>
-    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="Q7" s="1"/>
+    </row>
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D8" s="0" t="s">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="E8" s="1" t="n">
         <v>5</v>
       </c>
-    </row>
-    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G8" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="H8" s="1" t="n">
+        <v>40</v>
+      </c>
+      <c r="K8" s="0"/>
+      <c r="P8" s="1"/>
+      <c r="S8" s="1"/>
+    </row>
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D9" s="0" t="s">
-        <v>16</v>
+        <v>31</v>
       </c>
       <c r="E9" s="1" t="n">
         <v>5</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D10" s="0" t="s">
-        <v>17</v>
+        <v>32</v>
       </c>
       <c r="E10" s="1" t="n">
         <v>20</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D11" s="0" t="s">
-        <v>18</v>
+        <v>33</v>
       </c>
       <c r="E11" s="1" t="n">
         <v>20</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D12" s="0" t="s">
-        <v>19</v>
+        <v>34</v>
       </c>
       <c r="E12" s="1" t="n">
         <v>5</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D13" s="0" t="s">
-        <v>20</v>
+        <v>35</v>
       </c>
       <c r="E13" s="1" t="n">
         <v>15</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D14" s="0" t="s">
-        <v>21</v>
+        <v>36</v>
       </c>
       <c r="E14" s="1" t="n">
         <v>5</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D15" s="6" t="s">
-        <v>22</v>
+        <v>37</v>
       </c>
       <c r="E15" s="1" t="n">
         <v>15</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D16" s="0" t="s">
-        <v>23</v>
+        <v>38</v>
       </c>
       <c r="E16" s="1" t="n">
         <v>15</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D19" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="E19" s="2"/>
-    </row>
-    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D20" s="3"/>
-      <c r="E20" s="3"/>
-    </row>
-    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E21" s="5" t="n">
-        <f aca="false">SUM(E22:E33)</f>
-        <v>100</v>
-      </c>
-    </row>
-    <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D22" s="0" t="s">
-        <v>25</v>
-      </c>
-      <c r="E22" s="1" t="n">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D23" s="0" t="s">
-        <v>26</v>
-      </c>
-      <c r="E23" s="1" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D24" s="0" t="s">
-        <v>27</v>
-      </c>
-      <c r="E24" s="1" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D25" s="0" t="s">
-        <v>28</v>
-      </c>
-      <c r="E25" s="1" t="n">
-        <v>40</v>
-      </c>
+    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E19" s="0"/>
+    </row>
+    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E20" s="0"/>
+    </row>
+    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E21" s="0"/>
+    </row>
+    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E22" s="0"/>
+    </row>
+    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E23" s="0"/>
+    </row>
+    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E24" s="0"/>
+    </row>
+    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E25" s="0"/>
     </row>
   </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="M2:N2"/>
+    <mergeCell ref="P2:Q2"/>
+  </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
   <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
@@ -1910,11 +2014,11 @@
   </sheetPr>
   <dimension ref="B1:Q121"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F33" activeCellId="0" sqref="F33"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A37" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="H65" activeCellId="0" sqref="H65"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.6953125" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="2.49"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="13.19"/>
@@ -1940,25 +2044,25 @@
       <c r="K1" s="5"/>
     </row>
     <row r="2" s="3" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B2" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
+      <c r="B2" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="C2" s="8"/>
+      <c r="D2" s="8"/>
       <c r="E2" s="5"/>
-      <c r="F2" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="H2" s="2"/>
-      <c r="J2" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="K2" s="2"/>
+      <c r="F2" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="G2" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="H2" s="8"/>
+      <c r="J2" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="K2" s="8"/>
       <c r="M2" s="2" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="N2" s="2"/>
       <c r="P2" s="0"/>
@@ -1966,29 +2070,29 @@
     </row>
     <row r="3" s="3" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3" s="3" t="s">
-        <v>34</v>
+        <v>8</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>35</v>
+        <v>6</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>36</v>
+        <v>7</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>34</v>
+        <v>8</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>35</v>
+        <v>6</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>36</v>
+        <v>7</v>
       </c>
       <c r="P3" s="0"/>
       <c r="Q3" s="0"/>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C4" s="8" t="s">
-        <v>37</v>
+      <c r="C4" s="9" t="s">
+        <v>44</v>
       </c>
       <c r="D4" s="5" t="n">
         <f aca="false">SUM(D5:D7)</f>
@@ -2000,15 +2104,15 @@
         <f aca="false">SUM(H5:H8)</f>
         <v>100</v>
       </c>
-      <c r="J4" s="9" t="s">
-        <v>38</v>
+      <c r="J4" s="10" t="s">
+        <v>45</v>
       </c>
       <c r="K4" s="5" t="n">
         <f aca="false">SUM(K5:K7)</f>
         <v>100</v>
       </c>
       <c r="M4" s="7" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="N4" s="5" t="n">
         <f aca="false">SUM(N5:N11)</f>
@@ -2018,31 +2122,31 @@
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B5" s="0" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="D5" s="1" t="n">
         <v>90</v>
       </c>
       <c r="F5" s="0" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="G5" s="0" t="s">
-        <v>43</v>
-      </c>
-      <c r="H5" s="10" t="n">
+        <v>50</v>
+      </c>
+      <c r="H5" s="11" t="n">
         <v>10</v>
       </c>
       <c r="J5" s="0" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="K5" s="1" t="n">
         <v>40</v>
       </c>
       <c r="M5" s="0" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="N5" s="1" t="n">
         <v>20</v>
@@ -2051,31 +2155,31 @@
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B6" s="0" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>47</v>
+        <v>54</v>
       </c>
       <c r="D6" s="1" t="n">
         <v>5</v>
       </c>
       <c r="F6" s="0" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="G6" s="0" t="s">
-        <v>49</v>
-      </c>
-      <c r="H6" s="10" t="n">
+        <v>56</v>
+      </c>
+      <c r="H6" s="11" t="n">
         <v>10</v>
       </c>
       <c r="J6" s="0" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="K6" s="1" t="n">
         <v>40</v>
       </c>
       <c r="M6" s="0" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="N6" s="1" t="n">
         <v>20</v>
@@ -2084,31 +2188,31 @@
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B7" s="0" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="D7" s="1" t="n">
         <v>5</v>
       </c>
       <c r="F7" s="0" t="s">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="G7" s="0" t="s">
-        <v>55</v>
-      </c>
-      <c r="H7" s="10" t="n">
+        <v>62</v>
+      </c>
+      <c r="H7" s="11" t="n">
         <v>5</v>
       </c>
       <c r="J7" s="0" t="s">
-        <v>56</v>
+        <v>63</v>
       </c>
       <c r="K7" s="1" t="n">
         <v>20</v>
       </c>
       <c r="M7" s="0" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="N7" s="1" t="n">
         <v>20</v>
@@ -2117,16 +2221,16 @@
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F8" s="0" t="s">
-        <v>58</v>
+        <v>65</v>
       </c>
       <c r="G8" s="0" t="s">
-        <v>59</v>
-      </c>
-      <c r="H8" s="10" t="n">
+        <v>66</v>
+      </c>
+      <c r="H8" s="11" t="n">
         <v>75</v>
       </c>
       <c r="M8" s="0" t="s">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="N8" s="1" t="n">
         <v>10</v>
@@ -2135,7 +2239,7 @@
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="M9" s="0" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="N9" s="1" t="n">
         <v>10</v>
@@ -2143,8 +2247,8 @@
       <c r="Q9" s="0"/>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C10" s="8" t="s">
-        <v>62</v>
+      <c r="C10" s="9" t="s">
+        <v>69</v>
       </c>
       <c r="D10" s="5" t="n">
         <f aca="false">SUM(D11:D13)</f>
@@ -2152,14 +2256,14 @@
       </c>
       <c r="E10" s="5"/>
       <c r="J10" s="7" t="s">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="K10" s="5" t="n">
         <f aca="false">SUM(K11:K26)</f>
         <v>100</v>
       </c>
       <c r="M10" s="0" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="N10" s="1" t="n">
         <v>10</v>
@@ -2168,27 +2272,27 @@
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B11" s="0" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="D11" s="1" t="n">
         <v>40</v>
       </c>
-      <c r="F11" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="G11" s="2"/>
-      <c r="H11" s="2"/>
+      <c r="F11" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="G11" s="8"/>
+      <c r="H11" s="8"/>
       <c r="J11" s="0" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="K11" s="1" t="n">
         <v>20</v>
       </c>
       <c r="M11" s="0" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="N11" s="1" t="n">
         <v>10</v>
@@ -2197,10 +2301,10 @@
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B12" s="0" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>47</v>
+        <v>54</v>
       </c>
       <c r="D12" s="1" t="n">
         <v>20</v>
@@ -2208,7 +2312,7 @@
       <c r="G12" s="3"/>
       <c r="H12" s="3"/>
       <c r="J12" s="0" t="s">
-        <v>68</v>
+        <v>75</v>
       </c>
       <c r="K12" s="1" t="n">
         <v>7</v>
@@ -2217,23 +2321,23 @@
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B13" s="0" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="C13" s="0" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="D13" s="1" t="n">
         <v>40</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="H13" s="5" t="n">
         <f aca="false">SUM(H14:H27)</f>
         <v>105</v>
       </c>
       <c r="J13" s="0" t="s">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="K13" s="1" t="n">
         <v>7</v>
@@ -2242,16 +2346,16 @@
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F14" s="0" t="s">
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="G14" s="0" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="H14" s="1" t="n">
         <v>10</v>
       </c>
       <c r="J14" s="0" t="s">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="K14" s="1" t="n">
         <v>7</v>
@@ -2259,8 +2363,8 @@
       <c r="Q14" s="0"/>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C15" s="8" t="s">
-        <v>74</v>
+      <c r="C15" s="9" t="s">
+        <v>81</v>
       </c>
       <c r="D15" s="5" t="n">
         <f aca="false">SUM(D16:D18)</f>
@@ -2268,16 +2372,16 @@
       </c>
       <c r="E15" s="5"/>
       <c r="F15" s="0" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="G15" s="0" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="H15" s="1" t="n">
         <v>5</v>
       </c>
       <c r="J15" s="0" t="s">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="K15" s="1" t="n">
         <v>7</v>
@@ -2286,25 +2390,25 @@
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B16" s="0" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="C16" s="0" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="D16" s="1" t="n">
         <v>100</v>
       </c>
       <c r="F16" s="0" t="s">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="G16" s="6" t="s">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="H16" s="1" t="n">
         <v>5</v>
       </c>
       <c r="J16" s="0" t="s">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="K16" s="1" t="n">
         <v>7</v>
@@ -2313,16 +2417,16 @@
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F17" s="0" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="G17" s="0" t="s">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="H17" s="1" t="n">
         <v>10</v>
       </c>
       <c r="J17" s="0" t="s">
-        <v>83</v>
+        <v>90</v>
       </c>
       <c r="K17" s="1" t="n">
         <v>7</v>
@@ -2331,16 +2435,16 @@
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F18" s="0" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="G18" s="0" t="s">
-        <v>85</v>
+        <v>92</v>
       </c>
       <c r="H18" s="1" t="n">
         <v>5</v>
       </c>
       <c r="J18" s="0" t="s">
-        <v>86</v>
+        <v>93</v>
       </c>
       <c r="K18" s="1" t="n">
         <v>7</v>
@@ -2349,16 +2453,16 @@
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F19" s="0" t="s">
-        <v>87</v>
-      </c>
-      <c r="G19" s="11" t="s">
-        <v>88</v>
+        <v>94</v>
+      </c>
+      <c r="G19" s="12" t="s">
+        <v>95</v>
       </c>
       <c r="H19" s="1" t="n">
         <v>10</v>
       </c>
       <c r="J19" s="0" t="s">
-        <v>89</v>
+        <v>96</v>
       </c>
       <c r="K19" s="1" t="n">
         <v>7</v>
@@ -2367,16 +2471,16 @@
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F20" s="0" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="G20" s="0" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="H20" s="1" t="n">
         <v>10</v>
       </c>
       <c r="J20" s="0" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="K20" s="1" t="n">
         <v>7</v>
@@ -2385,16 +2489,16 @@
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F21" s="0" t="s">
-        <v>93</v>
-      </c>
-      <c r="G21" s="11" t="s">
-        <v>94</v>
+        <v>100</v>
+      </c>
+      <c r="G21" s="12" t="s">
+        <v>101</v>
       </c>
       <c r="H21" s="1" t="n">
         <v>5</v>
       </c>
       <c r="J21" s="0" t="s">
-        <v>95</v>
+        <v>102</v>
       </c>
       <c r="K21" s="1" t="n">
         <v>7</v>
@@ -2403,16 +2507,16 @@
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F22" s="0" t="s">
-        <v>96</v>
+        <v>103</v>
       </c>
       <c r="G22" s="0" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="H22" s="1" t="n">
         <v>5</v>
       </c>
       <c r="J22" s="0" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="K22" s="1" t="n">
         <v>2</v>
@@ -2421,16 +2525,16 @@
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F23" s="0" t="s">
-        <v>99</v>
+        <v>106</v>
       </c>
       <c r="G23" s="0" t="s">
-        <v>100</v>
+        <v>107</v>
       </c>
       <c r="H23" s="1" t="n">
         <v>10</v>
       </c>
       <c r="J23" s="0" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="K23" s="1" t="n">
         <v>2</v>
@@ -2439,16 +2543,16 @@
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F24" s="0" t="s">
-        <v>102</v>
-      </c>
-      <c r="G24" s="11" t="s">
-        <v>103</v>
+        <v>109</v>
+      </c>
+      <c r="G24" s="12" t="s">
+        <v>110</v>
       </c>
       <c r="H24" s="1" t="n">
         <v>10</v>
       </c>
       <c r="J24" s="0" t="s">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="K24" s="1" t="n">
         <v>2</v>
@@ -2457,16 +2561,16 @@
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F25" s="0" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="G25" s="0" t="s">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="H25" s="1" t="n">
         <v>5</v>
       </c>
       <c r="J25" s="0" t="s">
-        <v>107</v>
+        <v>114</v>
       </c>
       <c r="K25" s="1" t="n">
         <v>2</v>
@@ -2475,16 +2579,16 @@
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F26" s="0" t="s">
-        <v>108</v>
+        <v>115</v>
       </c>
       <c r="G26" s="0" t="s">
-        <v>109</v>
+        <v>116</v>
       </c>
       <c r="H26" s="1" t="n">
         <v>10</v>
       </c>
       <c r="J26" s="0" t="s">
-        <v>110</v>
+        <v>117</v>
       </c>
       <c r="K26" s="1" t="n">
         <v>2</v>
@@ -2493,10 +2597,10 @@
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F27" s="0" t="s">
-        <v>111</v>
-      </c>
-      <c r="G27" s="11" t="s">
-        <v>112</v>
+        <v>118</v>
+      </c>
+      <c r="G27" s="12" t="s">
+        <v>119</v>
       </c>
       <c r="H27" s="1" t="n">
         <v>5</v>
@@ -2505,10 +2609,10 @@
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F28" s="0" t="s">
-        <v>113</v>
-      </c>
-      <c r="G28" s="11" t="s">
-        <v>114</v>
+        <v>120</v>
+      </c>
+      <c r="G28" s="12" t="s">
+        <v>121</v>
       </c>
       <c r="H28" s="1" t="n">
         <v>10</v>
@@ -2516,9 +2620,9 @@
       <c r="Q28" s="0"/>
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G29" s="11"/>
+      <c r="G29" s="12"/>
       <c r="J29" s="7" t="s">
-        <v>115</v>
+        <v>122</v>
       </c>
       <c r="K29" s="5" t="n">
         <f aca="false">SUM(K30:K33)</f>
@@ -2530,9 +2634,9 @@
       <c r="D30" s="0"/>
       <c r="E30" s="0"/>
       <c r="J30" s="12" t="s">
-        <v>116</v>
-      </c>
-      <c r="K30" s="10" t="n">
+        <v>123</v>
+      </c>
+      <c r="K30" s="11" t="n">
         <v>25</v>
       </c>
       <c r="Q30" s="0"/>
@@ -2541,32 +2645,32 @@
       <c r="D31" s="0"/>
       <c r="E31" s="0"/>
       <c r="J31" s="12" t="s">
-        <v>117</v>
-      </c>
-      <c r="K31" s="10" t="n">
+        <v>124</v>
+      </c>
+      <c r="K31" s="11" t="n">
         <v>25</v>
       </c>
       <c r="Q31" s="0"/>
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J32" s="12" t="s">
-        <v>118</v>
-      </c>
-      <c r="K32" s="10" t="n">
+        <v>125</v>
+      </c>
+      <c r="K32" s="11" t="n">
         <v>25</v>
       </c>
       <c r="Q32" s="0"/>
     </row>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F33" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="G33" s="2"/>
-      <c r="H33" s="2"/>
+      <c r="F33" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="G33" s="8"/>
+      <c r="H33" s="8"/>
       <c r="J33" s="12" t="s">
-        <v>120</v>
-      </c>
-      <c r="K33" s="10" t="n">
+        <v>127</v>
+      </c>
+      <c r="K33" s="11" t="n">
         <v>25</v>
       </c>
       <c r="Q33" s="0"/>
@@ -2575,12 +2679,12 @@
       <c r="G34" s="3"/>
       <c r="H34" s="3"/>
       <c r="J34" s="12"/>
-      <c r="K34" s="10"/>
+      <c r="K34" s="11"/>
       <c r="Q34" s="0"/>
     </row>
     <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="G35" s="7" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="H35" s="5" t="n">
         <f aca="false">SUM(H36:H58)</f>
@@ -2589,14 +2693,14 @@
       <c r="Q35" s="0"/>
     </row>
     <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G36" s="11" t="s">
-        <v>121</v>
+      <c r="G36" s="12" t="s">
+        <v>128</v>
       </c>
       <c r="H36" s="1" t="n">
         <v>5</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>122</v>
+        <v>129</v>
       </c>
       <c r="K36" s="5" t="n">
         <f aca="false">SUM(K37:K42)</f>
@@ -2605,104 +2709,104 @@
       <c r="Q36" s="0"/>
     </row>
     <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G37" s="11" t="s">
-        <v>123</v>
+      <c r="G37" s="12" t="s">
+        <v>130</v>
       </c>
       <c r="H37" s="1" t="n">
         <v>10</v>
       </c>
       <c r="J37" s="12" t="s">
-        <v>124</v>
-      </c>
-      <c r="K37" s="10" t="n">
+        <v>131</v>
+      </c>
+      <c r="K37" s="11" t="n">
         <v>0</v>
       </c>
       <c r="Q37" s="0"/>
     </row>
     <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G38" s="11" t="s">
-        <v>125</v>
+      <c r="G38" s="12" t="s">
+        <v>132</v>
       </c>
       <c r="H38" s="1" t="n">
         <v>5</v>
       </c>
       <c r="J38" s="12" t="s">
-        <v>126</v>
-      </c>
-      <c r="K38" s="10" t="n">
+        <v>133</v>
+      </c>
+      <c r="K38" s="11" t="n">
         <v>0</v>
       </c>
       <c r="Q38" s="0"/>
     </row>
     <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G39" s="11" t="s">
-        <v>127</v>
+      <c r="G39" s="12" t="s">
+        <v>134</v>
       </c>
       <c r="H39" s="1" t="n">
         <v>20</v>
       </c>
       <c r="J39" s="12" t="s">
-        <v>128</v>
-      </c>
-      <c r="K39" s="10" t="n">
+        <v>135</v>
+      </c>
+      <c r="K39" s="11" t="n">
         <v>0</v>
       </c>
       <c r="Q39" s="0"/>
     </row>
     <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G40" s="11" t="s">
-        <v>129</v>
+      <c r="G40" s="12" t="s">
+        <v>136</v>
       </c>
       <c r="H40" s="1" t="n">
         <v>5</v>
       </c>
       <c r="J40" s="12" t="s">
-        <v>130</v>
-      </c>
-      <c r="K40" s="10" t="n">
+        <v>137</v>
+      </c>
+      <c r="K40" s="11" t="n">
         <v>79</v>
       </c>
       <c r="Q40" s="0"/>
     </row>
     <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="G41" s="0" t="s">
-        <v>131</v>
+        <v>138</v>
       </c>
       <c r="H41" s="1" t="n">
         <v>10</v>
       </c>
       <c r="J41" s="12" t="s">
-        <v>132</v>
-      </c>
-      <c r="K41" s="10" t="n">
+        <v>139</v>
+      </c>
+      <c r="K41" s="11" t="n">
         <v>20</v>
       </c>
       <c r="Q41" s="0"/>
     </row>
     <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G42" s="11" t="s">
-        <v>133</v>
+      <c r="G42" s="12" t="s">
+        <v>140</v>
       </c>
       <c r="H42" s="1" t="n">
         <v>5</v>
       </c>
       <c r="J42" s="12" t="s">
-        <v>134</v>
-      </c>
-      <c r="K42" s="10" t="n">
+        <v>141</v>
+      </c>
+      <c r="K42" s="11" t="n">
         <v>1</v>
       </c>
       <c r="Q42" s="0"/>
     </row>
     <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G43" s="11" t="s">
-        <v>135</v>
+      <c r="G43" s="12" t="s">
+        <v>142</v>
       </c>
       <c r="H43" s="1" t="n">
         <v>10</v>
       </c>
       <c r="J43" s="12" t="s">
-        <v>136</v>
+        <v>143</v>
       </c>
       <c r="K43" s="1" t="n">
         <v>0</v>
@@ -2710,14 +2814,14 @@
       <c r="Q43" s="0"/>
     </row>
     <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G44" s="11" t="s">
-        <v>137</v>
+      <c r="G44" s="12" t="s">
+        <v>144</v>
       </c>
       <c r="H44" s="1" t="n">
         <v>10</v>
       </c>
       <c r="J44" s="12" t="s">
-        <v>138</v>
+        <v>145</v>
       </c>
       <c r="K44" s="1" t="n">
         <v>0</v>
@@ -2726,13 +2830,13 @@
     </row>
     <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="G45" s="6" t="s">
-        <v>139</v>
+        <v>146</v>
       </c>
       <c r="H45" s="1" t="n">
         <v>10</v>
       </c>
       <c r="J45" s="12" t="s">
-        <v>140</v>
+        <v>147</v>
       </c>
       <c r="K45" s="1" t="n">
         <v>0</v>
@@ -2740,8 +2844,8 @@
       <c r="Q45" s="0"/>
     </row>
     <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G46" s="11" t="s">
-        <v>141</v>
+      <c r="G46" s="12" t="s">
+        <v>148</v>
       </c>
       <c r="H46" s="1" t="n">
         <v>5</v>
@@ -2750,8 +2854,8 @@
       <c r="Q46" s="0"/>
     </row>
     <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G47" s="11" t="s">
-        <v>142</v>
+      <c r="G47" s="12" t="s">
+        <v>149</v>
       </c>
       <c r="H47" s="1" t="n">
         <v>10</v>
@@ -2759,14 +2863,14 @@
       <c r="Q47" s="0"/>
     </row>
     <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G48" s="11" t="s">
-        <v>143</v>
+      <c r="G48" s="12" t="s">
+        <v>150</v>
       </c>
       <c r="H48" s="1" t="n">
         <v>5</v>
       </c>
       <c r="J48" s="7" t="s">
-        <v>144</v>
+        <v>151</v>
       </c>
       <c r="K48" s="5" t="n">
         <f aca="false">SUM(K49:K56)</f>
@@ -2776,159 +2880,159 @@
     </row>
     <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="G49" s="6" t="s">
-        <v>145</v>
+        <v>152</v>
       </c>
       <c r="H49" s="1" t="n">
         <v>10</v>
       </c>
       <c r="J49" s="12" t="s">
-        <v>146</v>
-      </c>
-      <c r="K49" s="10" t="n">
+        <v>153</v>
+      </c>
+      <c r="K49" s="11" t="n">
         <v>0</v>
       </c>
       <c r="Q49" s="0"/>
     </row>
     <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G50" s="11" t="s">
-        <v>147</v>
+      <c r="G50" s="12" t="s">
+        <v>154</v>
       </c>
       <c r="H50" s="1" t="n">
         <v>5</v>
       </c>
       <c r="J50" s="12" t="s">
-        <v>148</v>
-      </c>
-      <c r="K50" s="10" t="n">
+        <v>155</v>
+      </c>
+      <c r="K50" s="11" t="n">
         <v>0</v>
       </c>
       <c r="Q50" s="0"/>
     </row>
     <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="G51" s="0" t="s">
-        <v>149</v>
+        <v>156</v>
       </c>
       <c r="H51" s="1" t="n">
         <v>5</v>
       </c>
       <c r="J51" s="12" t="s">
-        <v>150</v>
-      </c>
-      <c r="K51" s="10" t="n">
+        <v>157</v>
+      </c>
+      <c r="K51" s="11" t="n">
         <v>2</v>
       </c>
       <c r="Q51" s="0"/>
     </row>
     <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="G52" s="0" t="s">
-        <v>151</v>
+        <v>158</v>
       </c>
       <c r="H52" s="1" t="n">
         <v>20</v>
       </c>
       <c r="J52" s="12" t="s">
-        <v>152</v>
-      </c>
-      <c r="K52" s="10" t="n">
+        <v>159</v>
+      </c>
+      <c r="K52" s="11" t="n">
         <v>45</v>
       </c>
       <c r="Q52" s="0"/>
     </row>
     <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="G53" s="0" t="s">
-        <v>153</v>
+        <v>160</v>
       </c>
       <c r="H53" s="1" t="n">
         <v>10</v>
       </c>
       <c r="J53" s="12" t="s">
-        <v>154</v>
-      </c>
-      <c r="K53" s="10" t="n">
+        <v>161</v>
+      </c>
+      <c r="K53" s="11" t="n">
         <v>45</v>
       </c>
       <c r="Q53" s="0"/>
     </row>
     <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G54" s="11" t="s">
-        <v>155</v>
+      <c r="G54" s="12" t="s">
+        <v>162</v>
       </c>
       <c r="H54" s="1" t="n">
         <v>5</v>
       </c>
       <c r="J54" s="12" t="s">
-        <v>156</v>
-      </c>
-      <c r="K54" s="10" t="n">
+        <v>163</v>
+      </c>
+      <c r="K54" s="11" t="n">
         <v>2</v>
       </c>
       <c r="Q54" s="0"/>
     </row>
     <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G55" s="11" t="s">
-        <v>157</v>
+      <c r="G55" s="12" t="s">
+        <v>164</v>
       </c>
       <c r="H55" s="1" t="n">
         <v>5</v>
       </c>
       <c r="J55" s="12" t="s">
-        <v>158</v>
-      </c>
-      <c r="K55" s="10" t="n">
+        <v>165</v>
+      </c>
+      <c r="K55" s="11" t="n">
         <v>6</v>
       </c>
       <c r="Q55" s="0"/>
     </row>
     <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G56" s="11" t="s">
-        <v>159</v>
+      <c r="G56" s="12" t="s">
+        <v>166</v>
       </c>
       <c r="H56" s="1" t="n">
         <v>5</v>
       </c>
       <c r="J56" s="12" t="s">
-        <v>160</v>
-      </c>
-      <c r="K56" s="10" t="n">
+        <v>167</v>
+      </c>
+      <c r="K56" s="11" t="n">
         <v>0</v>
       </c>
       <c r="Q56" s="0"/>
     </row>
     <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G57" s="11" t="s">
-        <v>161</v>
+      <c r="G57" s="12" t="s">
+        <v>168</v>
       </c>
       <c r="H57" s="1" t="n">
         <v>5</v>
       </c>
       <c r="J57" s="12" t="s">
-        <v>162</v>
-      </c>
-      <c r="K57" s="10" t="n">
+        <v>169</v>
+      </c>
+      <c r="K57" s="11" t="n">
         <v>0</v>
       </c>
       <c r="Q57" s="0"/>
     </row>
     <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="G58" s="6" t="s">
-        <v>163</v>
+        <v>170</v>
       </c>
       <c r="H58" s="1" t="n">
         <v>20</v>
       </c>
       <c r="J58" s="12" t="s">
-        <v>164</v>
-      </c>
-      <c r="K58" s="10" t="n">
+        <v>171</v>
+      </c>
+      <c r="K58" s="11" t="n">
         <v>0</v>
       </c>
       <c r="Q58" s="0"/>
     </row>
     <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J59" s="12" t="s">
-        <v>165</v>
-      </c>
-      <c r="K59" s="10" t="n">
+        <v>172</v>
+      </c>
+      <c r="K59" s="11" t="n">
         <v>0</v>
       </c>
       <c r="Q59" s="0"/>
@@ -2941,7 +3045,7 @@
     </row>
     <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J62" s="7" t="s">
-        <v>166</v>
+        <v>173</v>
       </c>
       <c r="K62" s="5" t="n">
         <f aca="false">SUM(K63:K65)</f>
@@ -2951,7 +3055,7 @@
     </row>
     <row r="63" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J63" s="0" t="s">
-        <v>167</v>
+        <v>174</v>
       </c>
       <c r="K63" s="1" t="n">
         <v>49</v>
@@ -2960,7 +3064,7 @@
     </row>
     <row r="64" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J64" s="0" t="s">
-        <v>168</v>
+        <v>175</v>
       </c>
       <c r="K64" s="1" t="n">
         <v>49</v>
@@ -2969,7 +3073,7 @@
     </row>
     <row r="65" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J65" s="0" t="s">
-        <v>169</v>
+        <v>176</v>
       </c>
       <c r="K65" s="1" t="n">
         <v>2</v>
@@ -2984,7 +3088,7 @@
     </row>
     <row r="68" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J68" s="7" t="s">
-        <v>170</v>
+        <v>177</v>
       </c>
       <c r="K68" s="5" t="n">
         <f aca="false">SUM(K69:K70)</f>
@@ -2994,7 +3098,7 @@
     </row>
     <row r="69" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J69" s="0" t="s">
-        <v>171</v>
+        <v>178</v>
       </c>
       <c r="K69" s="1" t="n">
         <v>50</v>
@@ -3003,7 +3107,7 @@
     </row>
     <row r="70" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J70" s="0" t="s">
-        <v>172</v>
+        <v>179</v>
       </c>
       <c r="K70" s="1" t="n">
         <v>50</v>
@@ -3012,7 +3116,7 @@
     </row>
     <row r="71" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J71" s="0" t="s">
-        <v>173</v>
+        <v>180</v>
       </c>
       <c r="K71" s="1" t="n">
         <v>0</v>
@@ -3021,7 +3125,7 @@
     </row>
     <row r="72" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J72" s="0" t="s">
-        <v>174</v>
+        <v>181</v>
       </c>
       <c r="K72" s="1" t="n">
         <v>0</v>
@@ -3036,7 +3140,7 @@
     </row>
     <row r="75" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J75" s="7" t="s">
-        <v>175</v>
+        <v>182</v>
       </c>
       <c r="K75" s="5" t="n">
         <f aca="false">SUM(K76:K81)</f>
@@ -3046,7 +3150,7 @@
     </row>
     <row r="76" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J76" s="0" t="s">
-        <v>176</v>
+        <v>183</v>
       </c>
       <c r="K76" s="1" t="n">
         <v>30</v>
@@ -3055,7 +3159,7 @@
     </row>
     <row r="77" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J77" s="0" t="s">
-        <v>177</v>
+        <v>184</v>
       </c>
       <c r="K77" s="1" t="n">
         <v>20</v>
@@ -3064,7 +3168,7 @@
     </row>
     <row r="78" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J78" s="0" t="s">
-        <v>178</v>
+        <v>185</v>
       </c>
       <c r="K78" s="1" t="n">
         <v>20</v>
@@ -3073,7 +3177,7 @@
     </row>
     <row r="79" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J79" s="0" t="s">
-        <v>179</v>
+        <v>186</v>
       </c>
       <c r="K79" s="1" t="n">
         <v>20</v>
@@ -3082,7 +3186,7 @@
     </row>
     <row r="80" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J80" s="0" t="s">
-        <v>180</v>
+        <v>187</v>
       </c>
       <c r="K80" s="1" t="n">
         <v>5</v>
@@ -3091,7 +3195,7 @@
     </row>
     <row r="81" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J81" s="0" t="s">
-        <v>181</v>
+        <v>188</v>
       </c>
       <c r="K81" s="1" t="n">
         <v>5</v>
@@ -3106,7 +3210,7 @@
     </row>
     <row r="84" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J84" s="7" t="s">
-        <v>182</v>
+        <v>189</v>
       </c>
       <c r="K84" s="5" t="n">
         <f aca="false">SUM(K85:K89)</f>
@@ -3116,7 +3220,7 @@
     </row>
     <row r="85" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J85" s="0" t="s">
-        <v>183</v>
+        <v>190</v>
       </c>
       <c r="K85" s="1" t="n">
         <v>60</v>
@@ -3125,7 +3229,7 @@
     </row>
     <row r="86" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J86" s="0" t="s">
-        <v>184</v>
+        <v>191</v>
       </c>
       <c r="K86" s="1" t="n">
         <v>10</v>
@@ -3134,7 +3238,7 @@
     </row>
     <row r="87" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J87" s="0" t="s">
-        <v>185</v>
+        <v>192</v>
       </c>
       <c r="K87" s="1" t="n">
         <v>10</v>
@@ -3143,7 +3247,7 @@
     </row>
     <row r="88" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J88" s="0" t="s">
-        <v>186</v>
+        <v>193</v>
       </c>
       <c r="K88" s="1" t="n">
         <v>10</v>
@@ -3152,7 +3256,7 @@
     </row>
     <row r="89" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J89" s="0" t="s">
-        <v>187</v>
+        <v>194</v>
       </c>
       <c r="K89" s="1" t="n">
         <v>10</v>
@@ -3279,36 +3383,36 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:W125"/>
+  <dimension ref="A1:W133"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="I23" activeCellId="0" sqref="I23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1" s="0" t="s">
-        <v>188</v>
+        <v>195</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2" s="0" t="s">
-        <v>189</v>
+        <v>196</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>190</v>
+        <v>197</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>191</v>
+        <v>198</v>
       </c>
       <c r="H2" s="0" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B4" s="2" t="s">
-        <v>192</v>
+        <v>199</v>
       </c>
       <c r="C4" s="0" t="n">
         <f aca="false">SUM(C5:C13)</f>
@@ -3330,25 +3434,25 @@
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="3"/>
       <c r="B5" s="0" t="s">
-        <v>193</v>
+        <v>200</v>
       </c>
       <c r="C5" s="1" t="n">
         <v>50</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>194</v>
+        <v>201</v>
       </c>
       <c r="E5" s="1" t="n">
         <v>50</v>
       </c>
       <c r="F5" s="0" t="s">
-        <v>195</v>
+        <v>202</v>
       </c>
       <c r="G5" s="1" t="n">
         <v>60</v>
       </c>
       <c r="H5" s="0" t="s">
-        <v>194</v>
+        <v>201</v>
       </c>
       <c r="I5" s="1" t="n">
         <v>50</v>
@@ -3357,25 +3461,25 @@
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="3"/>
       <c r="B6" s="0" t="s">
-        <v>196</v>
+        <v>203</v>
       </c>
       <c r="C6" s="1" t="n">
         <v>50</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>197</v>
+        <v>204</v>
       </c>
       <c r="E6" s="1" t="n">
         <v>50</v>
       </c>
       <c r="F6" s="0" t="s">
-        <v>198</v>
+        <v>205</v>
       </c>
       <c r="G6" s="1" t="n">
         <v>10</v>
       </c>
       <c r="H6" s="0" t="s">
-        <v>199</v>
+        <v>206</v>
       </c>
       <c r="I6" s="1" t="n">
         <v>50</v>
@@ -3385,7 +3489,7 @@
       <c r="A7" s="7"/>
       <c r="B7" s="5"/>
       <c r="F7" s="0" t="s">
-        <v>200</v>
+        <v>207</v>
       </c>
       <c r="G7" s="1" t="n">
         <v>10</v>
@@ -3394,7 +3498,7 @@
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B8" s="1"/>
       <c r="F8" s="0" t="s">
-        <v>201</v>
+        <v>208</v>
       </c>
       <c r="G8" s="1" t="n">
         <v>10</v>
@@ -3403,7 +3507,7 @@
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B9" s="1"/>
       <c r="F9" s="0" t="s">
-        <v>202</v>
+        <v>209</v>
       </c>
       <c r="G9" s="1" t="n">
         <v>10</v>
@@ -3421,7 +3525,7 @@
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B14" s="2" t="s">
-        <v>203</v>
+        <v>210</v>
       </c>
       <c r="C14" s="0" t="n">
         <f aca="false">SUM(C15:C23)</f>
@@ -3442,25 +3546,25 @@
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B15" s="0" t="s">
-        <v>204</v>
+        <v>211</v>
       </c>
       <c r="C15" s="1" t="n">
         <v>30</v>
       </c>
       <c r="D15" s="0" t="s">
-        <v>205</v>
+        <v>212</v>
       </c>
       <c r="E15" s="1" t="n">
         <v>35</v>
       </c>
       <c r="F15" s="0" t="s">
-        <v>206</v>
+        <v>213</v>
       </c>
       <c r="G15" s="1" t="n">
         <v>70</v>
       </c>
       <c r="H15" s="0" t="s">
-        <v>207</v>
+        <v>214</v>
       </c>
       <c r="I15" s="1" t="n">
         <v>100</v>
@@ -3469,19 +3573,19 @@
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="7"/>
       <c r="B16" s="0" t="s">
-        <v>208</v>
+        <v>215</v>
       </c>
       <c r="C16" s="1" t="n">
         <v>30</v>
       </c>
       <c r="D16" s="0" t="s">
-        <v>199</v>
+        <v>206</v>
       </c>
       <c r="E16" s="1" t="n">
         <v>25</v>
       </c>
       <c r="F16" s="0" t="s">
-        <v>209</v>
+        <v>216</v>
       </c>
       <c r="G16" s="1" t="n">
         <v>10</v>
@@ -3489,19 +3593,19 @@
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B17" s="0" t="s">
-        <v>210</v>
+        <v>217</v>
       </c>
       <c r="C17" s="1" t="n">
         <v>40</v>
       </c>
       <c r="D17" s="0" t="s">
-        <v>206</v>
+        <v>213</v>
       </c>
       <c r="E17" s="1" t="n">
         <v>25</v>
       </c>
       <c r="F17" s="0" t="s">
-        <v>211</v>
+        <v>218</v>
       </c>
       <c r="G17" s="1" t="n">
         <v>10</v>
@@ -3509,13 +3613,13 @@
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D18" s="0" t="s">
-        <v>212</v>
+        <v>219</v>
       </c>
       <c r="E18" s="1" t="n">
         <v>15</v>
       </c>
       <c r="F18" s="0" t="s">
-        <v>198</v>
+        <v>205</v>
       </c>
       <c r="G18" s="1" t="n">
         <v>5</v>
@@ -3523,7 +3627,7 @@
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F19" s="0" t="s">
-        <v>213</v>
+        <v>220</v>
       </c>
       <c r="G19" s="1" t="n">
         <v>5</v>
@@ -3544,7 +3648,7 @@
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B24" s="2" t="s">
-        <v>214</v>
+        <v>221</v>
       </c>
       <c r="C24" s="0" t="n">
         <f aca="false">SUM(C25:C33)</f>
@@ -3562,25 +3666,25 @@
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="7"/>
       <c r="B25" s="0" t="s">
-        <v>215</v>
+        <v>222</v>
       </c>
       <c r="C25" s="1" t="n">
         <v>35</v>
       </c>
       <c r="D25" s="0" t="s">
-        <v>199</v>
+        <v>206</v>
       </c>
       <c r="E25" s="1" t="n">
         <v>50</v>
       </c>
       <c r="F25" s="0" t="s">
-        <v>216</v>
+        <v>223</v>
       </c>
       <c r="G25" s="1" t="n">
         <v>30</v>
       </c>
       <c r="H25" s="0" t="s">
-        <v>217</v>
+        <v>224</v>
       </c>
       <c r="I25" s="1" t="n">
         <v>100</v>
@@ -3588,19 +3692,19 @@
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B26" s="0" t="s">
-        <v>199</v>
+        <v>206</v>
       </c>
       <c r="C26" s="1" t="n">
         <v>35</v>
       </c>
       <c r="D26" s="0" t="s">
-        <v>218</v>
+        <v>225</v>
       </c>
       <c r="E26" s="1" t="n">
         <v>50</v>
       </c>
       <c r="F26" s="0" t="s">
-        <v>219</v>
+        <v>226</v>
       </c>
       <c r="G26" s="1" t="n">
         <v>30</v>
@@ -3608,13 +3712,13 @@
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B27" s="0" t="s">
-        <v>220</v>
+        <v>227</v>
       </c>
       <c r="C27" s="1" t="n">
         <v>30</v>
       </c>
       <c r="F27" s="0" t="s">
-        <v>221</v>
+        <v>228</v>
       </c>
       <c r="G27" s="1" t="n">
         <v>30</v>
@@ -3623,7 +3727,7 @@
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B28" s="1"/>
       <c r="F28" s="0" t="s">
-        <v>222</v>
+        <v>229</v>
       </c>
       <c r="G28" s="1" t="n">
         <v>5</v>
@@ -3633,7 +3737,7 @@
       <c r="A29" s="7"/>
       <c r="B29" s="5"/>
       <c r="F29" s="0" t="s">
-        <v>223</v>
+        <v>230</v>
       </c>
       <c r="G29" s="1" t="n">
         <v>5</v>
@@ -3654,7 +3758,7 @@
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="3"/>
       <c r="B34" s="2" t="s">
-        <v>224</v>
+        <v>231</v>
       </c>
       <c r="C34" s="0" t="n">
         <f aca="false">SUM(C35:C43)</f>
@@ -3676,25 +3780,25 @@
     <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="3"/>
       <c r="B35" s="0" t="s">
-        <v>225</v>
+        <v>232</v>
       </c>
       <c r="C35" s="1" t="n">
         <v>100</v>
       </c>
       <c r="D35" s="0" t="s">
-        <v>226</v>
+        <v>233</v>
       </c>
       <c r="E35" s="1" t="n">
         <v>100</v>
       </c>
       <c r="F35" s="0" t="s">
-        <v>227</v>
+        <v>234</v>
       </c>
       <c r="G35" s="1" t="n">
         <v>100</v>
       </c>
       <c r="H35" s="0" t="s">
-        <v>228</v>
+        <v>235</v>
       </c>
       <c r="I35" s="1" t="n">
         <v>100</v>
@@ -3728,7 +3832,7 @@
     </row>
     <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B44" s="2" t="s">
-        <v>229</v>
+        <v>236</v>
       </c>
       <c r="C44" s="0" t="n">
         <f aca="false">SUM(C45:C53)</f>
@@ -3749,25 +3853,25 @@
     </row>
     <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B45" s="0" t="s">
-        <v>230</v>
+        <v>237</v>
       </c>
       <c r="C45" s="1" t="n">
         <v>100</v>
       </c>
       <c r="D45" s="0" t="s">
-        <v>231</v>
+        <v>238</v>
       </c>
       <c r="E45" s="1" t="n">
         <v>100</v>
       </c>
       <c r="F45" s="0" t="s">
-        <v>232</v>
+        <v>239</v>
       </c>
       <c r="G45" s="1" t="n">
         <v>100</v>
       </c>
       <c r="H45" s="0" t="s">
-        <v>232</v>
+        <v>239</v>
       </c>
       <c r="I45" s="1" t="n">
         <v>100</v>
@@ -3802,7 +3906,7 @@
     <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="7"/>
       <c r="B54" s="2" t="s">
-        <v>233</v>
+        <v>240</v>
       </c>
       <c r="C54" s="0" t="n">
         <f aca="false">SUM(C55:C63)</f>
@@ -3823,25 +3927,25 @@
     </row>
     <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B55" s="0" t="s">
-        <v>234</v>
+        <v>241</v>
       </c>
       <c r="C55" s="1" t="n">
         <v>100</v>
       </c>
       <c r="D55" s="0" t="s">
-        <v>235</v>
+        <v>242</v>
       </c>
       <c r="E55" s="1" t="n">
         <v>100</v>
       </c>
       <c r="F55" s="0" t="s">
-        <v>236</v>
+        <v>243</v>
       </c>
       <c r="G55" s="1" t="n">
         <v>100</v>
       </c>
       <c r="H55" s="0" t="s">
-        <v>232</v>
+        <v>239</v>
       </c>
       <c r="I55" s="1" t="n">
         <v>100</v>
@@ -4106,10 +4210,10 @@
       <selection pane="topLeft" activeCell="K30" activeCellId="0" sqref="K30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.6953125" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="19.45"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="31.26"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="31.27"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="8.6"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="1.61"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="25.56"/>
@@ -4121,7 +4225,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="53.49"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="1" width="15"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="1" width="10.97"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="0" width="11.66"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="0" width="11.65"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="0" width="39.04"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="1" width="11.81"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="0" width="1.39"/>
@@ -4129,14 +4233,14 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="1" width="8.6"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="20" style="0" width="1.61"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="21" style="0" width="25.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="22" min="22" style="0" width="12.09"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="22" min="22" style="0" width="12.1"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="23" style="0" width="2.08"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="24" min="24" style="0" width="21.54"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="25" min="25" style="0" width="11.39"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="24" min="24" style="0" width="21.55"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="25" min="25" style="0" width="11.38"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="26" style="0" width="2.08"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="27" min="27" style="0" width="21.54"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="27" min="27" style="0" width="21.55"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="28" min="28" style="0" width="13.06"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="29" min="29" style="0" width="1.94"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="29" min="29" style="0" width="1.93"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="30" min="30" style="0" width="20.42"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="32" min="32" style="0" width="2.36"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="33" min="33" style="0" width="25.01"/>
@@ -4144,134 +4248,131 @@
   </cols>
   <sheetData>
     <row r="2" s="3" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="2" t="s">
-        <v>237</v>
-      </c>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
+      <c r="A2" s="8" t="s">
+        <v>244</v>
+      </c>
+      <c r="B2" s="8"/>
+      <c r="C2" s="8"/>
       <c r="E2" s="2" t="s">
-        <v>238</v>
+        <v>245</v>
       </c>
       <c r="F2" s="2"/>
-      <c r="H2" s="2" t="s">
-        <v>239</v>
-      </c>
-      <c r="I2" s="2"/>
-      <c r="J2" s="2" t="s">
-        <v>240</v>
-      </c>
-      <c r="K2" s="2"/>
-      <c r="L2" s="2"/>
+      <c r="H2" s="8" t="s">
+        <v>246</v>
+      </c>
+      <c r="I2" s="8"/>
+      <c r="J2" s="8" t="s">
+        <v>247</v>
+      </c>
+      <c r="K2" s="8"/>
+      <c r="L2" s="8"/>
       <c r="M2" s="2"/>
-      <c r="N2" s="2" t="s">
-        <v>241</v>
-      </c>
-      <c r="O2" s="2"/>
-      <c r="P2" s="2"/>
+      <c r="N2" s="8" t="s">
+        <v>248</v>
+      </c>
+      <c r="O2" s="8"/>
+      <c r="P2" s="8"/>
       <c r="R2" s="2" t="s">
-        <v>242</v>
+        <v>249</v>
       </c>
       <c r="S2" s="2"/>
-      <c r="U2" s="2" t="s">
-        <v>243</v>
-      </c>
-      <c r="V2" s="2"/>
-      <c r="X2" s="2" t="s">
-        <v>244</v>
-      </c>
-      <c r="Y2" s="2"/>
+      <c r="U2" s="8" t="s">
+        <v>250</v>
+      </c>
+      <c r="V2" s="8"/>
+      <c r="X2" s="8" t="s">
+        <v>251</v>
+      </c>
+      <c r="Y2" s="8"/>
       <c r="Z2" s="0"/>
-      <c r="AA2" s="2" t="s">
-        <v>245</v>
-      </c>
-      <c r="AB2" s="2"/>
-      <c r="AD2" s="2" t="s">
-        <v>246</v>
-      </c>
-      <c r="AE2" s="2"/>
-      <c r="AG2" s="2" t="s">
-        <v>247</v>
-      </c>
-      <c r="AH2" s="2"/>
+      <c r="AA2" s="8" t="s">
+        <v>252</v>
+      </c>
+      <c r="AB2" s="8"/>
+      <c r="AD2" s="8" t="s">
+        <v>253</v>
+      </c>
+      <c r="AE2" s="8"/>
+      <c r="AG2" s="8" t="s">
+        <v>254</v>
+      </c>
+      <c r="AH2" s="8"/>
       <c r="AMH2" s="0"/>
       <c r="AMI2" s="0"/>
       <c r="AMJ2" s="0"/>
     </row>
     <row r="3" s="3" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="3" t="s">
-        <v>34</v>
+        <v>8</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>35</v>
+        <v>6</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="E3" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="F3" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="H3" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="I3" s="13" t="s">
-        <v>36</v>
+        <v>7</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>7</v>
       </c>
       <c r="J3" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="K3" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="L3" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="M3" s="13"/>
+        <v>8</v>
+      </c>
+      <c r="K3" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="L3" s="3" t="s">
+        <v>7</v>
+      </c>
       <c r="N3" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="O3" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="P3" s="13" t="s">
-        <v>248</v>
-      </c>
-      <c r="R3" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="S3" s="13" t="s">
-        <v>36</v>
+        <v>8</v>
+      </c>
+      <c r="O3" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="P3" s="3" t="s">
+        <v>255</v>
+      </c>
+      <c r="R3" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="S3" s="3" t="s">
+        <v>7</v>
       </c>
       <c r="T3" s="0"/>
-      <c r="U3" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="V3" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="X3" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="Y3" s="13" t="s">
-        <v>36</v>
+      <c r="U3" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="V3" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="X3" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="Y3" s="3" t="s">
+        <v>7</v>
       </c>
       <c r="Z3" s="0"/>
-      <c r="AA3" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="AB3" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="AD3" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="AE3" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="AG3" s="13"/>
-      <c r="AH3" s="13"/>
+      <c r="AA3" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="AB3" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="AD3" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="AE3" s="3" t="s">
+        <v>7</v>
+      </c>
       <c r="AMH3" s="0"/>
       <c r="AMI3" s="0"/>
       <c r="AMJ3" s="0"/>
@@ -4303,28 +4404,28 @@
         <f aca="false">SUM(P5:P9)</f>
         <v>50</v>
       </c>
-      <c r="S4" s="14" t="n">
+      <c r="S4" s="13" t="n">
         <f aca="false">SUM(S5:S11)</f>
         <v>100</v>
       </c>
-      <c r="V4" s="14" t="n">
+      <c r="V4" s="13" t="n">
         <f aca="false">SUM(V5:V11)</f>
         <v>70</v>
       </c>
-      <c r="Y4" s="14" t="n">
+      <c r="Y4" s="13" t="n">
         <f aca="false">SUM(Y5:Y11)</f>
         <v>100</v>
       </c>
-      <c r="AB4" s="14" t="n">
+      <c r="AB4" s="13" t="n">
         <f aca="false">SUM(AB5:AB11)</f>
         <v>20</v>
       </c>
-      <c r="AE4" s="14" t="n">
+      <c r="AE4" s="13" t="n">
         <f aca="false">SUM(AE5:AE11)</f>
         <v>100</v>
       </c>
       <c r="AG4" s="3" t="s">
-        <v>249</v>
+        <v>256</v>
       </c>
       <c r="AH4" s="5" t="n">
         <f aca="false">SUM(AH5:AH95)</f>
@@ -4333,77 +4434,77 @@
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>250</v>
+        <v>257</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>251</v>
+        <v>258</v>
       </c>
       <c r="C5" s="1" t="n">
         <v>85</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>252</v>
-      </c>
-      <c r="F5" s="10" t="n">
+        <v>259</v>
+      </c>
+      <c r="F5" s="11" t="n">
         <v>60</v>
       </c>
       <c r="H5" s="0" t="s">
-        <v>253</v>
-      </c>
-      <c r="I5" s="10" t="n">
+        <v>260</v>
+      </c>
+      <c r="I5" s="11" t="n">
         <v>95</v>
       </c>
       <c r="J5" s="0" t="s">
-        <v>254</v>
+        <v>261</v>
       </c>
       <c r="K5" s="0" t="s">
-        <v>255</v>
-      </c>
-      <c r="L5" s="10" t="n">
+        <v>262</v>
+      </c>
+      <c r="L5" s="11" t="n">
         <v>70</v>
       </c>
-      <c r="M5" s="10"/>
+      <c r="M5" s="11"/>
       <c r="N5" s="0" t="s">
-        <v>256</v>
+        <v>263</v>
       </c>
       <c r="O5" s="0" t="s">
-        <v>257</v>
+        <v>264</v>
       </c>
       <c r="P5" s="1" t="n">
         <v>10</v>
       </c>
       <c r="R5" s="0" t="s">
-        <v>258</v>
-      </c>
-      <c r="S5" s="14" t="n">
+        <v>265</v>
+      </c>
+      <c r="S5" s="13" t="n">
         <v>10</v>
       </c>
       <c r="U5" s="0" t="s">
-        <v>259</v>
-      </c>
-      <c r="V5" s="10" t="n">
+        <v>266</v>
+      </c>
+      <c r="V5" s="11" t="n">
         <v>5</v>
       </c>
       <c r="X5" s="0" t="s">
-        <v>260</v>
-      </c>
-      <c r="Y5" s="14" t="n">
+        <v>267</v>
+      </c>
+      <c r="Y5" s="13" t="n">
         <v>10</v>
       </c>
       <c r="AA5" s="0" t="s">
-        <v>261</v>
-      </c>
-      <c r="AB5" s="10" t="n">
+        <v>268</v>
+      </c>
+      <c r="AB5" s="11" t="n">
         <v>10</v>
       </c>
       <c r="AD5" s="0" t="s">
-        <v>262</v>
-      </c>
-      <c r="AE5" s="10" t="n">
+        <v>269</v>
+      </c>
+      <c r="AE5" s="11" t="n">
         <v>100</v>
       </c>
       <c r="AG5" s="0" t="s">
-        <v>263</v>
+        <v>270</v>
       </c>
       <c r="AH5" s="1" t="n">
         <v>10</v>
@@ -4411,72 +4512,72 @@
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>264</v>
+        <v>271</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>265</v>
+        <v>272</v>
       </c>
       <c r="C6" s="1" t="n">
         <v>5</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>266</v>
-      </c>
-      <c r="F6" s="10" t="n">
+        <v>273</v>
+      </c>
+      <c r="F6" s="11" t="n">
         <v>40</v>
       </c>
       <c r="H6" s="0" t="s">
-        <v>267</v>
-      </c>
-      <c r="I6" s="10" t="n">
+        <v>274</v>
+      </c>
+      <c r="I6" s="11" t="n">
         <v>5</v>
       </c>
       <c r="J6" s="0" t="s">
-        <v>268</v>
+        <v>275</v>
       </c>
       <c r="K6" s="0" t="s">
-        <v>269</v>
-      </c>
-      <c r="L6" s="10" t="n">
+        <v>276</v>
+      </c>
+      <c r="L6" s="11" t="n">
         <v>30</v>
       </c>
-      <c r="M6" s="10"/>
+      <c r="M6" s="11"/>
       <c r="N6" s="0" t="s">
-        <v>270</v>
+        <v>277</v>
       </c>
       <c r="O6" s="0" t="s">
-        <v>271</v>
+        <v>278</v>
       </c>
       <c r="P6" s="1" t="n">
         <v>10</v>
       </c>
       <c r="R6" s="0" t="s">
-        <v>272</v>
-      </c>
-      <c r="S6" s="10" t="n">
+        <v>279</v>
+      </c>
+      <c r="S6" s="11" t="n">
         <v>40</v>
       </c>
       <c r="U6" s="0" t="s">
-        <v>273</v>
-      </c>
-      <c r="V6" s="10" t="n">
+        <v>280</v>
+      </c>
+      <c r="V6" s="11" t="n">
         <v>15</v>
       </c>
       <c r="X6" s="0" t="s">
-        <v>274</v>
-      </c>
-      <c r="Y6" s="10" t="n">
+        <v>281</v>
+      </c>
+      <c r="Y6" s="11" t="n">
         <v>90</v>
       </c>
       <c r="AA6" s="0" t="s">
-        <v>275</v>
-      </c>
-      <c r="AB6" s="10" t="n">
-        <v>10</v>
-      </c>
-      <c r="AE6" s="10"/>
+        <v>282</v>
+      </c>
+      <c r="AB6" s="11" t="n">
+        <v>10</v>
+      </c>
+      <c r="AE6" s="11"/>
       <c r="AG6" s="0" t="s">
-        <v>276</v>
+        <v>283</v>
       </c>
       <c r="AH6" s="1" t="n">
         <v>10</v>
@@ -4484,44 +4585,44 @@
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>277</v>
+        <v>284</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>278</v>
+        <v>285</v>
       </c>
       <c r="C7" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="F7" s="10"/>
-      <c r="I7" s="10"/>
-      <c r="L7" s="10"/>
-      <c r="M7" s="10"/>
+      <c r="F7" s="11"/>
+      <c r="I7" s="11"/>
+      <c r="L7" s="11"/>
+      <c r="M7" s="11"/>
       <c r="N7" s="0" t="s">
-        <v>279</v>
+        <v>286</v>
       </c>
       <c r="O7" s="0" t="s">
-        <v>280</v>
+        <v>287</v>
       </c>
       <c r="P7" s="1" t="n">
         <v>10</v>
       </c>
       <c r="R7" s="0" t="s">
-        <v>281</v>
-      </c>
-      <c r="S7" s="14" t="n">
+        <v>288</v>
+      </c>
+      <c r="S7" s="13" t="n">
         <v>10</v>
       </c>
       <c r="U7" s="0" t="s">
-        <v>282</v>
-      </c>
-      <c r="V7" s="10" t="n">
+        <v>289</v>
+      </c>
+      <c r="V7" s="11" t="n">
         <v>20</v>
       </c>
-      <c r="Y7" s="14"/>
-      <c r="AB7" s="14"/>
-      <c r="AE7" s="14"/>
+      <c r="Y7" s="13"/>
+      <c r="AB7" s="13"/>
+      <c r="AE7" s="13"/>
       <c r="AG7" s="0" t="s">
-        <v>283</v>
+        <v>290</v>
       </c>
       <c r="AH7" s="1" t="n">
         <v>10</v>
@@ -4529,15 +4630,15 @@
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>284</v>
+        <v>291</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>285</v>
+        <v>292</v>
       </c>
       <c r="C8" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="F8" s="10"/>
+      <c r="F8" s="11"/>
       <c r="H8" s="3"/>
       <c r="I8" s="5" t="n">
         <f aca="false">SUM(I9:I10)</f>
@@ -4547,33 +4648,33 @@
         <f aca="false">SUM(L9:L10)</f>
         <v>100</v>
       </c>
-      <c r="M8" s="10"/>
+      <c r="M8" s="11"/>
       <c r="N8" s="0" t="s">
-        <v>286</v>
+        <v>293</v>
       </c>
       <c r="O8" s="0" t="s">
-        <v>262</v>
-      </c>
-      <c r="P8" s="10" t="n">
+        <v>269</v>
+      </c>
+      <c r="P8" s="11" t="n">
         <v>10</v>
       </c>
       <c r="R8" s="0" t="s">
-        <v>287</v>
-      </c>
-      <c r="S8" s="14" t="n">
+        <v>294</v>
+      </c>
+      <c r="S8" s="13" t="n">
         <v>20</v>
       </c>
       <c r="U8" s="0" t="s">
-        <v>288</v>
-      </c>
-      <c r="V8" s="10" t="n">
-        <v>10</v>
-      </c>
-      <c r="Y8" s="14"/>
-      <c r="AB8" s="14"/>
-      <c r="AE8" s="14"/>
+        <v>295</v>
+      </c>
+      <c r="V8" s="11" t="n">
+        <v>10</v>
+      </c>
+      <c r="Y8" s="13"/>
+      <c r="AB8" s="13"/>
+      <c r="AE8" s="13"/>
       <c r="AG8" s="0" t="s">
-        <v>289</v>
+        <v>296</v>
       </c>
       <c r="AH8" s="1" t="n">
         <v>10</v>
@@ -4581,47 +4682,47 @@
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H9" s="0" t="s">
-        <v>253</v>
-      </c>
-      <c r="I9" s="10" t="n">
+        <v>260</v>
+      </c>
+      <c r="I9" s="11" t="n">
         <v>90</v>
       </c>
       <c r="J9" s="0" t="s">
-        <v>254</v>
+        <v>261</v>
       </c>
       <c r="K9" s="0" t="s">
-        <v>255</v>
-      </c>
-      <c r="L9" s="10" t="n">
+        <v>262</v>
+      </c>
+      <c r="L9" s="11" t="n">
         <v>75</v>
       </c>
       <c r="M9" s="5"/>
       <c r="N9" s="0" t="s">
-        <v>290</v>
+        <v>297</v>
       </c>
       <c r="O9" s="0" t="s">
-        <v>291</v>
-      </c>
-      <c r="P9" s="10" t="n">
+        <v>298</v>
+      </c>
+      <c r="P9" s="11" t="n">
         <v>10</v>
       </c>
       <c r="R9" s="0" t="s">
-        <v>292</v>
-      </c>
-      <c r="S9" s="14" t="n">
+        <v>299</v>
+      </c>
+      <c r="S9" s="13" t="n">
         <v>10</v>
       </c>
       <c r="U9" s="0" t="s">
-        <v>293</v>
-      </c>
-      <c r="V9" s="10" t="n">
+        <v>300</v>
+      </c>
+      <c r="V9" s="11" t="n">
         <v>20</v>
       </c>
-      <c r="Y9" s="14"/>
-      <c r="AB9" s="14"/>
-      <c r="AE9" s="14"/>
+      <c r="Y9" s="13"/>
+      <c r="AB9" s="13"/>
+      <c r="AE9" s="13"/>
       <c r="AG9" s="0" t="s">
-        <v>294</v>
+        <v>301</v>
       </c>
       <c r="AH9" s="1" t="n">
         <v>10</v>
@@ -4631,37 +4732,37 @@
       <c r="B10" s="7"/>
       <c r="C10" s="5"/>
       <c r="H10" s="0" t="s">
-        <v>267</v>
-      </c>
-      <c r="I10" s="10" t="n">
+        <v>274</v>
+      </c>
+      <c r="I10" s="11" t="n">
         <v>10</v>
       </c>
       <c r="J10" s="0" t="s">
-        <v>268</v>
+        <v>275</v>
       </c>
       <c r="K10" s="0" t="s">
-        <v>269</v>
-      </c>
-      <c r="L10" s="10" t="n">
+        <v>276</v>
+      </c>
+      <c r="L10" s="11" t="n">
         <v>25</v>
       </c>
-      <c r="M10" s="10"/>
+      <c r="M10" s="11"/>
       <c r="P10" s="5" t="n">
         <f aca="false">SUM(P11:P15)</f>
         <v>50</v>
       </c>
       <c r="R10" s="0" t="s">
-        <v>295</v>
-      </c>
-      <c r="S10" s="14" t="n">
-        <v>10</v>
-      </c>
-      <c r="V10" s="14"/>
-      <c r="Y10" s="14"/>
-      <c r="AB10" s="14"/>
-      <c r="AE10" s="14"/>
+        <v>302</v>
+      </c>
+      <c r="S10" s="13" t="n">
+        <v>10</v>
+      </c>
+      <c r="V10" s="13"/>
+      <c r="Y10" s="13"/>
+      <c r="AB10" s="13"/>
+      <c r="AE10" s="13"/>
       <c r="AG10" s="0" t="s">
-        <v>296</v>
+        <v>303</v>
       </c>
       <c r="AH10" s="1" t="n">
         <v>10</v>
@@ -4670,19 +4771,19 @@
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="I11" s="0"/>
       <c r="L11" s="0"/>
-      <c r="M11" s="10"/>
+      <c r="M11" s="11"/>
       <c r="N11" s="0" t="s">
-        <v>256</v>
+        <v>263</v>
       </c>
       <c r="O11" s="0" t="s">
-        <v>257</v>
+        <v>264</v>
       </c>
       <c r="P11" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="S11" s="14"/>
+      <c r="S11" s="13"/>
       <c r="AG11" s="0" t="s">
-        <v>297</v>
+        <v>304</v>
       </c>
       <c r="AH11" s="1" t="n">
         <v>10</v>
@@ -4699,17 +4800,17 @@
         <v>100</v>
       </c>
       <c r="N12" s="0" t="s">
-        <v>270</v>
+        <v>277</v>
       </c>
       <c r="O12" s="0" t="s">
-        <v>271</v>
+        <v>278</v>
       </c>
       <c r="P12" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="S12" s="14"/>
+      <c r="S12" s="13"/>
       <c r="AG12" s="0" t="s">
-        <v>298</v>
+        <v>305</v>
       </c>
       <c r="AH12" s="1" t="n">
         <v>10</v>
@@ -4717,32 +4818,32 @@
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H13" s="0" t="s">
-        <v>253</v>
-      </c>
-      <c r="I13" s="10" t="n">
+        <v>260</v>
+      </c>
+      <c r="I13" s="11" t="n">
         <v>85</v>
       </c>
       <c r="J13" s="0" t="s">
-        <v>254</v>
+        <v>261</v>
       </c>
       <c r="K13" s="0" t="s">
-        <v>255</v>
-      </c>
-      <c r="L13" s="10" t="n">
+        <v>262</v>
+      </c>
+      <c r="L13" s="11" t="n">
         <v>80</v>
       </c>
       <c r="N13" s="0" t="s">
-        <v>279</v>
+        <v>286</v>
       </c>
       <c r="O13" s="0" t="s">
-        <v>280</v>
+        <v>287</v>
       </c>
       <c r="P13" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="S13" s="14"/>
+      <c r="S13" s="13"/>
       <c r="AG13" s="0" t="s">
-        <v>299</v>
+        <v>306</v>
       </c>
       <c r="AH13" s="1" t="n">
         <v>10</v>
@@ -4750,33 +4851,33 @@
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H14" s="0" t="s">
-        <v>267</v>
-      </c>
-      <c r="I14" s="10" t="n">
+        <v>274</v>
+      </c>
+      <c r="I14" s="11" t="n">
         <v>15</v>
       </c>
       <c r="J14" s="0" t="s">
-        <v>268</v>
+        <v>275</v>
       </c>
       <c r="K14" s="0" t="s">
-        <v>269</v>
-      </c>
-      <c r="L14" s="10" t="n">
+        <v>276</v>
+      </c>
+      <c r="L14" s="11" t="n">
         <v>20</v>
       </c>
       <c r="M14" s="5"/>
       <c r="N14" s="0" t="s">
-        <v>286</v>
+        <v>293</v>
       </c>
       <c r="O14" s="0" t="s">
-        <v>262</v>
-      </c>
-      <c r="P14" s="10" t="n">
-        <v>10</v>
-      </c>
-      <c r="S14" s="14"/>
+        <v>269</v>
+      </c>
+      <c r="P14" s="11" t="n">
+        <v>10</v>
+      </c>
+      <c r="S14" s="13"/>
       <c r="AG14" s="0" t="s">
-        <v>300</v>
+        <v>307</v>
       </c>
       <c r="AH14" s="1" t="n">
         <v>10</v>
@@ -4785,19 +4886,19 @@
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="I15" s="0"/>
       <c r="L15" s="0"/>
-      <c r="M15" s="10"/>
+      <c r="M15" s="11"/>
       <c r="N15" s="0" t="s">
-        <v>290</v>
+        <v>297</v>
       </c>
       <c r="O15" s="0" t="s">
-        <v>291</v>
-      </c>
-      <c r="P15" s="10" t="n">
-        <v>10</v>
-      </c>
-      <c r="S15" s="14"/>
+        <v>298</v>
+      </c>
+      <c r="P15" s="11" t="n">
+        <v>10</v>
+      </c>
+      <c r="S15" s="13"/>
       <c r="AG15" s="0" t="s">
-        <v>301</v>
+        <v>308</v>
       </c>
       <c r="AH15" s="1" t="n">
         <v>10</v>
@@ -4813,14 +4914,14 @@
         <f aca="false">SUM(L17:L18)</f>
         <v>100</v>
       </c>
-      <c r="M16" s="10"/>
+      <c r="M16" s="11"/>
       <c r="P16" s="5" t="n">
         <f aca="false">SUM(P17:P21)</f>
         <v>50</v>
       </c>
-      <c r="S16" s="14"/>
+      <c r="S16" s="13"/>
       <c r="AG16" s="0" t="s">
-        <v>302</v>
+        <v>309</v>
       </c>
       <c r="AH16" s="1" t="n">
         <v>10</v>
@@ -4828,32 +4929,32 @@
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H17" s="0" t="s">
-        <v>253</v>
-      </c>
-      <c r="I17" s="10" t="n">
+        <v>260</v>
+      </c>
+      <c r="I17" s="11" t="n">
         <v>80</v>
       </c>
       <c r="J17" s="0" t="s">
-        <v>254</v>
+        <v>261</v>
       </c>
       <c r="K17" s="0" t="s">
-        <v>255</v>
-      </c>
-      <c r="L17" s="10" t="n">
+        <v>262</v>
+      </c>
+      <c r="L17" s="11" t="n">
         <v>85</v>
       </c>
       <c r="N17" s="0" t="s">
-        <v>256</v>
+        <v>263</v>
       </c>
       <c r="O17" s="0" t="s">
-        <v>257</v>
+        <v>264</v>
       </c>
       <c r="P17" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="S17" s="14"/>
+      <c r="S17" s="13"/>
       <c r="AG17" s="0" t="s">
-        <v>303</v>
+        <v>310</v>
       </c>
       <c r="AH17" s="1" t="n">
         <v>10</v>
@@ -4861,32 +4962,32 @@
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H18" s="0" t="s">
-        <v>267</v>
-      </c>
-      <c r="I18" s="10" t="n">
+        <v>274</v>
+      </c>
+      <c r="I18" s="11" t="n">
         <v>20</v>
       </c>
       <c r="J18" s="0" t="s">
-        <v>268</v>
+        <v>275</v>
       </c>
       <c r="K18" s="0" t="s">
-        <v>269</v>
-      </c>
-      <c r="L18" s="10" t="n">
+        <v>276</v>
+      </c>
+      <c r="L18" s="11" t="n">
         <v>15</v>
       </c>
       <c r="N18" s="0" t="s">
-        <v>270</v>
+        <v>277</v>
       </c>
       <c r="O18" s="0" t="s">
-        <v>271</v>
+        <v>278</v>
       </c>
       <c r="P18" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="S18" s="14"/>
+      <c r="S18" s="13"/>
       <c r="AG18" s="0" t="s">
-        <v>304</v>
+        <v>311</v>
       </c>
       <c r="AH18" s="1" t="n">
         <v>10</v>
@@ -4897,17 +4998,17 @@
       <c r="L19" s="0"/>
       <c r="M19" s="5"/>
       <c r="N19" s="0" t="s">
-        <v>279</v>
+        <v>286</v>
       </c>
       <c r="O19" s="0" t="s">
-        <v>280</v>
+        <v>287</v>
       </c>
       <c r="P19" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="S19" s="14"/>
+      <c r="S19" s="13"/>
       <c r="AG19" s="0" t="s">
-        <v>305</v>
+        <v>312</v>
       </c>
       <c r="AH19" s="1" t="n">
         <v>10</v>
@@ -4916,19 +5017,19 @@
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="I20" s="0"/>
       <c r="L20" s="0"/>
-      <c r="M20" s="10"/>
+      <c r="M20" s="11"/>
       <c r="N20" s="0" t="s">
-        <v>286</v>
+        <v>293</v>
       </c>
       <c r="O20" s="0" t="s">
-        <v>262</v>
-      </c>
-      <c r="P20" s="10" t="n">
-        <v>10</v>
-      </c>
-      <c r="S20" s="14"/>
+        <v>269</v>
+      </c>
+      <c r="P20" s="11" t="n">
+        <v>10</v>
+      </c>
+      <c r="S20" s="13"/>
       <c r="AG20" s="0" t="s">
-        <v>306</v>
+        <v>313</v>
       </c>
       <c r="AH20" s="1" t="n">
         <v>10</v>
@@ -4937,19 +5038,19 @@
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="I21" s="0"/>
       <c r="L21" s="0"/>
-      <c r="M21" s="10"/>
+      <c r="M21" s="11"/>
       <c r="N21" s="0" t="s">
-        <v>290</v>
+        <v>297</v>
       </c>
       <c r="O21" s="0" t="s">
-        <v>291</v>
-      </c>
-      <c r="P21" s="10" t="n">
-        <v>10</v>
-      </c>
-      <c r="S21" s="14"/>
+        <v>298</v>
+      </c>
+      <c r="P21" s="11" t="n">
+        <v>10</v>
+      </c>
+      <c r="S21" s="13"/>
       <c r="AG21" s="0" t="s">
-        <v>307</v>
+        <v>314</v>
       </c>
       <c r="AH21" s="1" t="n">
         <v>10</v>
@@ -4961,9 +5062,9 @@
         <f aca="false">SUM(P23:P27)</f>
         <v>50</v>
       </c>
-      <c r="S22" s="14"/>
+      <c r="S22" s="13"/>
       <c r="AG22" s="0" t="s">
-        <v>308</v>
+        <v>315</v>
       </c>
       <c r="AH22" s="1" t="n">
         <v>10</v>
@@ -4972,17 +5073,17 @@
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="L23" s="0"/>
       <c r="N23" s="0" t="s">
-        <v>256</v>
+        <v>263</v>
       </c>
       <c r="O23" s="0" t="s">
-        <v>257</v>
+        <v>264</v>
       </c>
       <c r="P23" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="S23" s="14"/>
+      <c r="S23" s="13"/>
       <c r="AG23" s="0" t="s">
-        <v>309</v>
+        <v>316</v>
       </c>
       <c r="AH23" s="1" t="n">
         <v>10</v>
@@ -4991,17 +5092,17 @@
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="L24" s="0"/>
       <c r="N24" s="0" t="s">
-        <v>270</v>
+        <v>277</v>
       </c>
       <c r="O24" s="0" t="s">
-        <v>271</v>
+        <v>278</v>
       </c>
       <c r="P24" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="S24" s="14"/>
+      <c r="S24" s="13"/>
       <c r="AG24" s="0" t="s">
-        <v>310</v>
+        <v>317</v>
       </c>
       <c r="AH24" s="1" t="n">
         <v>10</v>
@@ -5009,17 +5110,17 @@
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="N25" s="0" t="s">
-        <v>279</v>
+        <v>286</v>
       </c>
       <c r="O25" s="0" t="s">
-        <v>280</v>
+        <v>287</v>
       </c>
       <c r="P25" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="S25" s="14"/>
+      <c r="S25" s="13"/>
       <c r="AG25" s="0" t="s">
-        <v>311</v>
+        <v>318</v>
       </c>
       <c r="AH25" s="1" t="n">
         <v>10</v>
@@ -5027,17 +5128,17 @@
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="N26" s="0" t="s">
-        <v>286</v>
+        <v>293</v>
       </c>
       <c r="O26" s="0" t="s">
-        <v>262</v>
-      </c>
-      <c r="P26" s="10" t="n">
-        <v>10</v>
-      </c>
-      <c r="S26" s="14"/>
+        <v>269</v>
+      </c>
+      <c r="P26" s="11" t="n">
+        <v>10</v>
+      </c>
+      <c r="S26" s="13"/>
       <c r="AG26" s="0" t="s">
-        <v>312</v>
+        <v>319</v>
       </c>
       <c r="AH26" s="1" t="n">
         <v>10</v>
@@ -5045,71 +5146,71 @@
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="N27" s="0" t="s">
-        <v>290</v>
+        <v>297</v>
       </c>
       <c r="O27" s="0" t="s">
-        <v>291</v>
-      </c>
-      <c r="P27" s="10" t="n">
-        <v>10</v>
-      </c>
-      <c r="S27" s="14"/>
+        <v>298</v>
+      </c>
+      <c r="P27" s="11" t="n">
+        <v>10</v>
+      </c>
+      <c r="S27" s="13"/>
       <c r="AG27" s="0" t="s">
-        <v>313</v>
+        <v>320</v>
       </c>
       <c r="AH27" s="1" t="n">
         <v>10</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="S28" s="14"/>
+      <c r="S28" s="13"/>
       <c r="AG28" s="0" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="AH28" s="1" t="n">
         <v>10</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="S29" s="14"/>
+      <c r="S29" s="13"/>
       <c r="AG29" s="0" t="s">
-        <v>315</v>
+        <v>322</v>
       </c>
       <c r="AH29" s="1" t="n">
         <v>10</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="S30" s="14"/>
+      <c r="S30" s="13"/>
       <c r="AG30" s="0" t="s">
-        <v>316</v>
+        <v>323</v>
       </c>
       <c r="AH30" s="1" t="n">
         <v>10</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="S31" s="14"/>
+      <c r="S31" s="13"/>
       <c r="AG31" s="0" t="s">
-        <v>317</v>
+        <v>324</v>
       </c>
       <c r="AH31" s="1" t="n">
         <v>10</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="S32" s="14"/>
+      <c r="S32" s="13"/>
       <c r="AG32" s="0" t="s">
-        <v>318</v>
+        <v>325</v>
       </c>
       <c r="AH32" s="1" t="n">
         <v>10</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="S33" s="14"/>
+      <c r="S33" s="13"/>
       <c r="AG33" s="0" t="s">
-        <v>319</v>
+        <v>326</v>
       </c>
       <c r="AH33" s="1" t="n">
         <v>10</v>
@@ -5117,9 +5218,9 @@
     </row>
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="P34" s="0"/>
-      <c r="S34" s="10"/>
+      <c r="S34" s="11"/>
       <c r="AG34" s="0" t="s">
-        <v>320</v>
+        <v>327</v>
       </c>
       <c r="AH34" s="1" t="n">
         <v>10</v>
@@ -5127,9 +5228,9 @@
     </row>
     <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="P35" s="0"/>
-      <c r="S35" s="10"/>
+      <c r="S35" s="11"/>
       <c r="AG35" s="0" t="s">
-        <v>321</v>
+        <v>328</v>
       </c>
       <c r="AH35" s="1" t="n">
         <v>10</v>
@@ -5139,7 +5240,7 @@
       <c r="P36" s="0"/>
       <c r="S36" s="0"/>
       <c r="AG36" s="0" t="s">
-        <v>322</v>
+        <v>329</v>
       </c>
       <c r="AH36" s="1" t="n">
         <v>10</v>
@@ -5147,9 +5248,9 @@
     </row>
     <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="P37" s="0"/>
-      <c r="S37" s="10"/>
+      <c r="S37" s="11"/>
       <c r="AG37" s="0" t="s">
-        <v>323</v>
+        <v>330</v>
       </c>
       <c r="AH37" s="1" t="n">
         <v>10</v>
@@ -5159,7 +5260,7 @@
       <c r="P38" s="0"/>
       <c r="S38" s="0"/>
       <c r="AG38" s="0" t="s">
-        <v>324</v>
+        <v>331</v>
       </c>
       <c r="AH38" s="1" t="n">
         <v>10</v>
@@ -5167,9 +5268,9 @@
     </row>
     <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="P39" s="0"/>
-      <c r="S39" s="10"/>
+      <c r="S39" s="11"/>
       <c r="AG39" s="0" t="s">
-        <v>325</v>
+        <v>332</v>
       </c>
       <c r="AH39" s="1" t="n">
         <v>10</v>
@@ -5177,577 +5278,577 @@
     </row>
     <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="P40" s="0"/>
-      <c r="S40" s="14"/>
+      <c r="S40" s="13"/>
       <c r="AG40" s="0" t="s">
-        <v>326</v>
+        <v>333</v>
       </c>
       <c r="AH40" s="1" t="n">
         <v>10</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="S41" s="14"/>
+      <c r="S41" s="13"/>
       <c r="AG41" s="0" t="s">
-        <v>327</v>
+        <v>334</v>
       </c>
       <c r="AH41" s="1" t="n">
         <v>10</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="S42" s="14"/>
+      <c r="S42" s="13"/>
       <c r="AG42" s="0" t="s">
-        <v>328</v>
+        <v>335</v>
       </c>
       <c r="AH42" s="1" t="n">
         <v>10</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="S43" s="14"/>
+      <c r="S43" s="13"/>
       <c r="AG43" s="0" t="s">
-        <v>329</v>
+        <v>336</v>
       </c>
       <c r="AH43" s="1" t="n">
         <v>10</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="S44" s="14"/>
+      <c r="S44" s="13"/>
       <c r="AG44" s="0" t="s">
-        <v>330</v>
+        <v>337</v>
       </c>
       <c r="AH44" s="1" t="n">
         <v>10</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="S45" s="14"/>
+      <c r="S45" s="13"/>
       <c r="AG45" s="0" t="s">
-        <v>331</v>
+        <v>338</v>
       </c>
       <c r="AH45" s="1" t="n">
         <v>10</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="S46" s="14"/>
+      <c r="S46" s="13"/>
       <c r="AG46" s="0" t="s">
-        <v>332</v>
+        <v>339</v>
       </c>
       <c r="AH46" s="1" t="n">
         <v>10</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="S47" s="14"/>
+      <c r="S47" s="13"/>
       <c r="AG47" s="0" t="s">
-        <v>333</v>
+        <v>340</v>
       </c>
       <c r="AH47" s="1" t="n">
         <v>10</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="S48" s="14"/>
+      <c r="S48" s="13"/>
       <c r="AG48" s="0" t="s">
-        <v>334</v>
+        <v>341</v>
       </c>
       <c r="AH48" s="1" t="n">
         <v>10</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="S49" s="14"/>
+      <c r="S49" s="13"/>
       <c r="AG49" s="0" t="s">
-        <v>335</v>
+        <v>342</v>
       </c>
       <c r="AH49" s="1" t="n">
         <v>10</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="S50" s="14"/>
+      <c r="S50" s="13"/>
       <c r="AG50" s="0" t="s">
-        <v>336</v>
+        <v>343</v>
       </c>
       <c r="AH50" s="1" t="n">
         <v>10</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="S51" s="14"/>
+      <c r="S51" s="13"/>
       <c r="AG51" s="0" t="s">
-        <v>337</v>
+        <v>344</v>
       </c>
       <c r="AH51" s="1" t="n">
         <v>10</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="S52" s="14"/>
+      <c r="S52" s="13"/>
       <c r="AG52" s="0" t="s">
-        <v>338</v>
+        <v>345</v>
       </c>
       <c r="AH52" s="1" t="n">
         <v>10</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="S53" s="14"/>
+      <c r="S53" s="13"/>
       <c r="AG53" s="0" t="s">
-        <v>339</v>
+        <v>346</v>
       </c>
       <c r="AH53" s="1" t="n">
         <v>10</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="S54" s="14"/>
+      <c r="S54" s="13"/>
       <c r="AG54" s="0" t="s">
-        <v>340</v>
+        <v>347</v>
       </c>
       <c r="AH54" s="1" t="n">
         <v>10</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="S55" s="14"/>
+      <c r="S55" s="13"/>
       <c r="AG55" s="0" t="s">
-        <v>341</v>
+        <v>348</v>
       </c>
       <c r="AH55" s="1" t="n">
         <v>10</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="S56" s="14"/>
+      <c r="S56" s="13"/>
       <c r="AG56" s="0" t="s">
-        <v>342</v>
+        <v>349</v>
       </c>
       <c r="AH56" s="1" t="n">
         <v>10</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="S57" s="14"/>
+      <c r="S57" s="13"/>
       <c r="AG57" s="0" t="s">
-        <v>343</v>
+        <v>350</v>
       </c>
       <c r="AH57" s="1" t="n">
         <v>10</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="S58" s="14"/>
+      <c r="S58" s="13"/>
       <c r="AG58" s="0" t="s">
-        <v>344</v>
+        <v>351</v>
       </c>
       <c r="AH58" s="1" t="n">
         <v>10</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="S59" s="14"/>
+      <c r="S59" s="13"/>
       <c r="AG59" s="0" t="s">
-        <v>345</v>
+        <v>352</v>
       </c>
       <c r="AH59" s="1" t="n">
         <v>10</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="S60" s="14"/>
+      <c r="S60" s="13"/>
       <c r="AG60" s="0" t="s">
-        <v>346</v>
+        <v>353</v>
       </c>
       <c r="AH60" s="1" t="n">
         <v>10</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="S61" s="14"/>
+      <c r="S61" s="13"/>
       <c r="AG61" s="0" t="s">
-        <v>347</v>
+        <v>354</v>
       </c>
       <c r="AH61" s="1" t="n">
         <v>10</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="S62" s="14"/>
+      <c r="S62" s="13"/>
       <c r="AG62" s="0" t="s">
-        <v>348</v>
+        <v>355</v>
       </c>
       <c r="AH62" s="1" t="n">
         <v>10</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="S63" s="14"/>
+      <c r="S63" s="13"/>
       <c r="AG63" s="0" t="s">
-        <v>349</v>
+        <v>356</v>
       </c>
       <c r="AH63" s="1" t="n">
         <v>10</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="S64" s="14"/>
+      <c r="S64" s="13"/>
       <c r="AG64" s="0" t="s">
-        <v>350</v>
+        <v>357</v>
       </c>
       <c r="AH64" s="1" t="n">
         <v>10</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="S65" s="14"/>
+      <c r="S65" s="13"/>
       <c r="AG65" s="0" t="s">
-        <v>351</v>
+        <v>358</v>
       </c>
       <c r="AH65" s="1" t="n">
         <v>10</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="S66" s="14"/>
+      <c r="S66" s="13"/>
       <c r="AG66" s="0" t="s">
-        <v>352</v>
+        <v>359</v>
       </c>
       <c r="AH66" s="1" t="n">
         <v>10</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="S67" s="14"/>
+      <c r="S67" s="13"/>
       <c r="AG67" s="0" t="s">
-        <v>353</v>
+        <v>360</v>
       </c>
       <c r="AH67" s="1" t="n">
         <v>10</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="S68" s="14"/>
+      <c r="S68" s="13"/>
       <c r="AG68" s="0" t="s">
-        <v>354</v>
+        <v>361</v>
       </c>
       <c r="AH68" s="1" t="n">
         <v>10</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="S69" s="14"/>
+      <c r="S69" s="13"/>
       <c r="AG69" s="0" t="s">
-        <v>355</v>
+        <v>362</v>
       </c>
       <c r="AH69" s="1" t="n">
         <v>10</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="S70" s="14"/>
+      <c r="S70" s="13"/>
       <c r="AG70" s="0" t="s">
-        <v>356</v>
+        <v>363</v>
       </c>
       <c r="AH70" s="1" t="n">
         <v>10</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="S71" s="14"/>
+      <c r="S71" s="13"/>
       <c r="AG71" s="0" t="s">
-        <v>357</v>
+        <v>364</v>
       </c>
       <c r="AH71" s="1" t="n">
         <v>10</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="S72" s="14"/>
+      <c r="S72" s="13"/>
       <c r="AG72" s="0" t="s">
-        <v>358</v>
+        <v>365</v>
       </c>
       <c r="AH72" s="1" t="n">
         <v>10</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="S73" s="14"/>
+      <c r="S73" s="13"/>
       <c r="AG73" s="0" t="s">
-        <v>359</v>
+        <v>366</v>
       </c>
       <c r="AH73" s="1" t="n">
         <v>10</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="S74" s="14"/>
+      <c r="S74" s="13"/>
       <c r="AG74" s="0" t="s">
-        <v>360</v>
+        <v>367</v>
       </c>
       <c r="AH74" s="1" t="n">
         <v>10</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="S75" s="14"/>
+      <c r="S75" s="13"/>
       <c r="AG75" s="0" t="s">
-        <v>361</v>
+        <v>368</v>
       </c>
       <c r="AH75" s="1" t="n">
         <v>10</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="S76" s="14"/>
+      <c r="S76" s="13"/>
       <c r="AG76" s="0" t="s">
-        <v>362</v>
+        <v>369</v>
       </c>
       <c r="AH76" s="1" t="n">
         <v>10</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="S77" s="14"/>
+      <c r="S77" s="13"/>
       <c r="AG77" s="0" t="s">
-        <v>363</v>
+        <v>370</v>
       </c>
       <c r="AH77" s="1" t="n">
         <v>10</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="S78" s="14"/>
+      <c r="S78" s="13"/>
       <c r="AG78" s="0" t="s">
-        <v>364</v>
+        <v>371</v>
       </c>
       <c r="AH78" s="1" t="n">
         <v>10</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="S79" s="14"/>
+      <c r="S79" s="13"/>
       <c r="AG79" s="0" t="s">
-        <v>365</v>
+        <v>372</v>
       </c>
       <c r="AH79" s="1" t="n">
         <v>10</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="S80" s="14"/>
+      <c r="S80" s="13"/>
       <c r="AG80" s="0" t="s">
-        <v>366</v>
+        <v>373</v>
       </c>
       <c r="AH80" s="1" t="n">
         <v>10</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="S81" s="14"/>
+      <c r="S81" s="13"/>
       <c r="AG81" s="0" t="s">
-        <v>367</v>
+        <v>374</v>
       </c>
       <c r="AH81" s="1" t="n">
         <v>10</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="S82" s="14"/>
+      <c r="S82" s="13"/>
       <c r="AG82" s="0" t="s">
-        <v>367</v>
+        <v>374</v>
       </c>
       <c r="AH82" s="1" t="n">
         <v>10</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="S83" s="14"/>
+      <c r="S83" s="13"/>
       <c r="AG83" s="0" t="s">
-        <v>368</v>
+        <v>375</v>
       </c>
       <c r="AH83" s="1" t="n">
         <v>10</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="S84" s="14"/>
+      <c r="S84" s="13"/>
       <c r="AG84" s="0" t="s">
-        <v>368</v>
+        <v>375</v>
       </c>
       <c r="AH84" s="1" t="n">
         <v>10</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="S85" s="14"/>
+      <c r="S85" s="13"/>
       <c r="AG85" s="0" t="s">
-        <v>369</v>
+        <v>376</v>
       </c>
       <c r="AH85" s="1" t="n">
         <v>10</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="S86" s="14"/>
+      <c r="S86" s="13"/>
       <c r="AG86" s="0" t="s">
-        <v>369</v>
+        <v>376</v>
       </c>
       <c r="AH86" s="1" t="n">
         <v>10</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="S87" s="14"/>
+      <c r="S87" s="13"/>
       <c r="AG87" s="0" t="s">
-        <v>370</v>
+        <v>377</v>
       </c>
       <c r="AH87" s="1" t="n">
         <v>10</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="S88" s="14"/>
+      <c r="S88" s="13"/>
       <c r="AG88" s="0" t="s">
-        <v>371</v>
+        <v>378</v>
       </c>
       <c r="AH88" s="1" t="n">
         <v>10</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="S89" s="14"/>
+      <c r="S89" s="13"/>
       <c r="AG89" s="0" t="s">
-        <v>372</v>
+        <v>379</v>
       </c>
       <c r="AH89" s="1" t="n">
         <v>10</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="S90" s="14"/>
+      <c r="S90" s="13"/>
       <c r="AG90" s="0" t="s">
-        <v>373</v>
+        <v>380</v>
       </c>
       <c r="AH90" s="1" t="n">
         <v>10</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="S91" s="14"/>
+      <c r="S91" s="13"/>
       <c r="AG91" s="0" t="s">
-        <v>374</v>
+        <v>381</v>
       </c>
       <c r="AH91" s="1" t="n">
         <v>10</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="S92" s="14"/>
+      <c r="S92" s="13"/>
       <c r="AG92" s="0" t="s">
-        <v>375</v>
+        <v>382</v>
       </c>
       <c r="AH92" s="1" t="n">
         <v>10</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="S93" s="14"/>
+      <c r="S93" s="13"/>
       <c r="AG93" s="0" t="s">
-        <v>376</v>
+        <v>383</v>
       </c>
       <c r="AH93" s="1" t="n">
         <v>10</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="S94" s="14"/>
+      <c r="S94" s="13"/>
       <c r="AG94" s="0" t="s">
-        <v>377</v>
+        <v>384</v>
       </c>
       <c r="AH94" s="1" t="n">
         <v>10</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="S95" s="14"/>
+      <c r="S95" s="13"/>
       <c r="AG95" s="0" t="s">
-        <v>378</v>
+        <v>385</v>
       </c>
       <c r="AH95" s="1" t="n">
         <v>10</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="S96" s="14"/>
+      <c r="S96" s="13"/>
     </row>
     <row r="97" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="S97" s="14"/>
+      <c r="S97" s="13"/>
     </row>
     <row r="98" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="S98" s="14"/>
+      <c r="S98" s="13"/>
     </row>
     <row r="99" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="S99" s="14"/>
+      <c r="S99" s="13"/>
     </row>
     <row r="100" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="S100" s="14"/>
+      <c r="S100" s="13"/>
     </row>
     <row r="101" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="S101" s="14"/>
+      <c r="S101" s="13"/>
     </row>
     <row r="102" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="S102" s="14"/>
+      <c r="S102" s="13"/>
     </row>
     <row r="103" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="S103" s="14"/>
+      <c r="S103" s="13"/>
     </row>
     <row r="104" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="S104" s="14"/>
+      <c r="S104" s="13"/>
     </row>
     <row r="105" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="S105" s="14"/>
+      <c r="S105" s="13"/>
     </row>
     <row r="106" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="S106" s="14"/>
+      <c r="S106" s="13"/>
     </row>
     <row r="107" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="S107" s="14"/>
+      <c r="S107" s="13"/>
     </row>
     <row r="108" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="S108" s="14"/>
+      <c r="S108" s="13"/>
     </row>
     <row r="109" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="S109" s="14"/>
+      <c r="S109" s="13"/>
     </row>
     <row r="110" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="S110" s="14"/>
+      <c r="S110" s="13"/>
     </row>
     <row r="111" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="S111" s="14"/>
+      <c r="S111" s="13"/>
     </row>
     <row r="112" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="S112" s="14"/>
+      <c r="S112" s="13"/>
     </row>
     <row r="113" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="S113" s="14"/>
+      <c r="S113" s="13"/>
     </row>
     <row r="114" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="S114" s="14"/>
+      <c r="S114" s="13"/>
     </row>
     <row r="115" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="S115" s="14"/>
+      <c r="S115" s="13"/>
     </row>
     <row r="116" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="S116" s="14"/>
+      <c r="S116" s="13"/>
     </row>
     <row r="117" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="S117" s="14"/>
+      <c r="S117" s="13"/>
     </row>
     <row r="118" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="S118" s="14"/>
+      <c r="S118" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="9">
@@ -5782,13 +5883,13 @@
       <selection pane="topLeft" activeCell="C22" activeCellId="0" sqref="C22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.6953125" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="3.46"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="3.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="13.89"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="48.62"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="8.6"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="1.94"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="1.93"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="1.61"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="25.56"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="8.6"/>
@@ -5805,40 +5906,40 @@
   </cols>
   <sheetData>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B2" s="2" t="s">
-        <v>379</v>
-      </c>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
+      <c r="B2" s="8" t="s">
+        <v>386</v>
+      </c>
+      <c r="C2" s="8"/>
+      <c r="D2" s="8"/>
       <c r="E2" s="0"/>
       <c r="F2" s="3"/>
       <c r="G2" s="2" t="s">
-        <v>380</v>
+        <v>387</v>
       </c>
       <c r="H2" s="2"/>
       <c r="I2" s="3"/>
       <c r="J2" s="2" t="s">
-        <v>381</v>
+        <v>388</v>
       </c>
       <c r="K2" s="2"/>
       <c r="L2" s="3"/>
       <c r="M2" s="2" t="s">
-        <v>382</v>
+        <v>389</v>
       </c>
       <c r="N2" s="2"/>
       <c r="O2" s="3"/>
       <c r="P2" s="2" t="s">
-        <v>383</v>
+        <v>390</v>
       </c>
       <c r="Q2" s="2"/>
       <c r="R2" s="3"/>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3" s="7" t="s">
-        <v>384</v>
+        <v>391</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>385</v>
+        <v>392</v>
       </c>
       <c r="D3" s="5" t="n">
         <f aca="false">SUM(D4:D22)</f>
@@ -5861,38 +5962,38 @@
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B4" s="12" t="s">
-        <v>386</v>
+        <v>393</v>
       </c>
       <c r="C4" s="12" t="s">
-        <v>387</v>
-      </c>
-      <c r="D4" s="10" t="n">
+        <v>394</v>
+      </c>
+      <c r="D4" s="11" t="n">
         <v>1</v>
       </c>
       <c r="E4" s="0"/>
       <c r="G4" s="7" t="s">
-        <v>388</v>
+        <v>395</v>
       </c>
       <c r="H4" s="5" t="n">
         <f aca="false">SUM(H5:H10)</f>
         <v>100</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>389</v>
+        <v>396</v>
       </c>
       <c r="K4" s="5" t="n">
         <f aca="false">SUM(K5:K10)</f>
         <v>100</v>
       </c>
       <c r="M4" s="7" t="s">
-        <v>390</v>
+        <v>397</v>
       </c>
       <c r="N4" s="5" t="n">
         <f aca="false">SUM(N5:N10)</f>
         <v>100</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>383</v>
+        <v>390</v>
       </c>
       <c r="Q4" s="5" t="n">
         <f aca="false">SUM(Q5:Q10)</f>
@@ -5901,35 +6002,35 @@
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B5" s="0" t="s">
-        <v>391</v>
+        <v>398</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>388</v>
+        <v>395</v>
       </c>
       <c r="D5" s="1" t="n">
         <v>20</v>
       </c>
       <c r="E5" s="0"/>
       <c r="G5" s="0" t="s">
-        <v>392</v>
+        <v>399</v>
       </c>
       <c r="H5" s="1" t="n">
         <v>100</v>
       </c>
       <c r="J5" s="0" t="s">
-        <v>393</v>
+        <v>400</v>
       </c>
       <c r="K5" s="1" t="n">
         <v>35</v>
       </c>
       <c r="M5" s="0" t="s">
-        <v>392</v>
-      </c>
-      <c r="N5" s="10" t="n">
+        <v>399</v>
+      </c>
+      <c r="N5" s="11" t="n">
         <v>30</v>
       </c>
       <c r="P5" s="0" t="s">
-        <v>392</v>
+        <v>399</v>
       </c>
       <c r="Q5" s="1" t="n">
         <v>50</v>
@@ -5937,29 +6038,29 @@
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B6" s="0" t="s">
-        <v>394</v>
+        <v>401</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>389</v>
+        <v>396</v>
       </c>
       <c r="D6" s="1" t="n">
         <v>5</v>
       </c>
       <c r="E6" s="0"/>
       <c r="J6" s="0" t="s">
-        <v>395</v>
+        <v>402</v>
       </c>
       <c r="K6" s="1" t="n">
         <v>35</v>
       </c>
       <c r="M6" s="12" t="s">
-        <v>396</v>
-      </c>
-      <c r="N6" s="10" t="n">
+        <v>403</v>
+      </c>
+      <c r="N6" s="11" t="n">
         <v>10</v>
       </c>
       <c r="P6" s="0" t="s">
-        <v>397</v>
+        <v>404</v>
       </c>
       <c r="Q6" s="1" t="n">
         <v>20</v>
@@ -5967,29 +6068,29 @@
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B7" s="0" t="s">
-        <v>398</v>
+        <v>405</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>399</v>
+        <v>406</v>
       </c>
       <c r="D7" s="1" t="n">
         <v>1</v>
       </c>
       <c r="E7" s="0"/>
       <c r="J7" s="0" t="s">
-        <v>400</v>
+        <v>407</v>
       </c>
       <c r="K7" s="1" t="n">
         <v>30</v>
       </c>
       <c r="M7" s="0" t="s">
-        <v>401</v>
-      </c>
-      <c r="N7" s="10" t="n">
+        <v>408</v>
+      </c>
+      <c r="N7" s="11" t="n">
         <v>20</v>
       </c>
       <c r="P7" s="0" t="s">
-        <v>402</v>
+        <v>409</v>
       </c>
       <c r="Q7" s="1" t="n">
         <v>10</v>
@@ -5997,10 +6098,10 @@
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B8" s="0" t="s">
-        <v>403</v>
+        <v>410</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>390</v>
+        <v>397</v>
       </c>
       <c r="D8" s="1" t="n">
         <v>5</v>
@@ -6011,13 +6112,13 @@
       <c r="J8" s="7"/>
       <c r="K8" s="5"/>
       <c r="M8" s="12" t="s">
-        <v>404</v>
-      </c>
-      <c r="N8" s="10" t="n">
+        <v>411</v>
+      </c>
+      <c r="N8" s="11" t="n">
         <v>20</v>
       </c>
       <c r="P8" s="0" t="s">
-        <v>396</v>
+        <v>403</v>
       </c>
       <c r="Q8" s="1" t="n">
         <v>10</v>
@@ -6025,10 +6126,10 @@
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B9" s="0" t="s">
-        <v>405</v>
+        <v>412</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>383</v>
+        <v>390</v>
       </c>
       <c r="D9" s="1" t="n">
         <v>20</v>
@@ -6039,13 +6140,13 @@
       <c r="J9" s="7"/>
       <c r="K9" s="5"/>
       <c r="M9" s="12" t="s">
-        <v>406</v>
-      </c>
-      <c r="N9" s="10" t="n">
+        <v>413</v>
+      </c>
+      <c r="N9" s="11" t="n">
         <v>10</v>
       </c>
       <c r="P9" s="0" t="s">
-        <v>407</v>
+        <v>414</v>
       </c>
       <c r="Q9" s="1" t="n">
         <v>10</v>
@@ -6053,10 +6154,10 @@
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B10" s="0" t="s">
-        <v>408</v>
+        <v>415</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>409</v>
+        <v>416</v>
       </c>
       <c r="D10" s="1" t="n">
         <v>20</v>
@@ -6067,20 +6168,20 @@
       <c r="J10" s="7"/>
       <c r="K10" s="5"/>
       <c r="M10" s="0" t="s">
-        <v>410</v>
-      </c>
-      <c r="N10" s="10" t="n">
+        <v>417</v>
+      </c>
+      <c r="N10" s="11" t="n">
         <v>10</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B11" s="12" t="s">
-        <v>411</v>
+        <v>418</v>
       </c>
       <c r="C11" s="12" t="s">
-        <v>412</v>
-      </c>
-      <c r="D11" s="10" t="n">
+        <v>419</v>
+      </c>
+      <c r="D11" s="11" t="n">
         <v>20</v>
       </c>
       <c r="E11" s="0"/>
@@ -6093,10 +6194,10 @@
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B12" s="0" t="s">
-        <v>413</v>
+        <v>420</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>414</v>
+        <v>421</v>
       </c>
       <c r="D12" s="1" t="n">
         <v>5</v>
@@ -6109,40 +6210,40 @@
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B13" s="0" t="s">
-        <v>415</v>
+        <v>422</v>
       </c>
       <c r="C13" s="0" t="s">
-        <v>416</v>
+        <v>423</v>
       </c>
       <c r="D13" s="1" t="n">
         <v>1</v>
       </c>
       <c r="E13" s="0"/>
       <c r="G13" s="2" t="s">
-        <v>409</v>
+        <v>416</v>
       </c>
       <c r="H13" s="2"/>
       <c r="I13" s="3"/>
       <c r="J13" s="2" t="s">
-        <v>412</v>
+        <v>419</v>
       </c>
       <c r="K13" s="2"/>
       <c r="L13" s="3"/>
       <c r="M13" s="2" t="s">
-        <v>414</v>
+        <v>421</v>
       </c>
       <c r="N13" s="2"/>
       <c r="P13" s="2" t="s">
-        <v>417</v>
+        <v>424</v>
       </c>
       <c r="Q13" s="2"/>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B14" s="0" t="s">
-        <v>418</v>
+        <v>425</v>
       </c>
       <c r="C14" s="0" t="s">
-        <v>419</v>
+        <v>426</v>
       </c>
       <c r="D14" s="1" t="n">
         <v>1</v>
@@ -6161,38 +6262,38 @@
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B15" s="0" t="s">
-        <v>420</v>
+        <v>427</v>
       </c>
       <c r="C15" s="0" t="s">
-        <v>421</v>
+        <v>428</v>
       </c>
       <c r="D15" s="1" t="n">
         <v>1</v>
       </c>
       <c r="E15" s="0"/>
       <c r="G15" s="7" t="s">
-        <v>409</v>
+        <v>416</v>
       </c>
       <c r="H15" s="5" t="n">
         <f aca="false">SUM(H16:H21)</f>
         <v>100</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>412</v>
+        <v>419</v>
       </c>
       <c r="K15" s="5" t="n">
         <f aca="false">SUM(K16:K21)</f>
         <v>100</v>
       </c>
       <c r="M15" s="7" t="s">
-        <v>414</v>
+        <v>421</v>
       </c>
       <c r="N15" s="5" t="n">
         <f aca="false">SUM(N16:N21)</f>
         <v>100</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>417</v>
+        <v>424</v>
       </c>
       <c r="Q15" s="5" t="n">
         <f aca="false">SUM(Q16:Q21)</f>
@@ -6201,35 +6302,35 @@
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B16" s="0" t="s">
-        <v>422</v>
+        <v>429</v>
       </c>
       <c r="C16" s="0" t="s">
-        <v>417</v>
+        <v>424</v>
       </c>
       <c r="D16" s="1" t="n">
         <v>20</v>
       </c>
       <c r="E16" s="0"/>
       <c r="G16" s="0" t="s">
-        <v>397</v>
+        <v>404</v>
       </c>
       <c r="H16" s="1" t="n">
         <v>40</v>
       </c>
       <c r="J16" s="0" t="s">
-        <v>423</v>
+        <v>430</v>
       </c>
       <c r="K16" s="1" t="n">
         <v>35</v>
       </c>
       <c r="M16" s="0" t="s">
-        <v>424</v>
+        <v>431</v>
       </c>
       <c r="N16" s="1" t="n">
         <v>30</v>
       </c>
       <c r="P16" s="0" t="s">
-        <v>396</v>
+        <v>403</v>
       </c>
       <c r="Q16" s="1" t="n">
         <v>15</v>
@@ -6237,35 +6338,35 @@
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B17" s="0" t="s">
-        <v>425</v>
+        <v>432</v>
       </c>
       <c r="C17" s="0" t="s">
-        <v>426</v>
+        <v>433</v>
       </c>
       <c r="D17" s="1" t="n">
         <v>5</v>
       </c>
       <c r="E17" s="0"/>
       <c r="G17" s="0" t="s">
-        <v>401</v>
+        <v>408</v>
       </c>
       <c r="H17" s="1" t="n">
         <v>10</v>
       </c>
       <c r="J17" s="0" t="s">
-        <v>427</v>
+        <v>434</v>
       </c>
       <c r="K17" s="1" t="n">
         <v>35</v>
       </c>
       <c r="M17" s="0" t="s">
-        <v>428</v>
+        <v>435</v>
       </c>
       <c r="N17" s="1" t="n">
         <v>30</v>
       </c>
       <c r="P17" s="0" t="s">
-        <v>428</v>
+        <v>435</v>
       </c>
       <c r="Q17" s="1" t="n">
         <v>15</v>
@@ -6273,35 +6374,35 @@
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B18" s="0" t="s">
-        <v>429</v>
+        <v>436</v>
       </c>
       <c r="C18" s="0" t="s">
-        <v>430</v>
+        <v>437</v>
       </c>
       <c r="D18" s="1" t="n">
         <v>10</v>
       </c>
       <c r="E18" s="0"/>
       <c r="G18" s="0" t="s">
-        <v>404</v>
+        <v>411</v>
       </c>
       <c r="H18" s="1" t="n">
         <v>10</v>
       </c>
       <c r="J18" s="0" t="s">
-        <v>431</v>
+        <v>438</v>
       </c>
       <c r="K18" s="1" t="n">
         <v>30</v>
       </c>
       <c r="M18" s="0" t="s">
-        <v>402</v>
+        <v>409</v>
       </c>
       <c r="N18" s="1" t="n">
         <v>30</v>
       </c>
       <c r="P18" s="0" t="s">
-        <v>432</v>
+        <v>439</v>
       </c>
       <c r="Q18" s="1" t="n">
         <v>40</v>
@@ -6309,29 +6410,29 @@
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B19" s="0" t="s">
-        <v>433</v>
+        <v>440</v>
       </c>
       <c r="C19" s="0" t="s">
-        <v>434</v>
+        <v>441</v>
       </c>
       <c r="D19" s="1" t="n">
         <v>1</v>
       </c>
       <c r="E19" s="0"/>
       <c r="G19" s="0" t="s">
-        <v>402</v>
+        <v>409</v>
       </c>
       <c r="H19" s="1" t="n">
         <v>10</v>
       </c>
       <c r="M19" s="0" t="s">
-        <v>435</v>
+        <v>442</v>
       </c>
       <c r="N19" s="1" t="n">
         <v>10</v>
       </c>
       <c r="P19" s="0" t="s">
-        <v>427</v>
+        <v>434</v>
       </c>
       <c r="Q19" s="1" t="n">
         <v>15</v>
@@ -6339,23 +6440,23 @@
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B20" s="0" t="s">
-        <v>436</v>
+        <v>443</v>
       </c>
       <c r="C20" s="0" t="s">
-        <v>437</v>
+        <v>444</v>
       </c>
       <c r="D20" s="1" t="n">
         <v>5</v>
       </c>
       <c r="E20" s="0"/>
       <c r="G20" s="0" t="s">
-        <v>432</v>
+        <v>439</v>
       </c>
       <c r="H20" s="1" t="n">
         <v>20</v>
       </c>
       <c r="P20" s="0" t="s">
-        <v>423</v>
+        <v>430</v>
       </c>
       <c r="Q20" s="1" t="n">
         <v>15</v>
@@ -6363,17 +6464,17 @@
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B21" s="0" t="s">
-        <v>438</v>
+        <v>445</v>
       </c>
       <c r="C21" s="0" t="s">
-        <v>439</v>
+        <v>446</v>
       </c>
       <c r="D21" s="1" t="n">
         <v>1</v>
       </c>
       <c r="E21" s="0"/>
       <c r="G21" s="0" t="s">
-        <v>410</v>
+        <v>417</v>
       </c>
       <c r="H21" s="1" t="n">
         <v>10</v>
@@ -6381,10 +6482,10 @@
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B22" s="0" t="s">
-        <v>440</v>
+        <v>447</v>
       </c>
       <c r="C22" s="0" t="s">
-        <v>441</v>
+        <v>448</v>
       </c>
       <c r="D22" s="1" t="n">
         <v>20</v>
@@ -6400,31 +6501,31 @@
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="G24" s="2" t="s">
-        <v>426</v>
+        <v>433</v>
       </c>
       <c r="H24" s="2"/>
       <c r="I24" s="3"/>
       <c r="J24" s="2" t="s">
-        <v>430</v>
+        <v>437</v>
       </c>
       <c r="K24" s="2"/>
       <c r="L24" s="3"/>
       <c r="M24" s="2" t="s">
-        <v>437</v>
+        <v>444</v>
       </c>
       <c r="N24" s="2"/>
       <c r="O24" s="3"/>
       <c r="P24" s="2" t="s">
-        <v>441</v>
+        <v>448</v>
       </c>
       <c r="Q24" s="2"/>
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B25" s="2" t="s">
-        <v>442</v>
-      </c>
-      <c r="C25" s="2"/>
-      <c r="D25" s="2"/>
+      <c r="B25" s="8" t="s">
+        <v>449</v>
+      </c>
+      <c r="C25" s="8"/>
+      <c r="D25" s="8"/>
       <c r="G25" s="3"/>
       <c r="H25" s="3"/>
       <c r="I25" s="3"/>
@@ -6439,35 +6540,35 @@
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B26" s="7" t="s">
-        <v>384</v>
+        <v>391</v>
       </c>
       <c r="C26" s="7" t="s">
-        <v>385</v>
+        <v>392</v>
       </c>
       <c r="D26" s="5"/>
       <c r="G26" s="7" t="s">
-        <v>426</v>
+        <v>433</v>
       </c>
       <c r="H26" s="5" t="n">
         <f aca="false">SUM(H27:H32)</f>
         <v>100</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>430</v>
+        <v>437</v>
       </c>
       <c r="K26" s="5" t="n">
         <f aca="false">SUM(K27:K32)</f>
         <v>100</v>
       </c>
       <c r="M26" s="7" t="s">
-        <v>437</v>
+        <v>444</v>
       </c>
       <c r="N26" s="5" t="n">
         <f aca="false">SUM(N27:N32)</f>
         <v>100</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>441</v>
+        <v>448</v>
       </c>
       <c r="Q26" s="5" t="n">
         <f aca="false">SUM(Q27:Q32)</f>
@@ -6476,32 +6577,32 @@
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B27" s="12" t="s">
-        <v>386</v>
+        <v>393</v>
       </c>
       <c r="C27" s="0" t="s">
-        <v>443</v>
-      </c>
-      <c r="D27" s="10"/>
+        <v>450</v>
+      </c>
+      <c r="D27" s="11"/>
       <c r="G27" s="0" t="s">
-        <v>406</v>
+        <v>413</v>
       </c>
       <c r="H27" s="1" t="n">
         <v>25</v>
       </c>
       <c r="J27" s="0" t="s">
-        <v>424</v>
+        <v>431</v>
       </c>
       <c r="K27" s="1" t="n">
         <v>20</v>
       </c>
       <c r="M27" s="0" t="s">
-        <v>423</v>
+        <v>430</v>
       </c>
       <c r="N27" s="1" t="n">
         <v>35</v>
       </c>
       <c r="P27" s="0" t="s">
-        <v>444</v>
+        <v>451</v>
       </c>
       <c r="Q27" s="1" t="n">
         <v>40</v>
@@ -6509,31 +6610,31 @@
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B28" s="0" t="s">
-        <v>391</v>
+        <v>398</v>
       </c>
       <c r="C28" s="0" t="s">
-        <v>392</v>
+        <v>399</v>
       </c>
       <c r="G28" s="0" t="s">
-        <v>410</v>
+        <v>417</v>
       </c>
       <c r="H28" s="1" t="n">
         <v>50</v>
       </c>
       <c r="J28" s="0" t="s">
-        <v>428</v>
+        <v>435</v>
       </c>
       <c r="K28" s="1" t="n">
         <v>20</v>
       </c>
       <c r="M28" s="0" t="s">
-        <v>427</v>
+        <v>434</v>
       </c>
       <c r="N28" s="1" t="n">
         <v>35</v>
       </c>
       <c r="P28" s="0" t="s">
-        <v>432</v>
+        <v>439</v>
       </c>
       <c r="Q28" s="1" t="n">
         <v>40</v>
@@ -6541,31 +6642,31 @@
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B29" s="0" t="s">
-        <v>394</v>
+        <v>401</v>
       </c>
       <c r="C29" s="0" t="s">
-        <v>445</v>
+        <v>452</v>
       </c>
       <c r="G29" s="0" t="s">
-        <v>407</v>
+        <v>414</v>
       </c>
       <c r="H29" s="1" t="n">
         <v>25</v>
       </c>
       <c r="J29" s="0" t="s">
-        <v>444</v>
+        <v>451</v>
       </c>
       <c r="K29" s="1" t="n">
         <v>40</v>
       </c>
       <c r="M29" s="0" t="s">
-        <v>431</v>
+        <v>438</v>
       </c>
       <c r="N29" s="1" t="n">
         <v>30</v>
       </c>
       <c r="P29" s="0" t="s">
-        <v>400</v>
+        <v>407</v>
       </c>
       <c r="Q29" s="1" t="n">
         <v>20</v>
@@ -6573,13 +6674,13 @@
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B30" s="0" t="s">
-        <v>398</v>
+        <v>405</v>
       </c>
       <c r="C30" s="0" t="s">
-        <v>443</v>
+        <v>450</v>
       </c>
       <c r="J30" s="0" t="s">
-        <v>435</v>
+        <v>442</v>
       </c>
       <c r="K30" s="1" t="n">
         <v>20</v>
@@ -6587,123 +6688,123 @@
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B31" s="0" t="s">
-        <v>403</v>
+        <v>410</v>
       </c>
       <c r="C31" s="0" t="s">
-        <v>446</v>
+        <v>453</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B32" s="0" t="s">
-        <v>405</v>
+        <v>412</v>
       </c>
       <c r="C32" s="0" t="s">
-        <v>447</v>
+        <v>454</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B33" s="0" t="s">
-        <v>408</v>
+        <v>415</v>
       </c>
       <c r="C33" s="0" t="s">
-        <v>448</v>
+        <v>455</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B34" s="12" t="s">
-        <v>411</v>
+        <v>418</v>
       </c>
       <c r="C34" s="0" t="s">
-        <v>449</v>
-      </c>
-      <c r="D34" s="10"/>
+        <v>456</v>
+      </c>
+      <c r="D34" s="11"/>
     </row>
     <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B35" s="0" t="s">
-        <v>413</v>
+        <v>420</v>
       </c>
       <c r="C35" s="0" t="s">
-        <v>450</v>
+        <v>457</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B36" s="0" t="s">
-        <v>415</v>
+        <v>422</v>
       </c>
       <c r="C36" s="0" t="s">
-        <v>443</v>
+        <v>450</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B37" s="0" t="s">
-        <v>418</v>
+        <v>425</v>
       </c>
       <c r="C37" s="0" t="s">
-        <v>443</v>
+        <v>450</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B38" s="0" t="s">
-        <v>420</v>
+        <v>427</v>
       </c>
       <c r="C38" s="0" t="s">
-        <v>443</v>
+        <v>450</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B39" s="0" t="s">
-        <v>422</v>
+        <v>429</v>
       </c>
       <c r="C39" s="0" t="s">
-        <v>451</v>
+        <v>458</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B40" s="0" t="s">
-        <v>425</v>
+        <v>432</v>
       </c>
       <c r="C40" s="0" t="s">
-        <v>452</v>
+        <v>459</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B41" s="0" t="s">
-        <v>429</v>
+        <v>436</v>
       </c>
       <c r="C41" s="0" t="s">
-        <v>453</v>
+        <v>460</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B42" s="0" t="s">
-        <v>433</v>
+        <v>440</v>
       </c>
       <c r="C42" s="0" t="s">
-        <v>443</v>
+        <v>450</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B43" s="0" t="s">
-        <v>436</v>
+        <v>443</v>
       </c>
       <c r="C43" s="0" t="s">
-        <v>454</v>
+        <v>461</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B44" s="0" t="s">
-        <v>438</v>
+        <v>445</v>
       </c>
       <c r="C44" s="0" t="s">
-        <v>443</v>
+        <v>450</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B45" s="0" t="s">
-        <v>440</v>
+        <v>447</v>
       </c>
       <c r="C45" s="0" t="s">
-        <v>455</v>
+        <v>462</v>
       </c>
     </row>
   </sheetData>

--- a/city-npc/Ptolus_City_NPC_Encounter.xlsx
+++ b/city-npc/Ptolus_City_NPC_Encounter.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="645" uniqueCount="463">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="846" uniqueCount="556">
   <si>
     <t xml:space="preserve">MORTAL</t>
   </si>
@@ -158,6 +158,9 @@
     <t xml:space="preserve">CULTURAL ORIGIN</t>
   </si>
   <si>
+    <t xml:space="preserve">ORIGIN ROUTER</t>
+  </si>
+  <si>
     <t xml:space="preserve">City</t>
   </si>
   <si>
@@ -167,6 +170,12 @@
     <t xml:space="preserve">HUMAN ORIGIN</t>
   </si>
   <si>
+    <t xml:space="preserve">aarakocra</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[template:origin-28generic29-soullink|{}]</t>
+  </si>
+  <si>
     <t xml:space="preserve">major</t>
   </si>
   <si>
@@ -185,6 +194,9 @@
     <t xml:space="preserve">Flannae (Flan)</t>
   </si>
   <si>
+    <t xml:space="preserve">air-genasi</t>
+  </si>
+  <si>
     <t xml:space="preserve">minor</t>
   </si>
   <si>
@@ -203,6 +215,9 @@
     <t xml:space="preserve">Oeridian (Oerid)</t>
   </si>
   <si>
+    <t xml:space="preserve">baklunish-bakluni</t>
+  </si>
+  <si>
     <t xml:space="preserve">monstrious</t>
   </si>
   <si>
@@ -221,6 +236,9 @@
     <t xml:space="preserve">Suloise (Suel)</t>
   </si>
   <si>
+    <t xml:space="preserve">blooded-tiefling</t>
+  </si>
+  <si>
     <t xml:space="preserve">human</t>
   </si>
   <si>
@@ -230,9 +248,15 @@
     <t xml:space="preserve">Baklunish (Bakluni)</t>
   </si>
   <si>
+    <t xml:space="preserve">bugbear</t>
+  </si>
+  <si>
     <t xml:space="preserve">Rhennee (Rhenn-folk)</t>
   </si>
   <si>
+    <t xml:space="preserve">bullywug</t>
+  </si>
+  <si>
     <t xml:space="preserve">Down Shadow</t>
   </si>
   <si>
@@ -242,6 +266,9 @@
     <t xml:space="preserve">Olman</t>
   </si>
   <si>
+    <t xml:space="preserve">centaur</t>
+  </si>
+  <si>
     <t xml:space="preserve">MINOR ORIGIN GENERATOR</t>
   </si>
   <si>
@@ -251,15 +278,27 @@
     <t xml:space="preserve">Touv</t>
   </si>
   <si>
+    <t xml:space="preserve">changeling</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[template:origin-28cover29-soullink|{}]</t>
+  </si>
+  <si>
     <t xml:space="preserve">Dragonborn (Black)</t>
   </si>
   <si>
+    <t xml:space="preserve">cherubim-elf</t>
+  </si>
+  <si>
     <t xml:space="preserve"> </t>
   </si>
   <si>
     <t xml:space="preserve">Dragonborn (Blue)</t>
   </si>
   <si>
+    <t xml:space="preserve">copper-elf-wood-elf</t>
+  </si>
+  <si>
     <t xml:space="preserve">assimar</t>
   </si>
   <si>
@@ -269,19 +308,19 @@
     <t xml:space="preserve">Dragonborn (Green)</t>
   </si>
   <si>
+    <t xml:space="preserve">dark-elf</t>
+  </si>
+  <si>
     <t xml:space="preserve">Cover</t>
   </si>
   <si>
-    <t xml:space="preserve">centaur</t>
-  </si>
-  <si>
     <t xml:space="preserve">Centaur (Aram)</t>
   </si>
   <si>
     <t xml:space="preserve">Dragonborn (Red)</t>
   </si>
   <si>
-    <t xml:space="preserve">changeling</t>
+    <t xml:space="preserve">dark-elf-drow-elf</t>
   </si>
   <si>
     <t xml:space="preserve">Changeling</t>
@@ -290,6 +329,9 @@
     <t xml:space="preserve">Dragonborn (White)</t>
   </si>
   <si>
+    <t xml:space="preserve">deep-gnome-svirfneblin</t>
+  </si>
+  <si>
     <t xml:space="preserve">dragonborn</t>
   </si>
   <si>
@@ -299,6 +341,9 @@
     <t xml:space="preserve">Dragonborn (Brass)</t>
   </si>
   <si>
+    <t xml:space="preserve">devils-tiefling</t>
+  </si>
+  <si>
     <t xml:space="preserve">firbolg</t>
   </si>
   <si>
@@ -308,6 +353,9 @@
     <t xml:space="preserve">Dragonborn (Bronze)</t>
   </si>
   <si>
+    <t xml:space="preserve">dragonborn-amethyst</t>
+  </si>
+  <si>
     <t xml:space="preserve">genasi</t>
   </si>
   <si>
@@ -317,6 +365,9 @@
     <t xml:space="preserve">Dragonborn (Copper)</t>
   </si>
   <si>
+    <t xml:space="preserve">dragonborn-black</t>
+  </si>
+  <si>
     <t xml:space="preserve">gnome</t>
   </si>
   <si>
@@ -326,6 +377,9 @@
     <t xml:space="preserve">Dragonborn (Gold)</t>
   </si>
   <si>
+    <t xml:space="preserve">dragonborn-blended</t>
+  </si>
+  <si>
     <t xml:space="preserve">goliath</t>
   </si>
   <si>
@@ -335,7 +389,10 @@
     <t xml:space="preserve">Dragonborn (Platinum)</t>
   </si>
   <si>
-    <t xml:space="preserve">Half-orc</t>
+    <t xml:space="preserve">dragonborn-blue</t>
+  </si>
+  <si>
+    <t xml:space="preserve">half-orc</t>
   </si>
   <si>
     <t xml:space="preserve">Half-Orc</t>
@@ -344,6 +401,9 @@
     <t xml:space="preserve">Dragonborn (Amethyst)</t>
   </si>
   <si>
+    <t xml:space="preserve">dragonborn-brass</t>
+  </si>
+  <si>
     <t xml:space="preserve">litorian</t>
   </si>
   <si>
@@ -353,6 +413,9 @@
     <t xml:space="preserve">Dragonborn (Crystal)</t>
   </si>
   <si>
+    <t xml:space="preserve">dragonborn-bronze</t>
+  </si>
+  <si>
     <t xml:space="preserve">lizardfolk</t>
   </si>
   <si>
@@ -362,6 +425,9 @@
     <t xml:space="preserve">Dragonborn (Emerald)</t>
   </si>
   <si>
+    <t xml:space="preserve">dragonborn-copper</t>
+  </si>
+  <si>
     <t xml:space="preserve">shifter</t>
   </si>
   <si>
@@ -371,6 +437,9 @@
     <t xml:space="preserve">Dragonborn (Sapphire)</t>
   </si>
   <si>
+    <t xml:space="preserve">dragonborn-crystal</t>
+  </si>
+  <si>
     <t xml:space="preserve">tiefling</t>
   </si>
   <si>
@@ -380,54 +449,93 @@
     <t xml:space="preserve">Dragonborn (Topaz)</t>
   </si>
   <si>
+    <t xml:space="preserve">dragonborn-emerald</t>
+  </si>
+  <si>
     <t xml:space="preserve">warforged</t>
   </si>
   <si>
     <t xml:space="preserve">Warforged</t>
   </si>
   <si>
-    <t xml:space="preserve">Half-elf</t>
+    <t xml:space="preserve">dragonborn-gold</t>
+  </si>
+  <si>
+    <t xml:space="preserve">half-elf</t>
   </si>
   <si>
     <t xml:space="preserve">[generator:half-elf-origin-soullink|{}|origin]</t>
   </si>
   <si>
+    <t xml:space="preserve">dragonborn-green</t>
+  </si>
+  <si>
     <t xml:space="preserve">GENASI ORIGIN</t>
   </si>
   <si>
+    <t xml:space="preserve">dragonborn-platinum</t>
+  </si>
+  <si>
     <t xml:space="preserve">Air Genasi</t>
   </si>
   <si>
+    <t xml:space="preserve">dragonborn-red</t>
+  </si>
+  <si>
     <t xml:space="preserve">Earth Genasi</t>
   </si>
   <si>
+    <t xml:space="preserve">dragonborn-sapphire</t>
+  </si>
+  <si>
     <t xml:space="preserve">Fire Genasi</t>
   </si>
   <si>
+    <t xml:space="preserve">dragonborn-topaz</t>
+  </si>
+  <si>
     <t xml:space="preserve">MONSTROUS ORIGIN GENERATOR</t>
   </si>
   <si>
     <t xml:space="preserve">Water Genasi</t>
   </si>
   <si>
+    <t xml:space="preserve">dragonborn-white</t>
+  </si>
+  <si>
+    <t xml:space="preserve">duergar-dwarf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">earth-genasi</t>
+  </si>
+  <si>
     <t xml:space="preserve">Aarakocra</t>
   </si>
   <si>
     <t xml:space="preserve">DWARF ORIGIN</t>
   </si>
   <si>
+    <t xml:space="preserve">earthsinger-dwarf-hill</t>
+  </si>
+  <si>
     <t xml:space="preserve">Bugbear</t>
   </si>
   <si>
     <t xml:space="preserve">Hill Dwarf</t>
   </si>
   <si>
+    <t xml:space="preserve">fallen-aasimar</t>
+  </si>
+  <si>
     <t xml:space="preserve">Bullywug</t>
   </si>
   <si>
     <t xml:space="preserve">Mountaun Dwarf</t>
   </si>
   <si>
+    <t xml:space="preserve">feral-tiefling</t>
+  </si>
+  <si>
     <t xml:space="preserve">Gith</t>
   </si>
   <si>
@@ -440,42 +548,66 @@
     <t xml:space="preserve">Grailwarden Dwarf (Mountain)</t>
   </si>
   <si>
+    <t xml:space="preserve">fire-genasi</t>
+  </si>
+  <si>
     <t xml:space="preserve">Goblin</t>
   </si>
   <si>
     <t xml:space="preserve">Stonelost Dwarf (Hill)</t>
   </si>
   <si>
+    <t xml:space="preserve">flannae-flan</t>
+  </si>
+  <si>
     <t xml:space="preserve">Grimlock</t>
   </si>
   <si>
     <t xml:space="preserve">Earthsinger Dwarf (Hill)</t>
   </si>
   <si>
+    <t xml:space="preserve">forest-gnome</t>
+  </si>
+  <si>
     <t xml:space="preserve">Half-Dragon</t>
   </si>
   <si>
     <t xml:space="preserve">Shield Dwarf (Mountain)</t>
   </si>
   <si>
+    <t xml:space="preserve">ghostwise-halfling</t>
+  </si>
+  <si>
     <t xml:space="preserve">Hobgoblin</t>
   </si>
   <si>
     <t xml:space="preserve">Gold Dwarf (Hill)</t>
   </si>
   <si>
+    <t xml:space="preserve">gith</t>
+  </si>
+  <si>
     <t xml:space="preserve">Jackalwere</t>
   </si>
   <si>
     <t xml:space="preserve">Gray Dwarf (Duergar)</t>
   </si>
   <si>
+    <t xml:space="preserve">gnoll</t>
+  </si>
+  <si>
     <t xml:space="preserve">Kenku</t>
   </si>
   <si>
+    <t xml:space="preserve">goblin</t>
+  </si>
+  <si>
     <t xml:space="preserve">Kobold</t>
   </si>
   <si>
+    <t xml:space="preserve">gold-dwarf-hill</t>
+  </si>
+  <si>
     <t xml:space="preserve">Kuo-Toa</t>
   </si>
   <si>
@@ -488,81 +620,141 @@
     <t xml:space="preserve">High Elf</t>
   </si>
   <si>
+    <t xml:space="preserve">grailwarden-dwarf-mountain</t>
+  </si>
+  <si>
     <t xml:space="preserve">Merfolk</t>
   </si>
   <si>
     <t xml:space="preserve">Wood Elf</t>
   </si>
   <si>
+    <t xml:space="preserve">gray-dwarf-duergar</t>
+  </si>
+  <si>
     <t xml:space="preserve">Minotaur</t>
   </si>
   <si>
     <t xml:space="preserve">Dark Elf</t>
   </si>
   <si>
+    <t xml:space="preserve">grimlock</t>
+  </si>
+  <si>
     <t xml:space="preserve">Orc</t>
   </si>
   <si>
     <t xml:space="preserve">Shoal High Elf (High Elf)</t>
   </si>
   <si>
+    <t xml:space="preserve">half-dragon</t>
+  </si>
+  <si>
     <t xml:space="preserve">Ratmen</t>
   </si>
   <si>
     <t xml:space="preserve">Shoal Wood Elf (Wood Elf)</t>
   </si>
   <si>
+    <t xml:space="preserve">half-elf-aquatic</t>
+  </si>
+  <si>
     <t xml:space="preserve">Quaggoth</t>
   </si>
   <si>
     <t xml:space="preserve">Cherubim Elf</t>
   </si>
   <si>
+    <t xml:space="preserve">half-elf-drow</t>
+  </si>
+  <si>
     <t xml:space="preserve">Sahuagin</t>
   </si>
   <si>
     <t xml:space="preserve">Harrow Elf</t>
   </si>
   <si>
+    <t xml:space="preserve">half-elf-human</t>
+  </si>
+  <si>
     <t xml:space="preserve">Thri-Kreen</t>
   </si>
   <si>
     <t xml:space="preserve">Moon Elf (High Elf)</t>
   </si>
   <si>
+    <t xml:space="preserve">half-elf-moon</t>
+  </si>
+  <si>
     <t xml:space="preserve">Troglodyte</t>
   </si>
   <si>
     <t xml:space="preserve">Sun Elf (High Elf)</t>
   </si>
   <si>
+    <t xml:space="preserve">half-elf-sun</t>
+  </si>
+  <si>
     <t xml:space="preserve">Yuan-Ti</t>
   </si>
   <si>
     <t xml:space="preserve">Copper Elf (Wood Elf)</t>
   </si>
   <si>
+    <t xml:space="preserve">half-elf-wood</t>
+  </si>
+  <si>
     <t xml:space="preserve">Dark Elf (Drow Elf)</t>
   </si>
   <si>
+    <t xml:space="preserve">harrow-elf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hellfire-tiefling</t>
+  </si>
+  <si>
     <t xml:space="preserve">GNOME ORIGIN</t>
   </si>
   <si>
+    <t xml:space="preserve">high-elf</t>
+  </si>
+  <si>
     <t xml:space="preserve">Forest Gnome</t>
   </si>
   <si>
+    <t xml:space="preserve">hill-dwarf</t>
+  </si>
+  <si>
     <t xml:space="preserve">Rock Gnome</t>
   </si>
   <si>
+    <t xml:space="preserve">hobgoblin</t>
+  </si>
+  <si>
     <t xml:space="preserve">Deep Gnome (Svirfneblin)</t>
   </si>
   <si>
+    <t xml:space="preserve">jackalwere</t>
+  </si>
+  <si>
+    <t xml:space="preserve">kenku</t>
+  </si>
+  <si>
+    <t xml:space="preserve">kobold</t>
+  </si>
+  <si>
     <t xml:space="preserve">HALFLING ORIGINS</t>
   </si>
   <si>
+    <t xml:space="preserve">kuo-toa</t>
+  </si>
+  <si>
     <t xml:space="preserve">Lightfoot Halflings</t>
   </si>
   <si>
+    <t xml:space="preserve">lightfoot-halflings</t>
+  </si>
+  <si>
     <t xml:space="preserve">Stout Halflings</t>
   </si>
   <si>
@@ -572,45 +764,135 @@
     <t xml:space="preserve">Ghostwise Halfling</t>
   </si>
   <si>
+    <t xml:space="preserve">lycanthrope</t>
+  </si>
+  <si>
+    <t xml:space="preserve">merfolk</t>
+  </si>
+  <si>
+    <t xml:space="preserve">minotaur</t>
+  </si>
+  <si>
     <t xml:space="preserve">HALF-ELF ORIGIN</t>
   </si>
   <si>
+    <t xml:space="preserve">moon-elf-high-elf</t>
+  </si>
+  <si>
     <t xml:space="preserve">Half-Elf Human</t>
   </si>
   <si>
+    <t xml:space="preserve">mountaun-dwarf</t>
+  </si>
+  <si>
     <t xml:space="preserve">Half-Elf Wood</t>
   </si>
   <si>
+    <t xml:space="preserve">oeridian-oerid</t>
+  </si>
+  <si>
     <t xml:space="preserve">Half-Elf Moon</t>
   </si>
   <si>
+    <t xml:space="preserve">olman</t>
+  </si>
+  <si>
     <t xml:space="preserve">Half-Elf Sun</t>
   </si>
   <si>
+    <t xml:space="preserve">orc</t>
+  </si>
+  <si>
     <t xml:space="preserve">Half-Elf Drow</t>
   </si>
   <si>
+    <t xml:space="preserve">protector-aasimar</t>
+  </si>
+  <si>
     <t xml:space="preserve">Half-Elf Aquatic</t>
   </si>
   <si>
+    <t xml:space="preserve">quaggoth</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ratmen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rhennee-rhenn-folk</t>
+  </si>
+  <si>
     <t xml:space="preserve">TIEFLING ORIGIN</t>
   </si>
   <si>
+    <t xml:space="preserve">rock-gnome</t>
+  </si>
+  <si>
     <t xml:space="preserve">Blooded Tiefling</t>
   </si>
   <si>
+    <t xml:space="preserve">sahuagin</t>
+  </si>
+  <si>
     <t xml:space="preserve">Feral Tiefling</t>
   </si>
   <si>
+    <t xml:space="preserve">scourge-aasimar</t>
+  </si>
+  <si>
     <t xml:space="preserve">Devil's Tiefling</t>
   </si>
   <si>
+    <t xml:space="preserve">shield-dwarf-mountain</t>
+  </si>
+  <si>
     <t xml:space="preserve">Hellfire Tiefling</t>
   </si>
   <si>
     <t xml:space="preserve">Winged Tiefling</t>
   </si>
   <si>
+    <t xml:space="preserve">shoal-high-elf-high-elf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">shoal-wood-elf-wood-elf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">stonelost-dwarf-hill</t>
+  </si>
+  <si>
+    <t xml:space="preserve">stout-halflings</t>
+  </si>
+  <si>
+    <t xml:space="preserve">strongheart-halfling</t>
+  </si>
+  <si>
+    <t xml:space="preserve">suloise-suel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sun-elf-high-elf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">thri-kreen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">touv</t>
+  </si>
+  <si>
+    <t xml:space="preserve">troglodyte</t>
+  </si>
+  <si>
+    <t xml:space="preserve">water-genasi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">winged-tiefling</t>
+  </si>
+  <si>
+    <t xml:space="preserve">wood-elf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">yuan-ti</t>
+  </si>
+  <si>
     <t xml:space="preserve">Culture / Subrace</t>
   </si>
   <si>
@@ -618,9 +900,6 @@
   </si>
   <si>
     <t xml:space="preserve">oerid</t>
-  </si>
-  <si>
-    <t xml:space="preserve">half-orc</t>
   </si>
   <si>
     <t xml:space="preserve">Skin</t>
@@ -2014,8 +2293,8 @@
   </sheetPr>
   <dimension ref="B1:Q121"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A37" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H65" activeCellId="0" sqref="H65"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A7" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="Q11" activeCellId="0" sqref="Q11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6953125" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2036,7 +2315,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="1" width="8.6"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="0" width="1.61"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="0" width="25.56"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="1" width="8.6"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="1" width="41.68"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2065,8 +2344,10 @@
         <v>43</v>
       </c>
       <c r="N2" s="2"/>
-      <c r="P2" s="0"/>
-      <c r="Q2" s="0"/>
+      <c r="P2" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q2" s="2"/>
     </row>
     <row r="3" s="3" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3" s="3" t="s">
@@ -2092,7 +2373,7 @@
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C4" s="9" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D4" s="5" t="n">
         <f aca="false">SUM(D5:D7)</f>
@@ -2105,150 +2386,180 @@
         <v>100</v>
       </c>
       <c r="J4" s="10" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K4" s="5" t="n">
         <f aca="false">SUM(K5:K7)</f>
         <v>100</v>
       </c>
       <c r="M4" s="7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="N4" s="5" t="n">
         <f aca="false">SUM(N5:N11)</f>
         <v>100</v>
       </c>
-      <c r="Q4" s="0"/>
+      <c r="P4" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q4" s="0" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B5" s="0" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="D5" s="1" t="n">
         <v>90</v>
       </c>
       <c r="F5" s="0" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="G5" s="0" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="H5" s="11" t="n">
         <v>10</v>
       </c>
       <c r="J5" s="0" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="K5" s="1" t="n">
         <v>40</v>
       </c>
       <c r="M5" s="0" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="N5" s="1" t="n">
         <v>20</v>
       </c>
-      <c r="Q5" s="0"/>
+      <c r="P5" s="0" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q5" s="0" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B6" s="0" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="D6" s="1" t="n">
         <v>5</v>
       </c>
       <c r="F6" s="0" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="G6" s="0" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="H6" s="11" t="n">
         <v>10</v>
       </c>
       <c r="J6" s="0" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="K6" s="1" t="n">
         <v>40</v>
       </c>
       <c r="M6" s="0" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="N6" s="1" t="n">
         <v>20</v>
       </c>
-      <c r="Q6" s="0"/>
+      <c r="P6" s="0" t="s">
+        <v>63</v>
+      </c>
+      <c r="Q6" s="0" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B7" s="0" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="D7" s="1" t="n">
         <v>5</v>
       </c>
       <c r="F7" s="0" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="G7" s="0" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="H7" s="11" t="n">
         <v>5</v>
       </c>
       <c r="J7" s="0" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="K7" s="1" t="n">
         <v>20</v>
       </c>
       <c r="M7" s="0" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="N7" s="1" t="n">
         <v>20</v>
       </c>
-      <c r="Q7" s="0"/>
+      <c r="P7" s="0" t="s">
+        <v>70</v>
+      </c>
+      <c r="Q7" s="0" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F8" s="0" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="G8" s="0" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="H8" s="11" t="n">
         <v>75</v>
       </c>
       <c r="M8" s="0" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="N8" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="Q8" s="0"/>
+      <c r="P8" s="0" t="s">
+        <v>74</v>
+      </c>
+      <c r="Q8" s="0" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="M9" s="0" t="s">
-        <v>68</v>
+        <v>75</v>
       </c>
       <c r="N9" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="Q9" s="0"/>
+      <c r="P9" s="0" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q9" s="0" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C10" s="9" t="s">
-        <v>69</v>
+        <v>77</v>
       </c>
       <c r="D10" s="5" t="n">
         <f aca="false">SUM(D11:D13)</f>
@@ -2256,55 +2567,65 @@
       </c>
       <c r="E10" s="5"/>
       <c r="J10" s="7" t="s">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="K10" s="5" t="n">
         <f aca="false">SUM(K11:K26)</f>
         <v>100</v>
       </c>
       <c r="M10" s="0" t="s">
-        <v>71</v>
+        <v>79</v>
       </c>
       <c r="N10" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="Q10" s="0"/>
+      <c r="P10" s="0" t="s">
+        <v>80</v>
+      </c>
+      <c r="Q10" s="0" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B11" s="0" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="D11" s="1" t="n">
         <v>40</v>
       </c>
       <c r="F11" s="8" t="s">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="G11" s="8"/>
       <c r="H11" s="8"/>
       <c r="J11" s="0" t="s">
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="K11" s="1" t="n">
         <v>20</v>
       </c>
       <c r="M11" s="0" t="s">
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="N11" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="Q11" s="0"/>
+      <c r="P11" s="0" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q11" s="0" t="s">
+        <v>85</v>
+      </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B12" s="0" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="D12" s="1" t="n">
         <v>20</v>
@@ -2312,59 +2633,74 @@
       <c r="G12" s="3"/>
       <c r="H12" s="3"/>
       <c r="J12" s="0" t="s">
-        <v>75</v>
+        <v>86</v>
       </c>
       <c r="K12" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="Q12" s="0"/>
+      <c r="P12" s="0" t="s">
+        <v>87</v>
+      </c>
+      <c r="Q12" s="0" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B13" s="0" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="C13" s="0" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="D13" s="1" t="n">
         <v>40</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="H13" s="5" t="n">
         <f aca="false">SUM(H14:H27)</f>
         <v>105</v>
       </c>
       <c r="J13" s="0" t="s">
-        <v>77</v>
+        <v>89</v>
       </c>
       <c r="K13" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="Q13" s="0"/>
+      <c r="P13" s="0" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q13" s="0" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F14" s="0" t="s">
-        <v>78</v>
+        <v>91</v>
       </c>
       <c r="G14" s="0" t="s">
-        <v>79</v>
+        <v>92</v>
       </c>
       <c r="H14" s="1" t="n">
         <v>10</v>
       </c>
       <c r="J14" s="0" t="s">
-        <v>80</v>
+        <v>93</v>
       </c>
       <c r="K14" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="Q14" s="0"/>
+      <c r="P14" s="0" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q14" s="0" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C15" s="9" t="s">
-        <v>81</v>
+        <v>95</v>
       </c>
       <c r="D15" s="5" t="n">
         <f aca="false">SUM(D16:D18)</f>
@@ -2372,939 +2708,1384 @@
       </c>
       <c r="E15" s="5"/>
       <c r="F15" s="0" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="G15" s="0" t="s">
-        <v>83</v>
+        <v>96</v>
       </c>
       <c r="H15" s="1" t="n">
         <v>5</v>
       </c>
       <c r="J15" s="0" t="s">
-        <v>84</v>
+        <v>97</v>
       </c>
       <c r="K15" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="Q15" s="0"/>
+      <c r="P15" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="Q15" s="0" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B16" s="0" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="C16" s="0" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="D16" s="1" t="n">
         <v>100</v>
       </c>
       <c r="F16" s="0" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G16" s="6" t="s">
-        <v>86</v>
+        <v>99</v>
       </c>
       <c r="H16" s="1" t="n">
         <v>5</v>
       </c>
       <c r="J16" s="0" t="s">
-        <v>87</v>
+        <v>100</v>
       </c>
       <c r="K16" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="Q16" s="0"/>
+      <c r="P16" s="0" t="s">
+        <v>101</v>
+      </c>
+      <c r="Q16" s="0" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F17" s="0" t="s">
-        <v>88</v>
+        <v>102</v>
       </c>
       <c r="G17" s="0" t="s">
-        <v>89</v>
+        <v>103</v>
       </c>
       <c r="H17" s="1" t="n">
         <v>10</v>
       </c>
       <c r="J17" s="0" t="s">
-        <v>90</v>
+        <v>104</v>
       </c>
       <c r="K17" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="Q17" s="0"/>
+      <c r="P17" s="0" t="s">
+        <v>105</v>
+      </c>
+      <c r="Q17" s="0" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F18" s="0" t="s">
-        <v>91</v>
+        <v>106</v>
       </c>
       <c r="G18" s="0" t="s">
-        <v>92</v>
+        <v>107</v>
       </c>
       <c r="H18" s="1" t="n">
         <v>5</v>
       </c>
       <c r="J18" s="0" t="s">
-        <v>93</v>
+        <v>108</v>
       </c>
       <c r="K18" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="Q18" s="0"/>
+      <c r="P18" s="0" t="s">
+        <v>109</v>
+      </c>
+      <c r="Q18" s="0" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F19" s="0" t="s">
-        <v>94</v>
+        <v>110</v>
       </c>
       <c r="G19" s="12" t="s">
-        <v>95</v>
+        <v>111</v>
       </c>
       <c r="H19" s="1" t="n">
         <v>10</v>
       </c>
       <c r="J19" s="0" t="s">
-        <v>96</v>
+        <v>112</v>
       </c>
       <c r="K19" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="Q19" s="0"/>
+      <c r="P19" s="0" t="s">
+        <v>113</v>
+      </c>
+      <c r="Q19" s="0" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F20" s="0" t="s">
-        <v>97</v>
+        <v>114</v>
       </c>
       <c r="G20" s="0" t="s">
-        <v>98</v>
+        <v>115</v>
       </c>
       <c r="H20" s="1" t="n">
         <v>10</v>
       </c>
       <c r="J20" s="0" t="s">
-        <v>99</v>
+        <v>116</v>
       </c>
       <c r="K20" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="Q20" s="0"/>
+      <c r="P20" s="0" t="s">
+        <v>117</v>
+      </c>
+      <c r="Q20" s="0" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F21" s="0" t="s">
-        <v>100</v>
+        <v>118</v>
       </c>
       <c r="G21" s="12" t="s">
-        <v>101</v>
+        <v>119</v>
       </c>
       <c r="H21" s="1" t="n">
         <v>5</v>
       </c>
       <c r="J21" s="0" t="s">
-        <v>102</v>
+        <v>120</v>
       </c>
       <c r="K21" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="Q21" s="0"/>
+      <c r="P21" s="0" t="s">
+        <v>121</v>
+      </c>
+      <c r="Q21" s="0" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F22" s="0" t="s">
-        <v>103</v>
+        <v>122</v>
       </c>
       <c r="G22" s="0" t="s">
-        <v>104</v>
+        <v>123</v>
       </c>
       <c r="H22" s="1" t="n">
         <v>5</v>
       </c>
       <c r="J22" s="0" t="s">
-        <v>105</v>
+        <v>124</v>
       </c>
       <c r="K22" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="Q22" s="0"/>
+      <c r="P22" s="0" t="s">
+        <v>125</v>
+      </c>
+      <c r="Q22" s="0" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F23" s="0" t="s">
-        <v>106</v>
+        <v>126</v>
       </c>
       <c r="G23" s="0" t="s">
-        <v>107</v>
+        <v>127</v>
       </c>
       <c r="H23" s="1" t="n">
         <v>10</v>
       </c>
       <c r="J23" s="0" t="s">
-        <v>108</v>
+        <v>128</v>
       </c>
       <c r="K23" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="Q23" s="0"/>
+      <c r="P23" s="0" t="s">
+        <v>129</v>
+      </c>
+      <c r="Q23" s="0" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F24" s="0" t="s">
-        <v>109</v>
+        <v>130</v>
       </c>
       <c r="G24" s="12" t="s">
-        <v>110</v>
+        <v>131</v>
       </c>
       <c r="H24" s="1" t="n">
         <v>10</v>
       </c>
       <c r="J24" s="0" t="s">
-        <v>111</v>
+        <v>132</v>
       </c>
       <c r="K24" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="Q24" s="0"/>
+      <c r="P24" s="0" t="s">
+        <v>133</v>
+      </c>
+      <c r="Q24" s="0" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F25" s="0" t="s">
-        <v>112</v>
+        <v>134</v>
       </c>
       <c r="G25" s="0" t="s">
-        <v>113</v>
+        <v>135</v>
       </c>
       <c r="H25" s="1" t="n">
         <v>5</v>
       </c>
       <c r="J25" s="0" t="s">
-        <v>114</v>
+        <v>136</v>
       </c>
       <c r="K25" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="Q25" s="0"/>
+      <c r="P25" s="0" t="s">
+        <v>137</v>
+      </c>
+      <c r="Q25" s="0" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F26" s="0" t="s">
-        <v>115</v>
+        <v>138</v>
       </c>
       <c r="G26" s="0" t="s">
-        <v>116</v>
+        <v>139</v>
       </c>
       <c r="H26" s="1" t="n">
         <v>10</v>
       </c>
       <c r="J26" s="0" t="s">
-        <v>117</v>
+        <v>140</v>
       </c>
       <c r="K26" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="Q26" s="0"/>
+      <c r="P26" s="0" t="s">
+        <v>141</v>
+      </c>
+      <c r="Q26" s="0" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F27" s="0" t="s">
-        <v>118</v>
+        <v>142</v>
       </c>
       <c r="G27" s="12" t="s">
-        <v>119</v>
+        <v>143</v>
       </c>
       <c r="H27" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="Q27" s="0"/>
+      <c r="P27" s="0" t="s">
+        <v>144</v>
+      </c>
+      <c r="Q27" s="0" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F28" s="0" t="s">
-        <v>120</v>
+        <v>145</v>
       </c>
       <c r="G28" s="12" t="s">
-        <v>121</v>
+        <v>146</v>
       </c>
       <c r="H28" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="Q28" s="0"/>
+      <c r="P28" s="0" t="s">
+        <v>147</v>
+      </c>
+      <c r="Q28" s="0" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="G29" s="12"/>
       <c r="J29" s="7" t="s">
-        <v>122</v>
+        <v>148</v>
       </c>
       <c r="K29" s="5" t="n">
         <f aca="false">SUM(K30:K33)</f>
         <v>100</v>
       </c>
-      <c r="Q29" s="0"/>
+      <c r="P29" s="0" t="s">
+        <v>149</v>
+      </c>
+      <c r="Q29" s="0" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D30" s="0"/>
       <c r="E30" s="0"/>
       <c r="J30" s="12" t="s">
-        <v>123</v>
+        <v>150</v>
       </c>
       <c r="K30" s="11" t="n">
         <v>25</v>
       </c>
-      <c r="Q30" s="0"/>
+      <c r="P30" s="0" t="s">
+        <v>151</v>
+      </c>
+      <c r="Q30" s="0" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D31" s="0"/>
       <c r="E31" s="0"/>
       <c r="J31" s="12" t="s">
-        <v>124</v>
+        <v>152</v>
       </c>
       <c r="K31" s="11" t="n">
         <v>25</v>
       </c>
-      <c r="Q31" s="0"/>
+      <c r="P31" s="0" t="s">
+        <v>153</v>
+      </c>
+      <c r="Q31" s="0" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J32" s="12" t="s">
-        <v>125</v>
+        <v>154</v>
       </c>
       <c r="K32" s="11" t="n">
         <v>25</v>
       </c>
-      <c r="Q32" s="0"/>
+      <c r="P32" s="0" t="s">
+        <v>155</v>
+      </c>
+      <c r="Q32" s="0" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F33" s="8" t="s">
-        <v>126</v>
+        <v>156</v>
       </c>
       <c r="G33" s="8"/>
       <c r="H33" s="8"/>
       <c r="J33" s="12" t="s">
-        <v>127</v>
+        <v>157</v>
       </c>
       <c r="K33" s="11" t="n">
         <v>25</v>
       </c>
-      <c r="Q33" s="0"/>
+      <c r="P33" s="0" t="s">
+        <v>158</v>
+      </c>
+      <c r="Q33" s="0" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="G34" s="3"/>
       <c r="H34" s="3"/>
       <c r="J34" s="12"/>
       <c r="K34" s="11"/>
-      <c r="Q34" s="0"/>
+      <c r="P34" s="0" t="s">
+        <v>159</v>
+      </c>
+      <c r="Q34" s="0" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="G35" s="7" t="s">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="H35" s="5" t="n">
         <f aca="false">SUM(H36:H58)</f>
         <v>200</v>
       </c>
-      <c r="Q35" s="0"/>
+      <c r="P35" s="0" t="s">
+        <v>160</v>
+      </c>
+      <c r="Q35" s="0" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="G36" s="12" t="s">
-        <v>128</v>
+        <v>161</v>
       </c>
       <c r="H36" s="1" t="n">
         <v>5</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>129</v>
+        <v>162</v>
       </c>
       <c r="K36" s="5" t="n">
         <f aca="false">SUM(K37:K42)</f>
         <v>100</v>
       </c>
-      <c r="Q36" s="0"/>
+      <c r="P36" s="0" t="s">
+        <v>163</v>
+      </c>
+      <c r="Q36" s="0" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="G37" s="12" t="s">
-        <v>130</v>
+        <v>164</v>
       </c>
       <c r="H37" s="1" t="n">
         <v>10</v>
       </c>
       <c r="J37" s="12" t="s">
-        <v>131</v>
+        <v>165</v>
       </c>
       <c r="K37" s="11" t="n">
         <v>0</v>
       </c>
-      <c r="Q37" s="0"/>
+      <c r="P37" s="0" t="s">
+        <v>166</v>
+      </c>
+      <c r="Q37" s="0" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="G38" s="12" t="s">
-        <v>132</v>
+        <v>167</v>
       </c>
       <c r="H38" s="1" t="n">
         <v>5</v>
       </c>
       <c r="J38" s="12" t="s">
-        <v>133</v>
+        <v>168</v>
       </c>
       <c r="K38" s="11" t="n">
         <v>0</v>
       </c>
-      <c r="Q38" s="0"/>
+      <c r="P38" s="0" t="s">
+        <v>169</v>
+      </c>
+      <c r="Q38" s="0" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="G39" s="12" t="s">
-        <v>134</v>
+        <v>170</v>
       </c>
       <c r="H39" s="1" t="n">
         <v>20</v>
       </c>
       <c r="J39" s="12" t="s">
-        <v>135</v>
+        <v>171</v>
       </c>
       <c r="K39" s="11" t="n">
         <v>0</v>
       </c>
-      <c r="Q39" s="0"/>
+      <c r="P39" s="0" t="s">
+        <v>106</v>
+      </c>
+      <c r="Q39" s="0" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="G40" s="12" t="s">
-        <v>136</v>
+        <v>172</v>
       </c>
       <c r="H40" s="1" t="n">
         <v>5</v>
       </c>
       <c r="J40" s="12" t="s">
-        <v>137</v>
+        <v>173</v>
       </c>
       <c r="K40" s="11" t="n">
         <v>79</v>
       </c>
-      <c r="Q40" s="0"/>
+      <c r="P40" s="0" t="s">
+        <v>174</v>
+      </c>
+      <c r="Q40" s="0" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="G41" s="0" t="s">
-        <v>138</v>
+        <v>175</v>
       </c>
       <c r="H41" s="1" t="n">
         <v>10</v>
       </c>
       <c r="J41" s="12" t="s">
-        <v>139</v>
+        <v>176</v>
       </c>
       <c r="K41" s="11" t="n">
         <v>20</v>
       </c>
-      <c r="Q41" s="0"/>
+      <c r="P41" s="0" t="s">
+        <v>177</v>
+      </c>
+      <c r="Q41" s="0" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="G42" s="12" t="s">
-        <v>140</v>
+        <v>178</v>
       </c>
       <c r="H42" s="1" t="n">
         <v>5</v>
       </c>
       <c r="J42" s="12" t="s">
-        <v>141</v>
+        <v>179</v>
       </c>
       <c r="K42" s="11" t="n">
         <v>1</v>
       </c>
-      <c r="Q42" s="0"/>
+      <c r="P42" s="0" t="s">
+        <v>180</v>
+      </c>
+      <c r="Q42" s="0" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="G43" s="12" t="s">
-        <v>142</v>
+        <v>181</v>
       </c>
       <c r="H43" s="1" t="n">
         <v>10</v>
       </c>
       <c r="J43" s="12" t="s">
-        <v>143</v>
+        <v>182</v>
       </c>
       <c r="K43" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="Q43" s="0"/>
+      <c r="P43" s="0" t="s">
+        <v>183</v>
+      </c>
+      <c r="Q43" s="0" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="G44" s="12" t="s">
-        <v>144</v>
+        <v>184</v>
       </c>
       <c r="H44" s="1" t="n">
         <v>10</v>
       </c>
       <c r="J44" s="12" t="s">
-        <v>145</v>
+        <v>185</v>
       </c>
       <c r="K44" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="Q44" s="0"/>
+      <c r="P44" s="0" t="s">
+        <v>186</v>
+      </c>
+      <c r="Q44" s="0" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="G45" s="6" t="s">
-        <v>146</v>
+        <v>187</v>
       </c>
       <c r="H45" s="1" t="n">
         <v>10</v>
       </c>
       <c r="J45" s="12" t="s">
-        <v>147</v>
+        <v>188</v>
       </c>
       <c r="K45" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="Q45" s="0"/>
+      <c r="P45" s="0" t="s">
+        <v>189</v>
+      </c>
+      <c r="Q45" s="0" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="G46" s="12" t="s">
-        <v>148</v>
+        <v>190</v>
       </c>
       <c r="H46" s="1" t="n">
         <v>5</v>
       </c>
       <c r="J46" s="12"/>
-      <c r="Q46" s="0"/>
+      <c r="P46" s="0" t="s">
+        <v>191</v>
+      </c>
+      <c r="Q46" s="0" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="G47" s="12" t="s">
-        <v>149</v>
+        <v>192</v>
       </c>
       <c r="H47" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="Q47" s="0"/>
+      <c r="P47" s="0" t="s">
+        <v>193</v>
+      </c>
+      <c r="Q47" s="0" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="G48" s="12" t="s">
-        <v>150</v>
+        <v>194</v>
       </c>
       <c r="H48" s="1" t="n">
         <v>5</v>
       </c>
       <c r="J48" s="7" t="s">
-        <v>151</v>
+        <v>195</v>
       </c>
       <c r="K48" s="5" t="n">
         <f aca="false">SUM(K49:K56)</f>
         <v>100</v>
       </c>
-      <c r="Q48" s="0"/>
+      <c r="P48" s="0" t="s">
+        <v>118</v>
+      </c>
+      <c r="Q48" s="0" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="G49" s="6" t="s">
-        <v>152</v>
+        <v>196</v>
       </c>
       <c r="H49" s="1" t="n">
         <v>10</v>
       </c>
       <c r="J49" s="12" t="s">
-        <v>153</v>
+        <v>197</v>
       </c>
       <c r="K49" s="11" t="n">
         <v>0</v>
       </c>
-      <c r="Q49" s="0"/>
+      <c r="P49" s="0" t="s">
+        <v>198</v>
+      </c>
+      <c r="Q49" s="0" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="G50" s="12" t="s">
-        <v>154</v>
+        <v>199</v>
       </c>
       <c r="H50" s="1" t="n">
         <v>5</v>
       </c>
       <c r="J50" s="12" t="s">
-        <v>155</v>
+        <v>200</v>
       </c>
       <c r="K50" s="11" t="n">
         <v>0</v>
       </c>
-      <c r="Q50" s="0"/>
+      <c r="P50" s="0" t="s">
+        <v>201</v>
+      </c>
+      <c r="Q50" s="0" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="G51" s="0" t="s">
-        <v>156</v>
+        <v>202</v>
       </c>
       <c r="H51" s="1" t="n">
         <v>5</v>
       </c>
       <c r="J51" s="12" t="s">
-        <v>157</v>
+        <v>203</v>
       </c>
       <c r="K51" s="11" t="n">
         <v>2</v>
       </c>
-      <c r="Q51" s="0"/>
+      <c r="P51" s="0" t="s">
+        <v>204</v>
+      </c>
+      <c r="Q51" s="0" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="G52" s="0" t="s">
-        <v>158</v>
+        <v>205</v>
       </c>
       <c r="H52" s="1" t="n">
         <v>20</v>
       </c>
       <c r="J52" s="12" t="s">
-        <v>159</v>
+        <v>206</v>
       </c>
       <c r="K52" s="11" t="n">
         <v>45</v>
       </c>
-      <c r="Q52" s="0"/>
+      <c r="P52" s="0" t="s">
+        <v>207</v>
+      </c>
+      <c r="Q52" s="0" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="G53" s="0" t="s">
-        <v>160</v>
+        <v>208</v>
       </c>
       <c r="H53" s="1" t="n">
         <v>10</v>
       </c>
       <c r="J53" s="12" t="s">
-        <v>161</v>
+        <v>209</v>
       </c>
       <c r="K53" s="11" t="n">
         <v>45</v>
       </c>
-      <c r="Q53" s="0"/>
+      <c r="P53" s="0" t="s">
+        <v>210</v>
+      </c>
+      <c r="Q53" s="0" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="G54" s="12" t="s">
-        <v>162</v>
+        <v>211</v>
       </c>
       <c r="H54" s="1" t="n">
         <v>5</v>
       </c>
       <c r="J54" s="12" t="s">
-        <v>163</v>
+        <v>212</v>
       </c>
       <c r="K54" s="11" t="n">
         <v>2</v>
       </c>
-      <c r="Q54" s="0"/>
+      <c r="P54" s="0" t="s">
+        <v>213</v>
+      </c>
+      <c r="Q54" s="0" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="G55" s="12" t="s">
-        <v>164</v>
+        <v>214</v>
       </c>
       <c r="H55" s="1" t="n">
         <v>5</v>
       </c>
       <c r="J55" s="12" t="s">
-        <v>165</v>
+        <v>215</v>
       </c>
       <c r="K55" s="11" t="n">
         <v>6</v>
       </c>
-      <c r="Q55" s="0"/>
+      <c r="P55" s="0" t="s">
+        <v>216</v>
+      </c>
+      <c r="Q55" s="0" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="G56" s="12" t="s">
-        <v>166</v>
+        <v>217</v>
       </c>
       <c r="H56" s="1" t="n">
         <v>5</v>
       </c>
       <c r="J56" s="12" t="s">
-        <v>167</v>
+        <v>218</v>
       </c>
       <c r="K56" s="11" t="n">
         <v>0</v>
       </c>
-      <c r="Q56" s="0"/>
+      <c r="P56" s="0" t="s">
+        <v>219</v>
+      </c>
+      <c r="Q56" s="0" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="G57" s="12" t="s">
-        <v>168</v>
+        <v>220</v>
       </c>
       <c r="H57" s="1" t="n">
         <v>5</v>
       </c>
       <c r="J57" s="12" t="s">
-        <v>169</v>
+        <v>221</v>
       </c>
       <c r="K57" s="11" t="n">
         <v>0</v>
       </c>
-      <c r="Q57" s="0"/>
+      <c r="P57" s="0" t="s">
+        <v>222</v>
+      </c>
+      <c r="Q57" s="0" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="G58" s="6" t="s">
-        <v>170</v>
+        <v>223</v>
       </c>
       <c r="H58" s="1" t="n">
         <v>20</v>
       </c>
       <c r="J58" s="12" t="s">
-        <v>171</v>
+        <v>224</v>
       </c>
       <c r="K58" s="11" t="n">
         <v>0</v>
       </c>
-      <c r="Q58" s="0"/>
+      <c r="P58" s="0" t="s">
+        <v>225</v>
+      </c>
+      <c r="Q58" s="0" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J59" s="12" t="s">
-        <v>172</v>
+        <v>226</v>
       </c>
       <c r="K59" s="11" t="n">
         <v>0</v>
       </c>
-      <c r="Q59" s="0"/>
+      <c r="P59" s="0" t="s">
+        <v>122</v>
+      </c>
+      <c r="Q59" s="0" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Q60" s="0"/>
+      <c r="P60" s="0" t="s">
+        <v>227</v>
+      </c>
+      <c r="Q60" s="0" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Q61" s="0"/>
+      <c r="P61" s="0" t="s">
+        <v>228</v>
+      </c>
+      <c r="Q61" s="0" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J62" s="7" t="s">
-        <v>173</v>
+        <v>229</v>
       </c>
       <c r="K62" s="5" t="n">
         <f aca="false">SUM(K63:K65)</f>
         <v>100</v>
       </c>
-      <c r="Q62" s="0"/>
+      <c r="P62" s="0" t="s">
+        <v>230</v>
+      </c>
+      <c r="Q62" s="0" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="63" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J63" s="0" t="s">
-        <v>174</v>
+        <v>231</v>
       </c>
       <c r="K63" s="1" t="n">
         <v>49</v>
       </c>
-      <c r="Q63" s="0"/>
+      <c r="P63" s="0" t="s">
+        <v>232</v>
+      </c>
+      <c r="Q63" s="0" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="64" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J64" s="0" t="s">
-        <v>175</v>
+        <v>233</v>
       </c>
       <c r="K64" s="1" t="n">
         <v>49</v>
       </c>
-      <c r="Q64" s="0"/>
+      <c r="P64" s="0" t="s">
+        <v>234</v>
+      </c>
+      <c r="Q64" s="0" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="65" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J65" s="0" t="s">
-        <v>176</v>
+        <v>235</v>
       </c>
       <c r="K65" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="Q65" s="0"/>
+      <c r="P65" s="0" t="s">
+        <v>236</v>
+      </c>
+      <c r="Q65" s="0" t="s">
+        <v>85</v>
+      </c>
     </row>
     <row r="66" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Q66" s="0"/>
+      <c r="P66" s="0" t="s">
+        <v>237</v>
+      </c>
+      <c r="Q66" s="0" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="67" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Q67" s="0"/>
+      <c r="P67" s="0" t="s">
+        <v>238</v>
+      </c>
+      <c r="Q67" s="0" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="68" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J68" s="7" t="s">
-        <v>177</v>
+        <v>239</v>
       </c>
       <c r="K68" s="5" t="n">
         <f aca="false">SUM(K69:K70)</f>
         <v>100</v>
       </c>
-      <c r="Q68" s="0"/>
+      <c r="P68" s="0" t="s">
+        <v>240</v>
+      </c>
+      <c r="Q68" s="0" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="69" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J69" s="0" t="s">
-        <v>178</v>
+        <v>241</v>
       </c>
       <c r="K69" s="1" t="n">
         <v>50</v>
       </c>
-      <c r="Q69" s="0"/>
+      <c r="P69" s="0" t="s">
+        <v>242</v>
+      </c>
+      <c r="Q69" s="0" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="70" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J70" s="0" t="s">
-        <v>179</v>
+        <v>243</v>
       </c>
       <c r="K70" s="1" t="n">
         <v>50</v>
       </c>
-      <c r="Q70" s="0"/>
+      <c r="P70" s="0" t="s">
+        <v>126</v>
+      </c>
+      <c r="Q70" s="0" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="71" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J71" s="0" t="s">
-        <v>180</v>
+        <v>244</v>
       </c>
       <c r="K71" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="Q71" s="0"/>
+      <c r="P71" s="0" t="s">
+        <v>130</v>
+      </c>
+      <c r="Q71" s="0" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="72" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J72" s="0" t="s">
-        <v>181</v>
+        <v>245</v>
       </c>
       <c r="K72" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="Q72" s="0"/>
+      <c r="P72" s="0" t="s">
+        <v>246</v>
+      </c>
+      <c r="Q72" s="0" t="s">
+        <v>85</v>
+      </c>
     </row>
     <row r="73" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Q73" s="0"/>
+      <c r="P73" s="0" t="s">
+        <v>247</v>
+      </c>
+      <c r="Q73" s="0" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="74" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Q74" s="0"/>
+      <c r="P74" s="0" t="s">
+        <v>248</v>
+      </c>
+      <c r="Q74" s="0" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="75" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J75" s="7" t="s">
-        <v>182</v>
+        <v>249</v>
       </c>
       <c r="K75" s="5" t="n">
         <f aca="false">SUM(K76:K81)</f>
         <v>100</v>
       </c>
-      <c r="Q75" s="0"/>
+      <c r="P75" s="0" t="s">
+        <v>250</v>
+      </c>
+      <c r="Q75" s="0" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="76" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J76" s="0" t="s">
-        <v>183</v>
+        <v>251</v>
       </c>
       <c r="K76" s="1" t="n">
         <v>30</v>
       </c>
-      <c r="Q76" s="0"/>
+      <c r="P76" s="0" t="s">
+        <v>252</v>
+      </c>
+      <c r="Q76" s="0" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="77" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J77" s="0" t="s">
-        <v>184</v>
+        <v>253</v>
       </c>
       <c r="K77" s="1" t="n">
         <v>20</v>
       </c>
-      <c r="Q77" s="0"/>
+      <c r="P77" s="0" t="s">
+        <v>254</v>
+      </c>
+      <c r="Q77" s="0" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="78" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J78" s="0" t="s">
-        <v>185</v>
+        <v>255</v>
       </c>
       <c r="K78" s="1" t="n">
         <v>20</v>
       </c>
-      <c r="Q78" s="0"/>
+      <c r="P78" s="0" t="s">
+        <v>256</v>
+      </c>
+      <c r="Q78" s="0" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="79" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J79" s="0" t="s">
-        <v>186</v>
+        <v>257</v>
       </c>
       <c r="K79" s="1" t="n">
         <v>20</v>
       </c>
-      <c r="Q79" s="0"/>
+      <c r="P79" s="0" t="s">
+        <v>258</v>
+      </c>
+      <c r="Q79" s="0" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="80" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J80" s="0" t="s">
-        <v>187</v>
+        <v>259</v>
       </c>
       <c r="K80" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="Q80" s="0"/>
+      <c r="P80" s="0" t="s">
+        <v>260</v>
+      </c>
+      <c r="Q80" s="0" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="81" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J81" s="0" t="s">
-        <v>188</v>
+        <v>261</v>
       </c>
       <c r="K81" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="Q81" s="0"/>
+      <c r="P81" s="0" t="s">
+        <v>262</v>
+      </c>
+      <c r="Q81" s="0" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="82" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Q82" s="0"/>
+      <c r="P82" s="0" t="s">
+        <v>263</v>
+      </c>
+      <c r="Q82" s="0" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="83" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Q83" s="0"/>
+      <c r="P83" s="0" t="s">
+        <v>264</v>
+      </c>
+      <c r="Q83" s="0" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="84" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J84" s="7" t="s">
-        <v>189</v>
+        <v>265</v>
       </c>
       <c r="K84" s="5" t="n">
         <f aca="false">SUM(K85:K89)</f>
         <v>100</v>
       </c>
-      <c r="Q84" s="0"/>
+      <c r="P84" s="0" t="s">
+        <v>266</v>
+      </c>
+      <c r="Q84" s="0" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="85" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J85" s="0" t="s">
-        <v>190</v>
+        <v>267</v>
       </c>
       <c r="K85" s="1" t="n">
         <v>60</v>
       </c>
-      <c r="Q85" s="0"/>
+      <c r="P85" s="0" t="s">
+        <v>268</v>
+      </c>
+      <c r="Q85" s="0" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="86" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J86" s="0" t="s">
-        <v>191</v>
+        <v>269</v>
       </c>
       <c r="K86" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="Q86" s="0"/>
+      <c r="P86" s="0" t="s">
+        <v>270</v>
+      </c>
+      <c r="Q86" s="0" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="87" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J87" s="0" t="s">
-        <v>192</v>
+        <v>271</v>
       </c>
       <c r="K87" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="Q87" s="0"/>
+      <c r="P87" s="0" t="s">
+        <v>272</v>
+      </c>
+      <c r="Q87" s="0" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="88" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J88" s="0" t="s">
-        <v>193</v>
+        <v>273</v>
       </c>
       <c r="K88" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="Q88" s="0"/>
+      <c r="P88" s="0" t="s">
+        <v>134</v>
+      </c>
+      <c r="Q88" s="0" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="89" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J89" s="0" t="s">
-        <v>194</v>
+        <v>274</v>
       </c>
       <c r="K89" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="Q89" s="0"/>
+      <c r="P89" s="0" t="s">
+        <v>275</v>
+      </c>
+      <c r="Q89" s="0" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="90" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="K90" s="0"/>
-      <c r="Q90" s="0"/>
+      <c r="P90" s="0" t="s">
+        <v>276</v>
+      </c>
+      <c r="Q90" s="0" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="91" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Q91" s="0"/>
+      <c r="P91" s="0" t="s">
+        <v>277</v>
+      </c>
+      <c r="Q91" s="0" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="92" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Q92" s="0"/>
+      <c r="P92" s="0" t="s">
+        <v>278</v>
+      </c>
+      <c r="Q92" s="0" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="93" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Q93" s="0"/>
+      <c r="P93" s="0" t="s">
+        <v>279</v>
+      </c>
+      <c r="Q93" s="0" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="94" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Q94" s="0"/>
+      <c r="P94" s="0" t="s">
+        <v>280</v>
+      </c>
+      <c r="Q94" s="0" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="95" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Q95" s="0"/>
+      <c r="P95" s="0" t="s">
+        <v>281</v>
+      </c>
+      <c r="Q95" s="0" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="96" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Q96" s="0"/>
+      <c r="P96" s="0" t="s">
+        <v>282</v>
+      </c>
+      <c r="Q96" s="0" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="97" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Q97" s="0"/>
+      <c r="P97" s="0" t="s">
+        <v>283</v>
+      </c>
+      <c r="Q97" s="0" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="98" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Q98" s="0"/>
+      <c r="P98" s="0" t="s">
+        <v>284</v>
+      </c>
+      <c r="Q98" s="0" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="99" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Q99" s="0"/>
+      <c r="P99" s="0" t="s">
+        <v>142</v>
+      </c>
+      <c r="Q99" s="0" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="100" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Q100" s="0"/>
+      <c r="P100" s="0" t="s">
+        <v>285</v>
+      </c>
+      <c r="Q100" s="0" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="101" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Q101" s="0"/>
+      <c r="P101" s="0" t="s">
+        <v>286</v>
+      </c>
+      <c r="Q101" s="0" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="102" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Q102" s="0"/>
+      <c r="P102" s="0" t="s">
+        <v>287</v>
+      </c>
+      <c r="Q102" s="0" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="103" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Q103" s="0"/>
+      <c r="P103" s="0" t="s">
+        <v>288</v>
+      </c>
+      <c r="Q103" s="0" t="s">
+        <v>85</v>
+      </c>
     </row>
     <row r="104" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="Q104" s="0"/>
@@ -3361,10 +4142,11 @@
       <c r="Q121" s="0"/>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="6">
     <mergeCell ref="B2:D2"/>
     <mergeCell ref="F2:H2"/>
     <mergeCell ref="J2:K2"/>
+    <mergeCell ref="P2:Q2"/>
     <mergeCell ref="F11:H11"/>
     <mergeCell ref="F33:H33"/>
   </mergeCells>
@@ -3393,26 +4175,26 @@
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1" s="0" t="s">
-        <v>195</v>
+        <v>289</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2" s="0" t="s">
-        <v>196</v>
+        <v>290</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>197</v>
+        <v>291</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>198</v>
+        <v>122</v>
       </c>
       <c r="H2" s="0" t="s">
-        <v>97</v>
+        <v>114</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B4" s="2" t="s">
-        <v>199</v>
+        <v>292</v>
       </c>
       <c r="C4" s="0" t="n">
         <f aca="false">SUM(C5:C13)</f>
@@ -3434,25 +4216,25 @@
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="3"/>
       <c r="B5" s="0" t="s">
-        <v>200</v>
+        <v>293</v>
       </c>
       <c r="C5" s="1" t="n">
         <v>50</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>201</v>
+        <v>294</v>
       </c>
       <c r="E5" s="1" t="n">
         <v>50</v>
       </c>
       <c r="F5" s="0" t="s">
-        <v>202</v>
+        <v>295</v>
       </c>
       <c r="G5" s="1" t="n">
         <v>60</v>
       </c>
       <c r="H5" s="0" t="s">
-        <v>201</v>
+        <v>294</v>
       </c>
       <c r="I5" s="1" t="n">
         <v>50</v>
@@ -3461,25 +4243,25 @@
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="3"/>
       <c r="B6" s="0" t="s">
-        <v>203</v>
+        <v>296</v>
       </c>
       <c r="C6" s="1" t="n">
         <v>50</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>204</v>
+        <v>297</v>
       </c>
       <c r="E6" s="1" t="n">
         <v>50</v>
       </c>
       <c r="F6" s="0" t="s">
-        <v>205</v>
+        <v>298</v>
       </c>
       <c r="G6" s="1" t="n">
         <v>10</v>
       </c>
       <c r="H6" s="0" t="s">
-        <v>206</v>
+        <v>299</v>
       </c>
       <c r="I6" s="1" t="n">
         <v>50</v>
@@ -3489,7 +4271,7 @@
       <c r="A7" s="7"/>
       <c r="B7" s="5"/>
       <c r="F7" s="0" t="s">
-        <v>207</v>
+        <v>300</v>
       </c>
       <c r="G7" s="1" t="n">
         <v>10</v>
@@ -3498,7 +4280,7 @@
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B8" s="1"/>
       <c r="F8" s="0" t="s">
-        <v>208</v>
+        <v>301</v>
       </c>
       <c r="G8" s="1" t="n">
         <v>10</v>
@@ -3507,7 +4289,7 @@
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B9" s="1"/>
       <c r="F9" s="0" t="s">
-        <v>209</v>
+        <v>302</v>
       </c>
       <c r="G9" s="1" t="n">
         <v>10</v>
@@ -3525,7 +4307,7 @@
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B14" s="2" t="s">
-        <v>210</v>
+        <v>303</v>
       </c>
       <c r="C14" s="0" t="n">
         <f aca="false">SUM(C15:C23)</f>
@@ -3546,25 +4328,25 @@
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B15" s="0" t="s">
-        <v>211</v>
+        <v>304</v>
       </c>
       <c r="C15" s="1" t="n">
         <v>30</v>
       </c>
       <c r="D15" s="0" t="s">
-        <v>212</v>
+        <v>305</v>
       </c>
       <c r="E15" s="1" t="n">
         <v>35</v>
       </c>
       <c r="F15" s="0" t="s">
-        <v>213</v>
+        <v>306</v>
       </c>
       <c r="G15" s="1" t="n">
         <v>70</v>
       </c>
       <c r="H15" s="0" t="s">
-        <v>214</v>
+        <v>307</v>
       </c>
       <c r="I15" s="1" t="n">
         <v>100</v>
@@ -3573,19 +4355,19 @@
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="7"/>
       <c r="B16" s="0" t="s">
-        <v>215</v>
+        <v>308</v>
       </c>
       <c r="C16" s="1" t="n">
         <v>30</v>
       </c>
       <c r="D16" s="0" t="s">
-        <v>206</v>
+        <v>299</v>
       </c>
       <c r="E16" s="1" t="n">
         <v>25</v>
       </c>
       <c r="F16" s="0" t="s">
-        <v>216</v>
+        <v>309</v>
       </c>
       <c r="G16" s="1" t="n">
         <v>10</v>
@@ -3593,19 +4375,19 @@
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B17" s="0" t="s">
-        <v>217</v>
+        <v>310</v>
       </c>
       <c r="C17" s="1" t="n">
         <v>40</v>
       </c>
       <c r="D17" s="0" t="s">
-        <v>213</v>
+        <v>306</v>
       </c>
       <c r="E17" s="1" t="n">
         <v>25</v>
       </c>
       <c r="F17" s="0" t="s">
-        <v>218</v>
+        <v>311</v>
       </c>
       <c r="G17" s="1" t="n">
         <v>10</v>
@@ -3613,13 +4395,13 @@
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D18" s="0" t="s">
-        <v>219</v>
+        <v>312</v>
       </c>
       <c r="E18" s="1" t="n">
         <v>15</v>
       </c>
       <c r="F18" s="0" t="s">
-        <v>205</v>
+        <v>298</v>
       </c>
       <c r="G18" s="1" t="n">
         <v>5</v>
@@ -3627,7 +4409,7 @@
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F19" s="0" t="s">
-        <v>220</v>
+        <v>313</v>
       </c>
       <c r="G19" s="1" t="n">
         <v>5</v>
@@ -3648,7 +4430,7 @@
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B24" s="2" t="s">
-        <v>221</v>
+        <v>314</v>
       </c>
       <c r="C24" s="0" t="n">
         <f aca="false">SUM(C25:C33)</f>
@@ -3666,25 +4448,25 @@
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="7"/>
       <c r="B25" s="0" t="s">
-        <v>222</v>
+        <v>315</v>
       </c>
       <c r="C25" s="1" t="n">
         <v>35</v>
       </c>
       <c r="D25" s="0" t="s">
-        <v>206</v>
+        <v>299</v>
       </c>
       <c r="E25" s="1" t="n">
         <v>50</v>
       </c>
       <c r="F25" s="0" t="s">
-        <v>223</v>
+        <v>316</v>
       </c>
       <c r="G25" s="1" t="n">
         <v>30</v>
       </c>
       <c r="H25" s="0" t="s">
-        <v>224</v>
+        <v>317</v>
       </c>
       <c r="I25" s="1" t="n">
         <v>100</v>
@@ -3692,19 +4474,19 @@
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B26" s="0" t="s">
-        <v>206</v>
+        <v>299</v>
       </c>
       <c r="C26" s="1" t="n">
         <v>35</v>
       </c>
       <c r="D26" s="0" t="s">
-        <v>225</v>
+        <v>318</v>
       </c>
       <c r="E26" s="1" t="n">
         <v>50</v>
       </c>
       <c r="F26" s="0" t="s">
-        <v>226</v>
+        <v>319</v>
       </c>
       <c r="G26" s="1" t="n">
         <v>30</v>
@@ -3712,13 +4494,13 @@
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B27" s="0" t="s">
-        <v>227</v>
+        <v>320</v>
       </c>
       <c r="C27" s="1" t="n">
         <v>30</v>
       </c>
       <c r="F27" s="0" t="s">
-        <v>228</v>
+        <v>321</v>
       </c>
       <c r="G27" s="1" t="n">
         <v>30</v>
@@ -3727,7 +4509,7 @@
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B28" s="1"/>
       <c r="F28" s="0" t="s">
-        <v>229</v>
+        <v>322</v>
       </c>
       <c r="G28" s="1" t="n">
         <v>5</v>
@@ -3737,7 +4519,7 @@
       <c r="A29" s="7"/>
       <c r="B29" s="5"/>
       <c r="F29" s="0" t="s">
-        <v>230</v>
+        <v>323</v>
       </c>
       <c r="G29" s="1" t="n">
         <v>5</v>
@@ -3758,7 +4540,7 @@
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="3"/>
       <c r="B34" s="2" t="s">
-        <v>231</v>
+        <v>324</v>
       </c>
       <c r="C34" s="0" t="n">
         <f aca="false">SUM(C35:C43)</f>
@@ -3780,25 +4562,25 @@
     <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="3"/>
       <c r="B35" s="0" t="s">
-        <v>232</v>
+        <v>325</v>
       </c>
       <c r="C35" s="1" t="n">
         <v>100</v>
       </c>
       <c r="D35" s="0" t="s">
-        <v>233</v>
+        <v>326</v>
       </c>
       <c r="E35" s="1" t="n">
         <v>100</v>
       </c>
       <c r="F35" s="0" t="s">
-        <v>234</v>
+        <v>327</v>
       </c>
       <c r="G35" s="1" t="n">
         <v>100</v>
       </c>
       <c r="H35" s="0" t="s">
-        <v>235</v>
+        <v>328</v>
       </c>
       <c r="I35" s="1" t="n">
         <v>100</v>
@@ -3832,7 +4614,7 @@
     </row>
     <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B44" s="2" t="s">
-        <v>236</v>
+        <v>329</v>
       </c>
       <c r="C44" s="0" t="n">
         <f aca="false">SUM(C45:C53)</f>
@@ -3853,25 +4635,25 @@
     </row>
     <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B45" s="0" t="s">
-        <v>237</v>
+        <v>330</v>
       </c>
       <c r="C45" s="1" t="n">
         <v>100</v>
       </c>
       <c r="D45" s="0" t="s">
-        <v>238</v>
+        <v>331</v>
       </c>
       <c r="E45" s="1" t="n">
         <v>100</v>
       </c>
       <c r="F45" s="0" t="s">
-        <v>239</v>
+        <v>332</v>
       </c>
       <c r="G45" s="1" t="n">
         <v>100</v>
       </c>
       <c r="H45" s="0" t="s">
-        <v>239</v>
+        <v>332</v>
       </c>
       <c r="I45" s="1" t="n">
         <v>100</v>
@@ -3906,7 +4688,7 @@
     <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="7"/>
       <c r="B54" s="2" t="s">
-        <v>240</v>
+        <v>333</v>
       </c>
       <c r="C54" s="0" t="n">
         <f aca="false">SUM(C55:C63)</f>
@@ -3927,25 +4709,25 @@
     </row>
     <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B55" s="0" t="s">
-        <v>241</v>
+        <v>334</v>
       </c>
       <c r="C55" s="1" t="n">
         <v>100</v>
       </c>
       <c r="D55" s="0" t="s">
-        <v>242</v>
+        <v>335</v>
       </c>
       <c r="E55" s="1" t="n">
         <v>100</v>
       </c>
       <c r="F55" s="0" t="s">
-        <v>243</v>
+        <v>336</v>
       </c>
       <c r="G55" s="1" t="n">
         <v>100</v>
       </c>
       <c r="H55" s="0" t="s">
-        <v>239</v>
+        <v>332</v>
       </c>
       <c r="I55" s="1" t="n">
         <v>100</v>
@@ -4249,52 +5031,52 @@
   <sheetData>
     <row r="2" s="3" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="8" t="s">
-        <v>244</v>
+        <v>337</v>
       </c>
       <c r="B2" s="8"/>
       <c r="C2" s="8"/>
       <c r="E2" s="2" t="s">
-        <v>245</v>
+        <v>338</v>
       </c>
       <c r="F2" s="2"/>
       <c r="H2" s="8" t="s">
-        <v>246</v>
+        <v>339</v>
       </c>
       <c r="I2" s="8"/>
       <c r="J2" s="8" t="s">
-        <v>247</v>
+        <v>340</v>
       </c>
       <c r="K2" s="8"/>
       <c r="L2" s="8"/>
       <c r="M2" s="2"/>
       <c r="N2" s="8" t="s">
-        <v>248</v>
+        <v>341</v>
       </c>
       <c r="O2" s="8"/>
       <c r="P2" s="8"/>
       <c r="R2" s="2" t="s">
-        <v>249</v>
+        <v>342</v>
       </c>
       <c r="S2" s="2"/>
       <c r="U2" s="8" t="s">
-        <v>250</v>
+        <v>343</v>
       </c>
       <c r="V2" s="8"/>
       <c r="X2" s="8" t="s">
-        <v>251</v>
+        <v>344</v>
       </c>
       <c r="Y2" s="8"/>
       <c r="Z2" s="0"/>
       <c r="AA2" s="8" t="s">
-        <v>252</v>
+        <v>345</v>
       </c>
       <c r="AB2" s="8"/>
       <c r="AD2" s="8" t="s">
-        <v>253</v>
+        <v>346</v>
       </c>
       <c r="AE2" s="8"/>
       <c r="AG2" s="8" t="s">
-        <v>254</v>
+        <v>347</v>
       </c>
       <c r="AH2" s="8"/>
       <c r="AMH2" s="0"/>
@@ -4339,7 +5121,7 @@
         <v>6</v>
       </c>
       <c r="P3" s="3" t="s">
-        <v>255</v>
+        <v>348</v>
       </c>
       <c r="R3" s="3" t="s">
         <v>6</v>
@@ -4425,7 +5207,7 @@
         <v>100</v>
       </c>
       <c r="AG4" s="3" t="s">
-        <v>256</v>
+        <v>349</v>
       </c>
       <c r="AH4" s="5" t="n">
         <f aca="false">SUM(AH5:AH95)</f>
@@ -4434,77 +5216,77 @@
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>257</v>
+        <v>350</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>258</v>
+        <v>351</v>
       </c>
       <c r="C5" s="1" t="n">
         <v>85</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>259</v>
+        <v>352</v>
       </c>
       <c r="F5" s="11" t="n">
         <v>60</v>
       </c>
       <c r="H5" s="0" t="s">
-        <v>260</v>
+        <v>353</v>
       </c>
       <c r="I5" s="11" t="n">
         <v>95</v>
       </c>
       <c r="J5" s="0" t="s">
-        <v>261</v>
+        <v>354</v>
       </c>
       <c r="K5" s="0" t="s">
-        <v>262</v>
+        <v>355</v>
       </c>
       <c r="L5" s="11" t="n">
         <v>70</v>
       </c>
       <c r="M5" s="11"/>
       <c r="N5" s="0" t="s">
-        <v>263</v>
+        <v>356</v>
       </c>
       <c r="O5" s="0" t="s">
-        <v>264</v>
+        <v>357</v>
       </c>
       <c r="P5" s="1" t="n">
         <v>10</v>
       </c>
       <c r="R5" s="0" t="s">
-        <v>265</v>
+        <v>358</v>
       </c>
       <c r="S5" s="13" t="n">
         <v>10</v>
       </c>
       <c r="U5" s="0" t="s">
-        <v>266</v>
+        <v>359</v>
       </c>
       <c r="V5" s="11" t="n">
         <v>5</v>
       </c>
       <c r="X5" s="0" t="s">
-        <v>267</v>
+        <v>360</v>
       </c>
       <c r="Y5" s="13" t="n">
         <v>10</v>
       </c>
       <c r="AA5" s="0" t="s">
-        <v>268</v>
+        <v>361</v>
       </c>
       <c r="AB5" s="11" t="n">
         <v>10</v>
       </c>
       <c r="AD5" s="0" t="s">
-        <v>269</v>
+        <v>362</v>
       </c>
       <c r="AE5" s="11" t="n">
         <v>100</v>
       </c>
       <c r="AG5" s="0" t="s">
-        <v>270</v>
+        <v>363</v>
       </c>
       <c r="AH5" s="1" t="n">
         <v>10</v>
@@ -4512,72 +5294,72 @@
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>271</v>
+        <v>364</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>272</v>
+        <v>365</v>
       </c>
       <c r="C6" s="1" t="n">
         <v>5</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>273</v>
+        <v>366</v>
       </c>
       <c r="F6" s="11" t="n">
         <v>40</v>
       </c>
       <c r="H6" s="0" t="s">
-        <v>274</v>
+        <v>367</v>
       </c>
       <c r="I6" s="11" t="n">
         <v>5</v>
       </c>
       <c r="J6" s="0" t="s">
-        <v>275</v>
+        <v>368</v>
       </c>
       <c r="K6" s="0" t="s">
-        <v>276</v>
+        <v>369</v>
       </c>
       <c r="L6" s="11" t="n">
         <v>30</v>
       </c>
       <c r="M6" s="11"/>
       <c r="N6" s="0" t="s">
-        <v>277</v>
+        <v>370</v>
       </c>
       <c r="O6" s="0" t="s">
-        <v>278</v>
+        <v>371</v>
       </c>
       <c r="P6" s="1" t="n">
         <v>10</v>
       </c>
       <c r="R6" s="0" t="s">
-        <v>279</v>
+        <v>372</v>
       </c>
       <c r="S6" s="11" t="n">
         <v>40</v>
       </c>
       <c r="U6" s="0" t="s">
-        <v>280</v>
+        <v>373</v>
       </c>
       <c r="V6" s="11" t="n">
         <v>15</v>
       </c>
       <c r="X6" s="0" t="s">
-        <v>281</v>
+        <v>374</v>
       </c>
       <c r="Y6" s="11" t="n">
         <v>90</v>
       </c>
       <c r="AA6" s="0" t="s">
-        <v>282</v>
+        <v>375</v>
       </c>
       <c r="AB6" s="11" t="n">
         <v>10</v>
       </c>
       <c r="AE6" s="11"/>
       <c r="AG6" s="0" t="s">
-        <v>283</v>
+        <v>376</v>
       </c>
       <c r="AH6" s="1" t="n">
         <v>10</v>
@@ -4585,10 +5367,10 @@
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>284</v>
+        <v>377</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>285</v>
+        <v>378</v>
       </c>
       <c r="C7" s="1" t="n">
         <v>5</v>
@@ -4598,22 +5380,22 @@
       <c r="L7" s="11"/>
       <c r="M7" s="11"/>
       <c r="N7" s="0" t="s">
-        <v>286</v>
+        <v>379</v>
       </c>
       <c r="O7" s="0" t="s">
-        <v>287</v>
+        <v>380</v>
       </c>
       <c r="P7" s="1" t="n">
         <v>10</v>
       </c>
       <c r="R7" s="0" t="s">
-        <v>288</v>
+        <v>381</v>
       </c>
       <c r="S7" s="13" t="n">
         <v>10</v>
       </c>
       <c r="U7" s="0" t="s">
-        <v>289</v>
+        <v>382</v>
       </c>
       <c r="V7" s="11" t="n">
         <v>20</v>
@@ -4622,7 +5404,7 @@
       <c r="AB7" s="13"/>
       <c r="AE7" s="13"/>
       <c r="AG7" s="0" t="s">
-        <v>290</v>
+        <v>383</v>
       </c>
       <c r="AH7" s="1" t="n">
         <v>10</v>
@@ -4630,10 +5412,10 @@
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>291</v>
+        <v>384</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>292</v>
+        <v>385</v>
       </c>
       <c r="C8" s="1" t="n">
         <v>5</v>
@@ -4650,22 +5432,22 @@
       </c>
       <c r="M8" s="11"/>
       <c r="N8" s="0" t="s">
-        <v>293</v>
+        <v>386</v>
       </c>
       <c r="O8" s="0" t="s">
-        <v>269</v>
+        <v>362</v>
       </c>
       <c r="P8" s="11" t="n">
         <v>10</v>
       </c>
       <c r="R8" s="0" t="s">
-        <v>294</v>
+        <v>387</v>
       </c>
       <c r="S8" s="13" t="n">
         <v>20</v>
       </c>
       <c r="U8" s="0" t="s">
-        <v>295</v>
+        <v>388</v>
       </c>
       <c r="V8" s="11" t="n">
         <v>10</v>
@@ -4674,7 +5456,7 @@
       <c r="AB8" s="13"/>
       <c r="AE8" s="13"/>
       <c r="AG8" s="0" t="s">
-        <v>296</v>
+        <v>389</v>
       </c>
       <c r="AH8" s="1" t="n">
         <v>10</v>
@@ -4682,38 +5464,38 @@
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H9" s="0" t="s">
-        <v>260</v>
+        <v>353</v>
       </c>
       <c r="I9" s="11" t="n">
         <v>90</v>
       </c>
       <c r="J9" s="0" t="s">
-        <v>261</v>
+        <v>354</v>
       </c>
       <c r="K9" s="0" t="s">
-        <v>262</v>
+        <v>355</v>
       </c>
       <c r="L9" s="11" t="n">
         <v>75</v>
       </c>
       <c r="M9" s="5"/>
       <c r="N9" s="0" t="s">
-        <v>297</v>
+        <v>390</v>
       </c>
       <c r="O9" s="0" t="s">
-        <v>298</v>
+        <v>391</v>
       </c>
       <c r="P9" s="11" t="n">
         <v>10</v>
       </c>
       <c r="R9" s="0" t="s">
-        <v>299</v>
+        <v>392</v>
       </c>
       <c r="S9" s="13" t="n">
         <v>10</v>
       </c>
       <c r="U9" s="0" t="s">
-        <v>300</v>
+        <v>393</v>
       </c>
       <c r="V9" s="11" t="n">
         <v>20</v>
@@ -4722,7 +5504,7 @@
       <c r="AB9" s="13"/>
       <c r="AE9" s="13"/>
       <c r="AG9" s="0" t="s">
-        <v>301</v>
+        <v>394</v>
       </c>
       <c r="AH9" s="1" t="n">
         <v>10</v>
@@ -4732,16 +5514,16 @@
       <c r="B10" s="7"/>
       <c r="C10" s="5"/>
       <c r="H10" s="0" t="s">
-        <v>274</v>
+        <v>367</v>
       </c>
       <c r="I10" s="11" t="n">
         <v>10</v>
       </c>
       <c r="J10" s="0" t="s">
-        <v>275</v>
+        <v>368</v>
       </c>
       <c r="K10" s="0" t="s">
-        <v>276</v>
+        <v>369</v>
       </c>
       <c r="L10" s="11" t="n">
         <v>25</v>
@@ -4752,7 +5534,7 @@
         <v>50</v>
       </c>
       <c r="R10" s="0" t="s">
-        <v>302</v>
+        <v>395</v>
       </c>
       <c r="S10" s="13" t="n">
         <v>10</v>
@@ -4762,7 +5544,7 @@
       <c r="AB10" s="13"/>
       <c r="AE10" s="13"/>
       <c r="AG10" s="0" t="s">
-        <v>303</v>
+        <v>396</v>
       </c>
       <c r="AH10" s="1" t="n">
         <v>10</v>
@@ -4773,17 +5555,17 @@
       <c r="L11" s="0"/>
       <c r="M11" s="11"/>
       <c r="N11" s="0" t="s">
-        <v>263</v>
+        <v>356</v>
       </c>
       <c r="O11" s="0" t="s">
-        <v>264</v>
+        <v>357</v>
       </c>
       <c r="P11" s="1" t="n">
         <v>10</v>
       </c>
       <c r="S11" s="13"/>
       <c r="AG11" s="0" t="s">
-        <v>304</v>
+        <v>397</v>
       </c>
       <c r="AH11" s="1" t="n">
         <v>10</v>
@@ -4800,17 +5582,17 @@
         <v>100</v>
       </c>
       <c r="N12" s="0" t="s">
-        <v>277</v>
+        <v>370</v>
       </c>
       <c r="O12" s="0" t="s">
-        <v>278</v>
+        <v>371</v>
       </c>
       <c r="P12" s="1" t="n">
         <v>10</v>
       </c>
       <c r="S12" s="13"/>
       <c r="AG12" s="0" t="s">
-        <v>305</v>
+        <v>398</v>
       </c>
       <c r="AH12" s="1" t="n">
         <v>10</v>
@@ -4818,32 +5600,32 @@
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H13" s="0" t="s">
-        <v>260</v>
+        <v>353</v>
       </c>
       <c r="I13" s="11" t="n">
         <v>85</v>
       </c>
       <c r="J13" s="0" t="s">
-        <v>261</v>
+        <v>354</v>
       </c>
       <c r="K13" s="0" t="s">
-        <v>262</v>
+        <v>355</v>
       </c>
       <c r="L13" s="11" t="n">
         <v>80</v>
       </c>
       <c r="N13" s="0" t="s">
-        <v>286</v>
+        <v>379</v>
       </c>
       <c r="O13" s="0" t="s">
-        <v>287</v>
+        <v>380</v>
       </c>
       <c r="P13" s="1" t="n">
         <v>10</v>
       </c>
       <c r="S13" s="13"/>
       <c r="AG13" s="0" t="s">
-        <v>306</v>
+        <v>399</v>
       </c>
       <c r="AH13" s="1" t="n">
         <v>10</v>
@@ -4851,33 +5633,33 @@
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H14" s="0" t="s">
-        <v>274</v>
+        <v>367</v>
       </c>
       <c r="I14" s="11" t="n">
         <v>15</v>
       </c>
       <c r="J14" s="0" t="s">
-        <v>275</v>
+        <v>368</v>
       </c>
       <c r="K14" s="0" t="s">
-        <v>276</v>
+        <v>369</v>
       </c>
       <c r="L14" s="11" t="n">
         <v>20</v>
       </c>
       <c r="M14" s="5"/>
       <c r="N14" s="0" t="s">
-        <v>293</v>
+        <v>386</v>
       </c>
       <c r="O14" s="0" t="s">
-        <v>269</v>
+        <v>362</v>
       </c>
       <c r="P14" s="11" t="n">
         <v>10</v>
       </c>
       <c r="S14" s="13"/>
       <c r="AG14" s="0" t="s">
-        <v>307</v>
+        <v>400</v>
       </c>
       <c r="AH14" s="1" t="n">
         <v>10</v>
@@ -4888,17 +5670,17 @@
       <c r="L15" s="0"/>
       <c r="M15" s="11"/>
       <c r="N15" s="0" t="s">
-        <v>297</v>
+        <v>390</v>
       </c>
       <c r="O15" s="0" t="s">
-        <v>298</v>
+        <v>391</v>
       </c>
       <c r="P15" s="11" t="n">
         <v>10</v>
       </c>
       <c r="S15" s="13"/>
       <c r="AG15" s="0" t="s">
-        <v>308</v>
+        <v>401</v>
       </c>
       <c r="AH15" s="1" t="n">
         <v>10</v>
@@ -4921,7 +5703,7 @@
       </c>
       <c r="S16" s="13"/>
       <c r="AG16" s="0" t="s">
-        <v>309</v>
+        <v>402</v>
       </c>
       <c r="AH16" s="1" t="n">
         <v>10</v>
@@ -4929,32 +5711,32 @@
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H17" s="0" t="s">
-        <v>260</v>
+        <v>353</v>
       </c>
       <c r="I17" s="11" t="n">
         <v>80</v>
       </c>
       <c r="J17" s="0" t="s">
-        <v>261</v>
+        <v>354</v>
       </c>
       <c r="K17" s="0" t="s">
-        <v>262</v>
+        <v>355</v>
       </c>
       <c r="L17" s="11" t="n">
         <v>85</v>
       </c>
       <c r="N17" s="0" t="s">
-        <v>263</v>
+        <v>356</v>
       </c>
       <c r="O17" s="0" t="s">
-        <v>264</v>
+        <v>357</v>
       </c>
       <c r="P17" s="1" t="n">
         <v>10</v>
       </c>
       <c r="S17" s="13"/>
       <c r="AG17" s="0" t="s">
-        <v>310</v>
+        <v>403</v>
       </c>
       <c r="AH17" s="1" t="n">
         <v>10</v>
@@ -4962,32 +5744,32 @@
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H18" s="0" t="s">
-        <v>274</v>
+        <v>367</v>
       </c>
       <c r="I18" s="11" t="n">
         <v>20</v>
       </c>
       <c r="J18" s="0" t="s">
-        <v>275</v>
+        <v>368</v>
       </c>
       <c r="K18" s="0" t="s">
-        <v>276</v>
+        <v>369</v>
       </c>
       <c r="L18" s="11" t="n">
         <v>15</v>
       </c>
       <c r="N18" s="0" t="s">
-        <v>277</v>
+        <v>370</v>
       </c>
       <c r="O18" s="0" t="s">
-        <v>278</v>
+        <v>371</v>
       </c>
       <c r="P18" s="1" t="n">
         <v>10</v>
       </c>
       <c r="S18" s="13"/>
       <c r="AG18" s="0" t="s">
-        <v>311</v>
+        <v>404</v>
       </c>
       <c r="AH18" s="1" t="n">
         <v>10</v>
@@ -4998,17 +5780,17 @@
       <c r="L19" s="0"/>
       <c r="M19" s="5"/>
       <c r="N19" s="0" t="s">
-        <v>286</v>
+        <v>379</v>
       </c>
       <c r="O19" s="0" t="s">
-        <v>287</v>
+        <v>380</v>
       </c>
       <c r="P19" s="1" t="n">
         <v>10</v>
       </c>
       <c r="S19" s="13"/>
       <c r="AG19" s="0" t="s">
-        <v>312</v>
+        <v>405</v>
       </c>
       <c r="AH19" s="1" t="n">
         <v>10</v>
@@ -5019,17 +5801,17 @@
       <c r="L20" s="0"/>
       <c r="M20" s="11"/>
       <c r="N20" s="0" t="s">
-        <v>293</v>
+        <v>386</v>
       </c>
       <c r="O20" s="0" t="s">
-        <v>269</v>
+        <v>362</v>
       </c>
       <c r="P20" s="11" t="n">
         <v>10</v>
       </c>
       <c r="S20" s="13"/>
       <c r="AG20" s="0" t="s">
-        <v>313</v>
+        <v>406</v>
       </c>
       <c r="AH20" s="1" t="n">
         <v>10</v>
@@ -5040,17 +5822,17 @@
       <c r="L21" s="0"/>
       <c r="M21" s="11"/>
       <c r="N21" s="0" t="s">
-        <v>297</v>
+        <v>390</v>
       </c>
       <c r="O21" s="0" t="s">
-        <v>298</v>
+        <v>391</v>
       </c>
       <c r="P21" s="11" t="n">
         <v>10</v>
       </c>
       <c r="S21" s="13"/>
       <c r="AG21" s="0" t="s">
-        <v>314</v>
+        <v>407</v>
       </c>
       <c r="AH21" s="1" t="n">
         <v>10</v>
@@ -5064,7 +5846,7 @@
       </c>
       <c r="S22" s="13"/>
       <c r="AG22" s="0" t="s">
-        <v>315</v>
+        <v>408</v>
       </c>
       <c r="AH22" s="1" t="n">
         <v>10</v>
@@ -5073,17 +5855,17 @@
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="L23" s="0"/>
       <c r="N23" s="0" t="s">
-        <v>263</v>
+        <v>356</v>
       </c>
       <c r="O23" s="0" t="s">
-        <v>264</v>
+        <v>357</v>
       </c>
       <c r="P23" s="1" t="n">
         <v>10</v>
       </c>
       <c r="S23" s="13"/>
       <c r="AG23" s="0" t="s">
-        <v>316</v>
+        <v>409</v>
       </c>
       <c r="AH23" s="1" t="n">
         <v>10</v>
@@ -5092,17 +5874,17 @@
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="L24" s="0"/>
       <c r="N24" s="0" t="s">
-        <v>277</v>
+        <v>370</v>
       </c>
       <c r="O24" s="0" t="s">
-        <v>278</v>
+        <v>371</v>
       </c>
       <c r="P24" s="1" t="n">
         <v>10</v>
       </c>
       <c r="S24" s="13"/>
       <c r="AG24" s="0" t="s">
-        <v>317</v>
+        <v>410</v>
       </c>
       <c r="AH24" s="1" t="n">
         <v>10</v>
@@ -5110,17 +5892,17 @@
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="N25" s="0" t="s">
-        <v>286</v>
+        <v>379</v>
       </c>
       <c r="O25" s="0" t="s">
-        <v>287</v>
+        <v>380</v>
       </c>
       <c r="P25" s="1" t="n">
         <v>10</v>
       </c>
       <c r="S25" s="13"/>
       <c r="AG25" s="0" t="s">
-        <v>318</v>
+        <v>411</v>
       </c>
       <c r="AH25" s="1" t="n">
         <v>10</v>
@@ -5128,17 +5910,17 @@
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="N26" s="0" t="s">
-        <v>293</v>
+        <v>386</v>
       </c>
       <c r="O26" s="0" t="s">
-        <v>269</v>
+        <v>362</v>
       </c>
       <c r="P26" s="11" t="n">
         <v>10</v>
       </c>
       <c r="S26" s="13"/>
       <c r="AG26" s="0" t="s">
-        <v>319</v>
+        <v>412</v>
       </c>
       <c r="AH26" s="1" t="n">
         <v>10</v>
@@ -5146,17 +5928,17 @@
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="N27" s="0" t="s">
-        <v>297</v>
+        <v>390</v>
       </c>
       <c r="O27" s="0" t="s">
-        <v>298</v>
+        <v>391</v>
       </c>
       <c r="P27" s="11" t="n">
         <v>10</v>
       </c>
       <c r="S27" s="13"/>
       <c r="AG27" s="0" t="s">
-        <v>320</v>
+        <v>413</v>
       </c>
       <c r="AH27" s="1" t="n">
         <v>10</v>
@@ -5165,7 +5947,7 @@
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="S28" s="13"/>
       <c r="AG28" s="0" t="s">
-        <v>321</v>
+        <v>414</v>
       </c>
       <c r="AH28" s="1" t="n">
         <v>10</v>
@@ -5174,7 +5956,7 @@
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="S29" s="13"/>
       <c r="AG29" s="0" t="s">
-        <v>322</v>
+        <v>415</v>
       </c>
       <c r="AH29" s="1" t="n">
         <v>10</v>
@@ -5183,7 +5965,7 @@
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="S30" s="13"/>
       <c r="AG30" s="0" t="s">
-        <v>323</v>
+        <v>416</v>
       </c>
       <c r="AH30" s="1" t="n">
         <v>10</v>
@@ -5192,7 +5974,7 @@
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="S31" s="13"/>
       <c r="AG31" s="0" t="s">
-        <v>324</v>
+        <v>417</v>
       </c>
       <c r="AH31" s="1" t="n">
         <v>10</v>
@@ -5201,7 +5983,7 @@
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="S32" s="13"/>
       <c r="AG32" s="0" t="s">
-        <v>325</v>
+        <v>418</v>
       </c>
       <c r="AH32" s="1" t="n">
         <v>10</v>
@@ -5210,7 +5992,7 @@
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="S33" s="13"/>
       <c r="AG33" s="0" t="s">
-        <v>326</v>
+        <v>419</v>
       </c>
       <c r="AH33" s="1" t="n">
         <v>10</v>
@@ -5220,7 +6002,7 @@
       <c r="P34" s="0"/>
       <c r="S34" s="11"/>
       <c r="AG34" s="0" t="s">
-        <v>327</v>
+        <v>420</v>
       </c>
       <c r="AH34" s="1" t="n">
         <v>10</v>
@@ -5230,7 +6012,7 @@
       <c r="P35" s="0"/>
       <c r="S35" s="11"/>
       <c r="AG35" s="0" t="s">
-        <v>328</v>
+        <v>421</v>
       </c>
       <c r="AH35" s="1" t="n">
         <v>10</v>
@@ -5240,7 +6022,7 @@
       <c r="P36" s="0"/>
       <c r="S36" s="0"/>
       <c r="AG36" s="0" t="s">
-        <v>329</v>
+        <v>422</v>
       </c>
       <c r="AH36" s="1" t="n">
         <v>10</v>
@@ -5250,7 +6032,7 @@
       <c r="P37" s="0"/>
       <c r="S37" s="11"/>
       <c r="AG37" s="0" t="s">
-        <v>330</v>
+        <v>423</v>
       </c>
       <c r="AH37" s="1" t="n">
         <v>10</v>
@@ -5260,7 +6042,7 @@
       <c r="P38" s="0"/>
       <c r="S38" s="0"/>
       <c r="AG38" s="0" t="s">
-        <v>331</v>
+        <v>424</v>
       </c>
       <c r="AH38" s="1" t="n">
         <v>10</v>
@@ -5270,7 +6052,7 @@
       <c r="P39" s="0"/>
       <c r="S39" s="11"/>
       <c r="AG39" s="0" t="s">
-        <v>332</v>
+        <v>425</v>
       </c>
       <c r="AH39" s="1" t="n">
         <v>10</v>
@@ -5280,7 +6062,7 @@
       <c r="P40" s="0"/>
       <c r="S40" s="13"/>
       <c r="AG40" s="0" t="s">
-        <v>333</v>
+        <v>426</v>
       </c>
       <c r="AH40" s="1" t="n">
         <v>10</v>
@@ -5289,7 +6071,7 @@
     <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="S41" s="13"/>
       <c r="AG41" s="0" t="s">
-        <v>334</v>
+        <v>427</v>
       </c>
       <c r="AH41" s="1" t="n">
         <v>10</v>
@@ -5298,7 +6080,7 @@
     <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="S42" s="13"/>
       <c r="AG42" s="0" t="s">
-        <v>335</v>
+        <v>428</v>
       </c>
       <c r="AH42" s="1" t="n">
         <v>10</v>
@@ -5307,7 +6089,7 @@
     <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="S43" s="13"/>
       <c r="AG43" s="0" t="s">
-        <v>336</v>
+        <v>429</v>
       </c>
       <c r="AH43" s="1" t="n">
         <v>10</v>
@@ -5316,7 +6098,7 @@
     <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="S44" s="13"/>
       <c r="AG44" s="0" t="s">
-        <v>337</v>
+        <v>430</v>
       </c>
       <c r="AH44" s="1" t="n">
         <v>10</v>
@@ -5325,7 +6107,7 @@
     <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="S45" s="13"/>
       <c r="AG45" s="0" t="s">
-        <v>338</v>
+        <v>431</v>
       </c>
       <c r="AH45" s="1" t="n">
         <v>10</v>
@@ -5334,7 +6116,7 @@
     <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="S46" s="13"/>
       <c r="AG46" s="0" t="s">
-        <v>339</v>
+        <v>432</v>
       </c>
       <c r="AH46" s="1" t="n">
         <v>10</v>
@@ -5343,7 +6125,7 @@
     <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="S47" s="13"/>
       <c r="AG47" s="0" t="s">
-        <v>340</v>
+        <v>433</v>
       </c>
       <c r="AH47" s="1" t="n">
         <v>10</v>
@@ -5352,7 +6134,7 @@
     <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="S48" s="13"/>
       <c r="AG48" s="0" t="s">
-        <v>341</v>
+        <v>434</v>
       </c>
       <c r="AH48" s="1" t="n">
         <v>10</v>
@@ -5361,7 +6143,7 @@
     <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="S49" s="13"/>
       <c r="AG49" s="0" t="s">
-        <v>342</v>
+        <v>435</v>
       </c>
       <c r="AH49" s="1" t="n">
         <v>10</v>
@@ -5370,7 +6152,7 @@
     <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="S50" s="13"/>
       <c r="AG50" s="0" t="s">
-        <v>343</v>
+        <v>436</v>
       </c>
       <c r="AH50" s="1" t="n">
         <v>10</v>
@@ -5379,7 +6161,7 @@
     <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="S51" s="13"/>
       <c r="AG51" s="0" t="s">
-        <v>344</v>
+        <v>437</v>
       </c>
       <c r="AH51" s="1" t="n">
         <v>10</v>
@@ -5388,7 +6170,7 @@
     <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="S52" s="13"/>
       <c r="AG52" s="0" t="s">
-        <v>345</v>
+        <v>438</v>
       </c>
       <c r="AH52" s="1" t="n">
         <v>10</v>
@@ -5397,7 +6179,7 @@
     <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="S53" s="13"/>
       <c r="AG53" s="0" t="s">
-        <v>346</v>
+        <v>439</v>
       </c>
       <c r="AH53" s="1" t="n">
         <v>10</v>
@@ -5406,7 +6188,7 @@
     <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="S54" s="13"/>
       <c r="AG54" s="0" t="s">
-        <v>347</v>
+        <v>440</v>
       </c>
       <c r="AH54" s="1" t="n">
         <v>10</v>
@@ -5415,7 +6197,7 @@
     <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="S55" s="13"/>
       <c r="AG55" s="0" t="s">
-        <v>348</v>
+        <v>441</v>
       </c>
       <c r="AH55" s="1" t="n">
         <v>10</v>
@@ -5424,7 +6206,7 @@
     <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="S56" s="13"/>
       <c r="AG56" s="0" t="s">
-        <v>349</v>
+        <v>442</v>
       </c>
       <c r="AH56" s="1" t="n">
         <v>10</v>
@@ -5433,7 +6215,7 @@
     <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="S57" s="13"/>
       <c r="AG57" s="0" t="s">
-        <v>350</v>
+        <v>443</v>
       </c>
       <c r="AH57" s="1" t="n">
         <v>10</v>
@@ -5442,7 +6224,7 @@
     <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="S58" s="13"/>
       <c r="AG58" s="0" t="s">
-        <v>351</v>
+        <v>444</v>
       </c>
       <c r="AH58" s="1" t="n">
         <v>10</v>
@@ -5451,7 +6233,7 @@
     <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="S59" s="13"/>
       <c r="AG59" s="0" t="s">
-        <v>352</v>
+        <v>445</v>
       </c>
       <c r="AH59" s="1" t="n">
         <v>10</v>
@@ -5460,7 +6242,7 @@
     <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="S60" s="13"/>
       <c r="AG60" s="0" t="s">
-        <v>353</v>
+        <v>446</v>
       </c>
       <c r="AH60" s="1" t="n">
         <v>10</v>
@@ -5469,7 +6251,7 @@
     <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="S61" s="13"/>
       <c r="AG61" s="0" t="s">
-        <v>354</v>
+        <v>447</v>
       </c>
       <c r="AH61" s="1" t="n">
         <v>10</v>
@@ -5478,7 +6260,7 @@
     <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="S62" s="13"/>
       <c r="AG62" s="0" t="s">
-        <v>355</v>
+        <v>448</v>
       </c>
       <c r="AH62" s="1" t="n">
         <v>10</v>
@@ -5487,7 +6269,7 @@
     <row r="63" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="S63" s="13"/>
       <c r="AG63" s="0" t="s">
-        <v>356</v>
+        <v>449</v>
       </c>
       <c r="AH63" s="1" t="n">
         <v>10</v>
@@ -5496,7 +6278,7 @@
     <row r="64" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="S64" s="13"/>
       <c r="AG64" s="0" t="s">
-        <v>357</v>
+        <v>450</v>
       </c>
       <c r="AH64" s="1" t="n">
         <v>10</v>
@@ -5505,7 +6287,7 @@
     <row r="65" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="S65" s="13"/>
       <c r="AG65" s="0" t="s">
-        <v>358</v>
+        <v>451</v>
       </c>
       <c r="AH65" s="1" t="n">
         <v>10</v>
@@ -5514,7 +6296,7 @@
     <row r="66" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="S66" s="13"/>
       <c r="AG66" s="0" t="s">
-        <v>359</v>
+        <v>452</v>
       </c>
       <c r="AH66" s="1" t="n">
         <v>10</v>
@@ -5523,7 +6305,7 @@
     <row r="67" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="S67" s="13"/>
       <c r="AG67" s="0" t="s">
-        <v>360</v>
+        <v>453</v>
       </c>
       <c r="AH67" s="1" t="n">
         <v>10</v>
@@ -5532,7 +6314,7 @@
     <row r="68" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="S68" s="13"/>
       <c r="AG68" s="0" t="s">
-        <v>361</v>
+        <v>454</v>
       </c>
       <c r="AH68" s="1" t="n">
         <v>10</v>
@@ -5541,7 +6323,7 @@
     <row r="69" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="S69" s="13"/>
       <c r="AG69" s="0" t="s">
-        <v>362</v>
+        <v>455</v>
       </c>
       <c r="AH69" s="1" t="n">
         <v>10</v>
@@ -5550,7 +6332,7 @@
     <row r="70" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="S70" s="13"/>
       <c r="AG70" s="0" t="s">
-        <v>363</v>
+        <v>456</v>
       </c>
       <c r="AH70" s="1" t="n">
         <v>10</v>
@@ -5559,7 +6341,7 @@
     <row r="71" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="S71" s="13"/>
       <c r="AG71" s="0" t="s">
-        <v>364</v>
+        <v>457</v>
       </c>
       <c r="AH71" s="1" t="n">
         <v>10</v>
@@ -5568,7 +6350,7 @@
     <row r="72" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="S72" s="13"/>
       <c r="AG72" s="0" t="s">
-        <v>365</v>
+        <v>458</v>
       </c>
       <c r="AH72" s="1" t="n">
         <v>10</v>
@@ -5577,7 +6359,7 @@
     <row r="73" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="S73" s="13"/>
       <c r="AG73" s="0" t="s">
-        <v>366</v>
+        <v>459</v>
       </c>
       <c r="AH73" s="1" t="n">
         <v>10</v>
@@ -5586,7 +6368,7 @@
     <row r="74" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="S74" s="13"/>
       <c r="AG74" s="0" t="s">
-        <v>367</v>
+        <v>460</v>
       </c>
       <c r="AH74" s="1" t="n">
         <v>10</v>
@@ -5595,7 +6377,7 @@
     <row r="75" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="S75" s="13"/>
       <c r="AG75" s="0" t="s">
-        <v>368</v>
+        <v>461</v>
       </c>
       <c r="AH75" s="1" t="n">
         <v>10</v>
@@ -5604,7 +6386,7 @@
     <row r="76" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="S76" s="13"/>
       <c r="AG76" s="0" t="s">
-        <v>369</v>
+        <v>462</v>
       </c>
       <c r="AH76" s="1" t="n">
         <v>10</v>
@@ -5613,7 +6395,7 @@
     <row r="77" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="S77" s="13"/>
       <c r="AG77" s="0" t="s">
-        <v>370</v>
+        <v>463</v>
       </c>
       <c r="AH77" s="1" t="n">
         <v>10</v>
@@ -5622,7 +6404,7 @@
     <row r="78" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="S78" s="13"/>
       <c r="AG78" s="0" t="s">
-        <v>371</v>
+        <v>464</v>
       </c>
       <c r="AH78" s="1" t="n">
         <v>10</v>
@@ -5631,7 +6413,7 @@
     <row r="79" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="S79" s="13"/>
       <c r="AG79" s="0" t="s">
-        <v>372</v>
+        <v>465</v>
       </c>
       <c r="AH79" s="1" t="n">
         <v>10</v>
@@ -5640,7 +6422,7 @@
     <row r="80" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="S80" s="13"/>
       <c r="AG80" s="0" t="s">
-        <v>373</v>
+        <v>466</v>
       </c>
       <c r="AH80" s="1" t="n">
         <v>10</v>
@@ -5649,7 +6431,7 @@
     <row r="81" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="S81" s="13"/>
       <c r="AG81" s="0" t="s">
-        <v>374</v>
+        <v>467</v>
       </c>
       <c r="AH81" s="1" t="n">
         <v>10</v>
@@ -5658,7 +6440,7 @@
     <row r="82" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="S82" s="13"/>
       <c r="AG82" s="0" t="s">
-        <v>374</v>
+        <v>467</v>
       </c>
       <c r="AH82" s="1" t="n">
         <v>10</v>
@@ -5667,7 +6449,7 @@
     <row r="83" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="S83" s="13"/>
       <c r="AG83" s="0" t="s">
-        <v>375</v>
+        <v>468</v>
       </c>
       <c r="AH83" s="1" t="n">
         <v>10</v>
@@ -5676,7 +6458,7 @@
     <row r="84" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="S84" s="13"/>
       <c r="AG84" s="0" t="s">
-        <v>375</v>
+        <v>468</v>
       </c>
       <c r="AH84" s="1" t="n">
         <v>10</v>
@@ -5685,7 +6467,7 @@
     <row r="85" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="S85" s="13"/>
       <c r="AG85" s="0" t="s">
-        <v>376</v>
+        <v>469</v>
       </c>
       <c r="AH85" s="1" t="n">
         <v>10</v>
@@ -5694,7 +6476,7 @@
     <row r="86" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="S86" s="13"/>
       <c r="AG86" s="0" t="s">
-        <v>376</v>
+        <v>469</v>
       </c>
       <c r="AH86" s="1" t="n">
         <v>10</v>
@@ -5703,7 +6485,7 @@
     <row r="87" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="S87" s="13"/>
       <c r="AG87" s="0" t="s">
-        <v>377</v>
+        <v>470</v>
       </c>
       <c r="AH87" s="1" t="n">
         <v>10</v>
@@ -5712,7 +6494,7 @@
     <row r="88" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="S88" s="13"/>
       <c r="AG88" s="0" t="s">
-        <v>378</v>
+        <v>471</v>
       </c>
       <c r="AH88" s="1" t="n">
         <v>10</v>
@@ -5721,7 +6503,7 @@
     <row r="89" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="S89" s="13"/>
       <c r="AG89" s="0" t="s">
-        <v>379</v>
+        <v>472</v>
       </c>
       <c r="AH89" s="1" t="n">
         <v>10</v>
@@ -5730,7 +6512,7 @@
     <row r="90" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="S90" s="13"/>
       <c r="AG90" s="0" t="s">
-        <v>380</v>
+        <v>473</v>
       </c>
       <c r="AH90" s="1" t="n">
         <v>10</v>
@@ -5739,7 +6521,7 @@
     <row r="91" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="S91" s="13"/>
       <c r="AG91" s="0" t="s">
-        <v>381</v>
+        <v>474</v>
       </c>
       <c r="AH91" s="1" t="n">
         <v>10</v>
@@ -5748,7 +6530,7 @@
     <row r="92" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="S92" s="13"/>
       <c r="AG92" s="0" t="s">
-        <v>382</v>
+        <v>475</v>
       </c>
       <c r="AH92" s="1" t="n">
         <v>10</v>
@@ -5757,7 +6539,7 @@
     <row r="93" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="S93" s="13"/>
       <c r="AG93" s="0" t="s">
-        <v>383</v>
+        <v>476</v>
       </c>
       <c r="AH93" s="1" t="n">
         <v>10</v>
@@ -5766,7 +6548,7 @@
     <row r="94" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="S94" s="13"/>
       <c r="AG94" s="0" t="s">
-        <v>384</v>
+        <v>477</v>
       </c>
       <c r="AH94" s="1" t="n">
         <v>10</v>
@@ -5775,7 +6557,7 @@
     <row r="95" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="S95" s="13"/>
       <c r="AG95" s="0" t="s">
-        <v>385</v>
+        <v>478</v>
       </c>
       <c r="AH95" s="1" t="n">
         <v>10</v>
@@ -5907,39 +6689,39 @@
   <sheetData>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2" s="8" t="s">
-        <v>386</v>
+        <v>479</v>
       </c>
       <c r="C2" s="8"/>
       <c r="D2" s="8"/>
       <c r="E2" s="0"/>
       <c r="F2" s="3"/>
       <c r="G2" s="2" t="s">
-        <v>387</v>
+        <v>480</v>
       </c>
       <c r="H2" s="2"/>
       <c r="I2" s="3"/>
       <c r="J2" s="2" t="s">
-        <v>388</v>
+        <v>481</v>
       </c>
       <c r="K2" s="2"/>
       <c r="L2" s="3"/>
       <c r="M2" s="2" t="s">
-        <v>389</v>
+        <v>482</v>
       </c>
       <c r="N2" s="2"/>
       <c r="O2" s="3"/>
       <c r="P2" s="2" t="s">
-        <v>390</v>
+        <v>483</v>
       </c>
       <c r="Q2" s="2"/>
       <c r="R2" s="3"/>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3" s="7" t="s">
-        <v>391</v>
+        <v>484</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>392</v>
+        <v>485</v>
       </c>
       <c r="D3" s="5" t="n">
         <f aca="false">SUM(D4:D22)</f>
@@ -5962,38 +6744,38 @@
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B4" s="12" t="s">
-        <v>393</v>
+        <v>486</v>
       </c>
       <c r="C4" s="12" t="s">
-        <v>394</v>
+        <v>487</v>
       </c>
       <c r="D4" s="11" t="n">
         <v>1</v>
       </c>
       <c r="E4" s="0"/>
       <c r="G4" s="7" t="s">
-        <v>395</v>
+        <v>488</v>
       </c>
       <c r="H4" s="5" t="n">
         <f aca="false">SUM(H5:H10)</f>
         <v>100</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>396</v>
+        <v>489</v>
       </c>
       <c r="K4" s="5" t="n">
         <f aca="false">SUM(K5:K10)</f>
         <v>100</v>
       </c>
       <c r="M4" s="7" t="s">
-        <v>397</v>
+        <v>490</v>
       </c>
       <c r="N4" s="5" t="n">
         <f aca="false">SUM(N5:N10)</f>
         <v>100</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>390</v>
+        <v>483</v>
       </c>
       <c r="Q4" s="5" t="n">
         <f aca="false">SUM(Q5:Q10)</f>
@@ -6002,35 +6784,35 @@
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B5" s="0" t="s">
-        <v>398</v>
+        <v>491</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>395</v>
+        <v>488</v>
       </c>
       <c r="D5" s="1" t="n">
         <v>20</v>
       </c>
       <c r="E5" s="0"/>
       <c r="G5" s="0" t="s">
-        <v>399</v>
+        <v>492</v>
       </c>
       <c r="H5" s="1" t="n">
         <v>100</v>
       </c>
       <c r="J5" s="0" t="s">
-        <v>400</v>
+        <v>493</v>
       </c>
       <c r="K5" s="1" t="n">
         <v>35</v>
       </c>
       <c r="M5" s="0" t="s">
-        <v>399</v>
+        <v>492</v>
       </c>
       <c r="N5" s="11" t="n">
         <v>30</v>
       </c>
       <c r="P5" s="0" t="s">
-        <v>399</v>
+        <v>492</v>
       </c>
       <c r="Q5" s="1" t="n">
         <v>50</v>
@@ -6038,29 +6820,29 @@
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B6" s="0" t="s">
-        <v>401</v>
+        <v>494</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>396</v>
+        <v>489</v>
       </c>
       <c r="D6" s="1" t="n">
         <v>5</v>
       </c>
       <c r="E6" s="0"/>
       <c r="J6" s="0" t="s">
-        <v>402</v>
+        <v>495</v>
       </c>
       <c r="K6" s="1" t="n">
         <v>35</v>
       </c>
       <c r="M6" s="12" t="s">
-        <v>403</v>
+        <v>496</v>
       </c>
       <c r="N6" s="11" t="n">
         <v>10</v>
       </c>
       <c r="P6" s="0" t="s">
-        <v>404</v>
+        <v>497</v>
       </c>
       <c r="Q6" s="1" t="n">
         <v>20</v>
@@ -6068,29 +6850,29 @@
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B7" s="0" t="s">
-        <v>405</v>
+        <v>498</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>406</v>
+        <v>499</v>
       </c>
       <c r="D7" s="1" t="n">
         <v>1</v>
       </c>
       <c r="E7" s="0"/>
       <c r="J7" s="0" t="s">
-        <v>407</v>
+        <v>500</v>
       </c>
       <c r="K7" s="1" t="n">
         <v>30</v>
       </c>
       <c r="M7" s="0" t="s">
-        <v>408</v>
+        <v>501</v>
       </c>
       <c r="N7" s="11" t="n">
         <v>20</v>
       </c>
       <c r="P7" s="0" t="s">
-        <v>409</v>
+        <v>502</v>
       </c>
       <c r="Q7" s="1" t="n">
         <v>10</v>
@@ -6098,10 +6880,10 @@
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B8" s="0" t="s">
-        <v>410</v>
+        <v>503</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>397</v>
+        <v>490</v>
       </c>
       <c r="D8" s="1" t="n">
         <v>5</v>
@@ -6112,13 +6894,13 @@
       <c r="J8" s="7"/>
       <c r="K8" s="5"/>
       <c r="M8" s="12" t="s">
-        <v>411</v>
+        <v>504</v>
       </c>
       <c r="N8" s="11" t="n">
         <v>20</v>
       </c>
       <c r="P8" s="0" t="s">
-        <v>403</v>
+        <v>496</v>
       </c>
       <c r="Q8" s="1" t="n">
         <v>10</v>
@@ -6126,10 +6908,10 @@
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B9" s="0" t="s">
-        <v>412</v>
+        <v>505</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>390</v>
+        <v>483</v>
       </c>
       <c r="D9" s="1" t="n">
         <v>20</v>
@@ -6140,13 +6922,13 @@
       <c r="J9" s="7"/>
       <c r="K9" s="5"/>
       <c r="M9" s="12" t="s">
-        <v>413</v>
+        <v>506</v>
       </c>
       <c r="N9" s="11" t="n">
         <v>10</v>
       </c>
       <c r="P9" s="0" t="s">
-        <v>414</v>
+        <v>507</v>
       </c>
       <c r="Q9" s="1" t="n">
         <v>10</v>
@@ -6154,10 +6936,10 @@
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B10" s="0" t="s">
-        <v>415</v>
+        <v>508</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>416</v>
+        <v>509</v>
       </c>
       <c r="D10" s="1" t="n">
         <v>20</v>
@@ -6168,7 +6950,7 @@
       <c r="J10" s="7"/>
       <c r="K10" s="5"/>
       <c r="M10" s="0" t="s">
-        <v>417</v>
+        <v>510</v>
       </c>
       <c r="N10" s="11" t="n">
         <v>10</v>
@@ -6176,10 +6958,10 @@
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B11" s="12" t="s">
-        <v>418</v>
+        <v>511</v>
       </c>
       <c r="C11" s="12" t="s">
-        <v>419</v>
+        <v>512</v>
       </c>
       <c r="D11" s="11" t="n">
         <v>20</v>
@@ -6194,10 +6976,10 @@
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B12" s="0" t="s">
-        <v>420</v>
+        <v>513</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>421</v>
+        <v>514</v>
       </c>
       <c r="D12" s="1" t="n">
         <v>5</v>
@@ -6210,40 +6992,40 @@
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B13" s="0" t="s">
-        <v>422</v>
+        <v>515</v>
       </c>
       <c r="C13" s="0" t="s">
-        <v>423</v>
+        <v>516</v>
       </c>
       <c r="D13" s="1" t="n">
         <v>1</v>
       </c>
       <c r="E13" s="0"/>
       <c r="G13" s="2" t="s">
-        <v>416</v>
+        <v>509</v>
       </c>
       <c r="H13" s="2"/>
       <c r="I13" s="3"/>
       <c r="J13" s="2" t="s">
-        <v>419</v>
+        <v>512</v>
       </c>
       <c r="K13" s="2"/>
       <c r="L13" s="3"/>
       <c r="M13" s="2" t="s">
-        <v>421</v>
+        <v>514</v>
       </c>
       <c r="N13" s="2"/>
       <c r="P13" s="2" t="s">
-        <v>424</v>
+        <v>517</v>
       </c>
       <c r="Q13" s="2"/>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B14" s="0" t="s">
-        <v>425</v>
+        <v>518</v>
       </c>
       <c r="C14" s="0" t="s">
-        <v>426</v>
+        <v>519</v>
       </c>
       <c r="D14" s="1" t="n">
         <v>1</v>
@@ -6262,38 +7044,38 @@
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B15" s="0" t="s">
-        <v>427</v>
+        <v>520</v>
       </c>
       <c r="C15" s="0" t="s">
-        <v>428</v>
+        <v>521</v>
       </c>
       <c r="D15" s="1" t="n">
         <v>1</v>
       </c>
       <c r="E15" s="0"/>
       <c r="G15" s="7" t="s">
-        <v>416</v>
+        <v>509</v>
       </c>
       <c r="H15" s="5" t="n">
         <f aca="false">SUM(H16:H21)</f>
         <v>100</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>419</v>
+        <v>512</v>
       </c>
       <c r="K15" s="5" t="n">
         <f aca="false">SUM(K16:K21)</f>
         <v>100</v>
       </c>
       <c r="M15" s="7" t="s">
-        <v>421</v>
+        <v>514</v>
       </c>
       <c r="N15" s="5" t="n">
         <f aca="false">SUM(N16:N21)</f>
         <v>100</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>424</v>
+        <v>517</v>
       </c>
       <c r="Q15" s="5" t="n">
         <f aca="false">SUM(Q16:Q21)</f>
@@ -6302,35 +7084,35 @@
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B16" s="0" t="s">
-        <v>429</v>
+        <v>522</v>
       </c>
       <c r="C16" s="0" t="s">
-        <v>424</v>
+        <v>517</v>
       </c>
       <c r="D16" s="1" t="n">
         <v>20</v>
       </c>
       <c r="E16" s="0"/>
       <c r="G16" s="0" t="s">
-        <v>404</v>
+        <v>497</v>
       </c>
       <c r="H16" s="1" t="n">
         <v>40</v>
       </c>
       <c r="J16" s="0" t="s">
-        <v>430</v>
+        <v>523</v>
       </c>
       <c r="K16" s="1" t="n">
         <v>35</v>
       </c>
       <c r="M16" s="0" t="s">
-        <v>431</v>
+        <v>524</v>
       </c>
       <c r="N16" s="1" t="n">
         <v>30</v>
       </c>
       <c r="P16" s="0" t="s">
-        <v>403</v>
+        <v>496</v>
       </c>
       <c r="Q16" s="1" t="n">
         <v>15</v>
@@ -6338,35 +7120,35 @@
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B17" s="0" t="s">
-        <v>432</v>
+        <v>525</v>
       </c>
       <c r="C17" s="0" t="s">
-        <v>433</v>
+        <v>526</v>
       </c>
       <c r="D17" s="1" t="n">
         <v>5</v>
       </c>
       <c r="E17" s="0"/>
       <c r="G17" s="0" t="s">
-        <v>408</v>
+        <v>501</v>
       </c>
       <c r="H17" s="1" t="n">
         <v>10</v>
       </c>
       <c r="J17" s="0" t="s">
-        <v>434</v>
+        <v>527</v>
       </c>
       <c r="K17" s="1" t="n">
         <v>35</v>
       </c>
       <c r="M17" s="0" t="s">
-        <v>435</v>
+        <v>528</v>
       </c>
       <c r="N17" s="1" t="n">
         <v>30</v>
       </c>
       <c r="P17" s="0" t="s">
-        <v>435</v>
+        <v>528</v>
       </c>
       <c r="Q17" s="1" t="n">
         <v>15</v>
@@ -6374,35 +7156,35 @@
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B18" s="0" t="s">
-        <v>436</v>
+        <v>529</v>
       </c>
       <c r="C18" s="0" t="s">
-        <v>437</v>
+        <v>530</v>
       </c>
       <c r="D18" s="1" t="n">
         <v>10</v>
       </c>
       <c r="E18" s="0"/>
       <c r="G18" s="0" t="s">
-        <v>411</v>
+        <v>504</v>
       </c>
       <c r="H18" s="1" t="n">
         <v>10</v>
       </c>
       <c r="J18" s="0" t="s">
-        <v>438</v>
+        <v>531</v>
       </c>
       <c r="K18" s="1" t="n">
         <v>30</v>
       </c>
       <c r="M18" s="0" t="s">
-        <v>409</v>
+        <v>502</v>
       </c>
       <c r="N18" s="1" t="n">
         <v>30</v>
       </c>
       <c r="P18" s="0" t="s">
-        <v>439</v>
+        <v>532</v>
       </c>
       <c r="Q18" s="1" t="n">
         <v>40</v>
@@ -6410,29 +7192,29 @@
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B19" s="0" t="s">
-        <v>440</v>
+        <v>533</v>
       </c>
       <c r="C19" s="0" t="s">
-        <v>441</v>
+        <v>534</v>
       </c>
       <c r="D19" s="1" t="n">
         <v>1</v>
       </c>
       <c r="E19" s="0"/>
       <c r="G19" s="0" t="s">
-        <v>409</v>
+        <v>502</v>
       </c>
       <c r="H19" s="1" t="n">
         <v>10</v>
       </c>
       <c r="M19" s="0" t="s">
-        <v>442</v>
+        <v>535</v>
       </c>
       <c r="N19" s="1" t="n">
         <v>10</v>
       </c>
       <c r="P19" s="0" t="s">
-        <v>434</v>
+        <v>527</v>
       </c>
       <c r="Q19" s="1" t="n">
         <v>15</v>
@@ -6440,23 +7222,23 @@
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B20" s="0" t="s">
-        <v>443</v>
+        <v>536</v>
       </c>
       <c r="C20" s="0" t="s">
-        <v>444</v>
+        <v>537</v>
       </c>
       <c r="D20" s="1" t="n">
         <v>5</v>
       </c>
       <c r="E20" s="0"/>
       <c r="G20" s="0" t="s">
-        <v>439</v>
+        <v>532</v>
       </c>
       <c r="H20" s="1" t="n">
         <v>20</v>
       </c>
       <c r="P20" s="0" t="s">
-        <v>430</v>
+        <v>523</v>
       </c>
       <c r="Q20" s="1" t="n">
         <v>15</v>
@@ -6464,17 +7246,17 @@
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B21" s="0" t="s">
-        <v>445</v>
+        <v>538</v>
       </c>
       <c r="C21" s="0" t="s">
-        <v>446</v>
+        <v>539</v>
       </c>
       <c r="D21" s="1" t="n">
         <v>1</v>
       </c>
       <c r="E21" s="0"/>
       <c r="G21" s="0" t="s">
-        <v>417</v>
+        <v>510</v>
       </c>
       <c r="H21" s="1" t="n">
         <v>10</v>
@@ -6482,10 +7264,10 @@
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B22" s="0" t="s">
-        <v>447</v>
+        <v>540</v>
       </c>
       <c r="C22" s="0" t="s">
-        <v>448</v>
+        <v>541</v>
       </c>
       <c r="D22" s="1" t="n">
         <v>20</v>
@@ -6501,28 +7283,28 @@
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="G24" s="2" t="s">
-        <v>433</v>
+        <v>526</v>
       </c>
       <c r="H24" s="2"/>
       <c r="I24" s="3"/>
       <c r="J24" s="2" t="s">
-        <v>437</v>
+        <v>530</v>
       </c>
       <c r="K24" s="2"/>
       <c r="L24" s="3"/>
       <c r="M24" s="2" t="s">
-        <v>444</v>
+        <v>537</v>
       </c>
       <c r="N24" s="2"/>
       <c r="O24" s="3"/>
       <c r="P24" s="2" t="s">
-        <v>448</v>
+        <v>541</v>
       </c>
       <c r="Q24" s="2"/>
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B25" s="8" t="s">
-        <v>449</v>
+        <v>542</v>
       </c>
       <c r="C25" s="8"/>
       <c r="D25" s="8"/>
@@ -6540,35 +7322,35 @@
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B26" s="7" t="s">
-        <v>391</v>
+        <v>484</v>
       </c>
       <c r="C26" s="7" t="s">
-        <v>392</v>
+        <v>485</v>
       </c>
       <c r="D26" s="5"/>
       <c r="G26" s="7" t="s">
-        <v>433</v>
+        <v>526</v>
       </c>
       <c r="H26" s="5" t="n">
         <f aca="false">SUM(H27:H32)</f>
         <v>100</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>437</v>
+        <v>530</v>
       </c>
       <c r="K26" s="5" t="n">
         <f aca="false">SUM(K27:K32)</f>
         <v>100</v>
       </c>
       <c r="M26" s="7" t="s">
-        <v>444</v>
+        <v>537</v>
       </c>
       <c r="N26" s="5" t="n">
         <f aca="false">SUM(N27:N32)</f>
         <v>100</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>448</v>
+        <v>541</v>
       </c>
       <c r="Q26" s="5" t="n">
         <f aca="false">SUM(Q27:Q32)</f>
@@ -6577,32 +7359,32 @@
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B27" s="12" t="s">
-        <v>393</v>
+        <v>486</v>
       </c>
       <c r="C27" s="0" t="s">
-        <v>450</v>
+        <v>543</v>
       </c>
       <c r="D27" s="11"/>
       <c r="G27" s="0" t="s">
-        <v>413</v>
+        <v>506</v>
       </c>
       <c r="H27" s="1" t="n">
         <v>25</v>
       </c>
       <c r="J27" s="0" t="s">
-        <v>431</v>
+        <v>524</v>
       </c>
       <c r="K27" s="1" t="n">
         <v>20</v>
       </c>
       <c r="M27" s="0" t="s">
-        <v>430</v>
+        <v>523</v>
       </c>
       <c r="N27" s="1" t="n">
         <v>35</v>
       </c>
       <c r="P27" s="0" t="s">
-        <v>451</v>
+        <v>544</v>
       </c>
       <c r="Q27" s="1" t="n">
         <v>40</v>
@@ -6610,31 +7392,31 @@
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B28" s="0" t="s">
-        <v>398</v>
+        <v>491</v>
       </c>
       <c r="C28" s="0" t="s">
-        <v>399</v>
+        <v>492</v>
       </c>
       <c r="G28" s="0" t="s">
-        <v>417</v>
+        <v>510</v>
       </c>
       <c r="H28" s="1" t="n">
         <v>50</v>
       </c>
       <c r="J28" s="0" t="s">
-        <v>435</v>
+        <v>528</v>
       </c>
       <c r="K28" s="1" t="n">
         <v>20</v>
       </c>
       <c r="M28" s="0" t="s">
-        <v>434</v>
+        <v>527</v>
       </c>
       <c r="N28" s="1" t="n">
         <v>35</v>
       </c>
       <c r="P28" s="0" t="s">
-        <v>439</v>
+        <v>532</v>
       </c>
       <c r="Q28" s="1" t="n">
         <v>40</v>
@@ -6642,31 +7424,31 @@
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B29" s="0" t="s">
-        <v>401</v>
+        <v>494</v>
       </c>
       <c r="C29" s="0" t="s">
-        <v>452</v>
+        <v>545</v>
       </c>
       <c r="G29" s="0" t="s">
-        <v>414</v>
+        <v>507</v>
       </c>
       <c r="H29" s="1" t="n">
         <v>25</v>
       </c>
       <c r="J29" s="0" t="s">
-        <v>451</v>
+        <v>544</v>
       </c>
       <c r="K29" s="1" t="n">
         <v>40</v>
       </c>
       <c r="M29" s="0" t="s">
-        <v>438</v>
+        <v>531</v>
       </c>
       <c r="N29" s="1" t="n">
         <v>30</v>
       </c>
       <c r="P29" s="0" t="s">
-        <v>407</v>
+        <v>500</v>
       </c>
       <c r="Q29" s="1" t="n">
         <v>20</v>
@@ -6674,13 +7456,13 @@
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B30" s="0" t="s">
-        <v>405</v>
+        <v>498</v>
       </c>
       <c r="C30" s="0" t="s">
-        <v>450</v>
+        <v>543</v>
       </c>
       <c r="J30" s="0" t="s">
-        <v>442</v>
+        <v>535</v>
       </c>
       <c r="K30" s="1" t="n">
         <v>20</v>
@@ -6688,123 +7470,123 @@
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B31" s="0" t="s">
-        <v>410</v>
+        <v>503</v>
       </c>
       <c r="C31" s="0" t="s">
-        <v>453</v>
+        <v>546</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B32" s="0" t="s">
-        <v>412</v>
+        <v>505</v>
       </c>
       <c r="C32" s="0" t="s">
-        <v>454</v>
+        <v>547</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B33" s="0" t="s">
-        <v>415</v>
+        <v>508</v>
       </c>
       <c r="C33" s="0" t="s">
-        <v>455</v>
+        <v>548</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B34" s="12" t="s">
-        <v>418</v>
+        <v>511</v>
       </c>
       <c r="C34" s="0" t="s">
-        <v>456</v>
+        <v>549</v>
       </c>
       <c r="D34" s="11"/>
     </row>
     <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B35" s="0" t="s">
-        <v>420</v>
+        <v>513</v>
       </c>
       <c r="C35" s="0" t="s">
-        <v>457</v>
+        <v>550</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B36" s="0" t="s">
-        <v>422</v>
+        <v>515</v>
       </c>
       <c r="C36" s="0" t="s">
-        <v>450</v>
+        <v>543</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B37" s="0" t="s">
-        <v>425</v>
+        <v>518</v>
       </c>
       <c r="C37" s="0" t="s">
-        <v>450</v>
+        <v>543</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B38" s="0" t="s">
-        <v>427</v>
+        <v>520</v>
       </c>
       <c r="C38" s="0" t="s">
-        <v>450</v>
+        <v>543</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B39" s="0" t="s">
-        <v>429</v>
+        <v>522</v>
       </c>
       <c r="C39" s="0" t="s">
-        <v>458</v>
+        <v>551</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B40" s="0" t="s">
-        <v>432</v>
+        <v>525</v>
       </c>
       <c r="C40" s="0" t="s">
-        <v>459</v>
+        <v>552</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B41" s="0" t="s">
-        <v>436</v>
+        <v>529</v>
       </c>
       <c r="C41" s="0" t="s">
-        <v>460</v>
+        <v>553</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B42" s="0" t="s">
-        <v>440</v>
+        <v>533</v>
       </c>
       <c r="C42" s="0" t="s">
-        <v>450</v>
+        <v>543</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B43" s="0" t="s">
-        <v>443</v>
+        <v>536</v>
       </c>
       <c r="C43" s="0" t="s">
-        <v>461</v>
+        <v>554</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B44" s="0" t="s">
-        <v>445</v>
+        <v>538</v>
       </c>
       <c r="C44" s="0" t="s">
-        <v>450</v>
+        <v>543</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B45" s="0" t="s">
-        <v>447</v>
+        <v>540</v>
       </c>
       <c r="C45" s="0" t="s">
-        <v>462</v>
+        <v>555</v>
       </c>
     </row>
   </sheetData>

--- a/city-npc/Ptolus_City_NPC_Encounter.xlsx
+++ b/city-npc/Ptolus_City_NPC_Encounter.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="START" sheetId="1" state="visible" r:id="rId2"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="846" uniqueCount="556">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="904" uniqueCount="606">
   <si>
     <t xml:space="preserve">MORTAL</t>
   </si>
@@ -1091,7 +1091,7 @@
     <t xml:space="preserve">profession</t>
   </si>
   <si>
-    <t xml:space="preserve">[generator:city-profession-soullink|{}|professsion]</t>
+    <t xml:space="preserve">[generator:city-profession-soullink|{}|profession]</t>
   </si>
   <si>
     <t xml:space="preserve">arcane</t>
@@ -1154,6 +1154,9 @@
     <t xml:space="preserve">Ranger (Primal)</t>
   </si>
   <si>
+    <t xml:space="preserve">Psion</t>
+  </si>
+  <si>
     <t xml:space="preserve">Alchemist</t>
   </si>
   <si>
@@ -1175,6 +1178,9 @@
     <t xml:space="preserve">Sorcerer</t>
   </si>
   <si>
+    <t xml:space="preserve">Psi Warrior</t>
+  </si>
+  <si>
     <t xml:space="preserve">Apothecary</t>
   </si>
   <si>
@@ -1187,6 +1193,9 @@
     <t xml:space="preserve">psi</t>
   </si>
   <si>
+    <t xml:space="preserve">[generator:psi-class-soullink|{}|class]</t>
+  </si>
+  <si>
     <t xml:space="preserve">Paladin (Martial)</t>
   </si>
   <si>
@@ -1211,6 +1220,9 @@
     <t xml:space="preserve">Banker</t>
   </si>
   <si>
+    <t xml:space="preserve">[generator:hero-power-source-28role-229-soullink|{}|hero]</t>
+  </si>
+  <si>
     <t xml:space="preserve">Rogue</t>
   </si>
   <si>
@@ -1226,6 +1238,9 @@
     <t xml:space="preserve">Bounty Hunter</t>
   </si>
   <si>
+    <t xml:space="preserve">[generator:hero-power-source-28role-329-soullink|{}|hero]</t>
+  </si>
+  <si>
     <t xml:space="preserve">Butler</t>
   </si>
   <si>
@@ -1238,6 +1253,9 @@
     <t xml:space="preserve">City Guard</t>
   </si>
   <si>
+    <t xml:space="preserve">[generator:hero-power-source-28role-429-soullink|{}|hero]</t>
+  </si>
+  <si>
     <t xml:space="preserve">City Watch</t>
   </si>
   <si>
@@ -1472,12 +1490,45 @@
     <t xml:space="preserve">DEATH</t>
   </si>
   <si>
+    <t xml:space="preserve">FUTURE</t>
+  </si>
+  <si>
     <t xml:space="preserve">KNOWLEDGE</t>
   </si>
   <si>
     <t xml:space="preserve">Life</t>
   </si>
   <si>
+    <t xml:space="preserve">Light</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Luck</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nature</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Protection</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Radiance</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sleep</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Technology</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tempest</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Trickery</t>
+  </si>
+  <si>
+    <t xml:space="preserve">War</t>
+  </si>
+  <si>
     <t xml:space="preserve">Key</t>
   </si>
   <si>
@@ -1496,171 +1547,276 @@
     <t xml:space="preserve">Death</t>
   </si>
   <si>
+    <t xml:space="preserve">Future</t>
+  </si>
+  <si>
     <t xml:space="preserve">Knowledge</t>
   </si>
   <si>
     <t xml:space="preserve">civilization</t>
   </si>
   <si>
+    <t xml:space="preserve">Asche, God of Cities (N)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Baalhazor, Demon God of Technology (CE)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aldinach, Goddess of the Moons (NG)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lothian</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Placeholder</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ahaar, Lord of the Air (CG)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gaen, Goddess of Light (LG)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Phoeboul, God of Dreams (CN)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Teun, Mother of All Machines (LN)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Charlathan, Divine of Retribution &amp; Reward (CN)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Inurath, Mistress of War (CN)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">death</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Danace, Master of the Thousand Pains (LE)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Niveral, God of Secrets (N)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kharos, God of Magic (N)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Frega, Watcher of Animals (LG)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Juranis, God of the Open Sea (CN)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">future</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ollom, God of the Keg (CN)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Father Claw, the Serpentine Lord (CE)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Watcher of the Skies (N)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kran, Goddess of Faults (NE)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Navashtrom, God of Strength and Harmony (NG)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Harredda, Mistress of Ravens (N)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Iron God (LE)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Destor, God of Cruel Fate (CE)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Thamus (NG)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">grave</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Grave</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gorgoth-Lol, Dark Elves (CE)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Locharit, the Goddess of the Written Word (LG)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Castain (LG)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Blurrah, Goddess of Comfort in Sadness (CG)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tevra, the Clockwork Goddess (LN)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Fifty-Three Gods of Chance (CN)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Torskal (LG)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">knowledge</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Heiran, the Sisters of Death (LE)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mocharum, God of Dwarves (LN)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Celestan, Lord of the Silver Moon (NG)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Melann, Goddess of Farming (NG)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Lady (N)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Unnah, Mistress of the Blades (LN)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">life</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Maleskari, God of Shades (NE)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Myliesha, Mistress of the Wind’s Path (CG)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Engelan, God of the Present (N)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mocharum, God of Dwarves (LG)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mirresh, Goddess of Laughter (NG)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">light</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nareis, the Sisters of Death (CE)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ni-Gorth (N)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hannan, Lord of the Sun (NG)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Old Man (LN)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">luck</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ravvan the Beast God (CE)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Herkan, Goddess of the Stones (CG)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jode, Guardian of Song (CG)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Raddashin’s Eye, God of Rain (CG)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">nature</t>
+  </si>
+  <si>
+    <t xml:space="preserve">night</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Night</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sylvanae, the Woodland Shaper (N)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">order</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Order</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tardeshou, Goddess of Truth (LG)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rajek the Wanderer (N)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Taeshandra, Elvish God of Travel (NG)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">peace</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Peace</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Unnom, Lord of Caverns (N)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">protection</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ynchabolos, God of Numbers (LN)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">radiance</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sleep</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Yurabbos, Goddess of Supreme Devotion (LN)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">technology</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tempest</t>
+  </si>
+  <si>
+    <t xml:space="preserve">travel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Travel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">trickery</t>
+  </si>
+  <si>
+    <t xml:space="preserve">twilight</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Twilight</t>
+  </si>
+  <si>
+    <t xml:space="preserve">war</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Deity (Router)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No piety</t>
+  </si>
+  <si>
     <t xml:space="preserve">Asche, God of Cities</t>
   </si>
   <si>
-    <t xml:space="preserve">Heiran, Sister of Death</t>
-  </si>
-  <si>
-    <t xml:space="preserve">death</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nareis, Sister of Death</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Engelan, God of the Present</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gaen, Goddess of Light</t>
-  </si>
-  <si>
-    <t xml:space="preserve">grave</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Grave</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Unnah, Mistress of the Blades</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kharos, God of Magic</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Melann, Goddess of Farming</t>
-  </si>
-  <si>
-    <t xml:space="preserve">knowledge</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Locharit, the Goddess of the Written Word</t>
-  </si>
-  <si>
-    <t xml:space="preserve">life</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mocharum, God of Dwarves</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tevra, the Clockwork Goddess</t>
-  </si>
-  <si>
-    <t xml:space="preserve">light</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Light</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Teun, Mother of All Machines</t>
-  </si>
-  <si>
-    <t xml:space="preserve">luck</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Luck</t>
-  </si>
-  <si>
-    <t xml:space="preserve">nature</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nature</t>
-  </si>
-  <si>
-    <t xml:space="preserve">night</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Night</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Protection</t>
-  </si>
-  <si>
-    <t xml:space="preserve">order</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Order</t>
-  </si>
-  <si>
-    <t xml:space="preserve">peace</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Peace</t>
-  </si>
-  <si>
-    <t xml:space="preserve">protection</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The Lady</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ahaar, Lord of the Air</t>
-  </si>
-  <si>
-    <t xml:space="preserve">technology</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Technology</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rajek the Wanderer</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Harredda, Mistress of Ravens</t>
-  </si>
-  <si>
-    <t xml:space="preserve">tempest</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tempest</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The Fifty-Three Gods of Chance</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Navashtrom, God of Strength and Harmony</t>
-  </si>
-  <si>
-    <t xml:space="preserve">travel</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Travel</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Myliesha, Mistress of the Wind’s Path</t>
-  </si>
-  <si>
-    <t xml:space="preserve">trickery</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Trickery</t>
-  </si>
-  <si>
-    <t xml:space="preserve">twilight</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Twilight</t>
-  </si>
-  <si>
-    <t xml:space="preserve">war</t>
-  </si>
-  <si>
-    <t xml:space="preserve">War</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Deity (Router)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Placeholder</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Inurath, Mistress of War</t>
-  </si>
-  <si>
     <t xml:space="preserve">[generator:deity-28death29-soullink|{}|deity]</t>
   </si>
   <si>
@@ -1673,13 +1829,7 @@
     <t xml:space="preserve">[generator:deity-28light29-soullink|{}|deity]</t>
   </si>
   <si>
-    <t xml:space="preserve">[generator:deity-28luck29-soullink|{}|deity]</t>
-  </si>
-  <si>
     <t xml:space="preserve">[generator:deity-28nature29-soullink|{}|deity]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[generator:deity-28protection29-soullink|{}|deity]</t>
   </si>
   <si>
     <t xml:space="preserve">[generator:deity-28technology29-soullink|{}|deity]</t>
@@ -1698,11 +1848,12 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="General"/>
+    <numFmt numFmtId="166" formatCode="0%"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -1742,8 +1893,14 @@
       <family val="2"/>
       <charset val="1"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="0"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1766,6 +1923,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFFFC000"/>
         <bgColor rgb="FFFF9900"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor rgb="FFBFBFBF"/>
       </patternFill>
     </fill>
   </fills>
@@ -1801,9 +1964,11 @@
     <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="18">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1824,6 +1989,10 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1834,10 +2003,6 @@
     </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
@@ -1856,8 +2021,24 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="19" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -1913,7 +2094,7 @@
       <rgbColor rgb="FFFFCC99"/>
       <rgbColor rgb="FF3366FF"/>
       <rgbColor rgb="FF33CCCC"/>
-      <rgbColor rgb="FF99CC00"/>
+      <rgbColor rgb="FF92D050"/>
       <rgbColor rgb="FFFFC000"/>
       <rgbColor rgb="FFFF9900"/>
       <rgbColor rgb="FFFF6600"/>
@@ -1932,6 +2113,140 @@
 </styleSheet>
 </file>
 
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <xdr:twoCellAnchor editAs="twoCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>790200</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>33840</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>2970000</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>135360</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="0" name="CustomShape 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1033200" y="9322560"/>
+          <a:ext cx="3159720" cy="802440"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9360">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:round/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0"/>
+        <a:fillRef idx="0"/>
+        <a:effectRef idx="0"/>
+        <a:fontRef idx="minor"/>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr lIns="90000" rIns="90000" tIns="45000" bIns="45000">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:p>
+          <a:pPr>
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:r>
+            <a:rPr b="0" lang="en-US" sz="1100" spc="-1" strike="noStrike">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+            </a:rPr>
+            <a:t>Can your create a domain placeholder like</a:t>
+          </a:r>
+          <a:br/>
+          <a:r>
+            <a:rPr b="0" lang="en-US" sz="1100" spc="-1" strike="noStrike">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+            </a:rPr>
+            <a:t>[generator:deity-28non29-soulliink |{}|deity]</a:t>
+          </a:r>
+          <a:endParaRPr b="0" lang="en-US" sz="1100" spc="-1" strike="noStrike">
+            <a:latin typeface="Times New Roman"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr>
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:r>
+            <a:rPr b="0" lang="en-US" sz="1100" spc="-1" strike="noStrike">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+            </a:rPr>
+            <a:t>With text that says something like ...</a:t>
+          </a:r>
+          <a:endParaRPr b="0" lang="en-US" sz="1100" spc="-1" strike="noStrike">
+            <a:latin typeface="Times New Roman"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr>
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:r>
+            <a:rPr b="0" lang="en-US" sz="1100" spc="-1" strike="noStrike">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+            </a:rPr>
+            <a:t>Little or no piety or religious inclination.</a:t>
+          </a:r>
+          <a:endParaRPr b="0" lang="en-US" sz="1100" spc="-1" strike="noStrike">
+            <a:latin typeface="Times New Roman"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr>
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:endParaRPr b="0" lang="en-US" sz="1100" spc="-1" strike="noStrike">
+            <a:latin typeface="Times New Roman"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
@@ -1943,7 +2258,7 @@
       <selection pane="topLeft" activeCell="N7" activeCellId="0" sqref="N7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6953125" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.70703125" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="25.56"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="8.6"/>
@@ -1955,7 +2270,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="8.6"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="1.61"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="18.34"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="37.1"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="37.11"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="2.49"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="0" width="28.48"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="0" width="9.72"/>
@@ -1978,18 +2293,18 @@
       </c>
       <c r="H2" s="2"/>
       <c r="I2" s="0"/>
-      <c r="J2" s="2" t="s">
+      <c r="J2" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="K2" s="2"/>
-      <c r="M2" s="2" t="s">
+      <c r="K2" s="5"/>
+      <c r="M2" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="N2" s="2"/>
-      <c r="P2" s="2" t="s">
+      <c r="N2" s="5"/>
+      <c r="P2" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="Q2" s="2"/>
+      <c r="Q2" s="5"/>
       <c r="R2" s="0"/>
       <c r="S2" s="0"/>
       <c r="AMJ2" s="0"/>
@@ -2037,24 +2352,24 @@
       <c r="AMJ3" s="0"/>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B4" s="5" t="n">
+      <c r="B4" s="6" t="n">
         <f aca="false">SUM(B5:B7)</f>
         <v>100</v>
       </c>
-      <c r="E4" s="5" t="n">
+      <c r="E4" s="6" t="n">
         <f aca="false">SUM(E5:E16)</f>
         <v>135</v>
       </c>
-      <c r="H4" s="5" t="n">
+      <c r="H4" s="6" t="n">
         <f aca="false">SUM(H5:H8)</f>
         <v>100</v>
       </c>
       <c r="K4" s="0"/>
-      <c r="N4" s="5" t="n">
+      <c r="N4" s="6" t="n">
         <f aca="false">SUM(N5:N7)</f>
         <v>100</v>
       </c>
-      <c r="Q4" s="5" t="n">
+      <c r="Q4" s="6" t="n">
         <f aca="false">SUM(Q5:Q7)</f>
         <v>100</v>
       </c>
@@ -2098,7 +2413,7 @@
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="6" t="s">
+      <c r="A6" s="7" t="s">
         <v>16</v>
       </c>
       <c r="B6" s="1" t="n">
@@ -2136,7 +2451,7 @@
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="6" t="s">
+      <c r="A7" s="7" t="s">
         <v>23</v>
       </c>
       <c r="B7" s="1" t="n">
@@ -2234,7 +2549,7 @@
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D15" s="6" t="s">
+      <c r="D15" s="7" t="s">
         <v>37</v>
       </c>
       <c r="E15" s="1" t="n">
@@ -2293,11 +2608,11 @@
   </sheetPr>
   <dimension ref="B1:Q121"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A7" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="Q11" activeCellId="0" sqref="Q11"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="P4" activeCellId="0" sqref="P4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6953125" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.70703125" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="2.49"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="13.19"/>
@@ -2319,35 +2634,35 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J1" s="7"/>
-      <c r="K1" s="5"/>
+      <c r="J1" s="8"/>
+      <c r="K1" s="6"/>
     </row>
     <row r="2" s="3" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="C2" s="8"/>
-      <c r="D2" s="8"/>
-      <c r="E2" s="5"/>
-      <c r="F2" s="8" t="s">
+      <c r="C2" s="5"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="G2" s="8" t="s">
+      <c r="G2" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="H2" s="8"/>
-      <c r="J2" s="8" t="s">
+      <c r="H2" s="5"/>
+      <c r="J2" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="K2" s="8"/>
+      <c r="K2" s="5"/>
       <c r="M2" s="2" t="s">
         <v>43</v>
       </c>
       <c r="N2" s="2"/>
-      <c r="P2" s="2" t="s">
+      <c r="P2" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="Q2" s="2"/>
+      <c r="Q2" s="5"/>
     </row>
     <row r="3" s="3" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3" s="3" t="s">
@@ -2375,27 +2690,27 @@
       <c r="C4" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="D4" s="5" t="n">
+      <c r="D4" s="6" t="n">
         <f aca="false">SUM(D5:D7)</f>
         <v>100</v>
       </c>
-      <c r="E4" s="5"/>
+      <c r="E4" s="6"/>
       <c r="G4" s="3"/>
-      <c r="H4" s="5" t="n">
+      <c r="H4" s="6" t="n">
         <f aca="false">SUM(H5:H8)</f>
         <v>100</v>
       </c>
       <c r="J4" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="K4" s="5" t="n">
+      <c r="K4" s="6" t="n">
         <f aca="false">SUM(K5:K7)</f>
         <v>100</v>
       </c>
-      <c r="M4" s="7" t="s">
+      <c r="M4" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="N4" s="5" t="n">
+      <c r="N4" s="6" t="n">
         <f aca="false">SUM(N5:N11)</f>
         <v>100</v>
       </c>
@@ -2561,15 +2876,15 @@
       <c r="C10" s="9" t="s">
         <v>77</v>
       </c>
-      <c r="D10" s="5" t="n">
+      <c r="D10" s="6" t="n">
         <f aca="false">SUM(D11:D13)</f>
         <v>100</v>
       </c>
-      <c r="E10" s="5"/>
-      <c r="J10" s="7" t="s">
+      <c r="E10" s="6"/>
+      <c r="J10" s="8" t="s">
         <v>78</v>
       </c>
-      <c r="K10" s="5" t="n">
+      <c r="K10" s="6" t="n">
         <f aca="false">SUM(K11:K26)</f>
         <v>100</v>
       </c>
@@ -2596,11 +2911,11 @@
       <c r="D11" s="1" t="n">
         <v>40</v>
       </c>
-      <c r="F11" s="8" t="s">
+      <c r="F11" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="G11" s="8"/>
-      <c r="H11" s="8"/>
+      <c r="G11" s="5"/>
+      <c r="H11" s="5"/>
       <c r="J11" s="0" t="s">
         <v>82</v>
       </c>
@@ -2655,10 +2970,10 @@
       <c r="D13" s="1" t="n">
         <v>40</v>
       </c>
-      <c r="G13" s="7" t="s">
+      <c r="G13" s="8" t="s">
         <v>88</v>
       </c>
-      <c r="H13" s="5" t="n">
+      <c r="H13" s="6" t="n">
         <f aca="false">SUM(H14:H27)</f>
         <v>105</v>
       </c>
@@ -2702,11 +3017,11 @@
       <c r="C15" s="9" t="s">
         <v>95</v>
       </c>
-      <c r="D15" s="5" t="n">
+      <c r="D15" s="6" t="n">
         <f aca="false">SUM(D16:D18)</f>
         <v>100</v>
       </c>
-      <c r="E15" s="5"/>
+      <c r="E15" s="6"/>
       <c r="F15" s="0" t="s">
         <v>80</v>
       </c>
@@ -2742,7 +3057,7 @@
       <c r="F16" s="0" t="s">
         <v>84</v>
       </c>
-      <c r="G16" s="6" t="s">
+      <c r="G16" s="7" t="s">
         <v>99</v>
       </c>
       <c r="H16" s="1" t="n">
@@ -3027,10 +3342,10 @@
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="G29" s="12"/>
-      <c r="J29" s="7" t="s">
+      <c r="J29" s="8" t="s">
         <v>148</v>
       </c>
-      <c r="K29" s="5" t="n">
+      <c r="K29" s="6" t="n">
         <f aca="false">SUM(K30:K33)</f>
         <v>100</v>
       </c>
@@ -3088,11 +3403,11 @@
       </c>
     </row>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F33" s="8" t="s">
+      <c r="F33" s="5" t="s">
         <v>156</v>
       </c>
-      <c r="G33" s="8"/>
-      <c r="H33" s="8"/>
+      <c r="G33" s="5"/>
+      <c r="H33" s="5"/>
       <c r="J33" s="12" t="s">
         <v>157</v>
       </c>
@@ -3119,10 +3434,10 @@
       </c>
     </row>
     <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G35" s="7" t="s">
+      <c r="G35" s="8" t="s">
         <v>88</v>
       </c>
-      <c r="H35" s="5" t="n">
+      <c r="H35" s="6" t="n">
         <f aca="false">SUM(H36:H58)</f>
         <v>200</v>
       </c>
@@ -3140,10 +3455,10 @@
       <c r="H36" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="J36" s="7" t="s">
+      <c r="J36" s="8" t="s">
         <v>162</v>
       </c>
-      <c r="K36" s="5" t="n">
+      <c r="K36" s="6" t="n">
         <f aca="false">SUM(K37:K42)</f>
         <v>100</v>
       </c>
@@ -3315,7 +3630,7 @@
       </c>
     </row>
     <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G45" s="6" t="s">
+      <c r="G45" s="7" t="s">
         <v>187</v>
       </c>
       <c r="H45" s="1" t="n">
@@ -3370,10 +3685,10 @@
       <c r="H48" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="J48" s="7" t="s">
+      <c r="J48" s="8" t="s">
         <v>195</v>
       </c>
-      <c r="K48" s="5" t="n">
+      <c r="K48" s="6" t="n">
         <f aca="false">SUM(K49:K56)</f>
         <v>100</v>
       </c>
@@ -3385,7 +3700,7 @@
       </c>
     </row>
     <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G49" s="6" t="s">
+      <c r="G49" s="7" t="s">
         <v>196</v>
       </c>
       <c r="H49" s="1" t="n">
@@ -3565,7 +3880,7 @@
       </c>
     </row>
     <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G58" s="6" t="s">
+      <c r="G58" s="7" t="s">
         <v>223</v>
       </c>
       <c r="H58" s="1" t="n">
@@ -3615,10 +3930,10 @@
       </c>
     </row>
     <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J62" s="7" t="s">
+      <c r="J62" s="8" t="s">
         <v>229</v>
       </c>
-      <c r="K62" s="5" t="n">
+      <c r="K62" s="6" t="n">
         <f aca="false">SUM(K63:K65)</f>
         <v>100</v>
       </c>
@@ -3688,10 +4003,10 @@
       </c>
     </row>
     <row r="68" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J68" s="7" t="s">
+      <c r="J68" s="8" t="s">
         <v>239</v>
       </c>
-      <c r="K68" s="5" t="n">
+      <c r="K68" s="6" t="n">
         <f aca="false">SUM(K69:K70)</f>
         <v>100</v>
       </c>
@@ -3775,10 +4090,10 @@
       </c>
     </row>
     <row r="75" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J75" s="7" t="s">
+      <c r="J75" s="8" t="s">
         <v>249</v>
       </c>
-      <c r="K75" s="5" t="n">
+      <c r="K75" s="6" t="n">
         <f aca="false">SUM(K76:K81)</f>
         <v>100</v>
       </c>
@@ -3890,10 +4205,10 @@
       </c>
     </row>
     <row r="84" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J84" s="7" t="s">
+      <c r="J84" s="8" t="s">
         <v>265</v>
       </c>
-      <c r="K84" s="5" t="n">
+      <c r="K84" s="6" t="n">
         <f aca="false">SUM(K85:K89)</f>
         <v>100</v>
       </c>
@@ -4165,13 +4480,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:W133"/>
+  <dimension ref="A1:W125"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="I23" activeCellId="0" sqref="I23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1" s="0" t="s">
@@ -4268,8 +4583,8 @@
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="7"/>
-      <c r="B7" s="5"/>
+      <c r="A7" s="8"/>
+      <c r="B7" s="6"/>
       <c r="F7" s="0" t="s">
         <v>300</v>
       </c>
@@ -4296,8 +4611,8 @@
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="7"/>
-      <c r="B11" s="5"/>
+      <c r="A11" s="8"/>
+      <c r="B11" s="6"/>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B12" s="1"/>
@@ -4353,7 +4668,7 @@
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="7"/>
+      <c r="A16" s="8"/>
       <c r="B16" s="0" t="s">
         <v>308</v>
       </c>
@@ -4419,8 +4734,8 @@
       <c r="B20" s="1"/>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="7"/>
-      <c r="B21" s="5"/>
+      <c r="A21" s="8"/>
+      <c r="B21" s="6"/>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B22" s="1"/>
@@ -4446,7 +4761,7 @@
       </c>
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="7"/>
+      <c r="A25" s="8"/>
       <c r="B25" s="0" t="s">
         <v>315</v>
       </c>
@@ -4516,8 +4831,8 @@
       </c>
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="7"/>
-      <c r="B29" s="5"/>
+      <c r="A29" s="8"/>
+      <c r="B29" s="6"/>
       <c r="F29" s="0" t="s">
         <v>323</v>
       </c>
@@ -4587,8 +4902,8 @@
       </c>
     </row>
     <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="7"/>
-      <c r="B36" s="5"/>
+      <c r="A36" s="8"/>
+      <c r="B36" s="6"/>
     </row>
     <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B37" s="1"/>
@@ -4600,8 +4915,8 @@
       <c r="B39" s="1"/>
     </row>
     <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="7"/>
-      <c r="B40" s="5"/>
+      <c r="A40" s="8"/>
+      <c r="B40" s="6"/>
     </row>
     <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B41" s="1"/>
@@ -4660,8 +4975,8 @@
       </c>
     </row>
     <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="7"/>
-      <c r="B46" s="5"/>
+      <c r="A46" s="8"/>
+      <c r="B46" s="6"/>
     </row>
     <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B47" s="1"/>
@@ -4673,8 +4988,8 @@
       <c r="B49" s="1"/>
     </row>
     <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="7"/>
-      <c r="B50" s="5"/>
+      <c r="A50" s="8"/>
+      <c r="B50" s="6"/>
     </row>
     <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B51" s="1"/>
@@ -4686,7 +5001,7 @@
       <c r="B53" s="1"/>
     </row>
     <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="7"/>
+      <c r="A54" s="8"/>
       <c r="B54" s="2" t="s">
         <v>333</v>
       </c>
@@ -4740,8 +5055,8 @@
       <c r="B57" s="1"/>
     </row>
     <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A58" s="7"/>
-      <c r="B58" s="5"/>
+      <c r="A58" s="8"/>
+      <c r="B58" s="6"/>
     </row>
     <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B59" s="1"/>
@@ -4765,8 +5080,8 @@
       <c r="B64" s="3"/>
     </row>
     <row r="65" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A65" s="7"/>
-      <c r="B65" s="5"/>
+      <c r="A65" s="8"/>
+      <c r="B65" s="6"/>
     </row>
     <row r="66" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B66" s="1"/>
@@ -4787,8 +5102,8 @@
       <c r="B71" s="1"/>
     </row>
     <row r="72" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A72" s="7"/>
-      <c r="B72" s="5"/>
+      <c r="A72" s="8"/>
+      <c r="B72" s="6"/>
     </row>
     <row r="73" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B73" s="1"/>
@@ -4809,8 +5124,8 @@
       <c r="B78" s="1"/>
     </row>
     <row r="79" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A79" s="7"/>
-      <c r="B79" s="5"/>
+      <c r="A79" s="8"/>
+      <c r="B79" s="6"/>
     </row>
     <row r="80" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B80" s="1"/>
@@ -4831,8 +5146,8 @@
       <c r="B85" s="1"/>
     </row>
     <row r="86" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A86" s="7"/>
-      <c r="B86" s="5"/>
+      <c r="A86" s="8"/>
+      <c r="B86" s="6"/>
     </row>
     <row r="87" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B87" s="1"/>
@@ -4844,8 +5159,8 @@
       <c r="B89" s="1"/>
     </row>
     <row r="90" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A90" s="7"/>
-      <c r="B90" s="5"/>
+      <c r="A90" s="8"/>
+      <c r="B90" s="6"/>
     </row>
     <row r="91" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B91" s="1"/>
@@ -4857,8 +5172,8 @@
       <c r="B93" s="1"/>
     </row>
     <row r="94" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A94" s="7"/>
-      <c r="B94" s="5"/>
+      <c r="A94" s="8"/>
+      <c r="B94" s="6"/>
     </row>
     <row r="95" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B95" s="1"/>
@@ -4877,8 +5192,8 @@
       <c r="B100" s="3"/>
     </row>
     <row r="101" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A101" s="7"/>
-      <c r="B101" s="5"/>
+      <c r="A101" s="8"/>
+      <c r="B101" s="6"/>
     </row>
     <row r="102" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B102" s="1"/>
@@ -4886,7 +5201,7 @@
     </row>
     <row r="103" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B103" s="1"/>
-      <c r="W103" s="7"/>
+      <c r="W103" s="8"/>
     </row>
     <row r="104" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B104" s="1"/>
@@ -4895,71 +5210,71 @@
       <c r="B105" s="1"/>
     </row>
     <row r="106" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A106" s="7"/>
-      <c r="B106" s="5"/>
+      <c r="A106" s="8"/>
+      <c r="B106" s="6"/>
     </row>
     <row r="107" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B107" s="1"/>
     </row>
     <row r="108" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B108" s="1"/>
-      <c r="W108" s="7"/>
+      <c r="W108" s="8"/>
     </row>
     <row r="109" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B109" s="1"/>
     </row>
     <row r="110" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A110" s="7"/>
-      <c r="B110" s="5"/>
+      <c r="A110" s="8"/>
+      <c r="B110" s="6"/>
     </row>
     <row r="111" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B111" s="1"/>
     </row>
     <row r="112" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B112" s="1"/>
-      <c r="W112" s="7"/>
+      <c r="W112" s="8"/>
     </row>
     <row r="113" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B113" s="1"/>
     </row>
     <row r="114" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A114" s="7"/>
-      <c r="B114" s="5"/>
+      <c r="A114" s="8"/>
+      <c r="B114" s="6"/>
     </row>
     <row r="115" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B115" s="1"/>
     </row>
     <row r="116" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B116" s="1"/>
-      <c r="W116" s="7"/>
+      <c r="W116" s="8"/>
     </row>
     <row r="117" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B117" s="1"/>
     </row>
     <row r="118" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A118" s="7"/>
-      <c r="B118" s="5"/>
+      <c r="A118" s="8"/>
+      <c r="B118" s="6"/>
     </row>
     <row r="119" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B119" s="1"/>
     </row>
     <row r="120" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B120" s="1"/>
-      <c r="W120" s="7"/>
+      <c r="W120" s="8"/>
     </row>
     <row r="121" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B121" s="1"/>
     </row>
     <row r="122" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A122" s="7"/>
-      <c r="B122" s="5"/>
+      <c r="A122" s="8"/>
+      <c r="B122" s="6"/>
     </row>
     <row r="123" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B123" s="1"/>
     </row>
     <row r="124" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B124" s="1"/>
-      <c r="W124" s="7"/>
+      <c r="W124" s="8"/>
     </row>
     <row r="125" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="126" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -4988,14 +5303,14 @@
   </sheetPr>
   <dimension ref="A2:AMJ118"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="K30" activeCellId="0" sqref="K30"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="K25" activeCellId="0" sqref="K25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6953125" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.70703125" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="19.45"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="31.27"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="31.28"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="8.6"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="1.61"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="25.56"/>
@@ -5007,7 +5322,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="53.49"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="1" width="15"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="1" width="10.97"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="0" width="11.65"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="0" width="11.64"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="0" width="39.04"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="1" width="11.81"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="0" width="1.39"/>
@@ -5017,12 +5332,12 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="21" style="0" width="25.14"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="22" min="22" style="0" width="12.1"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="23" style="0" width="2.08"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="24" min="24" style="0" width="21.55"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="24" min="24" style="0" width="21.56"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="25" min="25" style="0" width="11.38"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="26" style="0" width="2.08"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="27" min="27" style="0" width="21.55"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="27" min="27" style="0" width="21.56"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="28" min="28" style="0" width="13.06"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="29" min="29" style="0" width="1.93"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="29" min="29" style="0" width="1.92"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="30" min="30" style="0" width="20.42"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="32" min="32" style="0" width="2.36"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="33" min="33" style="0" width="25.01"/>
@@ -5030,55 +5345,55 @@
   </cols>
   <sheetData>
     <row r="2" s="3" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="8" t="s">
+      <c r="A2" s="5" t="s">
         <v>337</v>
       </c>
-      <c r="B2" s="8"/>
-      <c r="C2" s="8"/>
+      <c r="B2" s="5"/>
+      <c r="C2" s="5"/>
       <c r="E2" s="2" t="s">
         <v>338</v>
       </c>
       <c r="F2" s="2"/>
-      <c r="H2" s="8" t="s">
+      <c r="H2" s="5" t="s">
         <v>339</v>
       </c>
-      <c r="I2" s="8"/>
-      <c r="J2" s="8" t="s">
+      <c r="I2" s="5"/>
+      <c r="J2" s="5" t="s">
         <v>340</v>
       </c>
-      <c r="K2" s="8"/>
-      <c r="L2" s="8"/>
+      <c r="K2" s="5"/>
+      <c r="L2" s="5"/>
       <c r="M2" s="2"/>
-      <c r="N2" s="8" t="s">
+      <c r="N2" s="5" t="s">
         <v>341</v>
       </c>
-      <c r="O2" s="8"/>
-      <c r="P2" s="8"/>
+      <c r="O2" s="5"/>
+      <c r="P2" s="5"/>
       <c r="R2" s="2" t="s">
         <v>342</v>
       </c>
       <c r="S2" s="2"/>
-      <c r="U2" s="8" t="s">
+      <c r="U2" s="5" t="s">
         <v>343</v>
       </c>
-      <c r="V2" s="8"/>
-      <c r="X2" s="8" t="s">
+      <c r="V2" s="5"/>
+      <c r="X2" s="5" t="s">
         <v>344</v>
       </c>
-      <c r="Y2" s="8"/>
+      <c r="Y2" s="5"/>
       <c r="Z2" s="0"/>
-      <c r="AA2" s="8" t="s">
+      <c r="AA2" s="5" t="s">
         <v>345</v>
       </c>
-      <c r="AB2" s="8"/>
-      <c r="AD2" s="8" t="s">
+      <c r="AB2" s="5"/>
+      <c r="AD2" s="5" t="s">
         <v>346</v>
       </c>
-      <c r="AE2" s="8"/>
-      <c r="AG2" s="8" t="s">
+      <c r="AE2" s="5"/>
+      <c r="AG2" s="5" t="s">
         <v>347</v>
       </c>
-      <c r="AH2" s="8"/>
+      <c r="AH2" s="5"/>
       <c r="AMH2" s="0"/>
       <c r="AMI2" s="0"/>
       <c r="AMJ2" s="0"/>
@@ -5160,56 +5475,56 @@
       <c r="AMJ3" s="0"/>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B4" s="7"/>
-      <c r="C4" s="5" t="n">
+      <c r="B4" s="8"/>
+      <c r="C4" s="6" t="n">
         <f aca="false">SUM(C5:C8)</f>
         <v>100</v>
       </c>
       <c r="E4" s="3"/>
-      <c r="F4" s="5" t="n">
+      <c r="F4" s="6" t="n">
         <f aca="false">SUM(F5:F8)</f>
         <v>100</v>
       </c>
       <c r="H4" s="3"/>
-      <c r="I4" s="5" t="n">
+      <c r="I4" s="6" t="n">
         <f aca="false">SUM(I5:I6)</f>
         <v>100</v>
       </c>
       <c r="K4" s="3"/>
-      <c r="L4" s="5" t="n">
+      <c r="L4" s="6" t="n">
         <f aca="false">SUM(L5:L6)</f>
         <v>100</v>
       </c>
-      <c r="M4" s="5"/>
+      <c r="M4" s="6"/>
       <c r="O4" s="3"/>
-      <c r="P4" s="5" t="n">
+      <c r="P4" s="13" t="n">
         <f aca="false">SUM(P5:P9)</f>
-        <v>50</v>
-      </c>
-      <c r="S4" s="13" t="n">
+        <v>100</v>
+      </c>
+      <c r="S4" s="14" t="n">
         <f aca="false">SUM(S5:S11)</f>
         <v>100</v>
       </c>
-      <c r="V4" s="13" t="n">
+      <c r="V4" s="14" t="n">
         <f aca="false">SUM(V5:V11)</f>
         <v>70</v>
       </c>
-      <c r="Y4" s="13" t="n">
+      <c r="Y4" s="14" t="n">
         <f aca="false">SUM(Y5:Y11)</f>
         <v>100</v>
       </c>
-      <c r="AB4" s="13" t="n">
+      <c r="AB4" s="14" t="n">
         <f aca="false">SUM(AB5:AB11)</f>
         <v>20</v>
       </c>
-      <c r="AE4" s="13" t="n">
+      <c r="AE4" s="14" t="n">
         <f aca="false">SUM(AE5:AE11)</f>
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="AG4" s="3" t="s">
         <v>349</v>
       </c>
-      <c r="AH4" s="5" t="n">
+      <c r="AH4" s="6" t="n">
         <f aca="false">SUM(AH5:AH95)</f>
         <v>910</v>
       </c>
@@ -5258,7 +5573,7 @@
       <c r="R5" s="0" t="s">
         <v>358</v>
       </c>
-      <c r="S5" s="13" t="n">
+      <c r="S5" s="14" t="n">
         <v>10</v>
       </c>
       <c r="U5" s="0" t="s">
@@ -5270,7 +5585,7 @@
       <c r="X5" s="0" t="s">
         <v>360</v>
       </c>
-      <c r="Y5" s="13" t="n">
+      <c r="Y5" s="14" t="n">
         <v>10</v>
       </c>
       <c r="AA5" s="0" t="s">
@@ -5283,7 +5598,7 @@
         <v>362</v>
       </c>
       <c r="AE5" s="11" t="n">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="AG5" s="0" t="s">
         <v>363</v>
@@ -5357,9 +5672,14 @@
       <c r="AB6" s="11" t="n">
         <v>10</v>
       </c>
-      <c r="AE6" s="11"/>
+      <c r="AD6" s="0" t="s">
+        <v>376</v>
+      </c>
+      <c r="AE6" s="11" t="n">
+        <v>20</v>
+      </c>
       <c r="AG6" s="0" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="AH6" s="1" t="n">
         <v>10</v>
@@ -5367,10 +5687,10 @@
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="C7" s="1" t="n">
         <v>5</v>
@@ -5380,31 +5700,36 @@
       <c r="L7" s="11"/>
       <c r="M7" s="11"/>
       <c r="N7" s="0" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="O7" s="0" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="P7" s="1" t="n">
         <v>10</v>
       </c>
       <c r="R7" s="0" t="s">
-        <v>381</v>
-      </c>
-      <c r="S7" s="13" t="n">
+        <v>382</v>
+      </c>
+      <c r="S7" s="14" t="n">
         <v>10</v>
       </c>
       <c r="U7" s="0" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="V7" s="11" t="n">
         <v>20</v>
       </c>
-      <c r="Y7" s="13"/>
-      <c r="AB7" s="13"/>
-      <c r="AE7" s="13"/>
+      <c r="Y7" s="14"/>
+      <c r="AB7" s="14"/>
+      <c r="AD7" s="0" t="s">
+        <v>384</v>
+      </c>
+      <c r="AE7" s="1" t="n">
+        <v>20</v>
+      </c>
       <c r="AG7" s="0" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="AH7" s="1" t="n">
         <v>10</v>
@@ -5412,51 +5737,51 @@
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="C8" s="1" t="n">
         <v>5</v>
       </c>
       <c r="F8" s="11"/>
       <c r="H8" s="3"/>
-      <c r="I8" s="5" t="n">
+      <c r="I8" s="6" t="n">
         <f aca="false">SUM(I9:I10)</f>
         <v>100</v>
       </c>
-      <c r="L8" s="5" t="n">
+      <c r="L8" s="6" t="n">
         <f aca="false">SUM(L9:L10)</f>
         <v>100</v>
       </c>
       <c r="M8" s="11"/>
       <c r="N8" s="0" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="O8" s="0" t="s">
-        <v>362</v>
+        <v>389</v>
       </c>
       <c r="P8" s="11" t="n">
         <v>10</v>
       </c>
       <c r="R8" s="0" t="s">
-        <v>387</v>
-      </c>
-      <c r="S8" s="13" t="n">
+        <v>390</v>
+      </c>
+      <c r="S8" s="14" t="n">
         <v>20</v>
       </c>
       <c r="U8" s="0" t="s">
-        <v>388</v>
+        <v>391</v>
       </c>
       <c r="V8" s="11" t="n">
         <v>10</v>
       </c>
-      <c r="Y8" s="13"/>
-      <c r="AB8" s="13"/>
-      <c r="AE8" s="13"/>
+      <c r="Y8" s="14"/>
+      <c r="AB8" s="14"/>
+      <c r="AE8" s="14"/>
       <c r="AG8" s="0" t="s">
-        <v>389</v>
+        <v>392</v>
       </c>
       <c r="AH8" s="1" t="n">
         <v>10</v>
@@ -5478,41 +5803,41 @@
       <c r="L9" s="11" t="n">
         <v>75</v>
       </c>
-      <c r="M9" s="5"/>
+      <c r="M9" s="6"/>
       <c r="N9" s="0" t="s">
-        <v>390</v>
+        <v>393</v>
       </c>
       <c r="O9" s="0" t="s">
-        <v>391</v>
+        <v>394</v>
       </c>
       <c r="P9" s="11" t="n">
-        <v>10</v>
+        <v>60</v>
       </c>
       <c r="R9" s="0" t="s">
-        <v>392</v>
-      </c>
-      <c r="S9" s="13" t="n">
+        <v>395</v>
+      </c>
+      <c r="S9" s="14" t="n">
         <v>10</v>
       </c>
       <c r="U9" s="0" t="s">
-        <v>393</v>
+        <v>396</v>
       </c>
       <c r="V9" s="11" t="n">
         <v>20</v>
       </c>
-      <c r="Y9" s="13"/>
-      <c r="AB9" s="13"/>
-      <c r="AE9" s="13"/>
+      <c r="Y9" s="14"/>
+      <c r="AB9" s="14"/>
+      <c r="AE9" s="14"/>
       <c r="AG9" s="0" t="s">
-        <v>394</v>
+        <v>397</v>
       </c>
       <c r="AH9" s="1" t="n">
         <v>10</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B10" s="7"/>
-      <c r="C10" s="5"/>
+      <c r="B10" s="8"/>
+      <c r="C10" s="6"/>
       <c r="H10" s="0" t="s">
         <v>367</v>
       </c>
@@ -5523,28 +5848,28 @@
         <v>368</v>
       </c>
       <c r="K10" s="0" t="s">
-        <v>369</v>
+        <v>398</v>
       </c>
       <c r="L10" s="11" t="n">
         <v>25</v>
       </c>
       <c r="M10" s="11"/>
-      <c r="P10" s="5" t="n">
+      <c r="P10" s="13" t="n">
         <f aca="false">SUM(P11:P15)</f>
-        <v>50</v>
+        <v>110</v>
       </c>
       <c r="R10" s="0" t="s">
-        <v>395</v>
-      </c>
-      <c r="S10" s="13" t="n">
-        <v>10</v>
-      </c>
-      <c r="V10" s="13"/>
-      <c r="Y10" s="13"/>
-      <c r="AB10" s="13"/>
-      <c r="AE10" s="13"/>
+        <v>399</v>
+      </c>
+      <c r="S10" s="14" t="n">
+        <v>10</v>
+      </c>
+      <c r="V10" s="14"/>
+      <c r="Y10" s="14"/>
+      <c r="AB10" s="14"/>
+      <c r="AE10" s="14"/>
       <c r="AG10" s="0" t="s">
-        <v>396</v>
+        <v>400</v>
       </c>
       <c r="AH10" s="1" t="n">
         <v>10</v>
@@ -5563,9 +5888,9 @@
       <c r="P11" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="S11" s="13"/>
+      <c r="S11" s="14"/>
       <c r="AG11" s="0" t="s">
-        <v>397</v>
+        <v>401</v>
       </c>
       <c r="AH11" s="1" t="n">
         <v>10</v>
@@ -5573,11 +5898,11 @@
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H12" s="3"/>
-      <c r="I12" s="5" t="n">
+      <c r="I12" s="6" t="n">
         <f aca="false">SUM(I13:I14)</f>
         <v>100</v>
       </c>
-      <c r="L12" s="5" t="n">
+      <c r="L12" s="6" t="n">
         <f aca="false">SUM(L13:L14)</f>
         <v>100</v>
       </c>
@@ -5590,9 +5915,9 @@
       <c r="P12" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="S12" s="13"/>
+      <c r="S12" s="14"/>
       <c r="AG12" s="0" t="s">
-        <v>398</v>
+        <v>402</v>
       </c>
       <c r="AH12" s="1" t="n">
         <v>10</v>
@@ -5615,17 +5940,17 @@
         <v>80</v>
       </c>
       <c r="N13" s="0" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="O13" s="0" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="P13" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="S13" s="13"/>
+      <c r="S13" s="14"/>
       <c r="AG13" s="0" t="s">
-        <v>399</v>
+        <v>403</v>
       </c>
       <c r="AH13" s="1" t="n">
         <v>10</v>
@@ -5642,24 +5967,24 @@
         <v>368</v>
       </c>
       <c r="K14" s="0" t="s">
-        <v>369</v>
+        <v>404</v>
       </c>
       <c r="L14" s="11" t="n">
         <v>20</v>
       </c>
-      <c r="M14" s="5"/>
+      <c r="M14" s="6"/>
       <c r="N14" s="0" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="O14" s="0" t="s">
-        <v>362</v>
+        <v>389</v>
       </c>
       <c r="P14" s="11" t="n">
         <v>10</v>
       </c>
-      <c r="S14" s="13"/>
+      <c r="S14" s="14"/>
       <c r="AG14" s="0" t="s">
-        <v>400</v>
+        <v>405</v>
       </c>
       <c r="AH14" s="1" t="n">
         <v>10</v>
@@ -5670,17 +5995,17 @@
       <c r="L15" s="0"/>
       <c r="M15" s="11"/>
       <c r="N15" s="0" t="s">
-        <v>390</v>
+        <v>393</v>
       </c>
       <c r="O15" s="0" t="s">
-        <v>391</v>
+        <v>394</v>
       </c>
       <c r="P15" s="11" t="n">
-        <v>10</v>
-      </c>
-      <c r="S15" s="13"/>
+        <v>70</v>
+      </c>
+      <c r="S15" s="14"/>
       <c r="AG15" s="0" t="s">
-        <v>401</v>
+        <v>406</v>
       </c>
       <c r="AH15" s="1" t="n">
         <v>10</v>
@@ -5688,22 +6013,22 @@
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H16" s="3"/>
-      <c r="I16" s="5" t="n">
+      <c r="I16" s="6" t="n">
         <f aca="false">SUM(I17:I18)</f>
         <v>100</v>
       </c>
-      <c r="L16" s="5" t="n">
+      <c r="L16" s="6" t="n">
         <f aca="false">SUM(L17:L18)</f>
         <v>100</v>
       </c>
       <c r="M16" s="11"/>
-      <c r="P16" s="5" t="n">
+      <c r="P16" s="13" t="n">
         <f aca="false">SUM(P17:P21)</f>
-        <v>50</v>
-      </c>
-      <c r="S16" s="13"/>
+        <v>100</v>
+      </c>
+      <c r="S16" s="14"/>
       <c r="AG16" s="0" t="s">
-        <v>402</v>
+        <v>407</v>
       </c>
       <c r="AH16" s="1" t="n">
         <v>10</v>
@@ -5732,11 +6057,11 @@
         <v>357</v>
       </c>
       <c r="P17" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="S17" s="13"/>
+        <v>5</v>
+      </c>
+      <c r="S17" s="14"/>
       <c r="AG17" s="0" t="s">
-        <v>403</v>
+        <v>408</v>
       </c>
       <c r="AH17" s="1" t="n">
         <v>10</v>
@@ -5753,7 +6078,7 @@
         <v>368</v>
       </c>
       <c r="K18" s="0" t="s">
-        <v>369</v>
+        <v>409</v>
       </c>
       <c r="L18" s="11" t="n">
         <v>15</v>
@@ -5765,11 +6090,11 @@
         <v>371</v>
       </c>
       <c r="P18" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="S18" s="13"/>
+        <v>5</v>
+      </c>
+      <c r="S18" s="14"/>
       <c r="AG18" s="0" t="s">
-        <v>404</v>
+        <v>410</v>
       </c>
       <c r="AH18" s="1" t="n">
         <v>10</v>
@@ -5778,19 +6103,19 @@
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="I19" s="0"/>
       <c r="L19" s="0"/>
-      <c r="M19" s="5"/>
+      <c r="M19" s="6"/>
       <c r="N19" s="0" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="O19" s="0" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="P19" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="S19" s="13"/>
+        <v>5</v>
+      </c>
+      <c r="S19" s="14"/>
       <c r="AG19" s="0" t="s">
-        <v>405</v>
+        <v>411</v>
       </c>
       <c r="AH19" s="1" t="n">
         <v>10</v>
@@ -5801,17 +6126,17 @@
       <c r="L20" s="0"/>
       <c r="M20" s="11"/>
       <c r="N20" s="0" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="O20" s="0" t="s">
-        <v>362</v>
+        <v>389</v>
       </c>
       <c r="P20" s="11" t="n">
-        <v>10</v>
-      </c>
-      <c r="S20" s="13"/>
+        <v>5</v>
+      </c>
+      <c r="S20" s="14"/>
       <c r="AG20" s="0" t="s">
-        <v>406</v>
+        <v>412</v>
       </c>
       <c r="AH20" s="1" t="n">
         <v>10</v>
@@ -5822,17 +6147,17 @@
       <c r="L21" s="0"/>
       <c r="M21" s="11"/>
       <c r="N21" s="0" t="s">
-        <v>390</v>
+        <v>393</v>
       </c>
       <c r="O21" s="0" t="s">
-        <v>391</v>
+        <v>394</v>
       </c>
       <c r="P21" s="11" t="n">
-        <v>10</v>
-      </c>
-      <c r="S21" s="13"/>
+        <v>80</v>
+      </c>
+      <c r="S21" s="14"/>
       <c r="AG21" s="0" t="s">
-        <v>407</v>
+        <v>413</v>
       </c>
       <c r="AH21" s="1" t="n">
         <v>10</v>
@@ -5840,13 +6165,13 @@
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="L22" s="0"/>
-      <c r="P22" s="5" t="n">
+      <c r="P22" s="13" t="n">
         <f aca="false">SUM(P23:P27)</f>
-        <v>50</v>
-      </c>
-      <c r="S22" s="13"/>
+        <v>110</v>
+      </c>
+      <c r="S22" s="14"/>
       <c r="AG22" s="0" t="s">
-        <v>408</v>
+        <v>414</v>
       </c>
       <c r="AH22" s="1" t="n">
         <v>10</v>
@@ -5861,11 +6186,11 @@
         <v>357</v>
       </c>
       <c r="P23" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="S23" s="13"/>
+        <v>5</v>
+      </c>
+      <c r="S23" s="14"/>
       <c r="AG23" s="0" t="s">
-        <v>409</v>
+        <v>415</v>
       </c>
       <c r="AH23" s="1" t="n">
         <v>10</v>
@@ -5880,11 +6205,11 @@
         <v>371</v>
       </c>
       <c r="P24" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="S24" s="13"/>
+        <v>5</v>
+      </c>
+      <c r="S24" s="14"/>
       <c r="AG24" s="0" t="s">
-        <v>410</v>
+        <v>416</v>
       </c>
       <c r="AH24" s="1" t="n">
         <v>10</v>
@@ -5892,17 +6217,17 @@
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="N25" s="0" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="O25" s="0" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="P25" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="S25" s="13"/>
+        <v>5</v>
+      </c>
+      <c r="S25" s="14"/>
       <c r="AG25" s="0" t="s">
-        <v>411</v>
+        <v>417</v>
       </c>
       <c r="AH25" s="1" t="n">
         <v>10</v>
@@ -5910,17 +6235,17 @@
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="N26" s="0" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="O26" s="0" t="s">
-        <v>362</v>
+        <v>389</v>
       </c>
       <c r="P26" s="11" t="n">
-        <v>10</v>
-      </c>
-      <c r="S26" s="13"/>
+        <v>5</v>
+      </c>
+      <c r="S26" s="14"/>
       <c r="AG26" s="0" t="s">
-        <v>412</v>
+        <v>418</v>
       </c>
       <c r="AH26" s="1" t="n">
         <v>10</v>
@@ -5928,71 +6253,71 @@
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="N27" s="0" t="s">
-        <v>390</v>
+        <v>393</v>
       </c>
       <c r="O27" s="0" t="s">
-        <v>391</v>
+        <v>394</v>
       </c>
       <c r="P27" s="11" t="n">
-        <v>10</v>
-      </c>
-      <c r="S27" s="13"/>
+        <v>90</v>
+      </c>
+      <c r="S27" s="14"/>
       <c r="AG27" s="0" t="s">
-        <v>413</v>
+        <v>419</v>
       </c>
       <c r="AH27" s="1" t="n">
         <v>10</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="S28" s="13"/>
+      <c r="S28" s="14"/>
       <c r="AG28" s="0" t="s">
-        <v>414</v>
+        <v>420</v>
       </c>
       <c r="AH28" s="1" t="n">
         <v>10</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="S29" s="13"/>
+      <c r="S29" s="14"/>
       <c r="AG29" s="0" t="s">
-        <v>415</v>
+        <v>421</v>
       </c>
       <c r="AH29" s="1" t="n">
         <v>10</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="S30" s="13"/>
+      <c r="S30" s="14"/>
       <c r="AG30" s="0" t="s">
-        <v>416</v>
+        <v>422</v>
       </c>
       <c r="AH30" s="1" t="n">
         <v>10</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="S31" s="13"/>
+      <c r="S31" s="14"/>
       <c r="AG31" s="0" t="s">
-        <v>417</v>
+        <v>423</v>
       </c>
       <c r="AH31" s="1" t="n">
         <v>10</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="S32" s="13"/>
+      <c r="S32" s="14"/>
       <c r="AG32" s="0" t="s">
-        <v>418</v>
+        <v>424</v>
       </c>
       <c r="AH32" s="1" t="n">
         <v>10</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="S33" s="13"/>
+      <c r="S33" s="14"/>
       <c r="AG33" s="0" t="s">
-        <v>419</v>
+        <v>425</v>
       </c>
       <c r="AH33" s="1" t="n">
         <v>10</v>
@@ -6002,7 +6327,7 @@
       <c r="P34" s="0"/>
       <c r="S34" s="11"/>
       <c r="AG34" s="0" t="s">
-        <v>420</v>
+        <v>426</v>
       </c>
       <c r="AH34" s="1" t="n">
         <v>10</v>
@@ -6012,7 +6337,7 @@
       <c r="P35" s="0"/>
       <c r="S35" s="11"/>
       <c r="AG35" s="0" t="s">
-        <v>421</v>
+        <v>427</v>
       </c>
       <c r="AH35" s="1" t="n">
         <v>10</v>
@@ -6022,7 +6347,7 @@
       <c r="P36" s="0"/>
       <c r="S36" s="0"/>
       <c r="AG36" s="0" t="s">
-        <v>422</v>
+        <v>428</v>
       </c>
       <c r="AH36" s="1" t="n">
         <v>10</v>
@@ -6032,7 +6357,7 @@
       <c r="P37" s="0"/>
       <c r="S37" s="11"/>
       <c r="AG37" s="0" t="s">
-        <v>423</v>
+        <v>429</v>
       </c>
       <c r="AH37" s="1" t="n">
         <v>10</v>
@@ -6042,7 +6367,7 @@
       <c r="P38" s="0"/>
       <c r="S38" s="0"/>
       <c r="AG38" s="0" t="s">
-        <v>424</v>
+        <v>430</v>
       </c>
       <c r="AH38" s="1" t="n">
         <v>10</v>
@@ -6052,7 +6377,7 @@
       <c r="P39" s="0"/>
       <c r="S39" s="11"/>
       <c r="AG39" s="0" t="s">
-        <v>425</v>
+        <v>431</v>
       </c>
       <c r="AH39" s="1" t="n">
         <v>10</v>
@@ -6060,577 +6385,577 @@
     </row>
     <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="P40" s="0"/>
-      <c r="S40" s="13"/>
+      <c r="S40" s="14"/>
       <c r="AG40" s="0" t="s">
-        <v>426</v>
+        <v>432</v>
       </c>
       <c r="AH40" s="1" t="n">
         <v>10</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="S41" s="13"/>
+      <c r="S41" s="14"/>
       <c r="AG41" s="0" t="s">
-        <v>427</v>
+        <v>433</v>
       </c>
       <c r="AH41" s="1" t="n">
         <v>10</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="S42" s="13"/>
+      <c r="S42" s="14"/>
       <c r="AG42" s="0" t="s">
-        <v>428</v>
+        <v>434</v>
       </c>
       <c r="AH42" s="1" t="n">
         <v>10</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="S43" s="13"/>
+      <c r="S43" s="14"/>
       <c r="AG43" s="0" t="s">
-        <v>429</v>
+        <v>435</v>
       </c>
       <c r="AH43" s="1" t="n">
         <v>10</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="S44" s="13"/>
+      <c r="S44" s="14"/>
       <c r="AG44" s="0" t="s">
-        <v>430</v>
+        <v>436</v>
       </c>
       <c r="AH44" s="1" t="n">
         <v>10</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="S45" s="13"/>
+      <c r="S45" s="14"/>
       <c r="AG45" s="0" t="s">
-        <v>431</v>
+        <v>437</v>
       </c>
       <c r="AH45" s="1" t="n">
         <v>10</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="S46" s="13"/>
+      <c r="S46" s="14"/>
       <c r="AG46" s="0" t="s">
-        <v>432</v>
+        <v>438</v>
       </c>
       <c r="AH46" s="1" t="n">
         <v>10</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="S47" s="13"/>
+      <c r="S47" s="14"/>
       <c r="AG47" s="0" t="s">
-        <v>433</v>
+        <v>439</v>
       </c>
       <c r="AH47" s="1" t="n">
         <v>10</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="S48" s="13"/>
+      <c r="S48" s="14"/>
       <c r="AG48" s="0" t="s">
-        <v>434</v>
+        <v>440</v>
       </c>
       <c r="AH48" s="1" t="n">
         <v>10</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="S49" s="13"/>
+      <c r="S49" s="14"/>
       <c r="AG49" s="0" t="s">
-        <v>435</v>
+        <v>441</v>
       </c>
       <c r="AH49" s="1" t="n">
         <v>10</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="S50" s="13"/>
+      <c r="S50" s="14"/>
       <c r="AG50" s="0" t="s">
-        <v>436</v>
+        <v>442</v>
       </c>
       <c r="AH50" s="1" t="n">
         <v>10</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="S51" s="13"/>
+      <c r="S51" s="14"/>
       <c r="AG51" s="0" t="s">
-        <v>437</v>
+        <v>443</v>
       </c>
       <c r="AH51" s="1" t="n">
         <v>10</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="S52" s="13"/>
+      <c r="S52" s="14"/>
       <c r="AG52" s="0" t="s">
-        <v>438</v>
+        <v>444</v>
       </c>
       <c r="AH52" s="1" t="n">
         <v>10</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="S53" s="13"/>
+      <c r="S53" s="14"/>
       <c r="AG53" s="0" t="s">
-        <v>439</v>
+        <v>445</v>
       </c>
       <c r="AH53" s="1" t="n">
         <v>10</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="S54" s="13"/>
+      <c r="S54" s="14"/>
       <c r="AG54" s="0" t="s">
-        <v>440</v>
+        <v>446</v>
       </c>
       <c r="AH54" s="1" t="n">
         <v>10</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="S55" s="13"/>
+      <c r="S55" s="14"/>
       <c r="AG55" s="0" t="s">
-        <v>441</v>
+        <v>447</v>
       </c>
       <c r="AH55" s="1" t="n">
         <v>10</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="S56" s="13"/>
+      <c r="S56" s="14"/>
       <c r="AG56" s="0" t="s">
-        <v>442</v>
+        <v>448</v>
       </c>
       <c r="AH56" s="1" t="n">
         <v>10</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="S57" s="13"/>
+      <c r="S57" s="14"/>
       <c r="AG57" s="0" t="s">
-        <v>443</v>
+        <v>449</v>
       </c>
       <c r="AH57" s="1" t="n">
         <v>10</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="S58" s="13"/>
+      <c r="S58" s="14"/>
       <c r="AG58" s="0" t="s">
-        <v>444</v>
+        <v>450</v>
       </c>
       <c r="AH58" s="1" t="n">
         <v>10</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="S59" s="13"/>
+      <c r="S59" s="14"/>
       <c r="AG59" s="0" t="s">
-        <v>445</v>
+        <v>451</v>
       </c>
       <c r="AH59" s="1" t="n">
         <v>10</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="S60" s="13"/>
+      <c r="S60" s="14"/>
       <c r="AG60" s="0" t="s">
-        <v>446</v>
+        <v>452</v>
       </c>
       <c r="AH60" s="1" t="n">
         <v>10</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="S61" s="13"/>
+      <c r="S61" s="14"/>
       <c r="AG61" s="0" t="s">
-        <v>447</v>
+        <v>453</v>
       </c>
       <c r="AH61" s="1" t="n">
         <v>10</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="S62" s="13"/>
+      <c r="S62" s="14"/>
       <c r="AG62" s="0" t="s">
-        <v>448</v>
+        <v>454</v>
       </c>
       <c r="AH62" s="1" t="n">
         <v>10</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="S63" s="13"/>
+      <c r="S63" s="14"/>
       <c r="AG63" s="0" t="s">
-        <v>449</v>
+        <v>455</v>
       </c>
       <c r="AH63" s="1" t="n">
         <v>10</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="S64" s="13"/>
+      <c r="S64" s="14"/>
       <c r="AG64" s="0" t="s">
-        <v>450</v>
+        <v>456</v>
       </c>
       <c r="AH64" s="1" t="n">
         <v>10</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="S65" s="13"/>
+      <c r="S65" s="14"/>
       <c r="AG65" s="0" t="s">
-        <v>451</v>
+        <v>457</v>
       </c>
       <c r="AH65" s="1" t="n">
         <v>10</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="S66" s="13"/>
+      <c r="S66" s="14"/>
       <c r="AG66" s="0" t="s">
-        <v>452</v>
+        <v>458</v>
       </c>
       <c r="AH66" s="1" t="n">
         <v>10</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="S67" s="13"/>
+      <c r="S67" s="14"/>
       <c r="AG67" s="0" t="s">
-        <v>453</v>
+        <v>459</v>
       </c>
       <c r="AH67" s="1" t="n">
         <v>10</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="S68" s="13"/>
+      <c r="S68" s="14"/>
       <c r="AG68" s="0" t="s">
-        <v>454</v>
+        <v>460</v>
       </c>
       <c r="AH68" s="1" t="n">
         <v>10</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="S69" s="13"/>
+      <c r="S69" s="14"/>
       <c r="AG69" s="0" t="s">
-        <v>455</v>
+        <v>461</v>
       </c>
       <c r="AH69" s="1" t="n">
         <v>10</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="S70" s="13"/>
+      <c r="S70" s="14"/>
       <c r="AG70" s="0" t="s">
-        <v>456</v>
+        <v>462</v>
       </c>
       <c r="AH70" s="1" t="n">
         <v>10</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="S71" s="13"/>
+      <c r="S71" s="14"/>
       <c r="AG71" s="0" t="s">
-        <v>457</v>
+        <v>463</v>
       </c>
       <c r="AH71" s="1" t="n">
         <v>10</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="S72" s="13"/>
+      <c r="S72" s="14"/>
       <c r="AG72" s="0" t="s">
-        <v>458</v>
+        <v>464</v>
       </c>
       <c r="AH72" s="1" t="n">
         <v>10</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="S73" s="13"/>
+      <c r="S73" s="14"/>
       <c r="AG73" s="0" t="s">
-        <v>459</v>
+        <v>465</v>
       </c>
       <c r="AH73" s="1" t="n">
         <v>10</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="S74" s="13"/>
+      <c r="S74" s="14"/>
       <c r="AG74" s="0" t="s">
-        <v>460</v>
+        <v>466</v>
       </c>
       <c r="AH74" s="1" t="n">
         <v>10</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="S75" s="13"/>
+      <c r="S75" s="14"/>
       <c r="AG75" s="0" t="s">
-        <v>461</v>
+        <v>467</v>
       </c>
       <c r="AH75" s="1" t="n">
         <v>10</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="S76" s="13"/>
+      <c r="S76" s="14"/>
       <c r="AG76" s="0" t="s">
-        <v>462</v>
+        <v>468</v>
       </c>
       <c r="AH76" s="1" t="n">
         <v>10</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="S77" s="13"/>
+      <c r="S77" s="14"/>
       <c r="AG77" s="0" t="s">
-        <v>463</v>
+        <v>469</v>
       </c>
       <c r="AH77" s="1" t="n">
         <v>10</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="S78" s="13"/>
+      <c r="S78" s="14"/>
       <c r="AG78" s="0" t="s">
-        <v>464</v>
+        <v>470</v>
       </c>
       <c r="AH78" s="1" t="n">
         <v>10</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="S79" s="13"/>
+      <c r="S79" s="14"/>
       <c r="AG79" s="0" t="s">
-        <v>465</v>
+        <v>471</v>
       </c>
       <c r="AH79" s="1" t="n">
         <v>10</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="S80" s="13"/>
+      <c r="S80" s="14"/>
       <c r="AG80" s="0" t="s">
-        <v>466</v>
+        <v>472</v>
       </c>
       <c r="AH80" s="1" t="n">
         <v>10</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="S81" s="13"/>
+      <c r="S81" s="14"/>
       <c r="AG81" s="0" t="s">
-        <v>467</v>
+        <v>473</v>
       </c>
       <c r="AH81" s="1" t="n">
         <v>10</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="S82" s="13"/>
+      <c r="S82" s="14"/>
       <c r="AG82" s="0" t="s">
-        <v>467</v>
+        <v>473</v>
       </c>
       <c r="AH82" s="1" t="n">
         <v>10</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="S83" s="13"/>
+      <c r="S83" s="14"/>
       <c r="AG83" s="0" t="s">
-        <v>468</v>
+        <v>474</v>
       </c>
       <c r="AH83" s="1" t="n">
         <v>10</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="S84" s="13"/>
+      <c r="S84" s="14"/>
       <c r="AG84" s="0" t="s">
-        <v>468</v>
+        <v>474</v>
       </c>
       <c r="AH84" s="1" t="n">
         <v>10</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="S85" s="13"/>
+      <c r="S85" s="14"/>
       <c r="AG85" s="0" t="s">
-        <v>469</v>
+        <v>475</v>
       </c>
       <c r="AH85" s="1" t="n">
         <v>10</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="S86" s="13"/>
+      <c r="S86" s="14"/>
       <c r="AG86" s="0" t="s">
-        <v>469</v>
+        <v>475</v>
       </c>
       <c r="AH86" s="1" t="n">
         <v>10</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="S87" s="13"/>
+      <c r="S87" s="14"/>
       <c r="AG87" s="0" t="s">
-        <v>470</v>
+        <v>476</v>
       </c>
       <c r="AH87" s="1" t="n">
         <v>10</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="S88" s="13"/>
+      <c r="S88" s="14"/>
       <c r="AG88" s="0" t="s">
-        <v>471</v>
+        <v>477</v>
       </c>
       <c r="AH88" s="1" t="n">
         <v>10</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="S89" s="13"/>
+      <c r="S89" s="14"/>
       <c r="AG89" s="0" t="s">
-        <v>472</v>
+        <v>478</v>
       </c>
       <c r="AH89" s="1" t="n">
         <v>10</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="S90" s="13"/>
+      <c r="S90" s="14"/>
       <c r="AG90" s="0" t="s">
-        <v>473</v>
+        <v>479</v>
       </c>
       <c r="AH90" s="1" t="n">
         <v>10</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="S91" s="13"/>
+      <c r="S91" s="14"/>
       <c r="AG91" s="0" t="s">
-        <v>474</v>
+        <v>480</v>
       </c>
       <c r="AH91" s="1" t="n">
         <v>10</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="S92" s="13"/>
+      <c r="S92" s="14"/>
       <c r="AG92" s="0" t="s">
-        <v>475</v>
+        <v>481</v>
       </c>
       <c r="AH92" s="1" t="n">
         <v>10</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="S93" s="13"/>
+      <c r="S93" s="14"/>
       <c r="AG93" s="0" t="s">
-        <v>476</v>
+        <v>482</v>
       </c>
       <c r="AH93" s="1" t="n">
         <v>10</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="S94" s="13"/>
+      <c r="S94" s="14"/>
       <c r="AG94" s="0" t="s">
-        <v>477</v>
+        <v>483</v>
       </c>
       <c r="AH94" s="1" t="n">
         <v>10</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="S95" s="13"/>
+      <c r="S95" s="14"/>
       <c r="AG95" s="0" t="s">
-        <v>478</v>
+        <v>484</v>
       </c>
       <c r="AH95" s="1" t="n">
         <v>10</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="S96" s="13"/>
+      <c r="S96" s="14"/>
     </row>
     <row r="97" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="S97" s="13"/>
+      <c r="S97" s="14"/>
     </row>
     <row r="98" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="S98" s="13"/>
+      <c r="S98" s="14"/>
     </row>
     <row r="99" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="S99" s="13"/>
+      <c r="S99" s="14"/>
     </row>
     <row r="100" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="S100" s="13"/>
+      <c r="S100" s="14"/>
     </row>
     <row r="101" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="S101" s="13"/>
+      <c r="S101" s="14"/>
     </row>
     <row r="102" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="S102" s="13"/>
+      <c r="S102" s="14"/>
     </row>
     <row r="103" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="S103" s="13"/>
+      <c r="S103" s="14"/>
     </row>
     <row r="104" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="S104" s="13"/>
+      <c r="S104" s="14"/>
     </row>
     <row r="105" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="S105" s="13"/>
+      <c r="S105" s="14"/>
     </row>
     <row r="106" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="S106" s="13"/>
+      <c r="S106" s="14"/>
     </row>
     <row r="107" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="S107" s="13"/>
+      <c r="S107" s="14"/>
     </row>
     <row r="108" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="S108" s="13"/>
+      <c r="S108" s="14"/>
     </row>
     <row r="109" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="S109" s="13"/>
+      <c r="S109" s="14"/>
     </row>
     <row r="110" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="S110" s="13"/>
+      <c r="S110" s="14"/>
     </row>
     <row r="111" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="S111" s="13"/>
+      <c r="S111" s="14"/>
     </row>
     <row r="112" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="S112" s="13"/>
+      <c r="S112" s="14"/>
     </row>
     <row r="113" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="S113" s="13"/>
+      <c r="S113" s="14"/>
     </row>
     <row r="114" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="S114" s="13"/>
+      <c r="S114" s="14"/>
     </row>
     <row r="115" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="S115" s="13"/>
+      <c r="S115" s="14"/>
     </row>
     <row r="116" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="S116" s="13"/>
+      <c r="S116" s="14"/>
     </row>
     <row r="117" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="S117" s="13"/>
+      <c r="S117" s="14"/>
     </row>
     <row r="118" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="S118" s="13"/>
+      <c r="S118" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="9">
@@ -6659,73 +6984,151 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="B2:R45"/>
+  <dimension ref="B1:AX56"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C22" activeCellId="0" sqref="C22"/>
+      <selection pane="topLeft" activeCell="G35" activeCellId="0" sqref="G35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6953125" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.70703125" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="3.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="13.89"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="48.62"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="8.6"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="1.93"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="9.03"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="1.61"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="25.56"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="30.15"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="8.6"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="1.61"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="25.56"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="38.2"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="8.6"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="1.61"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="0" width="25.56"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="0" width="33.9"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="1" width="8.6"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="0" width="1.61"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="0" width="25.56"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="0" width="41.54"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="1" width="8.6"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="0" width="1.61"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="0" width="43.63"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="20" style="0" width="10"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="21" style="0" width="2.49"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="22" min="22" style="0" width="40.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="24" min="24" style="0" width="3.05"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="25" min="25" style="0" width="11.81"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="27" min="27" style="0" width="2.36"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="28" min="28" style="0" width="38.35"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="30" min="30" style="0" width="1.94"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="31" min="31" style="0" width="13.19"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="33" min="33" style="0" width="1.39"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="34" min="34" style="0" width="27.37"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="36" min="36" style="0" width="2.22"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="37" min="37" style="0" width="28.2"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="39" min="39" style="0" width="1.66"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="40" min="40" style="0" width="38.35"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="42" min="42" style="0" width="1.8"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="43" min="43" style="0" width="29.31"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="45" min="45" style="0" width="1.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="46" min="46" style="0" width="41.95"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="48" min="48" style="0" width="1.39"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="49" min="49" style="0" width="41.4"/>
   </cols>
   <sheetData>
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="T1" s="1"/>
+    </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B2" s="8" t="s">
-        <v>479</v>
-      </c>
-      <c r="C2" s="8"/>
-      <c r="D2" s="8"/>
-      <c r="E2" s="0"/>
+      <c r="B2" s="5" t="s">
+        <v>485</v>
+      </c>
+      <c r="C2" s="5"/>
+      <c r="D2" s="5"/>
       <c r="F2" s="3"/>
       <c r="G2" s="2" t="s">
-        <v>480</v>
+        <v>486</v>
       </c>
       <c r="H2" s="2"/>
       <c r="I2" s="3"/>
       <c r="J2" s="2" t="s">
-        <v>481</v>
+        <v>487</v>
       </c>
       <c r="K2" s="2"/>
       <c r="L2" s="3"/>
       <c r="M2" s="2" t="s">
-        <v>482</v>
+        <v>488</v>
       </c>
       <c r="N2" s="2"/>
       <c r="O2" s="3"/>
       <c r="P2" s="2" t="s">
-        <v>483</v>
+        <v>489</v>
       </c>
       <c r="Q2" s="2"/>
       <c r="R2" s="3"/>
+      <c r="S2" s="2" t="s">
+        <v>490</v>
+      </c>
+      <c r="T2" s="2"/>
+      <c r="U2" s="3"/>
+      <c r="V2" s="2" t="s">
+        <v>491</v>
+      </c>
+      <c r="W2" s="2"/>
+      <c r="X2" s="3"/>
+      <c r="Y2" s="2" t="s">
+        <v>492</v>
+      </c>
+      <c r="Z2" s="2"/>
+      <c r="AA2" s="3"/>
+      <c r="AB2" s="2" t="s">
+        <v>493</v>
+      </c>
+      <c r="AC2" s="2"/>
+      <c r="AD2" s="3"/>
+      <c r="AE2" s="2" t="s">
+        <v>494</v>
+      </c>
+      <c r="AF2" s="2"/>
+      <c r="AG2" s="3"/>
+      <c r="AH2" s="2" t="s">
+        <v>495</v>
+      </c>
+      <c r="AI2" s="2"/>
+      <c r="AJ2" s="3"/>
+      <c r="AK2" s="2" t="s">
+        <v>496</v>
+      </c>
+      <c r="AL2" s="2"/>
+      <c r="AM2" s="3"/>
+      <c r="AN2" s="2" t="s">
+        <v>497</v>
+      </c>
+      <c r="AO2" s="2"/>
+      <c r="AP2" s="3"/>
+      <c r="AQ2" s="2" t="s">
+        <v>498</v>
+      </c>
+      <c r="AR2" s="2"/>
+      <c r="AS2" s="3"/>
+      <c r="AT2" s="2" t="s">
+        <v>499</v>
+      </c>
+      <c r="AU2" s="2"/>
+      <c r="AV2" s="3"/>
+      <c r="AW2" s="2" t="s">
+        <v>500</v>
+      </c>
+      <c r="AX2" s="2"/>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B3" s="7" t="s">
-        <v>484</v>
-      </c>
-      <c r="C3" s="7" t="s">
-        <v>485</v>
-      </c>
-      <c r="D3" s="5" t="n">
-        <f aca="false">SUM(D4:D22)</f>
-        <v>162</v>
+      <c r="B3" s="8" t="s">
+        <v>501</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>502</v>
+      </c>
+      <c r="D3" s="13" t="n">
+        <f aca="false">SUM(D4:D25)</f>
+        <v>349</v>
       </c>
       <c r="E3" s="3"/>
       <c r="F3" s="3"/>
@@ -6741,858 +7144,1299 @@
       <c r="P3" s="3"/>
       <c r="Q3" s="3"/>
       <c r="R3" s="3"/>
+      <c r="S3" s="3"/>
+      <c r="T3" s="3"/>
+      <c r="U3" s="3"/>
+      <c r="V3" s="3"/>
+      <c r="W3" s="3"/>
+      <c r="X3" s="3"/>
+      <c r="Y3" s="3"/>
+      <c r="Z3" s="3"/>
+      <c r="AA3" s="3"/>
+      <c r="AB3" s="3"/>
+      <c r="AC3" s="3"/>
+      <c r="AD3" s="3"/>
+      <c r="AE3" s="3"/>
+      <c r="AF3" s="3"/>
+      <c r="AG3" s="3"/>
+      <c r="AH3" s="3"/>
+      <c r="AI3" s="3"/>
+      <c r="AJ3" s="3"/>
+      <c r="AK3" s="3"/>
+      <c r="AL3" s="3"/>
+      <c r="AM3" s="3"/>
+      <c r="AN3" s="3"/>
+      <c r="AO3" s="3"/>
+      <c r="AP3" s="3"/>
+      <c r="AQ3" s="3"/>
+      <c r="AR3" s="3"/>
+      <c r="AS3" s="3"/>
+      <c r="AT3" s="3"/>
+      <c r="AU3" s="3"/>
+      <c r="AV3" s="3"/>
+      <c r="AW3" s="3"/>
+      <c r="AX3" s="3"/>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B4" s="12" t="s">
-        <v>486</v>
+        <v>503</v>
       </c>
       <c r="C4" s="12" t="s">
-        <v>487</v>
+        <v>504</v>
       </c>
       <c r="D4" s="11" t="n">
         <v>1</v>
       </c>
-      <c r="E4" s="0"/>
-      <c r="G4" s="7" t="s">
-        <v>488</v>
-      </c>
-      <c r="H4" s="5" t="n">
-        <f aca="false">SUM(H5:H10)</f>
+      <c r="E4" s="15" t="n">
+        <f aca="false">D4/$D$3</f>
+        <v>0.00286532951289398</v>
+      </c>
+      <c r="G4" s="8" t="s">
+        <v>505</v>
+      </c>
+      <c r="H4" s="13" t="n">
+        <f aca="false">SUM(H5:H34)</f>
         <v>100</v>
       </c>
-      <c r="J4" s="7" t="s">
-        <v>489</v>
-      </c>
-      <c r="K4" s="5" t="n">
-        <f aca="false">SUM(K5:K10)</f>
+      <c r="J4" s="8" t="s">
+        <v>506</v>
+      </c>
+      <c r="K4" s="13" t="n">
+        <f aca="false">SUM(K5:K34)</f>
+        <v>110</v>
+      </c>
+      <c r="M4" s="8" t="s">
+        <v>507</v>
+      </c>
+      <c r="N4" s="13" t="n">
+        <f aca="false">SUM(N5:N34)</f>
         <v>100</v>
       </c>
-      <c r="M4" s="7" t="s">
+      <c r="P4" s="8" t="s">
+        <v>508</v>
+      </c>
+      <c r="Q4" s="13" t="n">
+        <f aca="false">SUM(Q5:Q34)</f>
+        <v>270</v>
+      </c>
+      <c r="S4" s="8" t="s">
         <v>490</v>
       </c>
-      <c r="N4" s="5" t="n">
-        <f aca="false">SUM(N5:N10)</f>
+      <c r="T4" s="13" t="n">
+        <f aca="false">SUM(T5:T34)</f>
+        <v>180</v>
+      </c>
+      <c r="V4" s="8" t="s">
+        <v>491</v>
+      </c>
+      <c r="W4" s="13" t="n">
+        <f aca="false">SUM(W5:W34)</f>
+        <v>180</v>
+      </c>
+      <c r="Y4" s="8" t="s">
+        <v>492</v>
+      </c>
+      <c r="Z4" s="13" t="n">
+        <f aca="false">SUM(Z5:Z34)</f>
         <v>100</v>
       </c>
-      <c r="P4" s="7" t="s">
-        <v>483</v>
-      </c>
-      <c r="Q4" s="5" t="n">
-        <f aca="false">SUM(Q5:Q10)</f>
+      <c r="AB4" s="8" t="s">
+        <v>493</v>
+      </c>
+      <c r="AC4" s="13" t="n">
+        <f aca="false">SUM(AC5:AC34)</f>
+        <v>330</v>
+      </c>
+      <c r="AE4" s="8" t="s">
+        <v>494</v>
+      </c>
+      <c r="AF4" s="13" t="n">
+        <f aca="false">SUM(AF5:AF34)</f>
         <v>100</v>
+      </c>
+      <c r="AH4" s="8" t="s">
+        <v>495</v>
+      </c>
+      <c r="AI4" s="13" t="n">
+        <f aca="false">SUM(AI5:AI34)</f>
+        <v>10</v>
+      </c>
+      <c r="AK4" s="8" t="s">
+        <v>496</v>
+      </c>
+      <c r="AL4" s="13" t="n">
+        <f aca="false">SUM(AL5:AL34)</f>
+        <v>10</v>
+      </c>
+      <c r="AN4" s="8" t="s">
+        <v>497</v>
+      </c>
+      <c r="AO4" s="13" t="n">
+        <f aca="false">SUM(AO5:AO34)</f>
+        <v>100</v>
+      </c>
+      <c r="AQ4" s="8" t="s">
+        <v>498</v>
+      </c>
+      <c r="AR4" s="13" t="n">
+        <f aca="false">SUM(AR5:AR34)</f>
+        <v>100</v>
+      </c>
+      <c r="AT4" s="8" t="s">
+        <v>499</v>
+      </c>
+      <c r="AU4" s="13" t="n">
+        <f aca="false">SUM(AU5:AU34)</f>
+        <v>120</v>
+      </c>
+      <c r="AW4" s="8" t="s">
+        <v>500</v>
+      </c>
+      <c r="AX4" s="13" t="n">
+        <f aca="false">SUM(AX5:AX34)</f>
+        <v>170</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B5" s="0" t="s">
-        <v>491</v>
-      </c>
-      <c r="C5" s="0" t="s">
-        <v>488</v>
+        <v>509</v>
+      </c>
+      <c r="C5" s="16" t="s">
+        <v>505</v>
       </c>
       <c r="D5" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="E5" s="15" t="n">
+        <f aca="false">D5/$D$3</f>
+        <v>0.0859598853868195</v>
+      </c>
+      <c r="G5" s="0" t="s">
+        <v>510</v>
+      </c>
+      <c r="H5" s="1" t="n">
+        <v>50</v>
+      </c>
+      <c r="J5" s="12" t="s">
+        <v>511</v>
+      </c>
+      <c r="K5" s="11" t="n">
+        <v>10</v>
+      </c>
+      <c r="M5" s="0" t="s">
+        <v>512</v>
+      </c>
+      <c r="N5" s="1" t="n">
+        <v>40</v>
+      </c>
+      <c r="P5" s="0" t="s">
+        <v>510</v>
+      </c>
+      <c r="Q5" s="11" t="n">
+        <v>40</v>
+      </c>
+      <c r="S5" s="0" t="s">
+        <v>513</v>
+      </c>
+      <c r="T5" s="1" t="n">
+        <v>40</v>
+      </c>
+      <c r="V5" s="0" t="s">
+        <v>513</v>
+      </c>
+      <c r="W5" s="1" t="n">
         <v>20</v>
       </c>
-      <c r="E5" s="0"/>
-      <c r="G5" s="0" t="s">
-        <v>492</v>
-      </c>
-      <c r="H5" s="1" t="n">
+      <c r="Y5" s="0" t="s">
+        <v>514</v>
+      </c>
+      <c r="Z5" s="1" t="n">
         <v>100</v>
       </c>
-      <c r="J5" s="0" t="s">
-        <v>493</v>
-      </c>
-      <c r="K5" s="1" t="n">
-        <v>35</v>
-      </c>
-      <c r="M5" s="0" t="s">
-        <v>492</v>
-      </c>
-      <c r="N5" s="11" t="n">
-        <v>30</v>
-      </c>
-      <c r="P5" s="0" t="s">
-        <v>492</v>
-      </c>
-      <c r="Q5" s="1" t="n">
-        <v>50</v>
+      <c r="AB5" s="0" t="s">
+        <v>515</v>
+      </c>
+      <c r="AC5" s="1" t="n">
+        <v>40</v>
+      </c>
+      <c r="AE5" s="0" t="s">
+        <v>514</v>
+      </c>
+      <c r="AF5" s="1" t="n">
+        <v>100</v>
+      </c>
+      <c r="AH5" s="0" t="s">
+        <v>516</v>
+      </c>
+      <c r="AI5" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="AK5" s="0" t="s">
+        <v>517</v>
+      </c>
+      <c r="AL5" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="AN5" s="0" t="s">
+        <v>518</v>
+      </c>
+      <c r="AO5" s="1" t="n">
+        <v>40</v>
+      </c>
+      <c r="AQ5" s="0" t="s">
+        <v>515</v>
+      </c>
+      <c r="AR5" s="1" t="n">
+        <v>40</v>
+      </c>
+      <c r="AT5" s="0" t="s">
+        <v>519</v>
+      </c>
+      <c r="AU5" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="AW5" s="0" t="s">
+        <v>520</v>
+      </c>
+      <c r="AX5" s="1" t="n">
+        <v>80</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B6" s="0" t="s">
-        <v>494</v>
-      </c>
-      <c r="C6" s="0" t="s">
-        <v>489</v>
+        <v>521</v>
+      </c>
+      <c r="C6" s="16" t="s">
+        <v>506</v>
       </c>
       <c r="D6" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="E6" s="0"/>
-      <c r="J6" s="0" t="s">
-        <v>495</v>
-      </c>
-      <c r="K6" s="1" t="n">
-        <v>35</v>
-      </c>
-      <c r="M6" s="12" t="s">
-        <v>496</v>
-      </c>
-      <c r="N6" s="11" t="n">
-        <v>10</v>
-      </c>
-      <c r="P6" s="0" t="s">
-        <v>497</v>
-      </c>
-      <c r="Q6" s="1" t="n">
         <v>20</v>
+      </c>
+      <c r="E6" s="15" t="n">
+        <f aca="false">D6/$D$3</f>
+        <v>0.0573065902578797</v>
+      </c>
+      <c r="G6" s="0" t="s">
+        <v>518</v>
+      </c>
+      <c r="H6" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="J6" s="12" t="s">
+        <v>522</v>
+      </c>
+      <c r="K6" s="11" t="n">
+        <v>20</v>
+      </c>
+      <c r="M6" s="0" t="s">
+        <v>523</v>
+      </c>
+      <c r="N6" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="P6" s="12" t="s">
+        <v>524</v>
+      </c>
+      <c r="Q6" s="11" t="n">
+        <v>20</v>
+      </c>
+      <c r="S6" s="0" t="s">
+        <v>510</v>
+      </c>
+      <c r="T6" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="V6" s="12" t="s">
+        <v>516</v>
+      </c>
+      <c r="W6" s="1" t="n">
+        <v>40</v>
+      </c>
+      <c r="Y6" s="12"/>
+      <c r="Z6" s="1"/>
+      <c r="AB6" s="12" t="s">
+        <v>525</v>
+      </c>
+      <c r="AC6" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="AE6" s="12"/>
+      <c r="AF6" s="1"/>
+      <c r="AH6" s="12"/>
+      <c r="AI6" s="1"/>
+      <c r="AK6" s="12"/>
+      <c r="AL6" s="1"/>
+      <c r="AN6" s="12" t="s">
+        <v>511</v>
+      </c>
+      <c r="AO6" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="AQ6" s="12" t="s">
+        <v>526</v>
+      </c>
+      <c r="AR6" s="1" t="n">
+        <v>60</v>
+      </c>
+      <c r="AT6" s="12" t="s">
+        <v>522</v>
+      </c>
+      <c r="AU6" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="AW6" s="12" t="s">
+        <v>519</v>
+      </c>
+      <c r="AX6" s="1" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B7" s="0" t="s">
-        <v>498</v>
-      </c>
-      <c r="C7" s="0" t="s">
-        <v>499</v>
+        <v>527</v>
+      </c>
+      <c r="C7" s="16" t="s">
+        <v>507</v>
       </c>
       <c r="D7" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="E7" s="0"/>
-      <c r="J7" s="0" t="s">
-        <v>500</v>
-      </c>
-      <c r="K7" s="1" t="n">
-        <v>30</v>
+        <v>20</v>
+      </c>
+      <c r="E7" s="15" t="n">
+        <f aca="false">D7/$D$3</f>
+        <v>0.0573065902578797</v>
+      </c>
+      <c r="G7" s="0" t="s">
+        <v>528</v>
+      </c>
+      <c r="H7" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="J7" s="12" t="s">
+        <v>529</v>
+      </c>
+      <c r="K7" s="11" t="n">
+        <v>10</v>
       </c>
       <c r="M7" s="0" t="s">
-        <v>501</v>
-      </c>
-      <c r="N7" s="11" t="n">
+        <v>530</v>
+      </c>
+      <c r="N7" s="1" t="n">
+        <v>40</v>
+      </c>
+      <c r="P7" s="0" t="s">
+        <v>531</v>
+      </c>
+      <c r="Q7" s="11" t="n">
+        <v>10</v>
+      </c>
+      <c r="S7" s="0" t="s">
+        <v>532</v>
+      </c>
+      <c r="T7" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="V7" s="0" t="s">
+        <v>512</v>
+      </c>
+      <c r="W7" s="1" t="n">
         <v>20</v>
       </c>
-      <c r="P7" s="0" t="s">
-        <v>502</v>
-      </c>
-      <c r="Q7" s="1" t="n">
-        <v>10</v>
+      <c r="Z7" s="1"/>
+      <c r="AB7" s="0" t="s">
+        <v>533</v>
+      </c>
+      <c r="AC7" s="1" t="n">
+        <v>40</v>
+      </c>
+      <c r="AF7" s="1"/>
+      <c r="AI7" s="1"/>
+      <c r="AL7" s="1"/>
+      <c r="AN7" s="0" t="s">
+        <v>534</v>
+      </c>
+      <c r="AO7" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="AR7" s="1"/>
+      <c r="AT7" s="0" t="s">
+        <v>535</v>
+      </c>
+      <c r="AU7" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="AW7" s="0" t="s">
+        <v>536</v>
+      </c>
+      <c r="AX7" s="1" t="n">
+        <v>40</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B8" s="0" t="s">
-        <v>503</v>
+        <v>537</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>490</v>
+        <v>538</v>
       </c>
       <c r="D8" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="E8" s="0"/>
-      <c r="G8" s="7"/>
-      <c r="H8" s="5"/>
-      <c r="J8" s="7"/>
-      <c r="K8" s="5"/>
-      <c r="M8" s="12" t="s">
-        <v>504</v>
-      </c>
-      <c r="N8" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="E8" s="15" t="n">
+        <f aca="false">D8/$D$3</f>
+        <v>0.00286532951289398</v>
+      </c>
+      <c r="G8" s="8"/>
+      <c r="H8" s="13"/>
+      <c r="J8" s="12" t="s">
+        <v>539</v>
+      </c>
+      <c r="K8" s="11" t="n">
+        <v>10</v>
+      </c>
+      <c r="M8" s="8"/>
+      <c r="N8" s="13"/>
+      <c r="P8" s="12" t="s">
+        <v>540</v>
+      </c>
+      <c r="Q8" s="11" t="n">
         <v>20</v>
       </c>
-      <c r="P8" s="0" t="s">
-        <v>496</v>
-      </c>
-      <c r="Q8" s="1" t="n">
-        <v>10</v>
+      <c r="S8" s="0" t="s">
+        <v>541</v>
+      </c>
+      <c r="T8" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="V8" s="12" t="s">
+        <v>542</v>
+      </c>
+      <c r="W8" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="Y8" s="12"/>
+      <c r="Z8" s="1"/>
+      <c r="AB8" s="12" t="s">
+        <v>526</v>
+      </c>
+      <c r="AC8" s="1" t="n">
+        <v>40</v>
+      </c>
+      <c r="AE8" s="12"/>
+      <c r="AF8" s="1"/>
+      <c r="AH8" s="12"/>
+      <c r="AI8" s="1"/>
+      <c r="AK8" s="12"/>
+      <c r="AL8" s="1"/>
+      <c r="AN8" s="12" t="s">
+        <v>543</v>
+      </c>
+      <c r="AO8" s="1" t="n">
+        <v>40</v>
+      </c>
+      <c r="AQ8" s="12"/>
+      <c r="AR8" s="1"/>
+      <c r="AT8" s="12" t="s">
+        <v>544</v>
+      </c>
+      <c r="AU8" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="AW8" s="12" t="s">
+        <v>545</v>
+      </c>
+      <c r="AX8" s="1" t="n">
+        <v>20</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B9" s="0" t="s">
-        <v>505</v>
-      </c>
-      <c r="C9" s="0" t="s">
-        <v>483</v>
+        <v>546</v>
+      </c>
+      <c r="C9" s="16" t="s">
+        <v>508</v>
       </c>
       <c r="D9" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="E9" s="15" t="n">
+        <f aca="false">D9/$D$3</f>
+        <v>0.0859598853868195</v>
+      </c>
+      <c r="G9" s="8"/>
+      <c r="H9" s="13"/>
+      <c r="J9" s="12" t="s">
+        <v>547</v>
+      </c>
+      <c r="K9" s="11" t="n">
         <v>20</v>
       </c>
-      <c r="E9" s="0"/>
-      <c r="G9" s="7"/>
-      <c r="H9" s="5"/>
-      <c r="J9" s="7"/>
-      <c r="K9" s="5"/>
-      <c r="M9" s="12" t="s">
-        <v>506</v>
-      </c>
-      <c r="N9" s="11" t="n">
-        <v>10</v>
-      </c>
-      <c r="P9" s="0" t="s">
-        <v>507</v>
-      </c>
-      <c r="Q9" s="1" t="n">
-        <v>10</v>
+      <c r="M9" s="8"/>
+      <c r="N9" s="13"/>
+      <c r="P9" s="12" t="s">
+        <v>548</v>
+      </c>
+      <c r="Q9" s="11" t="n">
+        <v>20</v>
+      </c>
+      <c r="S9" s="0" t="s">
+        <v>549</v>
+      </c>
+      <c r="T9" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="V9" s="12" t="s">
+        <v>541</v>
+      </c>
+      <c r="W9" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="Y9" s="12"/>
+      <c r="Z9" s="1"/>
+      <c r="AB9" s="12" t="s">
+        <v>550</v>
+      </c>
+      <c r="AC9" s="1" t="n">
+        <v>40</v>
+      </c>
+      <c r="AE9" s="12"/>
+      <c r="AF9" s="1"/>
+      <c r="AH9" s="12"/>
+      <c r="AI9" s="1"/>
+      <c r="AK9" s="12"/>
+      <c r="AL9" s="1"/>
+      <c r="AN9" s="12"/>
+      <c r="AO9" s="1"/>
+      <c r="AQ9" s="12"/>
+      <c r="AR9" s="1"/>
+      <c r="AT9" s="12" t="s">
+        <v>551</v>
+      </c>
+      <c r="AU9" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="AW9" s="12" t="s">
+        <v>552</v>
+      </c>
+      <c r="AX9" s="1" t="n">
+        <v>20</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B10" s="0" t="s">
-        <v>508</v>
-      </c>
-      <c r="C10" s="0" t="s">
-        <v>509</v>
+        <v>553</v>
+      </c>
+      <c r="C10" s="16" t="s">
+        <v>490</v>
       </c>
       <c r="D10" s="1" t="n">
+        <v>40</v>
+      </c>
+      <c r="E10" s="15" t="n">
+        <f aca="false">D10/$D$3</f>
+        <v>0.114613180515759</v>
+      </c>
+      <c r="G10" s="8"/>
+      <c r="H10" s="13"/>
+      <c r="J10" s="12" t="s">
+        <v>554</v>
+      </c>
+      <c r="K10" s="11" t="n">
         <v>20</v>
       </c>
-      <c r="E10" s="0"/>
-      <c r="G10" s="7"/>
-      <c r="H10" s="5"/>
-      <c r="J10" s="7"/>
-      <c r="K10" s="5"/>
-      <c r="M10" s="0" t="s">
-        <v>510</v>
-      </c>
-      <c r="N10" s="11" t="n">
-        <v>10</v>
-      </c>
+      <c r="M10" s="8"/>
+      <c r="N10" s="13"/>
+      <c r="P10" s="0" t="s">
+        <v>555</v>
+      </c>
+      <c r="Q10" s="11" t="n">
+        <v>20</v>
+      </c>
+      <c r="S10" s="0" t="s">
+        <v>556</v>
+      </c>
+      <c r="T10" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="V10" s="0" t="s">
+        <v>549</v>
+      </c>
+      <c r="W10" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="Z10" s="1"/>
+      <c r="AB10" s="0" t="s">
+        <v>557</v>
+      </c>
+      <c r="AC10" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="AF10" s="1"/>
+      <c r="AI10" s="1"/>
+      <c r="AL10" s="1"/>
+      <c r="AO10" s="1"/>
+      <c r="AR10" s="1"/>
+      <c r="AT10" s="0" t="s">
+        <v>558</v>
+      </c>
+      <c r="AU10" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="AX10" s="1"/>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B11" s="12" t="s">
-        <v>511</v>
-      </c>
-      <c r="C11" s="12" t="s">
-        <v>512</v>
-      </c>
-      <c r="D11" s="11" t="n">
+      <c r="B11" s="0" t="s">
+        <v>559</v>
+      </c>
+      <c r="C11" s="16" t="s">
+        <v>491</v>
+      </c>
+      <c r="D11" s="1" t="n">
+        <v>40</v>
+      </c>
+      <c r="E11" s="15" t="n">
+        <f aca="false">D11/$D$3</f>
+        <v>0.114613180515759</v>
+      </c>
+      <c r="G11" s="8"/>
+      <c r="H11" s="13"/>
+      <c r="J11" s="12" t="s">
+        <v>560</v>
+      </c>
+      <c r="K11" s="11" t="n">
+        <v>10</v>
+      </c>
+      <c r="M11" s="8"/>
+      <c r="N11" s="13"/>
+      <c r="P11" s="12" t="s">
+        <v>561</v>
+      </c>
+      <c r="Q11" s="11" t="n">
         <v>20</v>
       </c>
-      <c r="E11" s="0"/>
-      <c r="G11" s="7"/>
-      <c r="H11" s="5"/>
-      <c r="J11" s="7"/>
-      <c r="K11" s="5"/>
-      <c r="M11" s="12"/>
-      <c r="N11" s="5"/>
+      <c r="S11" s="0" t="s">
+        <v>562</v>
+      </c>
+      <c r="T11" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="V11" s="12" t="s">
+        <v>562</v>
+      </c>
+      <c r="W11" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="Y11" s="12"/>
+      <c r="Z11" s="1"/>
+      <c r="AB11" s="12" t="s">
+        <v>555</v>
+      </c>
+      <c r="AC11" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="AE11" s="12"/>
+      <c r="AF11" s="1"/>
+      <c r="AH11" s="12"/>
+      <c r="AI11" s="1"/>
+      <c r="AK11" s="12"/>
+      <c r="AL11" s="1"/>
+      <c r="AN11" s="12"/>
+      <c r="AO11" s="1"/>
+      <c r="AQ11" s="12"/>
+      <c r="AR11" s="1"/>
+      <c r="AT11" s="12" t="s">
+        <v>563</v>
+      </c>
+      <c r="AU11" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="AW11" s="12"/>
+      <c r="AX11" s="1"/>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B12" s="0" t="s">
-        <v>513</v>
-      </c>
-      <c r="C12" s="0" t="s">
-        <v>514</v>
-      </c>
-      <c r="D12" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="E12" s="0"/>
-      <c r="H12" s="0"/>
-      <c r="K12" s="0"/>
-      <c r="N12" s="0"/>
-      <c r="Q12" s="0"/>
+      <c r="B12" s="12" t="s">
+        <v>564</v>
+      </c>
+      <c r="C12" s="12" t="s">
+        <v>492</v>
+      </c>
+      <c r="D12" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="E12" s="15" t="n">
+        <f aca="false">D12/$D$3</f>
+        <v>0.00286532951289398</v>
+      </c>
+      <c r="J12" s="12" t="s">
+        <v>565</v>
+      </c>
+      <c r="K12" s="11" t="n">
+        <v>10</v>
+      </c>
+      <c r="P12" s="0" t="s">
+        <v>523</v>
+      </c>
+      <c r="Q12" s="11" t="n">
+        <v>20</v>
+      </c>
+      <c r="S12" s="0" t="s">
+        <v>566</v>
+      </c>
+      <c r="T12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="V12" s="0" t="s">
+        <v>567</v>
+      </c>
+      <c r="W12" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="AB12" s="0" t="s">
+        <v>568</v>
+      </c>
+      <c r="AC12" s="1" t="n">
+        <v>40</v>
+      </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B13" s="0" t="s">
-        <v>515</v>
-      </c>
-      <c r="C13" s="0" t="s">
-        <v>516</v>
+        <v>569</v>
+      </c>
+      <c r="C13" s="16" t="s">
+        <v>493</v>
       </c>
       <c r="D13" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="E13" s="0"/>
-      <c r="G13" s="2" t="s">
-        <v>509</v>
-      </c>
-      <c r="H13" s="2"/>
-      <c r="I13" s="3"/>
-      <c r="J13" s="2" t="s">
-        <v>512</v>
-      </c>
-      <c r="K13" s="2"/>
-      <c r="L13" s="3"/>
-      <c r="M13" s="2" t="s">
-        <v>514</v>
-      </c>
-      <c r="N13" s="2"/>
-      <c r="P13" s="2" t="s">
-        <v>517</v>
-      </c>
-      <c r="Q13" s="2"/>
+        <v>20</v>
+      </c>
+      <c r="E13" s="15" t="n">
+        <f aca="false">D13/$D$3</f>
+        <v>0.0573065902578797</v>
+      </c>
+      <c r="P13" s="0" t="s">
+        <v>563</v>
+      </c>
+      <c r="Q13" s="11" t="n">
+        <v>20</v>
+      </c>
+      <c r="S13" s="0" t="s">
+        <v>558</v>
+      </c>
+      <c r="T13" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="AB13" s="0" t="s">
+        <v>565</v>
+      </c>
+      <c r="AC13" s="1" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B14" s="0" t="s">
-        <v>518</v>
+        <v>570</v>
       </c>
       <c r="C14" s="0" t="s">
-        <v>519</v>
+        <v>571</v>
       </c>
       <c r="D14" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="E14" s="0"/>
-      <c r="G14" s="3"/>
-      <c r="H14" s="3"/>
-      <c r="I14" s="3"/>
-      <c r="J14" s="3"/>
-      <c r="K14" s="3"/>
-      <c r="L14" s="3"/>
-      <c r="M14" s="3"/>
-      <c r="N14" s="3"/>
-      <c r="P14" s="3"/>
-      <c r="Q14" s="3"/>
+      <c r="E14" s="15" t="n">
+        <f aca="false">D14/$D$3</f>
+        <v>0.00286532951289398</v>
+      </c>
+      <c r="P14" s="0" t="s">
+        <v>517</v>
+      </c>
+      <c r="Q14" s="11" t="n">
+        <v>20</v>
+      </c>
+      <c r="S14" s="0" t="s">
+        <v>568</v>
+      </c>
+      <c r="T14" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="AB14" s="0" t="s">
+        <v>572</v>
+      </c>
+      <c r="AC14" s="1" t="n">
+        <v>20</v>
+      </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B15" s="0" t="s">
-        <v>520</v>
+        <v>573</v>
       </c>
       <c r="C15" s="0" t="s">
-        <v>521</v>
+        <v>574</v>
       </c>
       <c r="D15" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="E15" s="0"/>
-      <c r="G15" s="7" t="s">
-        <v>509</v>
-      </c>
-      <c r="H15" s="5" t="n">
-        <f aca="false">SUM(H16:H21)</f>
-        <v>100</v>
-      </c>
-      <c r="J15" s="7" t="s">
-        <v>512</v>
-      </c>
-      <c r="K15" s="5" t="n">
-        <f aca="false">SUM(K16:K21)</f>
-        <v>100</v>
-      </c>
-      <c r="M15" s="7" t="s">
-        <v>514</v>
-      </c>
-      <c r="N15" s="5" t="n">
-        <f aca="false">SUM(N16:N21)</f>
-        <v>100</v>
-      </c>
-      <c r="P15" s="7" t="s">
-        <v>517</v>
-      </c>
-      <c r="Q15" s="5" t="n">
-        <f aca="false">SUM(Q16:Q21)</f>
-        <v>100</v>
+      <c r="E15" s="15" t="n">
+        <f aca="false">D15/$D$3</f>
+        <v>0.00286532951289398</v>
+      </c>
+      <c r="P15" s="0" t="s">
+        <v>575</v>
+      </c>
+      <c r="Q15" s="11" t="n">
+        <v>20</v>
+      </c>
+      <c r="S15" s="0" t="s">
+        <v>576</v>
+      </c>
+      <c r="T15" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="AB15" s="0" t="s">
+        <v>577</v>
+      </c>
+      <c r="AC15" s="1" t="n">
+        <v>20</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B16" s="0" t="s">
-        <v>522</v>
+        <v>578</v>
       </c>
       <c r="C16" s="0" t="s">
-        <v>517</v>
+        <v>579</v>
       </c>
       <c r="D16" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="E16" s="15" t="n">
+        <f aca="false">D16/$D$3</f>
+        <v>0.00286532951289398</v>
+      </c>
+      <c r="P16" s="0" t="s">
+        <v>530</v>
+      </c>
+      <c r="Q16" s="11" t="n">
         <v>20</v>
       </c>
-      <c r="E16" s="0"/>
-      <c r="G16" s="0" t="s">
-        <v>497</v>
-      </c>
-      <c r="H16" s="1" t="n">
-        <v>40</v>
-      </c>
-      <c r="J16" s="0" t="s">
-        <v>523</v>
-      </c>
-      <c r="K16" s="1" t="n">
-        <v>35</v>
-      </c>
-      <c r="M16" s="0" t="s">
-        <v>524</v>
-      </c>
-      <c r="N16" s="1" t="n">
-        <v>30</v>
-      </c>
-      <c r="P16" s="0" t="s">
-        <v>496</v>
-      </c>
-      <c r="Q16" s="1" t="n">
-        <v>15</v>
+      <c r="S16" s="0" t="s">
+        <v>543</v>
+      </c>
+      <c r="T16" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="AB16" s="0" t="s">
+        <v>580</v>
+      </c>
+      <c r="AC16" s="1" t="n">
+        <v>20</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B17" s="0" t="s">
-        <v>525</v>
+        <v>581</v>
       </c>
       <c r="C17" s="0" t="s">
-        <v>526</v>
+        <v>494</v>
       </c>
       <c r="D17" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="E17" s="0"/>
-      <c r="G17" s="0" t="s">
-        <v>501</v>
-      </c>
-      <c r="H17" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="J17" s="0" t="s">
-        <v>527</v>
-      </c>
-      <c r="K17" s="1" t="n">
-        <v>35</v>
-      </c>
-      <c r="M17" s="0" t="s">
-        <v>528</v>
-      </c>
-      <c r="N17" s="1" t="n">
-        <v>30</v>
+        <v>1</v>
+      </c>
+      <c r="E17" s="15" t="n">
+        <f aca="false">D17/$D$3</f>
+        <v>0.00286532951289398</v>
       </c>
       <c r="P17" s="0" t="s">
-        <v>528</v>
-      </c>
-      <c r="Q17" s="1" t="n">
-        <v>15</v>
+        <v>582</v>
+      </c>
+      <c r="Q17" s="11" t="n">
+        <v>20</v>
+      </c>
+      <c r="S17" s="0" t="s">
+        <v>536</v>
+      </c>
+      <c r="T17" s="1" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B18" s="0" t="s">
-        <v>529</v>
-      </c>
-      <c r="C18" s="0" t="s">
-        <v>530</v>
+        <v>583</v>
+      </c>
+      <c r="C18" s="16" t="s">
+        <v>495</v>
       </c>
       <c r="D18" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="E18" s="0"/>
-      <c r="G18" s="0" t="s">
-        <v>504</v>
-      </c>
-      <c r="H18" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="J18" s="0" t="s">
-        <v>531</v>
-      </c>
-      <c r="K18" s="1" t="n">
-        <v>30</v>
-      </c>
-      <c r="M18" s="0" t="s">
-        <v>502</v>
-      </c>
-      <c r="N18" s="1" t="n">
-        <v>30</v>
-      </c>
-      <c r="P18" s="0" t="s">
-        <v>532</v>
-      </c>
-      <c r="Q18" s="1" t="n">
-        <v>40</v>
+        <v>20</v>
+      </c>
+      <c r="E18" s="15" t="n">
+        <f aca="false">D18/$D$3</f>
+        <v>0.0573065902578797</v>
+      </c>
+      <c r="S18" s="0" t="s">
+        <v>580</v>
+      </c>
+      <c r="T18" s="1" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B19" s="0" t="s">
-        <v>533</v>
-      </c>
-      <c r="C19" s="0" t="s">
-        <v>534</v>
+        <v>584</v>
+      </c>
+      <c r="C19" s="16" t="s">
+        <v>496</v>
       </c>
       <c r="D19" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="E19" s="0"/>
-      <c r="G19" s="0" t="s">
-        <v>502</v>
-      </c>
-      <c r="H19" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="M19" s="0" t="s">
-        <v>535</v>
-      </c>
-      <c r="N19" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="P19" s="0" t="s">
-        <v>527</v>
-      </c>
-      <c r="Q19" s="1" t="n">
-        <v>15</v>
+        <v>20</v>
+      </c>
+      <c r="E19" s="15" t="n">
+        <f aca="false">D19/$D$3</f>
+        <v>0.0573065902578797</v>
+      </c>
+      <c r="S19" s="0" t="s">
+        <v>585</v>
+      </c>
+      <c r="T19" s="1" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B20" s="0" t="s">
-        <v>536</v>
-      </c>
-      <c r="C20" s="0" t="s">
-        <v>537</v>
+        <v>586</v>
+      </c>
+      <c r="C20" s="16" t="s">
+        <v>497</v>
       </c>
       <c r="D20" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="E20" s="0"/>
-      <c r="G20" s="0" t="s">
-        <v>532</v>
-      </c>
-      <c r="H20" s="1" t="n">
-        <v>20</v>
-      </c>
-      <c r="P20" s="0" t="s">
-        <v>523</v>
-      </c>
-      <c r="Q20" s="1" t="n">
-        <v>15</v>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="E20" s="15" t="n">
+        <f aca="false">D20/$D$3</f>
+        <v>0.0859598853868195</v>
+      </c>
+      <c r="T20" s="1"/>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B21" s="0" t="s">
-        <v>538</v>
-      </c>
-      <c r="C21" s="0" t="s">
-        <v>539</v>
+        <v>587</v>
+      </c>
+      <c r="C21" s="16" t="s">
+        <v>498</v>
       </c>
       <c r="D21" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="E21" s="0"/>
-      <c r="G21" s="0" t="s">
-        <v>510</v>
-      </c>
-      <c r="H21" s="1" t="n">
-        <v>10</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="E21" s="15" t="n">
+        <f aca="false">D21/$D$3</f>
+        <v>0.0573065902578797</v>
+      </c>
+      <c r="T21" s="1"/>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B22" s="0" t="s">
-        <v>540</v>
+        <v>588</v>
       </c>
       <c r="C22" s="0" t="s">
-        <v>541</v>
+        <v>589</v>
       </c>
       <c r="D22" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="E22" s="15" t="n">
+        <f aca="false">D22/$D$3</f>
+        <v>0.00286532951289398</v>
+      </c>
+      <c r="T22" s="1"/>
+    </row>
+    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B23" s="0" t="s">
+        <v>590</v>
+      </c>
+      <c r="C23" s="16" t="s">
+        <v>499</v>
+      </c>
+      <c r="D23" s="1" t="n">
         <v>20</v>
       </c>
-      <c r="E22" s="0"/>
-    </row>
-    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D23" s="0"/>
-      <c r="H23" s="0"/>
-      <c r="K23" s="0"/>
-      <c r="N23" s="0"/>
-      <c r="Q23" s="0"/>
+      <c r="E23" s="15" t="n">
+        <f aca="false">D23/$D$3</f>
+        <v>0.0573065902578797</v>
+      </c>
+      <c r="T23" s="1"/>
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G24" s="2" t="s">
-        <v>526</v>
-      </c>
-      <c r="H24" s="2"/>
-      <c r="I24" s="3"/>
-      <c r="J24" s="2" t="s">
-        <v>530</v>
-      </c>
-      <c r="K24" s="2"/>
-      <c r="L24" s="3"/>
-      <c r="M24" s="2" t="s">
+      <c r="B24" s="0" t="s">
+        <v>591</v>
+      </c>
+      <c r="C24" s="0" t="s">
+        <v>592</v>
+      </c>
+      <c r="D24" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="E24" s="15" t="n">
+        <f aca="false">D24/$D$3</f>
+        <v>0.00286532951289398</v>
+      </c>
+      <c r="T24" s="1"/>
+    </row>
+    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B25" s="0" t="s">
+        <v>593</v>
+      </c>
+      <c r="C25" s="16" t="s">
+        <v>500</v>
+      </c>
+      <c r="D25" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="E25" s="15" t="n">
+        <f aca="false">D25/$D$3</f>
+        <v>0.0859598853868195</v>
+      </c>
+      <c r="T25" s="1"/>
+    </row>
+    <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="T26" s="1"/>
+    </row>
+    <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="T27" s="1"/>
+    </row>
+    <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B28" s="5" t="s">
+        <v>594</v>
+      </c>
+      <c r="C28" s="5"/>
+      <c r="D28" s="5"/>
+      <c r="T28" s="1"/>
+    </row>
+    <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B29" s="8" t="s">
+        <v>501</v>
+      </c>
+      <c r="C29" s="8" t="s">
+        <v>502</v>
+      </c>
+      <c r="D29" s="13"/>
+      <c r="T29" s="1"/>
+    </row>
+    <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B30" s="12" t="s">
+        <v>503</v>
+      </c>
+      <c r="C30" s="0" t="s">
+        <v>595</v>
+      </c>
+      <c r="D30" s="11"/>
+      <c r="T30" s="1"/>
+    </row>
+    <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B31" s="16" t="s">
+        <v>509</v>
+      </c>
+      <c r="C31" s="0" t="s">
+        <v>596</v>
+      </c>
+      <c r="T31" s="1"/>
+    </row>
+    <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B32" s="16" t="s">
+        <v>521</v>
+      </c>
+      <c r="C32" s="0" t="s">
+        <v>597</v>
+      </c>
+      <c r="T32" s="1"/>
+    </row>
+    <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B33" s="16" t="s">
+        <v>527</v>
+      </c>
+      <c r="C33" s="0" t="s">
+        <v>507</v>
+      </c>
+      <c r="T33" s="1"/>
+    </row>
+    <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B34" s="0" t="s">
         <v>537</v>
       </c>
-      <c r="N24" s="2"/>
-      <c r="O24" s="3"/>
-      <c r="P24" s="2" t="s">
-        <v>541</v>
-      </c>
-      <c r="Q24" s="2"/>
-    </row>
-    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B25" s="8" t="s">
-        <v>542</v>
-      </c>
-      <c r="C25" s="8"/>
-      <c r="D25" s="8"/>
-      <c r="G25" s="3"/>
-      <c r="H25" s="3"/>
-      <c r="I25" s="3"/>
-      <c r="J25" s="3"/>
-      <c r="K25" s="3"/>
-      <c r="L25" s="3"/>
-      <c r="M25" s="3"/>
-      <c r="N25" s="3"/>
-      <c r="O25" s="3"/>
-      <c r="P25" s="3"/>
-      <c r="Q25" s="3"/>
-    </row>
-    <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B26" s="7" t="s">
-        <v>484</v>
-      </c>
-      <c r="C26" s="7" t="s">
-        <v>485</v>
-      </c>
-      <c r="D26" s="5"/>
-      <c r="G26" s="7" t="s">
-        <v>526</v>
-      </c>
-      <c r="H26" s="5" t="n">
-        <f aca="false">SUM(H27:H32)</f>
-        <v>100</v>
-      </c>
-      <c r="J26" s="7" t="s">
-        <v>530</v>
-      </c>
-      <c r="K26" s="5" t="n">
-        <f aca="false">SUM(K27:K32)</f>
-        <v>100</v>
-      </c>
-      <c r="M26" s="7" t="s">
-        <v>537</v>
-      </c>
-      <c r="N26" s="5" t="n">
-        <f aca="false">SUM(N27:N32)</f>
-        <v>100</v>
-      </c>
-      <c r="P26" s="7" t="s">
-        <v>541</v>
-      </c>
-      <c r="Q26" s="5" t="n">
-        <f aca="false">SUM(Q27:Q32)</f>
-        <v>100</v>
-      </c>
-    </row>
-    <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B27" s="12" t="s">
-        <v>486</v>
-      </c>
-      <c r="C27" s="0" t="s">
-        <v>543</v>
-      </c>
-      <c r="D27" s="11"/>
-      <c r="G27" s="0" t="s">
-        <v>506</v>
-      </c>
-      <c r="H27" s="1" t="n">
-        <v>25</v>
-      </c>
-      <c r="J27" s="0" t="s">
-        <v>524</v>
-      </c>
-      <c r="K27" s="1" t="n">
-        <v>20</v>
-      </c>
-      <c r="M27" s="0" t="s">
-        <v>523</v>
-      </c>
-      <c r="N27" s="1" t="n">
-        <v>35</v>
-      </c>
-      <c r="P27" s="0" t="s">
-        <v>544</v>
-      </c>
-      <c r="Q27" s="1" t="n">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B28" s="0" t="s">
-        <v>491</v>
-      </c>
-      <c r="C28" s="0" t="s">
-        <v>492</v>
-      </c>
-      <c r="G28" s="0" t="s">
-        <v>510</v>
-      </c>
-      <c r="H28" s="1" t="n">
-        <v>50</v>
-      </c>
-      <c r="J28" s="0" t="s">
-        <v>528</v>
-      </c>
-      <c r="K28" s="1" t="n">
-        <v>20</v>
-      </c>
-      <c r="M28" s="0" t="s">
-        <v>527</v>
-      </c>
-      <c r="N28" s="1" t="n">
-        <v>35</v>
-      </c>
-      <c r="P28" s="0" t="s">
-        <v>532</v>
-      </c>
-      <c r="Q28" s="1" t="n">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B29" s="0" t="s">
-        <v>494</v>
-      </c>
-      <c r="C29" s="0" t="s">
-        <v>545</v>
-      </c>
-      <c r="G29" s="0" t="s">
-        <v>507</v>
-      </c>
-      <c r="H29" s="1" t="n">
-        <v>25</v>
-      </c>
-      <c r="J29" s="0" t="s">
-        <v>544</v>
-      </c>
-      <c r="K29" s="1" t="n">
-        <v>40</v>
-      </c>
-      <c r="M29" s="0" t="s">
-        <v>531</v>
-      </c>
-      <c r="N29" s="1" t="n">
-        <v>30</v>
-      </c>
-      <c r="P29" s="0" t="s">
-        <v>500</v>
-      </c>
-      <c r="Q29" s="1" t="n">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B30" s="0" t="s">
-        <v>498</v>
-      </c>
-      <c r="C30" s="0" t="s">
-        <v>543</v>
-      </c>
-      <c r="J30" s="0" t="s">
-        <v>535</v>
-      </c>
-      <c r="K30" s="1" t="n">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B31" s="0" t="s">
-        <v>503</v>
-      </c>
-      <c r="C31" s="0" t="s">
+      <c r="C34" s="0" t="s">
+        <v>595</v>
+      </c>
+      <c r="T34" s="1"/>
+    </row>
+    <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B35" s="16" t="s">
         <v>546</v>
       </c>
-    </row>
-    <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B32" s="0" t="s">
-        <v>505</v>
-      </c>
-      <c r="C32" s="0" t="s">
-        <v>547</v>
-      </c>
-    </row>
-    <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B33" s="0" t="s">
-        <v>508</v>
-      </c>
-      <c r="C33" s="0" t="s">
-        <v>548</v>
-      </c>
-    </row>
-    <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B34" s="12" t="s">
-        <v>511</v>
-      </c>
-      <c r="C34" s="0" t="s">
-        <v>549</v>
-      </c>
-      <c r="D34" s="11"/>
-    </row>
-    <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B35" s="0" t="s">
-        <v>513</v>
-      </c>
       <c r="C35" s="0" t="s">
-        <v>550</v>
-      </c>
+        <v>598</v>
+      </c>
+      <c r="T35" s="1"/>
     </row>
     <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B36" s="0" t="s">
-        <v>515</v>
+      <c r="B36" s="16" t="s">
+        <v>553</v>
       </c>
       <c r="C36" s="0" t="s">
-        <v>543</v>
-      </c>
+        <v>599</v>
+      </c>
+      <c r="T36" s="1"/>
     </row>
     <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B37" s="0" t="s">
-        <v>518</v>
+      <c r="B37" s="16" t="s">
+        <v>559</v>
       </c>
       <c r="C37" s="0" t="s">
-        <v>543</v>
-      </c>
+        <v>600</v>
+      </c>
+      <c r="T37" s="1"/>
     </row>
     <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B38" s="0" t="s">
-        <v>520</v>
+      <c r="B38" s="12" t="s">
+        <v>564</v>
       </c>
       <c r="C38" s="0" t="s">
-        <v>543</v>
-      </c>
+        <v>595</v>
+      </c>
+      <c r="D38" s="11"/>
+      <c r="T38" s="1"/>
     </row>
     <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B39" s="0" t="s">
-        <v>522</v>
+      <c r="B39" s="16" t="s">
+        <v>569</v>
       </c>
       <c r="C39" s="0" t="s">
-        <v>551</v>
-      </c>
+        <v>601</v>
+      </c>
+      <c r="T39" s="1"/>
     </row>
     <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B40" s="0" t="s">
-        <v>525</v>
+        <v>570</v>
       </c>
       <c r="C40" s="0" t="s">
-        <v>552</v>
-      </c>
+        <v>595</v>
+      </c>
+      <c r="T40" s="1"/>
     </row>
     <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B41" s="0" t="s">
-        <v>529</v>
+        <v>573</v>
       </c>
       <c r="C41" s="0" t="s">
-        <v>553</v>
-      </c>
+        <v>595</v>
+      </c>
+      <c r="T41" s="1"/>
     </row>
     <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B42" s="0" t="s">
-        <v>533</v>
+        <v>578</v>
       </c>
       <c r="C42" s="0" t="s">
-        <v>543</v>
-      </c>
+        <v>595</v>
+      </c>
+      <c r="T42" s="1"/>
     </row>
     <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B43" s="0" t="s">
-        <v>536</v>
+        <v>581</v>
       </c>
       <c r="C43" s="0" t="s">
-        <v>554</v>
-      </c>
+        <v>595</v>
+      </c>
+      <c r="T43" s="1"/>
     </row>
     <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B44" s="0" t="s">
-        <v>538</v>
+      <c r="B44" s="16" t="s">
+        <v>583</v>
       </c>
       <c r="C44" s="0" t="s">
-        <v>543</v>
-      </c>
+        <v>495</v>
+      </c>
+      <c r="T44" s="1"/>
     </row>
     <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B45" s="0" t="s">
-        <v>540</v>
+      <c r="B45" s="16" t="s">
+        <v>584</v>
       </c>
       <c r="C45" s="0" t="s">
-        <v>555</v>
-      </c>
+        <v>496</v>
+      </c>
+      <c r="T45" s="1"/>
+    </row>
+    <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B46" s="16" t="s">
+        <v>586</v>
+      </c>
+      <c r="C46" s="0" t="s">
+        <v>602</v>
+      </c>
+      <c r="T46" s="1"/>
+    </row>
+    <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B47" s="16" t="s">
+        <v>587</v>
+      </c>
+      <c r="C47" s="0" t="s">
+        <v>603</v>
+      </c>
+      <c r="T47" s="1"/>
+    </row>
+    <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B48" s="0" t="s">
+        <v>588</v>
+      </c>
+      <c r="C48" s="0" t="s">
+        <v>595</v>
+      </c>
+      <c r="T48" s="1"/>
+    </row>
+    <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B49" s="16" t="s">
+        <v>590</v>
+      </c>
+      <c r="C49" s="0" t="s">
+        <v>604</v>
+      </c>
+      <c r="T49" s="1"/>
+    </row>
+    <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B50" s="17" t="s">
+        <v>591</v>
+      </c>
+      <c r="C50" s="0" t="s">
+        <v>595</v>
+      </c>
+      <c r="T50" s="1"/>
+    </row>
+    <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B51" s="16" t="s">
+        <v>593</v>
+      </c>
+      <c r="C51" s="0" t="s">
+        <v>605</v>
+      </c>
+      <c r="T51" s="1"/>
+    </row>
+    <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="T52" s="1"/>
+    </row>
+    <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="T53" s="1"/>
+    </row>
+    <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="T54" s="1"/>
+    </row>
+    <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="T55" s="1"/>
+    </row>
+    <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="T56" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="B2:D2"/>
-    <mergeCell ref="B25:D25"/>
+    <mergeCell ref="B28:D28"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
@@ -7601,5 +8445,6 @@
     <oddHeader/>
     <oddFooter/>
   </headerFooter>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/city-npc/Ptolus_City_NPC_Encounter.xlsx
+++ b/city-npc/Ptolus_City_NPC_Encounter.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="3"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="START" sheetId="1" state="visible" r:id="rId2"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="904" uniqueCount="606">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="904" uniqueCount="607">
   <si>
     <t xml:space="preserve">MORTAL</t>
   </si>
@@ -1818,6 +1818,9 @@
   </si>
   <si>
     <t xml:space="preserve">[generator:deity-28death29-soullink|{}|deity]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[generator:deity-28future29-soullink|{}|deity]</t>
   </si>
   <si>
     <t xml:space="preserve">[generator:deity-28knowledge29-soullink|{}|deity]</t>
@@ -1853,7 +1856,7 @@
     <numFmt numFmtId="165" formatCode="General"/>
     <numFmt numFmtId="166" formatCode="0%"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="9">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -1897,6 +1900,16 @@
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="0"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="Calibri"/>
+      <family val="0"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
       <family val="0"/>
     </font>
   </fonts>
@@ -1968,7 +1981,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="16">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -2021,10 +2034,6 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -2034,10 +2043,6 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2124,9 +2129,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>2970000</xdr:colOff>
+      <xdr:colOff>2969640</xdr:colOff>
       <xdr:row>57</xdr:row>
-      <xdr:rowOff>135360</xdr:rowOff>
+      <xdr:rowOff>135000</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2136,19 +2141,17 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="1033200" y="9322560"/>
-          <a:ext cx="3159720" cy="802440"/>
+          <a:ext cx="3159360" cy="802080"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
         <a:solidFill>
-          <a:schemeClr val="lt1"/>
+          <a:srgbClr val="ffffff"/>
         </a:solidFill>
         <a:ln w="9360">
           <a:solidFill>
-            <a:schemeClr val="lt1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
+            <a:srgbClr val="ffffff"/>
           </a:solidFill>
           <a:round/>
         </a:ln>
@@ -2258,7 +2261,7 @@
       <selection pane="topLeft" activeCell="N7" activeCellId="0" sqref="N7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.70703125" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.72265625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="25.56"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="8.6"/>
@@ -2612,7 +2615,7 @@
       <selection pane="topLeft" activeCell="P4" activeCellId="0" sqref="P4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.70703125" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.72265625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="2.49"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="13.19"/>
@@ -4486,7 +4489,7 @@
       <selection pane="topLeft" activeCell="I23" activeCellId="0" sqref="I23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1" s="0" t="s">
@@ -5303,11 +5306,11 @@
   </sheetPr>
   <dimension ref="A2:AMJ118"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="K25" activeCellId="0" sqref="K25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.70703125" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.72265625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="19.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="31.28"/>
@@ -5497,27 +5500,27 @@
       </c>
       <c r="M4" s="6"/>
       <c r="O4" s="3"/>
-      <c r="P4" s="13" t="n">
+      <c r="P4" s="6" t="n">
         <f aca="false">SUM(P5:P9)</f>
         <v>100</v>
       </c>
-      <c r="S4" s="14" t="n">
+      <c r="S4" s="13" t="n">
         <f aca="false">SUM(S5:S11)</f>
         <v>100</v>
       </c>
-      <c r="V4" s="14" t="n">
+      <c r="V4" s="13" t="n">
         <f aca="false">SUM(V5:V11)</f>
         <v>70</v>
       </c>
-      <c r="Y4" s="14" t="n">
+      <c r="Y4" s="13" t="n">
         <f aca="false">SUM(Y5:Y11)</f>
         <v>100</v>
       </c>
-      <c r="AB4" s="14" t="n">
+      <c r="AB4" s="13" t="n">
         <f aca="false">SUM(AB5:AB11)</f>
         <v>20</v>
       </c>
-      <c r="AE4" s="14" t="n">
+      <c r="AE4" s="13" t="n">
         <f aca="false">SUM(AE5:AE11)</f>
         <v>120</v>
       </c>
@@ -5573,7 +5576,7 @@
       <c r="R5" s="0" t="s">
         <v>358</v>
       </c>
-      <c r="S5" s="14" t="n">
+      <c r="S5" s="13" t="n">
         <v>10</v>
       </c>
       <c r="U5" s="0" t="s">
@@ -5585,7 +5588,7 @@
       <c r="X5" s="0" t="s">
         <v>360</v>
       </c>
-      <c r="Y5" s="14" t="n">
+      <c r="Y5" s="13" t="n">
         <v>10</v>
       </c>
       <c r="AA5" s="0" t="s">
@@ -5711,7 +5714,7 @@
       <c r="R7" s="0" t="s">
         <v>382</v>
       </c>
-      <c r="S7" s="14" t="n">
+      <c r="S7" s="13" t="n">
         <v>10</v>
       </c>
       <c r="U7" s="0" t="s">
@@ -5720,8 +5723,8 @@
       <c r="V7" s="11" t="n">
         <v>20</v>
       </c>
-      <c r="Y7" s="14"/>
-      <c r="AB7" s="14"/>
+      <c r="Y7" s="13"/>
+      <c r="AB7" s="13"/>
       <c r="AD7" s="0" t="s">
         <v>384</v>
       </c>
@@ -5768,7 +5771,7 @@
       <c r="R8" s="0" t="s">
         <v>390</v>
       </c>
-      <c r="S8" s="14" t="n">
+      <c r="S8" s="13" t="n">
         <v>20</v>
       </c>
       <c r="U8" s="0" t="s">
@@ -5777,9 +5780,9 @@
       <c r="V8" s="11" t="n">
         <v>10</v>
       </c>
-      <c r="Y8" s="14"/>
-      <c r="AB8" s="14"/>
-      <c r="AE8" s="14"/>
+      <c r="Y8" s="13"/>
+      <c r="AB8" s="13"/>
+      <c r="AE8" s="13"/>
       <c r="AG8" s="0" t="s">
         <v>392</v>
       </c>
@@ -5816,7 +5819,7 @@
       <c r="R9" s="0" t="s">
         <v>395</v>
       </c>
-      <c r="S9" s="14" t="n">
+      <c r="S9" s="13" t="n">
         <v>10</v>
       </c>
       <c r="U9" s="0" t="s">
@@ -5825,9 +5828,9 @@
       <c r="V9" s="11" t="n">
         <v>20</v>
       </c>
-      <c r="Y9" s="14"/>
-      <c r="AB9" s="14"/>
-      <c r="AE9" s="14"/>
+      <c r="Y9" s="13"/>
+      <c r="AB9" s="13"/>
+      <c r="AE9" s="13"/>
       <c r="AG9" s="0" t="s">
         <v>397</v>
       </c>
@@ -5854,20 +5857,20 @@
         <v>25</v>
       </c>
       <c r="M10" s="11"/>
-      <c r="P10" s="13" t="n">
+      <c r="P10" s="6" t="n">
         <f aca="false">SUM(P11:P15)</f>
         <v>110</v>
       </c>
       <c r="R10" s="0" t="s">
         <v>399</v>
       </c>
-      <c r="S10" s="14" t="n">
-        <v>10</v>
-      </c>
-      <c r="V10" s="14"/>
-      <c r="Y10" s="14"/>
-      <c r="AB10" s="14"/>
-      <c r="AE10" s="14"/>
+      <c r="S10" s="13" t="n">
+        <v>10</v>
+      </c>
+      <c r="V10" s="13"/>
+      <c r="Y10" s="13"/>
+      <c r="AB10" s="13"/>
+      <c r="AE10" s="13"/>
       <c r="AG10" s="0" t="s">
         <v>400</v>
       </c>
@@ -5888,7 +5891,7 @@
       <c r="P11" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="S11" s="14"/>
+      <c r="S11" s="13"/>
       <c r="AG11" s="0" t="s">
         <v>401</v>
       </c>
@@ -5915,7 +5918,7 @@
       <c r="P12" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="S12" s="14"/>
+      <c r="S12" s="13"/>
       <c r="AG12" s="0" t="s">
         <v>402</v>
       </c>
@@ -5948,7 +5951,7 @@
       <c r="P13" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="S13" s="14"/>
+      <c r="S13" s="13"/>
       <c r="AG13" s="0" t="s">
         <v>403</v>
       </c>
@@ -5982,7 +5985,7 @@
       <c r="P14" s="11" t="n">
         <v>10</v>
       </c>
-      <c r="S14" s="14"/>
+      <c r="S14" s="13"/>
       <c r="AG14" s="0" t="s">
         <v>405</v>
       </c>
@@ -6003,7 +6006,7 @@
       <c r="P15" s="11" t="n">
         <v>70</v>
       </c>
-      <c r="S15" s="14"/>
+      <c r="S15" s="13"/>
       <c r="AG15" s="0" t="s">
         <v>406</v>
       </c>
@@ -6022,11 +6025,11 @@
         <v>100</v>
       </c>
       <c r="M16" s="11"/>
-      <c r="P16" s="13" t="n">
+      <c r="P16" s="6" t="n">
         <f aca="false">SUM(P17:P21)</f>
         <v>100</v>
       </c>
-      <c r="S16" s="14"/>
+      <c r="S16" s="13"/>
       <c r="AG16" s="0" t="s">
         <v>407</v>
       </c>
@@ -6059,7 +6062,7 @@
       <c r="P17" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="S17" s="14"/>
+      <c r="S17" s="13"/>
       <c r="AG17" s="0" t="s">
         <v>408</v>
       </c>
@@ -6092,7 +6095,7 @@
       <c r="P18" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="S18" s="14"/>
+      <c r="S18" s="13"/>
       <c r="AG18" s="0" t="s">
         <v>410</v>
       </c>
@@ -6113,7 +6116,7 @@
       <c r="P19" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="S19" s="14"/>
+      <c r="S19" s="13"/>
       <c r="AG19" s="0" t="s">
         <v>411</v>
       </c>
@@ -6134,7 +6137,7 @@
       <c r="P20" s="11" t="n">
         <v>5</v>
       </c>
-      <c r="S20" s="14"/>
+      <c r="S20" s="13"/>
       <c r="AG20" s="0" t="s">
         <v>412</v>
       </c>
@@ -6155,7 +6158,7 @@
       <c r="P21" s="11" t="n">
         <v>80</v>
       </c>
-      <c r="S21" s="14"/>
+      <c r="S21" s="13"/>
       <c r="AG21" s="0" t="s">
         <v>413</v>
       </c>
@@ -6165,11 +6168,11 @@
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="L22" s="0"/>
-      <c r="P22" s="13" t="n">
+      <c r="P22" s="6" t="n">
         <f aca="false">SUM(P23:P27)</f>
         <v>110</v>
       </c>
-      <c r="S22" s="14"/>
+      <c r="S22" s="13"/>
       <c r="AG22" s="0" t="s">
         <v>414</v>
       </c>
@@ -6188,7 +6191,7 @@
       <c r="P23" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="S23" s="14"/>
+      <c r="S23" s="13"/>
       <c r="AG23" s="0" t="s">
         <v>415</v>
       </c>
@@ -6207,7 +6210,7 @@
       <c r="P24" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="S24" s="14"/>
+      <c r="S24" s="13"/>
       <c r="AG24" s="0" t="s">
         <v>416</v>
       </c>
@@ -6225,7 +6228,7 @@
       <c r="P25" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="S25" s="14"/>
+      <c r="S25" s="13"/>
       <c r="AG25" s="0" t="s">
         <v>417</v>
       </c>
@@ -6243,7 +6246,7 @@
       <c r="P26" s="11" t="n">
         <v>5</v>
       </c>
-      <c r="S26" s="14"/>
+      <c r="S26" s="13"/>
       <c r="AG26" s="0" t="s">
         <v>418</v>
       </c>
@@ -6261,7 +6264,7 @@
       <c r="P27" s="11" t="n">
         <v>90</v>
       </c>
-      <c r="S27" s="14"/>
+      <c r="S27" s="13"/>
       <c r="AG27" s="0" t="s">
         <v>419</v>
       </c>
@@ -6270,7 +6273,7 @@
       </c>
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="S28" s="14"/>
+      <c r="S28" s="13"/>
       <c r="AG28" s="0" t="s">
         <v>420</v>
       </c>
@@ -6279,7 +6282,7 @@
       </c>
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="S29" s="14"/>
+      <c r="S29" s="13"/>
       <c r="AG29" s="0" t="s">
         <v>421</v>
       </c>
@@ -6288,7 +6291,7 @@
       </c>
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="S30" s="14"/>
+      <c r="S30" s="13"/>
       <c r="AG30" s="0" t="s">
         <v>422</v>
       </c>
@@ -6297,7 +6300,7 @@
       </c>
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="S31" s="14"/>
+      <c r="S31" s="13"/>
       <c r="AG31" s="0" t="s">
         <v>423</v>
       </c>
@@ -6306,7 +6309,7 @@
       </c>
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="S32" s="14"/>
+      <c r="S32" s="13"/>
       <c r="AG32" s="0" t="s">
         <v>424</v>
       </c>
@@ -6315,7 +6318,7 @@
       </c>
     </row>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="S33" s="14"/>
+      <c r="S33" s="13"/>
       <c r="AG33" s="0" t="s">
         <v>425</v>
       </c>
@@ -6385,7 +6388,7 @@
     </row>
     <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="P40" s="0"/>
-      <c r="S40" s="14"/>
+      <c r="S40" s="13"/>
       <c r="AG40" s="0" t="s">
         <v>432</v>
       </c>
@@ -6394,7 +6397,7 @@
       </c>
     </row>
     <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="S41" s="14"/>
+      <c r="S41" s="13"/>
       <c r="AG41" s="0" t="s">
         <v>433</v>
       </c>
@@ -6403,7 +6406,7 @@
       </c>
     </row>
     <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="S42" s="14"/>
+      <c r="S42" s="13"/>
       <c r="AG42" s="0" t="s">
         <v>434</v>
       </c>
@@ -6412,7 +6415,7 @@
       </c>
     </row>
     <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="S43" s="14"/>
+      <c r="S43" s="13"/>
       <c r="AG43" s="0" t="s">
         <v>435</v>
       </c>
@@ -6421,7 +6424,7 @@
       </c>
     </row>
     <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="S44" s="14"/>
+      <c r="S44" s="13"/>
       <c r="AG44" s="0" t="s">
         <v>436</v>
       </c>
@@ -6430,7 +6433,7 @@
       </c>
     </row>
     <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="S45" s="14"/>
+      <c r="S45" s="13"/>
       <c r="AG45" s="0" t="s">
         <v>437</v>
       </c>
@@ -6439,7 +6442,7 @@
       </c>
     </row>
     <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="S46" s="14"/>
+      <c r="S46" s="13"/>
       <c r="AG46" s="0" t="s">
         <v>438</v>
       </c>
@@ -6448,7 +6451,7 @@
       </c>
     </row>
     <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="S47" s="14"/>
+      <c r="S47" s="13"/>
       <c r="AG47" s="0" t="s">
         <v>439</v>
       </c>
@@ -6457,7 +6460,7 @@
       </c>
     </row>
     <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="S48" s="14"/>
+      <c r="S48" s="13"/>
       <c r="AG48" s="0" t="s">
         <v>440</v>
       </c>
@@ -6466,7 +6469,7 @@
       </c>
     </row>
     <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="S49" s="14"/>
+      <c r="S49" s="13"/>
       <c r="AG49" s="0" t="s">
         <v>441</v>
       </c>
@@ -6475,7 +6478,7 @@
       </c>
     </row>
     <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="S50" s="14"/>
+      <c r="S50" s="13"/>
       <c r="AG50" s="0" t="s">
         <v>442</v>
       </c>
@@ -6484,7 +6487,7 @@
       </c>
     </row>
     <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="S51" s="14"/>
+      <c r="S51" s="13"/>
       <c r="AG51" s="0" t="s">
         <v>443</v>
       </c>
@@ -6493,7 +6496,7 @@
       </c>
     </row>
     <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="S52" s="14"/>
+      <c r="S52" s="13"/>
       <c r="AG52" s="0" t="s">
         <v>444</v>
       </c>
@@ -6502,7 +6505,7 @@
       </c>
     </row>
     <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="S53" s="14"/>
+      <c r="S53" s="13"/>
       <c r="AG53" s="0" t="s">
         <v>445</v>
       </c>
@@ -6511,7 +6514,7 @@
       </c>
     </row>
     <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="S54" s="14"/>
+      <c r="S54" s="13"/>
       <c r="AG54" s="0" t="s">
         <v>446</v>
       </c>
@@ -6520,7 +6523,7 @@
       </c>
     </row>
     <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="S55" s="14"/>
+      <c r="S55" s="13"/>
       <c r="AG55" s="0" t="s">
         <v>447</v>
       </c>
@@ -6529,7 +6532,7 @@
       </c>
     </row>
     <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="S56" s="14"/>
+      <c r="S56" s="13"/>
       <c r="AG56" s="0" t="s">
         <v>448</v>
       </c>
@@ -6538,7 +6541,7 @@
       </c>
     </row>
     <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="S57" s="14"/>
+      <c r="S57" s="13"/>
       <c r="AG57" s="0" t="s">
         <v>449</v>
       </c>
@@ -6547,7 +6550,7 @@
       </c>
     </row>
     <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="S58" s="14"/>
+      <c r="S58" s="13"/>
       <c r="AG58" s="0" t="s">
         <v>450</v>
       </c>
@@ -6556,7 +6559,7 @@
       </c>
     </row>
     <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="S59" s="14"/>
+      <c r="S59" s="13"/>
       <c r="AG59" s="0" t="s">
         <v>451</v>
       </c>
@@ -6565,7 +6568,7 @@
       </c>
     </row>
     <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="S60" s="14"/>
+      <c r="S60" s="13"/>
       <c r="AG60" s="0" t="s">
         <v>452</v>
       </c>
@@ -6574,7 +6577,7 @@
       </c>
     </row>
     <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="S61" s="14"/>
+      <c r="S61" s="13"/>
       <c r="AG61" s="0" t="s">
         <v>453</v>
       </c>
@@ -6583,7 +6586,7 @@
       </c>
     </row>
     <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="S62" s="14"/>
+      <c r="S62" s="13"/>
       <c r="AG62" s="0" t="s">
         <v>454</v>
       </c>
@@ -6592,7 +6595,7 @@
       </c>
     </row>
     <row r="63" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="S63" s="14"/>
+      <c r="S63" s="13"/>
       <c r="AG63" s="0" t="s">
         <v>455</v>
       </c>
@@ -6601,7 +6604,7 @@
       </c>
     </row>
     <row r="64" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="S64" s="14"/>
+      <c r="S64" s="13"/>
       <c r="AG64" s="0" t="s">
         <v>456</v>
       </c>
@@ -6610,7 +6613,7 @@
       </c>
     </row>
     <row r="65" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="S65" s="14"/>
+      <c r="S65" s="13"/>
       <c r="AG65" s="0" t="s">
         <v>457</v>
       </c>
@@ -6619,7 +6622,7 @@
       </c>
     </row>
     <row r="66" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="S66" s="14"/>
+      <c r="S66" s="13"/>
       <c r="AG66" s="0" t="s">
         <v>458</v>
       </c>
@@ -6628,7 +6631,7 @@
       </c>
     </row>
     <row r="67" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="S67" s="14"/>
+      <c r="S67" s="13"/>
       <c r="AG67" s="0" t="s">
         <v>459</v>
       </c>
@@ -6637,7 +6640,7 @@
       </c>
     </row>
     <row r="68" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="S68" s="14"/>
+      <c r="S68" s="13"/>
       <c r="AG68" s="0" t="s">
         <v>460</v>
       </c>
@@ -6646,7 +6649,7 @@
       </c>
     </row>
     <row r="69" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="S69" s="14"/>
+      <c r="S69" s="13"/>
       <c r="AG69" s="0" t="s">
         <v>461</v>
       </c>
@@ -6655,7 +6658,7 @@
       </c>
     </row>
     <row r="70" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="S70" s="14"/>
+      <c r="S70" s="13"/>
       <c r="AG70" s="0" t="s">
         <v>462</v>
       </c>
@@ -6664,7 +6667,7 @@
       </c>
     </row>
     <row r="71" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="S71" s="14"/>
+      <c r="S71" s="13"/>
       <c r="AG71" s="0" t="s">
         <v>463</v>
       </c>
@@ -6673,7 +6676,7 @@
       </c>
     </row>
     <row r="72" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="S72" s="14"/>
+      <c r="S72" s="13"/>
       <c r="AG72" s="0" t="s">
         <v>464</v>
       </c>
@@ -6682,7 +6685,7 @@
       </c>
     </row>
     <row r="73" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="S73" s="14"/>
+      <c r="S73" s="13"/>
       <c r="AG73" s="0" t="s">
         <v>465</v>
       </c>
@@ -6691,7 +6694,7 @@
       </c>
     </row>
     <row r="74" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="S74" s="14"/>
+      <c r="S74" s="13"/>
       <c r="AG74" s="0" t="s">
         <v>466</v>
       </c>
@@ -6700,7 +6703,7 @@
       </c>
     </row>
     <row r="75" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="S75" s="14"/>
+      <c r="S75" s="13"/>
       <c r="AG75" s="0" t="s">
         <v>467</v>
       </c>
@@ -6709,7 +6712,7 @@
       </c>
     </row>
     <row r="76" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="S76" s="14"/>
+      <c r="S76" s="13"/>
       <c r="AG76" s="0" t="s">
         <v>468</v>
       </c>
@@ -6718,7 +6721,7 @@
       </c>
     </row>
     <row r="77" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="S77" s="14"/>
+      <c r="S77" s="13"/>
       <c r="AG77" s="0" t="s">
         <v>469</v>
       </c>
@@ -6727,7 +6730,7 @@
       </c>
     </row>
     <row r="78" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="S78" s="14"/>
+      <c r="S78" s="13"/>
       <c r="AG78" s="0" t="s">
         <v>470</v>
       </c>
@@ -6736,7 +6739,7 @@
       </c>
     </row>
     <row r="79" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="S79" s="14"/>
+      <c r="S79" s="13"/>
       <c r="AG79" s="0" t="s">
         <v>471</v>
       </c>
@@ -6745,7 +6748,7 @@
       </c>
     </row>
     <row r="80" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="S80" s="14"/>
+      <c r="S80" s="13"/>
       <c r="AG80" s="0" t="s">
         <v>472</v>
       </c>
@@ -6754,7 +6757,7 @@
       </c>
     </row>
     <row r="81" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="S81" s="14"/>
+      <c r="S81" s="13"/>
       <c r="AG81" s="0" t="s">
         <v>473</v>
       </c>
@@ -6763,7 +6766,7 @@
       </c>
     </row>
     <row r="82" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="S82" s="14"/>
+      <c r="S82" s="13"/>
       <c r="AG82" s="0" t="s">
         <v>473</v>
       </c>
@@ -6772,7 +6775,7 @@
       </c>
     </row>
     <row r="83" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="S83" s="14"/>
+      <c r="S83" s="13"/>
       <c r="AG83" s="0" t="s">
         <v>474</v>
       </c>
@@ -6781,7 +6784,7 @@
       </c>
     </row>
     <row r="84" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="S84" s="14"/>
+      <c r="S84" s="13"/>
       <c r="AG84" s="0" t="s">
         <v>474</v>
       </c>
@@ -6790,7 +6793,7 @@
       </c>
     </row>
     <row r="85" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="S85" s="14"/>
+      <c r="S85" s="13"/>
       <c r="AG85" s="0" t="s">
         <v>475</v>
       </c>
@@ -6799,7 +6802,7 @@
       </c>
     </row>
     <row r="86" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="S86" s="14"/>
+      <c r="S86" s="13"/>
       <c r="AG86" s="0" t="s">
         <v>475</v>
       </c>
@@ -6808,7 +6811,7 @@
       </c>
     </row>
     <row r="87" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="S87" s="14"/>
+      <c r="S87" s="13"/>
       <c r="AG87" s="0" t="s">
         <v>476</v>
       </c>
@@ -6817,7 +6820,7 @@
       </c>
     </row>
     <row r="88" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="S88" s="14"/>
+      <c r="S88" s="13"/>
       <c r="AG88" s="0" t="s">
         <v>477</v>
       </c>
@@ -6826,7 +6829,7 @@
       </c>
     </row>
     <row r="89" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="S89" s="14"/>
+      <c r="S89" s="13"/>
       <c r="AG89" s="0" t="s">
         <v>478</v>
       </c>
@@ -6835,7 +6838,7 @@
       </c>
     </row>
     <row r="90" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="S90" s="14"/>
+      <c r="S90" s="13"/>
       <c r="AG90" s="0" t="s">
         <v>479</v>
       </c>
@@ -6844,7 +6847,7 @@
       </c>
     </row>
     <row r="91" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="S91" s="14"/>
+      <c r="S91" s="13"/>
       <c r="AG91" s="0" t="s">
         <v>480</v>
       </c>
@@ -6853,7 +6856,7 @@
       </c>
     </row>
     <row r="92" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="S92" s="14"/>
+      <c r="S92" s="13"/>
       <c r="AG92" s="0" t="s">
         <v>481</v>
       </c>
@@ -6862,7 +6865,7 @@
       </c>
     </row>
     <row r="93" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="S93" s="14"/>
+      <c r="S93" s="13"/>
       <c r="AG93" s="0" t="s">
         <v>482</v>
       </c>
@@ -6871,7 +6874,7 @@
       </c>
     </row>
     <row r="94" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="S94" s="14"/>
+      <c r="S94" s="13"/>
       <c r="AG94" s="0" t="s">
         <v>483</v>
       </c>
@@ -6880,7 +6883,7 @@
       </c>
     </row>
     <row r="95" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="S95" s="14"/>
+      <c r="S95" s="13"/>
       <c r="AG95" s="0" t="s">
         <v>484</v>
       </c>
@@ -6889,73 +6892,73 @@
       </c>
     </row>
     <row r="96" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="S96" s="14"/>
+      <c r="S96" s="13"/>
     </row>
     <row r="97" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="S97" s="14"/>
+      <c r="S97" s="13"/>
     </row>
     <row r="98" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="S98" s="14"/>
+      <c r="S98" s="13"/>
     </row>
     <row r="99" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="S99" s="14"/>
+      <c r="S99" s="13"/>
     </row>
     <row r="100" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="S100" s="14"/>
+      <c r="S100" s="13"/>
     </row>
     <row r="101" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="S101" s="14"/>
+      <c r="S101" s="13"/>
     </row>
     <row r="102" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="S102" s="14"/>
+      <c r="S102" s="13"/>
     </row>
     <row r="103" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="S103" s="14"/>
+      <c r="S103" s="13"/>
     </row>
     <row r="104" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="S104" s="14"/>
+      <c r="S104" s="13"/>
     </row>
     <row r="105" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="S105" s="14"/>
+      <c r="S105" s="13"/>
     </row>
     <row r="106" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="S106" s="14"/>
+      <c r="S106" s="13"/>
     </row>
     <row r="107" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="S107" s="14"/>
+      <c r="S107" s="13"/>
     </row>
     <row r="108" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="S108" s="14"/>
+      <c r="S108" s="13"/>
     </row>
     <row r="109" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="S109" s="14"/>
+      <c r="S109" s="13"/>
     </row>
     <row r="110" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="S110" s="14"/>
+      <c r="S110" s="13"/>
     </row>
     <row r="111" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="S111" s="14"/>
+      <c r="S111" s="13"/>
     </row>
     <row r="112" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="S112" s="14"/>
+      <c r="S112" s="13"/>
     </row>
     <row r="113" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="S113" s="14"/>
+      <c r="S113" s="13"/>
     </row>
     <row r="114" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="S114" s="14"/>
+      <c r="S114" s="13"/>
     </row>
     <row r="115" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="S115" s="14"/>
+      <c r="S115" s="13"/>
     </row>
     <row r="116" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="S116" s="14"/>
+      <c r="S116" s="13"/>
     </row>
     <row r="117" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="S117" s="14"/>
+      <c r="S117" s="13"/>
     </row>
     <row r="118" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="S118" s="14"/>
+      <c r="S118" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="9">
@@ -6986,11 +6989,11 @@
   </sheetPr>
   <dimension ref="B1:AX56"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G35" activeCellId="0" sqref="G35"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A11" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G36" activeCellId="0" sqref="G36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.70703125" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.72265625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="3.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="13.89"/>
@@ -7017,19 +7020,19 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="24" min="24" style="0" width="3.05"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="25" min="25" style="0" width="11.81"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="27" min="27" style="0" width="2.36"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="28" min="28" style="0" width="38.35"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="30" min="30" style="0" width="1.94"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="28" min="28" style="0" width="38.36"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="30" min="30" style="0" width="1.93"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="31" min="31" style="0" width="13.19"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="33" min="33" style="0" width="1.39"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="34" min="34" style="0" width="27.37"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="34" min="34" style="0" width="27.38"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="36" min="36" style="0" width="2.22"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="37" min="37" style="0" width="28.2"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="37" min="37" style="0" width="28.19"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="39" min="39" style="0" width="1.66"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="40" min="40" style="0" width="38.35"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="40" min="40" style="0" width="38.36"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="42" min="42" style="0" width="1.8"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="43" min="43" style="0" width="29.31"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="45" min="45" style="0" width="1.52"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="46" min="46" style="0" width="41.95"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="46" min="46" style="0" width="41.94"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="48" min="48" style="0" width="1.39"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="49" min="49" style="0" width="41.4"/>
   </cols>
@@ -7126,7 +7129,7 @@
       <c r="C3" s="8" t="s">
         <v>502</v>
       </c>
-      <c r="D3" s="13" t="n">
+      <c r="D3" s="6" t="n">
         <f aca="false">SUM(D4:D25)</f>
         <v>349</v>
       </c>
@@ -7187,112 +7190,112 @@
       <c r="D4" s="11" t="n">
         <v>1</v>
       </c>
-      <c r="E4" s="15" t="n">
+      <c r="E4" s="14" t="n">
         <f aca="false">D4/$D$3</f>
         <v>0.00286532951289398</v>
       </c>
       <c r="G4" s="8" t="s">
         <v>505</v>
       </c>
-      <c r="H4" s="13" t="n">
+      <c r="H4" s="6" t="n">
         <f aca="false">SUM(H5:H34)</f>
         <v>100</v>
       </c>
       <c r="J4" s="8" t="s">
         <v>506</v>
       </c>
-      <c r="K4" s="13" t="n">
+      <c r="K4" s="6" t="n">
         <f aca="false">SUM(K5:K34)</f>
         <v>110</v>
       </c>
       <c r="M4" s="8" t="s">
         <v>507</v>
       </c>
-      <c r="N4" s="13" t="n">
+      <c r="N4" s="6" t="n">
         <f aca="false">SUM(N5:N34)</f>
         <v>100</v>
       </c>
       <c r="P4" s="8" t="s">
         <v>508</v>
       </c>
-      <c r="Q4" s="13" t="n">
+      <c r="Q4" s="6" t="n">
         <f aca="false">SUM(Q5:Q34)</f>
         <v>270</v>
       </c>
       <c r="S4" s="8" t="s">
         <v>490</v>
       </c>
-      <c r="T4" s="13" t="n">
+      <c r="T4" s="6" t="n">
         <f aca="false">SUM(T5:T34)</f>
         <v>180</v>
       </c>
       <c r="V4" s="8" t="s">
         <v>491</v>
       </c>
-      <c r="W4" s="13" t="n">
+      <c r="W4" s="6" t="n">
         <f aca="false">SUM(W5:W34)</f>
         <v>180</v>
       </c>
       <c r="Y4" s="8" t="s">
         <v>492</v>
       </c>
-      <c r="Z4" s="13" t="n">
+      <c r="Z4" s="6" t="n">
         <f aca="false">SUM(Z5:Z34)</f>
         <v>100</v>
       </c>
       <c r="AB4" s="8" t="s">
         <v>493</v>
       </c>
-      <c r="AC4" s="13" t="n">
+      <c r="AC4" s="6" t="n">
         <f aca="false">SUM(AC5:AC34)</f>
         <v>330</v>
       </c>
       <c r="AE4" s="8" t="s">
         <v>494</v>
       </c>
-      <c r="AF4" s="13" t="n">
+      <c r="AF4" s="6" t="n">
         <f aca="false">SUM(AF5:AF34)</f>
         <v>100</v>
       </c>
       <c r="AH4" s="8" t="s">
         <v>495</v>
       </c>
-      <c r="AI4" s="13" t="n">
+      <c r="AI4" s="6" t="n">
         <f aca="false">SUM(AI5:AI34)</f>
         <v>10</v>
       </c>
       <c r="AK4" s="8" t="s">
         <v>496</v>
       </c>
-      <c r="AL4" s="13" t="n">
+      <c r="AL4" s="6" t="n">
         <f aca="false">SUM(AL5:AL34)</f>
         <v>10</v>
       </c>
       <c r="AN4" s="8" t="s">
         <v>497</v>
       </c>
-      <c r="AO4" s="13" t="n">
+      <c r="AO4" s="6" t="n">
         <f aca="false">SUM(AO5:AO34)</f>
         <v>100</v>
       </c>
       <c r="AQ4" s="8" t="s">
         <v>498</v>
       </c>
-      <c r="AR4" s="13" t="n">
+      <c r="AR4" s="6" t="n">
         <f aca="false">SUM(AR5:AR34)</f>
         <v>100</v>
       </c>
       <c r="AT4" s="8" t="s">
         <v>499</v>
       </c>
-      <c r="AU4" s="13" t="n">
+      <c r="AU4" s="6" t="n">
         <f aca="false">SUM(AU5:AU34)</f>
         <v>120</v>
       </c>
       <c r="AW4" s="8" t="s">
         <v>500</v>
       </c>
-      <c r="AX4" s="13" t="n">
+      <c r="AX4" s="6" t="n">
         <f aca="false">SUM(AX5:AX34)</f>
         <v>170</v>
       </c>
@@ -7301,13 +7304,13 @@
       <c r="B5" s="0" t="s">
         <v>509</v>
       </c>
-      <c r="C5" s="16" t="s">
+      <c r="C5" s="15" t="s">
         <v>505</v>
       </c>
       <c r="D5" s="1" t="n">
         <v>30</v>
       </c>
-      <c r="E5" s="15" t="n">
+      <c r="E5" s="14" t="n">
         <f aca="false">D5/$D$3</f>
         <v>0.0859598853868195</v>
       </c>
@@ -7406,13 +7409,13 @@
       <c r="B6" s="0" t="s">
         <v>521</v>
       </c>
-      <c r="C6" s="16" t="s">
+      <c r="C6" s="15" t="s">
         <v>506</v>
       </c>
       <c r="D6" s="1" t="n">
         <v>20</v>
       </c>
-      <c r="E6" s="15" t="n">
+      <c r="E6" s="14" t="n">
         <f aca="false">D6/$D$3</f>
         <v>0.0573065902578797</v>
       </c>
@@ -7495,13 +7498,13 @@
       <c r="B7" s="0" t="s">
         <v>527</v>
       </c>
-      <c r="C7" s="16" t="s">
+      <c r="C7" s="15" t="s">
         <v>507</v>
       </c>
       <c r="D7" s="1" t="n">
         <v>20</v>
       </c>
-      <c r="E7" s="15" t="n">
+      <c r="E7" s="14" t="n">
         <f aca="false">D7/$D$3</f>
         <v>0.0573065902578797</v>
       </c>
@@ -7581,12 +7584,12 @@
       <c r="D8" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="E8" s="15" t="n">
+      <c r="E8" s="14" t="n">
         <f aca="false">D8/$D$3</f>
         <v>0.00286532951289398</v>
       </c>
       <c r="G8" s="8"/>
-      <c r="H8" s="13"/>
+      <c r="H8" s="6"/>
       <c r="J8" s="12" t="s">
         <v>539</v>
       </c>
@@ -7594,7 +7597,7 @@
         <v>10</v>
       </c>
       <c r="M8" s="8"/>
-      <c r="N8" s="13"/>
+      <c r="N8" s="6"/>
       <c r="P8" s="12" t="s">
         <v>540</v>
       </c>
@@ -7652,18 +7655,18 @@
       <c r="B9" s="0" t="s">
         <v>546</v>
       </c>
-      <c r="C9" s="16" t="s">
+      <c r="C9" s="15" t="s">
         <v>508</v>
       </c>
       <c r="D9" s="1" t="n">
         <v>30</v>
       </c>
-      <c r="E9" s="15" t="n">
+      <c r="E9" s="14" t="n">
         <f aca="false">D9/$D$3</f>
         <v>0.0859598853868195</v>
       </c>
       <c r="G9" s="8"/>
-      <c r="H9" s="13"/>
+      <c r="H9" s="6"/>
       <c r="J9" s="12" t="s">
         <v>547</v>
       </c>
@@ -7671,7 +7674,7 @@
         <v>20</v>
       </c>
       <c r="M9" s="8"/>
-      <c r="N9" s="13"/>
+      <c r="N9" s="6"/>
       <c r="P9" s="12" t="s">
         <v>548</v>
       </c>
@@ -7725,18 +7728,18 @@
       <c r="B10" s="0" t="s">
         <v>553</v>
       </c>
-      <c r="C10" s="16" t="s">
+      <c r="C10" s="15" t="s">
         <v>490</v>
       </c>
       <c r="D10" s="1" t="n">
         <v>40</v>
       </c>
-      <c r="E10" s="15" t="n">
+      <c r="E10" s="14" t="n">
         <f aca="false">D10/$D$3</f>
         <v>0.114613180515759</v>
       </c>
       <c r="G10" s="8"/>
-      <c r="H10" s="13"/>
+      <c r="H10" s="6"/>
       <c r="J10" s="12" t="s">
         <v>554</v>
       </c>
@@ -7744,7 +7747,7 @@
         <v>20</v>
       </c>
       <c r="M10" s="8"/>
-      <c r="N10" s="13"/>
+      <c r="N10" s="6"/>
       <c r="P10" s="0" t="s">
         <v>555</v>
       </c>
@@ -7787,18 +7790,18 @@
       <c r="B11" s="0" t="s">
         <v>559</v>
       </c>
-      <c r="C11" s="16" t="s">
+      <c r="C11" s="15" t="s">
         <v>491</v>
       </c>
       <c r="D11" s="1" t="n">
         <v>40</v>
       </c>
-      <c r="E11" s="15" t="n">
+      <c r="E11" s="14" t="n">
         <f aca="false">D11/$D$3</f>
         <v>0.114613180515759</v>
       </c>
       <c r="G11" s="8"/>
-      <c r="H11" s="13"/>
+      <c r="H11" s="6"/>
       <c r="J11" s="12" t="s">
         <v>560</v>
       </c>
@@ -7806,7 +7809,7 @@
         <v>10</v>
       </c>
       <c r="M11" s="8"/>
-      <c r="N11" s="13"/>
+      <c r="N11" s="6"/>
       <c r="P11" s="12" t="s">
         <v>561</v>
       </c>
@@ -7862,7 +7865,7 @@
       <c r="D12" s="11" t="n">
         <v>1</v>
       </c>
-      <c r="E12" s="15" t="n">
+      <c r="E12" s="14" t="n">
         <f aca="false">D12/$D$3</f>
         <v>0.00286532951289398</v>
       </c>
@@ -7901,13 +7904,13 @@
       <c r="B13" s="0" t="s">
         <v>569</v>
       </c>
-      <c r="C13" s="16" t="s">
+      <c r="C13" s="15" t="s">
         <v>493</v>
       </c>
       <c r="D13" s="1" t="n">
         <v>20</v>
       </c>
-      <c r="E13" s="15" t="n">
+      <c r="E13" s="14" t="n">
         <f aca="false">D13/$D$3</f>
         <v>0.0573065902578797</v>
       </c>
@@ -7940,7 +7943,7 @@
       <c r="D14" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="E14" s="15" t="n">
+      <c r="E14" s="14" t="n">
         <f aca="false">D14/$D$3</f>
         <v>0.00286532951289398</v>
       </c>
@@ -7973,7 +7976,7 @@
       <c r="D15" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="E15" s="15" t="n">
+      <c r="E15" s="14" t="n">
         <f aca="false">D15/$D$3</f>
         <v>0.00286532951289398</v>
       </c>
@@ -8006,7 +8009,7 @@
       <c r="D16" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="E16" s="15" t="n">
+      <c r="E16" s="14" t="n">
         <f aca="false">D16/$D$3</f>
         <v>0.00286532951289398</v>
       </c>
@@ -8039,7 +8042,7 @@
       <c r="D17" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="E17" s="15" t="n">
+      <c r="E17" s="14" t="n">
         <f aca="false">D17/$D$3</f>
         <v>0.00286532951289398</v>
       </c>
@@ -8060,13 +8063,13 @@
       <c r="B18" s="0" t="s">
         <v>583</v>
       </c>
-      <c r="C18" s="16" t="s">
+      <c r="C18" s="15" t="s">
         <v>495</v>
       </c>
       <c r="D18" s="1" t="n">
         <v>20</v>
       </c>
-      <c r="E18" s="15" t="n">
+      <c r="E18" s="14" t="n">
         <f aca="false">D18/$D$3</f>
         <v>0.0573065902578797</v>
       </c>
@@ -8081,13 +8084,13 @@
       <c r="B19" s="0" t="s">
         <v>584</v>
       </c>
-      <c r="C19" s="16" t="s">
+      <c r="C19" s="15" t="s">
         <v>496</v>
       </c>
       <c r="D19" s="1" t="n">
         <v>20</v>
       </c>
-      <c r="E19" s="15" t="n">
+      <c r="E19" s="14" t="n">
         <f aca="false">D19/$D$3</f>
         <v>0.0573065902578797</v>
       </c>
@@ -8102,13 +8105,13 @@
       <c r="B20" s="0" t="s">
         <v>586</v>
       </c>
-      <c r="C20" s="16" t="s">
+      <c r="C20" s="15" t="s">
         <v>497</v>
       </c>
       <c r="D20" s="1" t="n">
         <v>30</v>
       </c>
-      <c r="E20" s="15" t="n">
+      <c r="E20" s="14" t="n">
         <f aca="false">D20/$D$3</f>
         <v>0.0859598853868195</v>
       </c>
@@ -8118,13 +8121,13 @@
       <c r="B21" s="0" t="s">
         <v>587</v>
       </c>
-      <c r="C21" s="16" t="s">
+      <c r="C21" s="15" t="s">
         <v>498</v>
       </c>
       <c r="D21" s="1" t="n">
         <v>20</v>
       </c>
-      <c r="E21" s="15" t="n">
+      <c r="E21" s="14" t="n">
         <f aca="false">D21/$D$3</f>
         <v>0.0573065902578797</v>
       </c>
@@ -8140,7 +8143,7 @@
       <c r="D22" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="E22" s="15" t="n">
+      <c r="E22" s="14" t="n">
         <f aca="false">D22/$D$3</f>
         <v>0.00286532951289398</v>
       </c>
@@ -8150,13 +8153,13 @@
       <c r="B23" s="0" t="s">
         <v>590</v>
       </c>
-      <c r="C23" s="16" t="s">
+      <c r="C23" s="15" t="s">
         <v>499</v>
       </c>
       <c r="D23" s="1" t="n">
         <v>20</v>
       </c>
-      <c r="E23" s="15" t="n">
+      <c r="E23" s="14" t="n">
         <f aca="false">D23/$D$3</f>
         <v>0.0573065902578797</v>
       </c>
@@ -8172,7 +8175,7 @@
       <c r="D24" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="E24" s="15" t="n">
+      <c r="E24" s="14" t="n">
         <f aca="false">D24/$D$3</f>
         <v>0.00286532951289398</v>
       </c>
@@ -8182,13 +8185,13 @@
       <c r="B25" s="0" t="s">
         <v>593</v>
       </c>
-      <c r="C25" s="16" t="s">
+      <c r="C25" s="15" t="s">
         <v>500</v>
       </c>
       <c r="D25" s="1" t="n">
         <v>30</v>
       </c>
-      <c r="E25" s="15" t="n">
+      <c r="E25" s="14" t="n">
         <f aca="false">D25/$D$3</f>
         <v>0.0859598853868195</v>
       </c>
@@ -8215,7 +8218,7 @@
       <c r="C29" s="8" t="s">
         <v>502</v>
       </c>
-      <c r="D29" s="13"/>
+      <c r="D29" s="6"/>
       <c r="T29" s="1"/>
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8229,7 +8232,7 @@
       <c r="T30" s="1"/>
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B31" s="16" t="s">
+      <c r="B31" s="15" t="s">
         <v>509</v>
       </c>
       <c r="C31" s="0" t="s">
@@ -8238,7 +8241,7 @@
       <c r="T31" s="1"/>
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B32" s="16" t="s">
+      <c r="B32" s="15" t="s">
         <v>521</v>
       </c>
       <c r="C32" s="0" t="s">
@@ -8247,11 +8250,11 @@
       <c r="T32" s="1"/>
     </row>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B33" s="16" t="s">
+      <c r="B33" s="15" t="s">
         <v>527</v>
       </c>
       <c r="C33" s="0" t="s">
-        <v>507</v>
+        <v>598</v>
       </c>
       <c r="T33" s="1"/>
     </row>
@@ -8265,29 +8268,29 @@
       <c r="T34" s="1"/>
     </row>
     <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B35" s="16" t="s">
+      <c r="B35" s="15" t="s">
         <v>546</v>
       </c>
       <c r="C35" s="0" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="T35" s="1"/>
     </row>
     <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B36" s="16" t="s">
+      <c r="B36" s="15" t="s">
         <v>553</v>
       </c>
       <c r="C36" s="0" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="T36" s="1"/>
     </row>
     <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B37" s="16" t="s">
+      <c r="B37" s="15" t="s">
         <v>559</v>
       </c>
       <c r="C37" s="0" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="T37" s="1"/>
     </row>
@@ -8302,11 +8305,11 @@
       <c r="T38" s="1"/>
     </row>
     <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B39" s="16" t="s">
+      <c r="B39" s="15" t="s">
         <v>569</v>
       </c>
       <c r="C39" s="0" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="T39" s="1"/>
     </row>
@@ -8347,38 +8350,38 @@
       <c r="T43" s="1"/>
     </row>
     <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B44" s="16" t="s">
+      <c r="B44" s="15" t="s">
         <v>583</v>
       </c>
       <c r="C44" s="0" t="s">
-        <v>495</v>
+        <v>516</v>
       </c>
       <c r="T44" s="1"/>
     </row>
     <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B45" s="16" t="s">
+      <c r="B45" s="15" t="s">
         <v>584</v>
       </c>
       <c r="C45" s="0" t="s">
-        <v>496</v>
+        <v>517</v>
       </c>
       <c r="T45" s="1"/>
     </row>
     <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B46" s="16" t="s">
+      <c r="B46" s="15" t="s">
         <v>586</v>
       </c>
       <c r="C46" s="0" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="T46" s="1"/>
     </row>
     <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B47" s="16" t="s">
+      <c r="B47" s="15" t="s">
         <v>587</v>
       </c>
       <c r="C47" s="0" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="T47" s="1"/>
     </row>
@@ -8392,16 +8395,16 @@
       <c r="T48" s="1"/>
     </row>
     <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B49" s="16" t="s">
+      <c r="B49" s="15" t="s">
         <v>590</v>
       </c>
       <c r="C49" s="0" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="T49" s="1"/>
     </row>
     <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B50" s="17" t="s">
+      <c r="B50" s="12" t="s">
         <v>591</v>
       </c>
       <c r="C50" s="0" t="s">
@@ -8410,11 +8413,11 @@
       <c r="T50" s="1"/>
     </row>
     <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B51" s="16" t="s">
+      <c r="B51" s="15" t="s">
         <v>593</v>
       </c>
       <c r="C51" s="0" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="T51" s="1"/>
     </row>

--- a/city-npc/Ptolus_City_NPC_Encounter.xlsx
+++ b/city-npc/Ptolus_City_NPC_Encounter.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="4"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="START" sheetId="1" state="visible" r:id="rId2"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="904" uniqueCount="607">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="904" uniqueCount="608">
   <si>
     <t xml:space="preserve">MORTAL</t>
   </si>
@@ -321,6 +321,9 @@
   </si>
   <si>
     <t xml:space="preserve">dark-elf-drow-elf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[generator:major-cover-origin-soullink|{}|origin]</t>
   </si>
   <si>
     <t xml:space="preserve">Changeling</t>
@@ -2129,9 +2132,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>2969640</xdr:colOff>
+      <xdr:colOff>2969280</xdr:colOff>
       <xdr:row>57</xdr:row>
-      <xdr:rowOff>135000</xdr:rowOff>
+      <xdr:rowOff>134640</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2141,7 +2144,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="1033200" y="9322560"/>
-          <a:ext cx="3159360" cy="802080"/>
+          <a:ext cx="3159000" cy="801720"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2261,7 +2264,7 @@
       <selection pane="topLeft" activeCell="N7" activeCellId="0" sqref="N7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.72265625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.73046875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="25.56"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="8.6"/>
@@ -2611,11 +2614,11 @@
   </sheetPr>
   <dimension ref="B1:Q121"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="P4" activeCellId="0" sqref="P4"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C17" activeCellId="0" sqref="C17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.72265625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.73046875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="2.49"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="13.19"/>
@@ -3052,7 +3055,7 @@
         <v>50</v>
       </c>
       <c r="C16" s="0" t="s">
-        <v>51</v>
+        <v>99</v>
       </c>
       <c r="D16" s="1" t="n">
         <v>100</v>
@@ -3061,19 +3064,19 @@
         <v>84</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="H16" s="1" t="n">
         <v>5</v>
       </c>
       <c r="J16" s="0" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="K16" s="1" t="n">
         <v>7</v>
       </c>
       <c r="P16" s="0" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="Q16" s="0" t="s">
         <v>49</v>
@@ -3081,22 +3084,22 @@
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F17" s="0" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="G17" s="0" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="H17" s="1" t="n">
         <v>10</v>
       </c>
       <c r="J17" s="0" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="K17" s="1" t="n">
         <v>7</v>
       </c>
       <c r="P17" s="0" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="Q17" s="0" t="s">
         <v>49</v>
@@ -3104,22 +3107,22 @@
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F18" s="0" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="G18" s="0" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="H18" s="1" t="n">
         <v>5</v>
       </c>
       <c r="J18" s="0" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="K18" s="1" t="n">
         <v>7</v>
       </c>
       <c r="P18" s="0" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="Q18" s="0" t="s">
         <v>49</v>
@@ -3127,22 +3130,22 @@
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F19" s="0" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="G19" s="12" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="H19" s="1" t="n">
         <v>10</v>
       </c>
       <c r="J19" s="0" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="K19" s="1" t="n">
         <v>7</v>
       </c>
       <c r="P19" s="0" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="Q19" s="0" t="s">
         <v>49</v>
@@ -3150,22 +3153,22 @@
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F20" s="0" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="G20" s="0" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="H20" s="1" t="n">
         <v>10</v>
       </c>
       <c r="J20" s="0" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="K20" s="1" t="n">
         <v>7</v>
       </c>
       <c r="P20" s="0" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="Q20" s="0" t="s">
         <v>49</v>
@@ -3173,22 +3176,22 @@
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F21" s="0" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="G21" s="12" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="H21" s="1" t="n">
         <v>5</v>
       </c>
       <c r="J21" s="0" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="K21" s="1" t="n">
         <v>7</v>
       </c>
       <c r="P21" s="0" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="Q21" s="0" t="s">
         <v>49</v>
@@ -3196,22 +3199,22 @@
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F22" s="0" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="G22" s="0" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="H22" s="1" t="n">
         <v>5</v>
       </c>
       <c r="J22" s="0" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="K22" s="1" t="n">
         <v>2</v>
       </c>
       <c r="P22" s="0" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="Q22" s="0" t="s">
         <v>49</v>
@@ -3219,22 +3222,22 @@
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F23" s="0" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="G23" s="0" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="H23" s="1" t="n">
         <v>10</v>
       </c>
       <c r="J23" s="0" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="K23" s="1" t="n">
         <v>2</v>
       </c>
       <c r="P23" s="0" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="Q23" s="0" t="s">
         <v>49</v>
@@ -3242,22 +3245,22 @@
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F24" s="0" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="G24" s="12" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="H24" s="1" t="n">
         <v>10</v>
       </c>
       <c r="J24" s="0" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="K24" s="1" t="n">
         <v>2</v>
       </c>
       <c r="P24" s="0" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="Q24" s="0" t="s">
         <v>49</v>
@@ -3265,22 +3268,22 @@
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F25" s="0" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="G25" s="0" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="H25" s="1" t="n">
         <v>5</v>
       </c>
       <c r="J25" s="0" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="K25" s="1" t="n">
         <v>2</v>
       </c>
       <c r="P25" s="0" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="Q25" s="0" t="s">
         <v>49</v>
@@ -3288,22 +3291,22 @@
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F26" s="0" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="G26" s="0" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="H26" s="1" t="n">
         <v>10</v>
       </c>
       <c r="J26" s="0" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="K26" s="1" t="n">
         <v>2</v>
       </c>
       <c r="P26" s="0" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="Q26" s="0" t="s">
         <v>49</v>
@@ -3311,16 +3314,16 @@
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F27" s="0" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="G27" s="12" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="H27" s="1" t="n">
         <v>5</v>
       </c>
       <c r="P27" s="0" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="Q27" s="0" t="s">
         <v>49</v>
@@ -3328,16 +3331,16 @@
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F28" s="0" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="G28" s="12" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="H28" s="1" t="n">
         <v>10</v>
       </c>
       <c r="P28" s="0" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="Q28" s="0" t="s">
         <v>49</v>
@@ -3346,14 +3349,14 @@
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="G29" s="12"/>
       <c r="J29" s="8" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="K29" s="6" t="n">
         <f aca="false">SUM(K30:K33)</f>
         <v>100</v>
       </c>
       <c r="P29" s="0" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="Q29" s="0" t="s">
         <v>49</v>
@@ -3363,13 +3366,13 @@
       <c r="D30" s="0"/>
       <c r="E30" s="0"/>
       <c r="J30" s="12" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="K30" s="11" t="n">
         <v>25</v>
       </c>
       <c r="P30" s="0" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="Q30" s="0" t="s">
         <v>49</v>
@@ -3379,13 +3382,13 @@
       <c r="D31" s="0"/>
       <c r="E31" s="0"/>
       <c r="J31" s="12" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="K31" s="11" t="n">
         <v>25</v>
       </c>
       <c r="P31" s="0" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="Q31" s="0" t="s">
         <v>49</v>
@@ -3393,13 +3396,13 @@
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J32" s="12" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="K32" s="11" t="n">
         <v>25</v>
       </c>
       <c r="P32" s="0" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="Q32" s="0" t="s">
         <v>49</v>
@@ -3407,18 +3410,18 @@
     </row>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F33" s="5" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="G33" s="5"/>
       <c r="H33" s="5"/>
       <c r="J33" s="12" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="K33" s="11" t="n">
         <v>25</v>
       </c>
       <c r="P33" s="0" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="Q33" s="0" t="s">
         <v>49</v>
@@ -3430,7 +3433,7 @@
       <c r="J34" s="12"/>
       <c r="K34" s="11"/>
       <c r="P34" s="0" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="Q34" s="0" t="s">
         <v>49</v>
@@ -3445,7 +3448,7 @@
         <v>200</v>
       </c>
       <c r="P35" s="0" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="Q35" s="0" t="s">
         <v>49</v>
@@ -3453,20 +3456,20 @@
     </row>
     <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="G36" s="12" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="H36" s="1" t="n">
         <v>5</v>
       </c>
       <c r="J36" s="8" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="K36" s="6" t="n">
         <f aca="false">SUM(K37:K42)</f>
         <v>100</v>
       </c>
       <c r="P36" s="0" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="Q36" s="0" t="s">
         <v>49</v>
@@ -3474,19 +3477,19 @@
     </row>
     <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="G37" s="12" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="H37" s="1" t="n">
         <v>10</v>
       </c>
       <c r="J37" s="12" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="K37" s="11" t="n">
         <v>0</v>
       </c>
       <c r="P37" s="0" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="Q37" s="0" t="s">
         <v>49</v>
@@ -3494,19 +3497,19 @@
     </row>
     <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="G38" s="12" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="H38" s="1" t="n">
         <v>5</v>
       </c>
       <c r="J38" s="12" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="K38" s="11" t="n">
         <v>0</v>
       </c>
       <c r="P38" s="0" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="Q38" s="0" t="s">
         <v>49</v>
@@ -3514,19 +3517,19 @@
     </row>
     <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="G39" s="12" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="H39" s="1" t="n">
         <v>20</v>
       </c>
       <c r="J39" s="12" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="K39" s="11" t="n">
         <v>0</v>
       </c>
       <c r="P39" s="0" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="Q39" s="0" t="s">
         <v>49</v>
@@ -3534,19 +3537,19 @@
     </row>
     <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="G40" s="12" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="H40" s="1" t="n">
         <v>5</v>
       </c>
       <c r="J40" s="12" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="K40" s="11" t="n">
         <v>79</v>
       </c>
       <c r="P40" s="0" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="Q40" s="0" t="s">
         <v>49</v>
@@ -3554,19 +3557,19 @@
     </row>
     <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="G41" s="0" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="H41" s="1" t="n">
         <v>10</v>
       </c>
       <c r="J41" s="12" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="K41" s="11" t="n">
         <v>20</v>
       </c>
       <c r="P41" s="0" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="Q41" s="0" t="s">
         <v>49</v>
@@ -3574,19 +3577,19 @@
     </row>
     <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="G42" s="12" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="H42" s="1" t="n">
         <v>5</v>
       </c>
       <c r="J42" s="12" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="K42" s="11" t="n">
         <v>1</v>
       </c>
       <c r="P42" s="0" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="Q42" s="0" t="s">
         <v>49</v>
@@ -3594,19 +3597,19 @@
     </row>
     <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="G43" s="12" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="H43" s="1" t="n">
         <v>10</v>
       </c>
       <c r="J43" s="12" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="K43" s="1" t="n">
         <v>0</v>
       </c>
       <c r="P43" s="0" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="Q43" s="0" t="s">
         <v>49</v>
@@ -3614,19 +3617,19 @@
     </row>
     <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="G44" s="12" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="H44" s="1" t="n">
         <v>10</v>
       </c>
       <c r="J44" s="12" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="K44" s="1" t="n">
         <v>0</v>
       </c>
       <c r="P44" s="0" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="Q44" s="0" t="s">
         <v>49</v>
@@ -3634,19 +3637,19 @@
     </row>
     <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="G45" s="7" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="H45" s="1" t="n">
         <v>10</v>
       </c>
       <c r="J45" s="12" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="K45" s="1" t="n">
         <v>0</v>
       </c>
       <c r="P45" s="0" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="Q45" s="0" t="s">
         <v>49</v>
@@ -3654,14 +3657,14 @@
     </row>
     <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="G46" s="12" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="H46" s="1" t="n">
         <v>5</v>
       </c>
       <c r="J46" s="12"/>
       <c r="P46" s="0" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="Q46" s="0" t="s">
         <v>49</v>
@@ -3669,13 +3672,13 @@
     </row>
     <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="G47" s="12" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="H47" s="1" t="n">
         <v>10</v>
       </c>
       <c r="P47" s="0" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="Q47" s="0" t="s">
         <v>49</v>
@@ -3683,20 +3686,20 @@
     </row>
     <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="G48" s="12" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="H48" s="1" t="n">
         <v>5</v>
       </c>
       <c r="J48" s="8" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="K48" s="6" t="n">
         <f aca="false">SUM(K49:K56)</f>
         <v>100</v>
       </c>
       <c r="P48" s="0" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="Q48" s="0" t="s">
         <v>49</v>
@@ -3704,19 +3707,19 @@
     </row>
     <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="G49" s="7" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="H49" s="1" t="n">
         <v>10</v>
       </c>
       <c r="J49" s="12" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="K49" s="11" t="n">
         <v>0</v>
       </c>
       <c r="P49" s="0" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="Q49" s="0" t="s">
         <v>49</v>
@@ -3724,19 +3727,19 @@
     </row>
     <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="G50" s="12" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="H50" s="1" t="n">
         <v>5</v>
       </c>
       <c r="J50" s="12" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="K50" s="11" t="n">
         <v>0</v>
       </c>
       <c r="P50" s="0" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="Q50" s="0" t="s">
         <v>49</v>
@@ -3744,19 +3747,19 @@
     </row>
     <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="G51" s="0" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="H51" s="1" t="n">
         <v>5</v>
       </c>
       <c r="J51" s="12" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="K51" s="11" t="n">
         <v>2</v>
       </c>
       <c r="P51" s="0" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="Q51" s="0" t="s">
         <v>49</v>
@@ -3764,19 +3767,19 @@
     </row>
     <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="G52" s="0" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="H52" s="1" t="n">
         <v>20</v>
       </c>
       <c r="J52" s="12" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="K52" s="11" t="n">
         <v>45</v>
       </c>
       <c r="P52" s="0" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="Q52" s="0" t="s">
         <v>49</v>
@@ -3784,19 +3787,19 @@
     </row>
     <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="G53" s="0" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="H53" s="1" t="n">
         <v>10</v>
       </c>
       <c r="J53" s="12" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="K53" s="11" t="n">
         <v>45</v>
       </c>
       <c r="P53" s="0" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="Q53" s="0" t="s">
         <v>49</v>
@@ -3804,19 +3807,19 @@
     </row>
     <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="G54" s="12" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="H54" s="1" t="n">
         <v>5</v>
       </c>
       <c r="J54" s="12" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="K54" s="11" t="n">
         <v>2</v>
       </c>
       <c r="P54" s="0" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="Q54" s="0" t="s">
         <v>49</v>
@@ -3824,19 +3827,19 @@
     </row>
     <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="G55" s="12" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="H55" s="1" t="n">
         <v>5</v>
       </c>
       <c r="J55" s="12" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="K55" s="11" t="n">
         <v>6</v>
       </c>
       <c r="P55" s="0" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="Q55" s="0" t="s">
         <v>49</v>
@@ -3844,19 +3847,19 @@
     </row>
     <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="G56" s="12" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="H56" s="1" t="n">
         <v>5</v>
       </c>
       <c r="J56" s="12" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="K56" s="11" t="n">
         <v>0</v>
       </c>
       <c r="P56" s="0" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="Q56" s="0" t="s">
         <v>49</v>
@@ -3864,19 +3867,19 @@
     </row>
     <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="G57" s="12" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="H57" s="1" t="n">
         <v>5</v>
       </c>
       <c r="J57" s="12" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="K57" s="11" t="n">
         <v>0</v>
       </c>
       <c r="P57" s="0" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="Q57" s="0" t="s">
         <v>49</v>
@@ -3884,19 +3887,19 @@
     </row>
     <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="G58" s="7" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="H58" s="1" t="n">
         <v>20</v>
       </c>
       <c r="J58" s="12" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="K58" s="11" t="n">
         <v>0</v>
       </c>
       <c r="P58" s="0" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="Q58" s="0" t="s">
         <v>49</v>
@@ -3904,13 +3907,13 @@
     </row>
     <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J59" s="12" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="K59" s="11" t="n">
         <v>0</v>
       </c>
       <c r="P59" s="0" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="Q59" s="0" t="s">
         <v>49</v>
@@ -3918,7 +3921,7 @@
     </row>
     <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="P60" s="0" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="Q60" s="0" t="s">
         <v>49</v>
@@ -3926,7 +3929,7 @@
     </row>
     <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="P61" s="0" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="Q61" s="0" t="s">
         <v>49</v>
@@ -3934,14 +3937,14 @@
     </row>
     <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J62" s="8" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="K62" s="6" t="n">
         <f aca="false">SUM(K63:K65)</f>
         <v>100</v>
       </c>
       <c r="P62" s="0" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="Q62" s="0" t="s">
         <v>49</v>
@@ -3949,13 +3952,13 @@
     </row>
     <row r="63" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J63" s="0" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="K63" s="1" t="n">
         <v>49</v>
       </c>
       <c r="P63" s="0" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="Q63" s="0" t="s">
         <v>49</v>
@@ -3963,13 +3966,13 @@
     </row>
     <row r="64" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J64" s="0" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="K64" s="1" t="n">
         <v>49</v>
       </c>
       <c r="P64" s="0" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="Q64" s="0" t="s">
         <v>49</v>
@@ -3977,13 +3980,13 @@
     </row>
     <row r="65" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J65" s="0" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="K65" s="1" t="n">
         <v>2</v>
       </c>
       <c r="P65" s="0" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="Q65" s="0" t="s">
         <v>85</v>
@@ -3991,7 +3994,7 @@
     </row>
     <row r="66" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="P66" s="0" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="Q66" s="0" t="s">
         <v>49</v>
@@ -3999,7 +4002,7 @@
     </row>
     <row r="67" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="P67" s="0" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="Q67" s="0" t="s">
         <v>49</v>
@@ -4007,14 +4010,14 @@
     </row>
     <row r="68" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J68" s="8" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="K68" s="6" t="n">
         <f aca="false">SUM(K69:K70)</f>
         <v>100</v>
       </c>
       <c r="P68" s="0" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="Q68" s="0" t="s">
         <v>49</v>
@@ -4022,13 +4025,13 @@
     </row>
     <row r="69" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J69" s="0" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="K69" s="1" t="n">
         <v>50</v>
       </c>
       <c r="P69" s="0" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="Q69" s="0" t="s">
         <v>49</v>
@@ -4036,13 +4039,13 @@
     </row>
     <row r="70" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J70" s="0" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="K70" s="1" t="n">
         <v>50</v>
       </c>
       <c r="P70" s="0" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="Q70" s="0" t="s">
         <v>49</v>
@@ -4050,13 +4053,13 @@
     </row>
     <row r="71" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J71" s="0" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="K71" s="1" t="n">
         <v>0</v>
       </c>
       <c r="P71" s="0" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="Q71" s="0" t="s">
         <v>49</v>
@@ -4064,13 +4067,13 @@
     </row>
     <row r="72" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J72" s="0" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="K72" s="1" t="n">
         <v>0</v>
       </c>
       <c r="P72" s="0" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="Q72" s="0" t="s">
         <v>85</v>
@@ -4078,7 +4081,7 @@
     </row>
     <row r="73" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="P73" s="0" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="Q73" s="0" t="s">
         <v>49</v>
@@ -4086,7 +4089,7 @@
     </row>
     <row r="74" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="P74" s="0" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="Q74" s="0" t="s">
         <v>49</v>
@@ -4094,14 +4097,14 @@
     </row>
     <row r="75" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J75" s="8" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="K75" s="6" t="n">
         <f aca="false">SUM(K76:K81)</f>
         <v>100</v>
       </c>
       <c r="P75" s="0" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="Q75" s="0" t="s">
         <v>49</v>
@@ -4109,13 +4112,13 @@
     </row>
     <row r="76" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J76" s="0" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="K76" s="1" t="n">
         <v>30</v>
       </c>
       <c r="P76" s="0" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="Q76" s="0" t="s">
         <v>49</v>
@@ -4123,13 +4126,13 @@
     </row>
     <row r="77" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J77" s="0" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="K77" s="1" t="n">
         <v>20</v>
       </c>
       <c r="P77" s="0" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="Q77" s="0" t="s">
         <v>49</v>
@@ -4137,13 +4140,13 @@
     </row>
     <row r="78" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J78" s="0" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="K78" s="1" t="n">
         <v>20</v>
       </c>
       <c r="P78" s="0" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="Q78" s="0" t="s">
         <v>49</v>
@@ -4151,13 +4154,13 @@
     </row>
     <row r="79" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J79" s="0" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="K79" s="1" t="n">
         <v>20</v>
       </c>
       <c r="P79" s="0" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="Q79" s="0" t="s">
         <v>49</v>
@@ -4165,13 +4168,13 @@
     </row>
     <row r="80" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J80" s="0" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="K80" s="1" t="n">
         <v>5</v>
       </c>
       <c r="P80" s="0" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="Q80" s="0" t="s">
         <v>49</v>
@@ -4179,13 +4182,13 @@
     </row>
     <row r="81" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J81" s="0" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="K81" s="1" t="n">
         <v>5</v>
       </c>
       <c r="P81" s="0" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="Q81" s="0" t="s">
         <v>49</v>
@@ -4193,7 +4196,7 @@
     </row>
     <row r="82" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="P82" s="0" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="Q82" s="0" t="s">
         <v>49</v>
@@ -4201,7 +4204,7 @@
     </row>
     <row r="83" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="P83" s="0" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="Q83" s="0" t="s">
         <v>49</v>
@@ -4209,14 +4212,14 @@
     </row>
     <row r="84" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J84" s="8" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="K84" s="6" t="n">
         <f aca="false">SUM(K85:K89)</f>
         <v>100</v>
       </c>
       <c r="P84" s="0" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="Q84" s="0" t="s">
         <v>49</v>
@@ -4224,13 +4227,13 @@
     </row>
     <row r="85" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J85" s="0" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="K85" s="1" t="n">
         <v>60</v>
       </c>
       <c r="P85" s="0" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="Q85" s="0" t="s">
         <v>49</v>
@@ -4238,13 +4241,13 @@
     </row>
     <row r="86" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J86" s="0" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="K86" s="1" t="n">
         <v>10</v>
       </c>
       <c r="P86" s="0" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="Q86" s="0" t="s">
         <v>49</v>
@@ -4252,13 +4255,13 @@
     </row>
     <row r="87" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J87" s="0" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="K87" s="1" t="n">
         <v>10</v>
       </c>
       <c r="P87" s="0" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="Q87" s="0" t="s">
         <v>49</v>
@@ -4266,13 +4269,13 @@
     </row>
     <row r="88" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J88" s="0" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="K88" s="1" t="n">
         <v>10</v>
       </c>
       <c r="P88" s="0" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="Q88" s="0" t="s">
         <v>49</v>
@@ -4280,13 +4283,13 @@
     </row>
     <row r="89" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J89" s="0" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="K89" s="1" t="n">
         <v>10</v>
       </c>
       <c r="P89" s="0" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="Q89" s="0" t="s">
         <v>49</v>
@@ -4295,7 +4298,7 @@
     <row r="90" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="K90" s="0"/>
       <c r="P90" s="0" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="Q90" s="0" t="s">
         <v>49</v>
@@ -4303,7 +4306,7 @@
     </row>
     <row r="91" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="P91" s="0" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="Q91" s="0" t="s">
         <v>49</v>
@@ -4311,7 +4314,7 @@
     </row>
     <row r="92" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="P92" s="0" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="Q92" s="0" t="s">
         <v>49</v>
@@ -4319,7 +4322,7 @@
     </row>
     <row r="93" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="P93" s="0" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="Q93" s="0" t="s">
         <v>49</v>
@@ -4327,7 +4330,7 @@
     </row>
     <row r="94" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="P94" s="0" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="Q94" s="0" t="s">
         <v>49</v>
@@ -4335,7 +4338,7 @@
     </row>
     <row r="95" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="P95" s="0" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="Q95" s="0" t="s">
         <v>49</v>
@@ -4343,7 +4346,7 @@
     </row>
     <row r="96" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="P96" s="0" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="Q96" s="0" t="s">
         <v>49</v>
@@ -4351,7 +4354,7 @@
     </row>
     <row r="97" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="P97" s="0" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="Q97" s="0" t="s">
         <v>49</v>
@@ -4359,7 +4362,7 @@
     </row>
     <row r="98" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="P98" s="0" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="Q98" s="0" t="s">
         <v>49</v>
@@ -4367,7 +4370,7 @@
     </row>
     <row r="99" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="P99" s="0" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="Q99" s="0" t="s">
         <v>49</v>
@@ -4375,7 +4378,7 @@
     </row>
     <row r="100" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="P100" s="0" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="Q100" s="0" t="s">
         <v>49</v>
@@ -4383,7 +4386,7 @@
     </row>
     <row r="101" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="P101" s="0" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="Q101" s="0" t="s">
         <v>49</v>
@@ -4391,7 +4394,7 @@
     </row>
     <row r="102" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="P102" s="0" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="Q102" s="0" t="s">
         <v>49</v>
@@ -4399,7 +4402,7 @@
     </row>
     <row r="103" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="P103" s="0" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="Q103" s="0" t="s">
         <v>85</v>
@@ -4489,30 +4492,30 @@
       <selection pane="topLeft" activeCell="I23" activeCellId="0" sqref="I23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1" s="0" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2" s="0" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="H2" s="0" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B4" s="2" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="C4" s="0" t="n">
         <f aca="false">SUM(C5:C13)</f>
@@ -4534,25 +4537,25 @@
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="3"/>
       <c r="B5" s="0" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="C5" s="1" t="n">
         <v>50</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="E5" s="1" t="n">
         <v>50</v>
       </c>
       <c r="F5" s="0" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="G5" s="1" t="n">
         <v>60</v>
       </c>
       <c r="H5" s="0" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="I5" s="1" t="n">
         <v>50</v>
@@ -4561,25 +4564,25 @@
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="3"/>
       <c r="B6" s="0" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="C6" s="1" t="n">
         <v>50</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="E6" s="1" t="n">
         <v>50</v>
       </c>
       <c r="F6" s="0" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="G6" s="1" t="n">
         <v>10</v>
       </c>
       <c r="H6" s="0" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="I6" s="1" t="n">
         <v>50</v>
@@ -4589,7 +4592,7 @@
       <c r="A7" s="8"/>
       <c r="B7" s="6"/>
       <c r="F7" s="0" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="G7" s="1" t="n">
         <v>10</v>
@@ -4598,7 +4601,7 @@
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B8" s="1"/>
       <c r="F8" s="0" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="G8" s="1" t="n">
         <v>10</v>
@@ -4607,7 +4610,7 @@
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B9" s="1"/>
       <c r="F9" s="0" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="G9" s="1" t="n">
         <v>10</v>
@@ -4625,7 +4628,7 @@
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B14" s="2" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="C14" s="0" t="n">
         <f aca="false">SUM(C15:C23)</f>
@@ -4646,25 +4649,25 @@
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B15" s="0" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="C15" s="1" t="n">
         <v>30</v>
       </c>
       <c r="D15" s="0" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="E15" s="1" t="n">
         <v>35</v>
       </c>
       <c r="F15" s="0" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="G15" s="1" t="n">
         <v>70</v>
       </c>
       <c r="H15" s="0" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="I15" s="1" t="n">
         <v>100</v>
@@ -4673,19 +4676,19 @@
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="8"/>
       <c r="B16" s="0" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="C16" s="1" t="n">
         <v>30</v>
       </c>
       <c r="D16" s="0" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="E16" s="1" t="n">
         <v>25</v>
       </c>
       <c r="F16" s="0" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="G16" s="1" t="n">
         <v>10</v>
@@ -4693,19 +4696,19 @@
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B17" s="0" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="C17" s="1" t="n">
         <v>40</v>
       </c>
       <c r="D17" s="0" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="E17" s="1" t="n">
         <v>25</v>
       </c>
       <c r="F17" s="0" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="G17" s="1" t="n">
         <v>10</v>
@@ -4713,13 +4716,13 @@
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D18" s="0" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="E18" s="1" t="n">
         <v>15</v>
       </c>
       <c r="F18" s="0" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="G18" s="1" t="n">
         <v>5</v>
@@ -4727,7 +4730,7 @@
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F19" s="0" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="G19" s="1" t="n">
         <v>5</v>
@@ -4748,7 +4751,7 @@
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B24" s="2" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="C24" s="0" t="n">
         <f aca="false">SUM(C25:C33)</f>
@@ -4766,25 +4769,25 @@
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="8"/>
       <c r="B25" s="0" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="C25" s="1" t="n">
         <v>35</v>
       </c>
       <c r="D25" s="0" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="E25" s="1" t="n">
         <v>50</v>
       </c>
       <c r="F25" s="0" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="G25" s="1" t="n">
         <v>30</v>
       </c>
       <c r="H25" s="0" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="I25" s="1" t="n">
         <v>100</v>
@@ -4792,19 +4795,19 @@
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B26" s="0" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="C26" s="1" t="n">
         <v>35</v>
       </c>
       <c r="D26" s="0" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="E26" s="1" t="n">
         <v>50</v>
       </c>
       <c r="F26" s="0" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="G26" s="1" t="n">
         <v>30</v>
@@ -4812,13 +4815,13 @@
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B27" s="0" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="C27" s="1" t="n">
         <v>30</v>
       </c>
       <c r="F27" s="0" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="G27" s="1" t="n">
         <v>30</v>
@@ -4827,7 +4830,7 @@
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B28" s="1"/>
       <c r="F28" s="0" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="G28" s="1" t="n">
         <v>5</v>
@@ -4837,7 +4840,7 @@
       <c r="A29" s="8"/>
       <c r="B29" s="6"/>
       <c r="F29" s="0" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="G29" s="1" t="n">
         <v>5</v>
@@ -4858,7 +4861,7 @@
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="3"/>
       <c r="B34" s="2" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="C34" s="0" t="n">
         <f aca="false">SUM(C35:C43)</f>
@@ -4880,25 +4883,25 @@
     <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="3"/>
       <c r="B35" s="0" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="C35" s="1" t="n">
         <v>100</v>
       </c>
       <c r="D35" s="0" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="E35" s="1" t="n">
         <v>100</v>
       </c>
       <c r="F35" s="0" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="G35" s="1" t="n">
         <v>100</v>
       </c>
       <c r="H35" s="0" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="I35" s="1" t="n">
         <v>100</v>
@@ -4932,7 +4935,7 @@
     </row>
     <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B44" s="2" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="C44" s="0" t="n">
         <f aca="false">SUM(C45:C53)</f>
@@ -4953,25 +4956,25 @@
     </row>
     <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B45" s="0" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="C45" s="1" t="n">
         <v>100</v>
       </c>
       <c r="D45" s="0" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="E45" s="1" t="n">
         <v>100</v>
       </c>
       <c r="F45" s="0" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="G45" s="1" t="n">
         <v>100</v>
       </c>
       <c r="H45" s="0" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="I45" s="1" t="n">
         <v>100</v>
@@ -5006,7 +5009,7 @@
     <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="8"/>
       <c r="B54" s="2" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="C54" s="0" t="n">
         <f aca="false">SUM(C55:C63)</f>
@@ -5027,25 +5030,25 @@
     </row>
     <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B55" s="0" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="C55" s="1" t="n">
         <v>100</v>
       </c>
       <c r="D55" s="0" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="E55" s="1" t="n">
         <v>100</v>
       </c>
       <c r="F55" s="0" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="G55" s="1" t="n">
         <v>100</v>
       </c>
       <c r="H55" s="0" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="I55" s="1" t="n">
         <v>100</v>
@@ -5307,10 +5310,10 @@
   <dimension ref="A2:AMJ118"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="K25" activeCellId="0" sqref="K25"/>
+      <selection pane="topLeft" activeCell="K41" activeCellId="0" sqref="K41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.72265625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.73046875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="19.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="31.28"/>
@@ -5349,52 +5352,52 @@
   <sheetData>
     <row r="2" s="3" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="5" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="B2" s="5"/>
       <c r="C2" s="5"/>
       <c r="E2" s="2" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="F2" s="2"/>
       <c r="H2" s="5" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="I2" s="5"/>
       <c r="J2" s="5" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="K2" s="5"/>
       <c r="L2" s="5"/>
       <c r="M2" s="2"/>
       <c r="N2" s="5" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="O2" s="5"/>
       <c r="P2" s="5"/>
       <c r="R2" s="2" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="S2" s="2"/>
       <c r="U2" s="5" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="V2" s="5"/>
       <c r="X2" s="5" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="Y2" s="5"/>
       <c r="Z2" s="0"/>
       <c r="AA2" s="5" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="AB2" s="5"/>
       <c r="AD2" s="5" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="AE2" s="5"/>
       <c r="AG2" s="5" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="AH2" s="5"/>
       <c r="AMH2" s="0"/>
@@ -5439,7 +5442,7 @@
         <v>6</v>
       </c>
       <c r="P3" s="3" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="R3" s="3" t="s">
         <v>6</v>
@@ -5525,7 +5528,7 @@
         <v>120</v>
       </c>
       <c r="AG4" s="3" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="AH4" s="6" t="n">
         <f aca="false">SUM(AH5:AH95)</f>
@@ -5534,77 +5537,77 @@
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="C5" s="1" t="n">
         <v>85</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="F5" s="11" t="n">
         <v>60</v>
       </c>
       <c r="H5" s="0" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="I5" s="11" t="n">
         <v>95</v>
       </c>
       <c r="J5" s="0" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="K5" s="0" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="L5" s="11" t="n">
         <v>70</v>
       </c>
       <c r="M5" s="11"/>
       <c r="N5" s="0" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="O5" s="0" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="P5" s="1" t="n">
         <v>10</v>
       </c>
       <c r="R5" s="0" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="S5" s="13" t="n">
         <v>10</v>
       </c>
       <c r="U5" s="0" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="V5" s="11" t="n">
         <v>5</v>
       </c>
       <c r="X5" s="0" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="Y5" s="13" t="n">
         <v>10</v>
       </c>
       <c r="AA5" s="0" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="AB5" s="11" t="n">
         <v>10</v>
       </c>
       <c r="AD5" s="0" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="AE5" s="11" t="n">
         <v>80</v>
       </c>
       <c r="AG5" s="0" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="AH5" s="1" t="n">
         <v>10</v>
@@ -5612,77 +5615,77 @@
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="C6" s="1" t="n">
         <v>5</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="F6" s="11" t="n">
         <v>40</v>
       </c>
       <c r="H6" s="0" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="I6" s="11" t="n">
         <v>5</v>
       </c>
       <c r="J6" s="0" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="K6" s="0" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="L6" s="11" t="n">
         <v>30</v>
       </c>
       <c r="M6" s="11"/>
       <c r="N6" s="0" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="O6" s="0" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="P6" s="1" t="n">
         <v>10</v>
       </c>
       <c r="R6" s="0" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="S6" s="11" t="n">
         <v>40</v>
       </c>
       <c r="U6" s="0" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="V6" s="11" t="n">
         <v>15</v>
       </c>
       <c r="X6" s="0" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="Y6" s="11" t="n">
         <v>90</v>
       </c>
       <c r="AA6" s="0" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="AB6" s="11" t="n">
         <v>10</v>
       </c>
       <c r="AD6" s="0" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="AE6" s="11" t="n">
         <v>20</v>
       </c>
       <c r="AG6" s="0" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="AH6" s="1" t="n">
         <v>10</v>
@@ -5690,10 +5693,10 @@
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="C7" s="1" t="n">
         <v>5</v>
@@ -5703,22 +5706,22 @@
       <c r="L7" s="11"/>
       <c r="M7" s="11"/>
       <c r="N7" s="0" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="O7" s="0" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="P7" s="1" t="n">
         <v>10</v>
       </c>
       <c r="R7" s="0" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="S7" s="13" t="n">
         <v>10</v>
       </c>
       <c r="U7" s="0" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="V7" s="11" t="n">
         <v>20</v>
@@ -5726,13 +5729,13 @@
       <c r="Y7" s="13"/>
       <c r="AB7" s="13"/>
       <c r="AD7" s="0" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="AE7" s="1" t="n">
         <v>20</v>
       </c>
       <c r="AG7" s="0" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="AH7" s="1" t="n">
         <v>10</v>
@@ -5740,10 +5743,10 @@
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="C8" s="1" t="n">
         <v>5</v>
@@ -5760,22 +5763,22 @@
       </c>
       <c r="M8" s="11"/>
       <c r="N8" s="0" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="O8" s="0" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="P8" s="11" t="n">
         <v>10</v>
       </c>
       <c r="R8" s="0" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="S8" s="13" t="n">
         <v>20</v>
       </c>
       <c r="U8" s="0" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="V8" s="11" t="n">
         <v>10</v>
@@ -5784,7 +5787,7 @@
       <c r="AB8" s="13"/>
       <c r="AE8" s="13"/>
       <c r="AG8" s="0" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="AH8" s="1" t="n">
         <v>10</v>
@@ -5792,38 +5795,38 @@
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H9" s="0" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="I9" s="11" t="n">
         <v>90</v>
       </c>
       <c r="J9" s="0" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="K9" s="0" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="L9" s="11" t="n">
         <v>75</v>
       </c>
       <c r="M9" s="6"/>
       <c r="N9" s="0" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="O9" s="0" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="P9" s="11" t="n">
         <v>60</v>
       </c>
       <c r="R9" s="0" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="S9" s="13" t="n">
         <v>10</v>
       </c>
       <c r="U9" s="0" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="V9" s="11" t="n">
         <v>20</v>
@@ -5832,7 +5835,7 @@
       <c r="AB9" s="13"/>
       <c r="AE9" s="13"/>
       <c r="AG9" s="0" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="AH9" s="1" t="n">
         <v>10</v>
@@ -5842,16 +5845,16 @@
       <c r="B10" s="8"/>
       <c r="C10" s="6"/>
       <c r="H10" s="0" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="I10" s="11" t="n">
         <v>10</v>
       </c>
       <c r="J10" s="0" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="K10" s="0" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="L10" s="11" t="n">
         <v>25</v>
@@ -5862,7 +5865,7 @@
         <v>110</v>
       </c>
       <c r="R10" s="0" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="S10" s="13" t="n">
         <v>10</v>
@@ -5872,7 +5875,7 @@
       <c r="AB10" s="13"/>
       <c r="AE10" s="13"/>
       <c r="AG10" s="0" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="AH10" s="1" t="n">
         <v>10</v>
@@ -5883,17 +5886,17 @@
       <c r="L11" s="0"/>
       <c r="M11" s="11"/>
       <c r="N11" s="0" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="O11" s="0" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="P11" s="1" t="n">
         <v>10</v>
       </c>
       <c r="S11" s="13"/>
       <c r="AG11" s="0" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="AH11" s="1" t="n">
         <v>10</v>
@@ -5910,17 +5913,17 @@
         <v>100</v>
       </c>
       <c r="N12" s="0" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="O12" s="0" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="P12" s="1" t="n">
         <v>10</v>
       </c>
       <c r="S12" s="13"/>
       <c r="AG12" s="0" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="AH12" s="1" t="n">
         <v>10</v>
@@ -5928,32 +5931,32 @@
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H13" s="0" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="I13" s="11" t="n">
         <v>85</v>
       </c>
       <c r="J13" s="0" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="K13" s="0" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="L13" s="11" t="n">
         <v>80</v>
       </c>
       <c r="N13" s="0" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="O13" s="0" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="P13" s="1" t="n">
         <v>10</v>
       </c>
       <c r="S13" s="13"/>
       <c r="AG13" s="0" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="AH13" s="1" t="n">
         <v>10</v>
@@ -5961,33 +5964,33 @@
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H14" s="0" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="I14" s="11" t="n">
         <v>15</v>
       </c>
       <c r="J14" s="0" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="K14" s="0" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="L14" s="11" t="n">
         <v>20</v>
       </c>
       <c r="M14" s="6"/>
       <c r="N14" s="0" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="O14" s="0" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="P14" s="11" t="n">
         <v>10</v>
       </c>
       <c r="S14" s="13"/>
       <c r="AG14" s="0" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="AH14" s="1" t="n">
         <v>10</v>
@@ -5998,17 +6001,17 @@
       <c r="L15" s="0"/>
       <c r="M15" s="11"/>
       <c r="N15" s="0" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="O15" s="0" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="P15" s="11" t="n">
         <v>70</v>
       </c>
       <c r="S15" s="13"/>
       <c r="AG15" s="0" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="AH15" s="1" t="n">
         <v>10</v>
@@ -6031,7 +6034,7 @@
       </c>
       <c r="S16" s="13"/>
       <c r="AG16" s="0" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="AH16" s="1" t="n">
         <v>10</v>
@@ -6039,32 +6042,32 @@
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H17" s="0" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="I17" s="11" t="n">
         <v>80</v>
       </c>
       <c r="J17" s="0" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="K17" s="0" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="L17" s="11" t="n">
         <v>85</v>
       </c>
       <c r="N17" s="0" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="O17" s="0" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="P17" s="1" t="n">
         <v>5</v>
       </c>
       <c r="S17" s="13"/>
       <c r="AG17" s="0" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="AH17" s="1" t="n">
         <v>10</v>
@@ -6072,32 +6075,32 @@
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H18" s="0" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="I18" s="11" t="n">
         <v>20</v>
       </c>
       <c r="J18" s="0" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="K18" s="0" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="L18" s="11" t="n">
         <v>15</v>
       </c>
       <c r="N18" s="0" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="O18" s="0" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="P18" s="1" t="n">
         <v>5</v>
       </c>
       <c r="S18" s="13"/>
       <c r="AG18" s="0" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="AH18" s="1" t="n">
         <v>10</v>
@@ -6108,17 +6111,17 @@
       <c r="L19" s="0"/>
       <c r="M19" s="6"/>
       <c r="N19" s="0" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="O19" s="0" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="P19" s="1" t="n">
         <v>5</v>
       </c>
       <c r="S19" s="13"/>
       <c r="AG19" s="0" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="AH19" s="1" t="n">
         <v>10</v>
@@ -6129,17 +6132,17 @@
       <c r="L20" s="0"/>
       <c r="M20" s="11"/>
       <c r="N20" s="0" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="O20" s="0" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="P20" s="11" t="n">
         <v>5</v>
       </c>
       <c r="S20" s="13"/>
       <c r="AG20" s="0" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="AH20" s="1" t="n">
         <v>10</v>
@@ -6150,17 +6153,17 @@
       <c r="L21" s="0"/>
       <c r="M21" s="11"/>
       <c r="N21" s="0" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="O21" s="0" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="P21" s="11" t="n">
         <v>80</v>
       </c>
       <c r="S21" s="13"/>
       <c r="AG21" s="0" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="AH21" s="1" t="n">
         <v>10</v>
@@ -6174,7 +6177,7 @@
       </c>
       <c r="S22" s="13"/>
       <c r="AG22" s="0" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="AH22" s="1" t="n">
         <v>10</v>
@@ -6183,17 +6186,17 @@
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="L23" s="0"/>
       <c r="N23" s="0" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="O23" s="0" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="P23" s="1" t="n">
         <v>5</v>
       </c>
       <c r="S23" s="13"/>
       <c r="AG23" s="0" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="AH23" s="1" t="n">
         <v>10</v>
@@ -6202,17 +6205,17 @@
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="L24" s="0"/>
       <c r="N24" s="0" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="O24" s="0" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="P24" s="1" t="n">
         <v>5</v>
       </c>
       <c r="S24" s="13"/>
       <c r="AG24" s="0" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="AH24" s="1" t="n">
         <v>10</v>
@@ -6220,17 +6223,17 @@
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="N25" s="0" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="O25" s="0" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="P25" s="1" t="n">
         <v>5</v>
       </c>
       <c r="S25" s="13"/>
       <c r="AG25" s="0" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="AH25" s="1" t="n">
         <v>10</v>
@@ -6238,17 +6241,17 @@
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="N26" s="0" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="O26" s="0" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="P26" s="11" t="n">
         <v>5</v>
       </c>
       <c r="S26" s="13"/>
       <c r="AG26" s="0" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="AH26" s="1" t="n">
         <v>10</v>
@@ -6256,17 +6259,17 @@
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="N27" s="0" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="O27" s="0" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="P27" s="11" t="n">
         <v>90</v>
       </c>
       <c r="S27" s="13"/>
       <c r="AG27" s="0" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="AH27" s="1" t="n">
         <v>10</v>
@@ -6275,7 +6278,7 @@
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="S28" s="13"/>
       <c r="AG28" s="0" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="AH28" s="1" t="n">
         <v>10</v>
@@ -6284,7 +6287,7 @@
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="S29" s="13"/>
       <c r="AG29" s="0" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="AH29" s="1" t="n">
         <v>10</v>
@@ -6293,7 +6296,7 @@
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="S30" s="13"/>
       <c r="AG30" s="0" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="AH30" s="1" t="n">
         <v>10</v>
@@ -6302,7 +6305,7 @@
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="S31" s="13"/>
       <c r="AG31" s="0" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="AH31" s="1" t="n">
         <v>10</v>
@@ -6311,7 +6314,7 @@
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="S32" s="13"/>
       <c r="AG32" s="0" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="AH32" s="1" t="n">
         <v>10</v>
@@ -6320,7 +6323,7 @@
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="S33" s="13"/>
       <c r="AG33" s="0" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="AH33" s="1" t="n">
         <v>10</v>
@@ -6330,7 +6333,7 @@
       <c r="P34" s="0"/>
       <c r="S34" s="11"/>
       <c r="AG34" s="0" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="AH34" s="1" t="n">
         <v>10</v>
@@ -6340,7 +6343,7 @@
       <c r="P35" s="0"/>
       <c r="S35" s="11"/>
       <c r="AG35" s="0" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="AH35" s="1" t="n">
         <v>10</v>
@@ -6350,7 +6353,7 @@
       <c r="P36" s="0"/>
       <c r="S36" s="0"/>
       <c r="AG36" s="0" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="AH36" s="1" t="n">
         <v>10</v>
@@ -6360,7 +6363,7 @@
       <c r="P37" s="0"/>
       <c r="S37" s="11"/>
       <c r="AG37" s="0" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="AH37" s="1" t="n">
         <v>10</v>
@@ -6370,7 +6373,7 @@
       <c r="P38" s="0"/>
       <c r="S38" s="0"/>
       <c r="AG38" s="0" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="AH38" s="1" t="n">
         <v>10</v>
@@ -6380,7 +6383,7 @@
       <c r="P39" s="0"/>
       <c r="S39" s="11"/>
       <c r="AG39" s="0" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="AH39" s="1" t="n">
         <v>10</v>
@@ -6390,7 +6393,7 @@
       <c r="P40" s="0"/>
       <c r="S40" s="13"/>
       <c r="AG40" s="0" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="AH40" s="1" t="n">
         <v>10</v>
@@ -6399,7 +6402,7 @@
     <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="S41" s="13"/>
       <c r="AG41" s="0" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="AH41" s="1" t="n">
         <v>10</v>
@@ -6408,7 +6411,7 @@
     <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="S42" s="13"/>
       <c r="AG42" s="0" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="AH42" s="1" t="n">
         <v>10</v>
@@ -6417,7 +6420,7 @@
     <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="S43" s="13"/>
       <c r="AG43" s="0" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="AH43" s="1" t="n">
         <v>10</v>
@@ -6426,7 +6429,7 @@
     <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="S44" s="13"/>
       <c r="AG44" s="0" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="AH44" s="1" t="n">
         <v>10</v>
@@ -6435,7 +6438,7 @@
     <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="S45" s="13"/>
       <c r="AG45" s="0" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="AH45" s="1" t="n">
         <v>10</v>
@@ -6444,7 +6447,7 @@
     <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="S46" s="13"/>
       <c r="AG46" s="0" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="AH46" s="1" t="n">
         <v>10</v>
@@ -6453,7 +6456,7 @@
     <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="S47" s="13"/>
       <c r="AG47" s="0" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="AH47" s="1" t="n">
         <v>10</v>
@@ -6462,7 +6465,7 @@
     <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="S48" s="13"/>
       <c r="AG48" s="0" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="AH48" s="1" t="n">
         <v>10</v>
@@ -6471,7 +6474,7 @@
     <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="S49" s="13"/>
       <c r="AG49" s="0" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="AH49" s="1" t="n">
         <v>10</v>
@@ -6480,7 +6483,7 @@
     <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="S50" s="13"/>
       <c r="AG50" s="0" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="AH50" s="1" t="n">
         <v>10</v>
@@ -6489,7 +6492,7 @@
     <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="S51" s="13"/>
       <c r="AG51" s="0" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="AH51" s="1" t="n">
         <v>10</v>
@@ -6498,7 +6501,7 @@
     <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="S52" s="13"/>
       <c r="AG52" s="0" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="AH52" s="1" t="n">
         <v>10</v>
@@ -6507,7 +6510,7 @@
     <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="S53" s="13"/>
       <c r="AG53" s="0" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="AH53" s="1" t="n">
         <v>10</v>
@@ -6516,7 +6519,7 @@
     <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="S54" s="13"/>
       <c r="AG54" s="0" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="AH54" s="1" t="n">
         <v>10</v>
@@ -6525,7 +6528,7 @@
     <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="S55" s="13"/>
       <c r="AG55" s="0" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="AH55" s="1" t="n">
         <v>10</v>
@@ -6534,7 +6537,7 @@
     <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="S56" s="13"/>
       <c r="AG56" s="0" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="AH56" s="1" t="n">
         <v>10</v>
@@ -6543,7 +6546,7 @@
     <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="S57" s="13"/>
       <c r="AG57" s="0" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="AH57" s="1" t="n">
         <v>10</v>
@@ -6552,7 +6555,7 @@
     <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="S58" s="13"/>
       <c r="AG58" s="0" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="AH58" s="1" t="n">
         <v>10</v>
@@ -6561,7 +6564,7 @@
     <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="S59" s="13"/>
       <c r="AG59" s="0" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="AH59" s="1" t="n">
         <v>10</v>
@@ -6570,7 +6573,7 @@
     <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="S60" s="13"/>
       <c r="AG60" s="0" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="AH60" s="1" t="n">
         <v>10</v>
@@ -6579,7 +6582,7 @@
     <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="S61" s="13"/>
       <c r="AG61" s="0" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="AH61" s="1" t="n">
         <v>10</v>
@@ -6588,7 +6591,7 @@
     <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="S62" s="13"/>
       <c r="AG62" s="0" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="AH62" s="1" t="n">
         <v>10</v>
@@ -6597,7 +6600,7 @@
     <row r="63" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="S63" s="13"/>
       <c r="AG63" s="0" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="AH63" s="1" t="n">
         <v>10</v>
@@ -6606,7 +6609,7 @@
     <row r="64" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="S64" s="13"/>
       <c r="AG64" s="0" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="AH64" s="1" t="n">
         <v>10</v>
@@ -6615,7 +6618,7 @@
     <row r="65" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="S65" s="13"/>
       <c r="AG65" s="0" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="AH65" s="1" t="n">
         <v>10</v>
@@ -6624,7 +6627,7 @@
     <row r="66" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="S66" s="13"/>
       <c r="AG66" s="0" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="AH66" s="1" t="n">
         <v>10</v>
@@ -6633,7 +6636,7 @@
     <row r="67" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="S67" s="13"/>
       <c r="AG67" s="0" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="AH67" s="1" t="n">
         <v>10</v>
@@ -6642,7 +6645,7 @@
     <row r="68" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="S68" s="13"/>
       <c r="AG68" s="0" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="AH68" s="1" t="n">
         <v>10</v>
@@ -6651,7 +6654,7 @@
     <row r="69" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="S69" s="13"/>
       <c r="AG69" s="0" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="AH69" s="1" t="n">
         <v>10</v>
@@ -6660,7 +6663,7 @@
     <row r="70" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="S70" s="13"/>
       <c r="AG70" s="0" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="AH70" s="1" t="n">
         <v>10</v>
@@ -6669,7 +6672,7 @@
     <row r="71" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="S71" s="13"/>
       <c r="AG71" s="0" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="AH71" s="1" t="n">
         <v>10</v>
@@ -6678,7 +6681,7 @@
     <row r="72" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="S72" s="13"/>
       <c r="AG72" s="0" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="AH72" s="1" t="n">
         <v>10</v>
@@ -6687,7 +6690,7 @@
     <row r="73" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="S73" s="13"/>
       <c r="AG73" s="0" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="AH73" s="1" t="n">
         <v>10</v>
@@ -6696,7 +6699,7 @@
     <row r="74" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="S74" s="13"/>
       <c r="AG74" s="0" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="AH74" s="1" t="n">
         <v>10</v>
@@ -6705,7 +6708,7 @@
     <row r="75" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="S75" s="13"/>
       <c r="AG75" s="0" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="AH75" s="1" t="n">
         <v>10</v>
@@ -6714,7 +6717,7 @@
     <row r="76" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="S76" s="13"/>
       <c r="AG76" s="0" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="AH76" s="1" t="n">
         <v>10</v>
@@ -6723,7 +6726,7 @@
     <row r="77" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="S77" s="13"/>
       <c r="AG77" s="0" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="AH77" s="1" t="n">
         <v>10</v>
@@ -6732,7 +6735,7 @@
     <row r="78" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="S78" s="13"/>
       <c r="AG78" s="0" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="AH78" s="1" t="n">
         <v>10</v>
@@ -6741,7 +6744,7 @@
     <row r="79" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="S79" s="13"/>
       <c r="AG79" s="0" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="AH79" s="1" t="n">
         <v>10</v>
@@ -6750,7 +6753,7 @@
     <row r="80" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="S80" s="13"/>
       <c r="AG80" s="0" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="AH80" s="1" t="n">
         <v>10</v>
@@ -6759,7 +6762,7 @@
     <row r="81" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="S81" s="13"/>
       <c r="AG81" s="0" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="AH81" s="1" t="n">
         <v>10</v>
@@ -6768,7 +6771,7 @@
     <row r="82" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="S82" s="13"/>
       <c r="AG82" s="0" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="AH82" s="1" t="n">
         <v>10</v>
@@ -6777,7 +6780,7 @@
     <row r="83" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="S83" s="13"/>
       <c r="AG83" s="0" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="AH83" s="1" t="n">
         <v>10</v>
@@ -6786,7 +6789,7 @@
     <row r="84" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="S84" s="13"/>
       <c r="AG84" s="0" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="AH84" s="1" t="n">
         <v>10</v>
@@ -6795,7 +6798,7 @@
     <row r="85" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="S85" s="13"/>
       <c r="AG85" s="0" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="AH85" s="1" t="n">
         <v>10</v>
@@ -6804,7 +6807,7 @@
     <row r="86" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="S86" s="13"/>
       <c r="AG86" s="0" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="AH86" s="1" t="n">
         <v>10</v>
@@ -6813,7 +6816,7 @@
     <row r="87" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="S87" s="13"/>
       <c r="AG87" s="0" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="AH87" s="1" t="n">
         <v>10</v>
@@ -6822,7 +6825,7 @@
     <row r="88" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="S88" s="13"/>
       <c r="AG88" s="0" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="AH88" s="1" t="n">
         <v>10</v>
@@ -6831,7 +6834,7 @@
     <row r="89" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="S89" s="13"/>
       <c r="AG89" s="0" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="AH89" s="1" t="n">
         <v>10</v>
@@ -6840,7 +6843,7 @@
     <row r="90" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="S90" s="13"/>
       <c r="AG90" s="0" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="AH90" s="1" t="n">
         <v>10</v>
@@ -6849,7 +6852,7 @@
     <row r="91" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="S91" s="13"/>
       <c r="AG91" s="0" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="AH91" s="1" t="n">
         <v>10</v>
@@ -6858,7 +6861,7 @@
     <row r="92" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="S92" s="13"/>
       <c r="AG92" s="0" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="AH92" s="1" t="n">
         <v>10</v>
@@ -6867,7 +6870,7 @@
     <row r="93" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="S93" s="13"/>
       <c r="AG93" s="0" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="AH93" s="1" t="n">
         <v>10</v>
@@ -6876,7 +6879,7 @@
     <row r="94" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="S94" s="13"/>
       <c r="AG94" s="0" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="AH94" s="1" t="n">
         <v>10</v>
@@ -6885,7 +6888,7 @@
     <row r="95" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="S95" s="13"/>
       <c r="AG95" s="0" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="AH95" s="1" t="n">
         <v>10</v>
@@ -6989,11 +6992,11 @@
   </sheetPr>
   <dimension ref="B1:AX56"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A11" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G36" activeCellId="0" sqref="G36"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A11" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B33" activeCellId="0" sqref="B33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.72265625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.73046875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="3.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="13.89"/>
@@ -7021,7 +7024,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="25" min="25" style="0" width="11.81"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="27" min="27" style="0" width="2.36"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="28" min="28" style="0" width="38.36"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="30" min="30" style="0" width="1.93"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="30" min="30" style="0" width="1.92"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="31" min="31" style="0" width="13.19"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="33" min="33" style="0" width="1.39"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="34" min="34" style="0" width="27.38"/>
@@ -7042,92 +7045,92 @@
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2" s="5" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="C2" s="5"/>
       <c r="D2" s="5"/>
       <c r="F2" s="3"/>
       <c r="G2" s="2" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="H2" s="2"/>
       <c r="I2" s="3"/>
       <c r="J2" s="2" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="K2" s="2"/>
       <c r="L2" s="3"/>
       <c r="M2" s="2" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="N2" s="2"/>
       <c r="O2" s="3"/>
       <c r="P2" s="2" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="Q2" s="2"/>
       <c r="R2" s="3"/>
       <c r="S2" s="2" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="T2" s="2"/>
       <c r="U2" s="3"/>
       <c r="V2" s="2" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="W2" s="2"/>
       <c r="X2" s="3"/>
       <c r="Y2" s="2" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="Z2" s="2"/>
       <c r="AA2" s="3"/>
       <c r="AB2" s="2" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="AC2" s="2"/>
       <c r="AD2" s="3"/>
       <c r="AE2" s="2" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="AF2" s="2"/>
       <c r="AG2" s="3"/>
       <c r="AH2" s="2" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="AI2" s="2"/>
       <c r="AJ2" s="3"/>
       <c r="AK2" s="2" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="AL2" s="2"/>
       <c r="AM2" s="3"/>
       <c r="AN2" s="2" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="AO2" s="2"/>
       <c r="AP2" s="3"/>
       <c r="AQ2" s="2" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="AR2" s="2"/>
       <c r="AS2" s="3"/>
       <c r="AT2" s="2" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="AU2" s="2"/>
       <c r="AV2" s="3"/>
       <c r="AW2" s="2" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="AX2" s="2"/>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3" s="8" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="D3" s="6" t="n">
         <f aca="false">SUM(D4:D25)</f>
@@ -7182,10 +7185,10 @@
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B4" s="12" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="C4" s="12" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="D4" s="11" t="n">
         <v>1</v>
@@ -7195,105 +7198,105 @@
         <v>0.00286532951289398</v>
       </c>
       <c r="G4" s="8" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="H4" s="6" t="n">
         <f aca="false">SUM(H5:H34)</f>
         <v>100</v>
       </c>
       <c r="J4" s="8" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="K4" s="6" t="n">
         <f aca="false">SUM(K5:K34)</f>
         <v>110</v>
       </c>
       <c r="M4" s="8" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="N4" s="6" t="n">
         <f aca="false">SUM(N5:N34)</f>
         <v>100</v>
       </c>
       <c r="P4" s="8" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="Q4" s="6" t="n">
         <f aca="false">SUM(Q5:Q34)</f>
         <v>270</v>
       </c>
       <c r="S4" s="8" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="T4" s="6" t="n">
         <f aca="false">SUM(T5:T34)</f>
         <v>180</v>
       </c>
       <c r="V4" s="8" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="W4" s="6" t="n">
         <f aca="false">SUM(W5:W34)</f>
         <v>180</v>
       </c>
       <c r="Y4" s="8" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="Z4" s="6" t="n">
         <f aca="false">SUM(Z5:Z34)</f>
         <v>100</v>
       </c>
       <c r="AB4" s="8" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="AC4" s="6" t="n">
         <f aca="false">SUM(AC5:AC34)</f>
         <v>330</v>
       </c>
       <c r="AE4" s="8" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="AF4" s="6" t="n">
         <f aca="false">SUM(AF5:AF34)</f>
         <v>100</v>
       </c>
       <c r="AH4" s="8" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="AI4" s="6" t="n">
         <f aca="false">SUM(AI5:AI34)</f>
         <v>10</v>
       </c>
       <c r="AK4" s="8" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="AL4" s="6" t="n">
         <f aca="false">SUM(AL5:AL34)</f>
         <v>10</v>
       </c>
       <c r="AN4" s="8" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="AO4" s="6" t="n">
         <f aca="false">SUM(AO5:AO34)</f>
         <v>100</v>
       </c>
       <c r="AQ4" s="8" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="AR4" s="6" t="n">
         <f aca="false">SUM(AR5:AR34)</f>
         <v>100</v>
       </c>
       <c r="AT4" s="8" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="AU4" s="6" t="n">
         <f aca="false">SUM(AU5:AU34)</f>
         <v>120</v>
       </c>
       <c r="AW4" s="8" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="AX4" s="6" t="n">
         <f aca="false">SUM(AX5:AX34)</f>
@@ -7302,10 +7305,10 @@
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B5" s="0" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="C5" s="15" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="D5" s="1" t="n">
         <v>30</v>
@@ -7315,91 +7318,91 @@
         <v>0.0859598853868195</v>
       </c>
       <c r="G5" s="0" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="H5" s="1" t="n">
         <v>50</v>
       </c>
       <c r="J5" s="12" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="K5" s="11" t="n">
         <v>10</v>
       </c>
       <c r="M5" s="0" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="N5" s="1" t="n">
         <v>40</v>
       </c>
       <c r="P5" s="0" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="Q5" s="11" t="n">
         <v>40</v>
       </c>
       <c r="S5" s="0" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="T5" s="1" t="n">
         <v>40</v>
       </c>
       <c r="V5" s="0" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="W5" s="1" t="n">
         <v>20</v>
       </c>
       <c r="Y5" s="0" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="Z5" s="1" t="n">
         <v>100</v>
       </c>
       <c r="AB5" s="0" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="AC5" s="1" t="n">
         <v>40</v>
       </c>
       <c r="AE5" s="0" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="AF5" s="1" t="n">
         <v>100</v>
       </c>
       <c r="AH5" s="0" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="AI5" s="1" t="n">
         <v>10</v>
       </c>
       <c r="AK5" s="0" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="AL5" s="1" t="n">
         <v>10</v>
       </c>
       <c r="AN5" s="0" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="AO5" s="1" t="n">
         <v>40</v>
       </c>
       <c r="AQ5" s="0" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="AR5" s="1" t="n">
         <v>40</v>
       </c>
       <c r="AT5" s="0" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="AU5" s="1" t="n">
         <v>20</v>
       </c>
       <c r="AW5" s="0" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="AX5" s="1" t="n">
         <v>80</v>
@@ -7407,10 +7410,10 @@
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B6" s="0" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="C6" s="15" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="D6" s="1" t="n">
         <v>20</v>
@@ -7420,37 +7423,37 @@
         <v>0.0573065902578797</v>
       </c>
       <c r="G6" s="0" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="H6" s="1" t="n">
         <v>30</v>
       </c>
       <c r="J6" s="12" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="K6" s="11" t="n">
         <v>20</v>
       </c>
       <c r="M6" s="0" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="N6" s="1" t="n">
         <v>20</v>
       </c>
       <c r="P6" s="12" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="Q6" s="11" t="n">
         <v>20</v>
       </c>
       <c r="S6" s="0" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="T6" s="1" t="n">
         <v>10</v>
       </c>
       <c r="V6" s="12" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="W6" s="1" t="n">
         <v>40</v>
@@ -7458,7 +7461,7 @@
       <c r="Y6" s="12"/>
       <c r="Z6" s="1"/>
       <c r="AB6" s="12" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="AC6" s="1" t="n">
         <v>20</v>
@@ -7470,25 +7473,25 @@
       <c r="AK6" s="12"/>
       <c r="AL6" s="1"/>
       <c r="AN6" s="12" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="AO6" s="1" t="n">
         <v>10</v>
       </c>
       <c r="AQ6" s="12" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="AR6" s="1" t="n">
         <v>60</v>
       </c>
       <c r="AT6" s="12" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="AU6" s="1" t="n">
         <v>10</v>
       </c>
       <c r="AW6" s="12" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="AX6" s="1" t="n">
         <v>10</v>
@@ -7496,10 +7499,10 @@
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B7" s="0" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="C7" s="15" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="D7" s="1" t="n">
         <v>20</v>
@@ -7509,44 +7512,44 @@
         <v>0.0573065902578797</v>
       </c>
       <c r="G7" s="0" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="H7" s="1" t="n">
         <v>20</v>
       </c>
       <c r="J7" s="12" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="K7" s="11" t="n">
         <v>10</v>
       </c>
       <c r="M7" s="0" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="N7" s="1" t="n">
         <v>40</v>
       </c>
       <c r="P7" s="0" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="Q7" s="11" t="n">
         <v>10</v>
       </c>
       <c r="S7" s="0" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="T7" s="1" t="n">
         <v>10</v>
       </c>
       <c r="V7" s="0" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="W7" s="1" t="n">
         <v>20</v>
       </c>
       <c r="Z7" s="1"/>
       <c r="AB7" s="0" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="AC7" s="1" t="n">
         <v>40</v>
@@ -7555,20 +7558,20 @@
       <c r="AI7" s="1"/>
       <c r="AL7" s="1"/>
       <c r="AN7" s="0" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="AO7" s="1" t="n">
         <v>10</v>
       </c>
       <c r="AR7" s="1"/>
       <c r="AT7" s="0" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="AU7" s="1" t="n">
         <v>10</v>
       </c>
       <c r="AW7" s="0" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="AX7" s="1" t="n">
         <v>40</v>
@@ -7576,10 +7579,10 @@
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B8" s="0" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="D8" s="1" t="n">
         <v>1</v>
@@ -7591,7 +7594,7 @@
       <c r="G8" s="8"/>
       <c r="H8" s="6"/>
       <c r="J8" s="12" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="K8" s="11" t="n">
         <v>10</v>
@@ -7599,19 +7602,19 @@
       <c r="M8" s="8"/>
       <c r="N8" s="6"/>
       <c r="P8" s="12" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="Q8" s="11" t="n">
         <v>20</v>
       </c>
       <c r="S8" s="0" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="T8" s="1" t="n">
         <v>10</v>
       </c>
       <c r="V8" s="12" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="W8" s="1" t="n">
         <v>20</v>
@@ -7619,7 +7622,7 @@
       <c r="Y8" s="12"/>
       <c r="Z8" s="1"/>
       <c r="AB8" s="12" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="AC8" s="1" t="n">
         <v>40</v>
@@ -7631,7 +7634,7 @@
       <c r="AK8" s="12"/>
       <c r="AL8" s="1"/>
       <c r="AN8" s="12" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="AO8" s="1" t="n">
         <v>40</v>
@@ -7639,13 +7642,13 @@
       <c r="AQ8" s="12"/>
       <c r="AR8" s="1"/>
       <c r="AT8" s="12" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="AU8" s="1" t="n">
         <v>20</v>
       </c>
       <c r="AW8" s="12" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="AX8" s="1" t="n">
         <v>20</v>
@@ -7653,10 +7656,10 @@
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B9" s="0" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="C9" s="15" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="D9" s="1" t="n">
         <v>30</v>
@@ -7668,7 +7671,7 @@
       <c r="G9" s="8"/>
       <c r="H9" s="6"/>
       <c r="J9" s="12" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="K9" s="11" t="n">
         <v>20</v>
@@ -7676,19 +7679,19 @@
       <c r="M9" s="8"/>
       <c r="N9" s="6"/>
       <c r="P9" s="12" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="Q9" s="11" t="n">
         <v>20</v>
       </c>
       <c r="S9" s="0" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="T9" s="1" t="n">
         <v>10</v>
       </c>
       <c r="V9" s="12" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="W9" s="1" t="n">
         <v>20</v>
@@ -7696,7 +7699,7 @@
       <c r="Y9" s="12"/>
       <c r="Z9" s="1"/>
       <c r="AB9" s="12" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="AC9" s="1" t="n">
         <v>40</v>
@@ -7712,13 +7715,13 @@
       <c r="AQ9" s="12"/>
       <c r="AR9" s="1"/>
       <c r="AT9" s="12" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="AU9" s="1" t="n">
         <v>20</v>
       </c>
       <c r="AW9" s="12" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="AX9" s="1" t="n">
         <v>20</v>
@@ -7726,10 +7729,10 @@
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B10" s="0" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="C10" s="15" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="D10" s="1" t="n">
         <v>40</v>
@@ -7741,7 +7744,7 @@
       <c r="G10" s="8"/>
       <c r="H10" s="6"/>
       <c r="J10" s="12" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="K10" s="11" t="n">
         <v>20</v>
@@ -7749,26 +7752,26 @@
       <c r="M10" s="8"/>
       <c r="N10" s="6"/>
       <c r="P10" s="0" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="Q10" s="11" t="n">
         <v>20</v>
       </c>
       <c r="S10" s="0" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="T10" s="1" t="n">
         <v>10</v>
       </c>
       <c r="V10" s="0" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="W10" s="1" t="n">
         <v>20</v>
       </c>
       <c r="Z10" s="1"/>
       <c r="AB10" s="0" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="AC10" s="1" t="n">
         <v>20</v>
@@ -7779,7 +7782,7 @@
       <c r="AO10" s="1"/>
       <c r="AR10" s="1"/>
       <c r="AT10" s="0" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="AU10" s="1" t="n">
         <v>20</v>
@@ -7788,10 +7791,10 @@
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B11" s="0" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="C11" s="15" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="D11" s="1" t="n">
         <v>40</v>
@@ -7803,7 +7806,7 @@
       <c r="G11" s="8"/>
       <c r="H11" s="6"/>
       <c r="J11" s="12" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="K11" s="11" t="n">
         <v>10</v>
@@ -7811,19 +7814,19 @@
       <c r="M11" s="8"/>
       <c r="N11" s="6"/>
       <c r="P11" s="12" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="Q11" s="11" t="n">
         <v>20</v>
       </c>
       <c r="S11" s="0" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="T11" s="1" t="n">
         <v>10</v>
       </c>
       <c r="V11" s="12" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="W11" s="1" t="n">
         <v>20</v>
@@ -7831,7 +7834,7 @@
       <c r="Y11" s="12"/>
       <c r="Z11" s="1"/>
       <c r="AB11" s="12" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="AC11" s="1" t="n">
         <v>20</v>
@@ -7847,7 +7850,7 @@
       <c r="AQ11" s="12"/>
       <c r="AR11" s="1"/>
       <c r="AT11" s="12" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="AU11" s="1" t="n">
         <v>20</v>
@@ -7857,10 +7860,10 @@
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B12" s="12" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="C12" s="12" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="D12" s="11" t="n">
         <v>1</v>
@@ -7870,31 +7873,31 @@
         <v>0.00286532951289398</v>
       </c>
       <c r="J12" s="12" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="K12" s="11" t="n">
         <v>10</v>
       </c>
       <c r="P12" s="0" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="Q12" s="11" t="n">
         <v>20</v>
       </c>
       <c r="S12" s="0" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="T12" s="1" t="n">
         <v>10</v>
       </c>
       <c r="V12" s="0" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="W12" s="1" t="n">
         <v>20</v>
       </c>
       <c r="AB12" s="0" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="AC12" s="1" t="n">
         <v>40</v>
@@ -7902,10 +7905,10 @@
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B13" s="0" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="C13" s="15" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="D13" s="1" t="n">
         <v>20</v>
@@ -7915,19 +7918,19 @@
         <v>0.0573065902578797</v>
       </c>
       <c r="P13" s="0" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="Q13" s="11" t="n">
         <v>20</v>
       </c>
       <c r="S13" s="0" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="T13" s="1" t="n">
         <v>10</v>
       </c>
       <c r="AB13" s="0" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="AC13" s="1" t="n">
         <v>10</v>
@@ -7935,10 +7938,10 @@
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B14" s="0" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="C14" s="0" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="D14" s="1" t="n">
         <v>1</v>
@@ -7948,19 +7951,19 @@
         <v>0.00286532951289398</v>
       </c>
       <c r="P14" s="0" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="Q14" s="11" t="n">
         <v>20</v>
       </c>
       <c r="S14" s="0" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="T14" s="1" t="n">
         <v>10</v>
       </c>
       <c r="AB14" s="0" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="AC14" s="1" t="n">
         <v>20</v>
@@ -7968,10 +7971,10 @@
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B15" s="0" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="C15" s="0" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="D15" s="1" t="n">
         <v>1</v>
@@ -7981,19 +7984,19 @@
         <v>0.00286532951289398</v>
       </c>
       <c r="P15" s="0" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="Q15" s="11" t="n">
         <v>20</v>
       </c>
       <c r="S15" s="0" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="T15" s="1" t="n">
         <v>10</v>
       </c>
       <c r="AB15" s="0" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="AC15" s="1" t="n">
         <v>20</v>
@@ -8001,10 +8004,10 @@
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B16" s="0" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="C16" s="0" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="D16" s="1" t="n">
         <v>1</v>
@@ -8014,19 +8017,19 @@
         <v>0.00286532951289398</v>
       </c>
       <c r="P16" s="0" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="Q16" s="11" t="n">
         <v>20</v>
       </c>
       <c r="S16" s="0" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="T16" s="1" t="n">
         <v>10</v>
       </c>
       <c r="AB16" s="0" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="AC16" s="1" t="n">
         <v>20</v>
@@ -8034,10 +8037,10 @@
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B17" s="0" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="C17" s="0" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="D17" s="1" t="n">
         <v>1</v>
@@ -8047,13 +8050,13 @@
         <v>0.00286532951289398</v>
       </c>
       <c r="P17" s="0" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="Q17" s="11" t="n">
         <v>20</v>
       </c>
       <c r="S17" s="0" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="T17" s="1" t="n">
         <v>10</v>
@@ -8061,10 +8064,10 @@
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B18" s="0" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="C18" s="15" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="D18" s="1" t="n">
         <v>20</v>
@@ -8074,7 +8077,7 @@
         <v>0.0573065902578797</v>
       </c>
       <c r="S18" s="0" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="T18" s="1" t="n">
         <v>10</v>
@@ -8082,10 +8085,10 @@
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B19" s="0" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="C19" s="15" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="D19" s="1" t="n">
         <v>20</v>
@@ -8095,7 +8098,7 @@
         <v>0.0573065902578797</v>
       </c>
       <c r="S19" s="0" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="T19" s="1" t="n">
         <v>10</v>
@@ -8103,10 +8106,10 @@
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B20" s="0" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="C20" s="15" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="D20" s="1" t="n">
         <v>30</v>
@@ -8119,10 +8122,10 @@
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B21" s="0" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="C21" s="15" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="D21" s="1" t="n">
         <v>20</v>
@@ -8135,10 +8138,10 @@
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B22" s="0" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="C22" s="0" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="D22" s="1" t="n">
         <v>1</v>
@@ -8151,10 +8154,10 @@
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B23" s="0" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="C23" s="15" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="D23" s="1" t="n">
         <v>20</v>
@@ -8167,10 +8170,10 @@
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B24" s="0" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="C24" s="0" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="D24" s="1" t="n">
         <v>1</v>
@@ -8183,10 +8186,10 @@
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B25" s="0" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="C25" s="15" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="D25" s="1" t="n">
         <v>30</v>
@@ -8205,7 +8208,7 @@
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B28" s="5" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="C28" s="5"/>
       <c r="D28" s="5"/>
@@ -8213,211 +8216,211 @@
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B29" s="8" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="C29" s="8" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="D29" s="6"/>
       <c r="T29" s="1"/>
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B30" s="12" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="C30" s="0" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="D30" s="11"/>
       <c r="T30" s="1"/>
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B31" s="15" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="C31" s="0" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="T31" s="1"/>
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B32" s="15" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="C32" s="0" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="T32" s="1"/>
     </row>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B33" s="15" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="C33" s="0" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="T33" s="1"/>
     </row>
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B34" s="0" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="C34" s="0" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="T34" s="1"/>
     </row>
     <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B35" s="15" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="C35" s="0" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="T35" s="1"/>
     </row>
     <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B36" s="15" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="C36" s="0" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="T36" s="1"/>
     </row>
     <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B37" s="15" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="C37" s="0" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="T37" s="1"/>
     </row>
     <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B38" s="12" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="C38" s="0" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="D38" s="11"/>
       <c r="T38" s="1"/>
     </row>
     <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B39" s="15" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="C39" s="0" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="T39" s="1"/>
     </row>
     <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B40" s="0" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="C40" s="0" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="T40" s="1"/>
     </row>
     <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B41" s="0" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="C41" s="0" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="T41" s="1"/>
     </row>
     <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B42" s="0" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="C42" s="0" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="T42" s="1"/>
     </row>
     <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B43" s="0" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="C43" s="0" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="T43" s="1"/>
     </row>
     <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B44" s="15" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="C44" s="0" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="T44" s="1"/>
     </row>
     <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B45" s="15" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="C45" s="0" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="T45" s="1"/>
     </row>
     <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B46" s="15" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="C46" s="0" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="T46" s="1"/>
     </row>
     <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B47" s="15" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="C47" s="0" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="T47" s="1"/>
     </row>
     <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B48" s="0" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="C48" s="0" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="T48" s="1"/>
     </row>
     <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B49" s="15" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="C49" s="0" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="T49" s="1"/>
     </row>
     <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B50" s="12" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="C50" s="0" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="T50" s="1"/>
     </row>
     <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B51" s="15" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="C51" s="0" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="T51" s="1"/>
     </row>

--- a/city-npc/Ptolus_City_NPC_Encounter.xlsx
+++ b/city-npc/Ptolus_City_NPC_Encounter.xlsx
@@ -378,7 +378,7 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">][gensetvar:{“origin”:”Assimar”}]</t>
+      <t xml:space="preserve">]</t>
     </r>
   </si>
   <si>
@@ -2876,7 +2876,7 @@
   <dimension ref="B1:AE121"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G22" activeCellId="0" sqref="G22"/>
+      <selection pane="topLeft" activeCell="M18" activeCellId="0" sqref="M18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/city-npc/Ptolus_City_NPC_Encounter.xlsx
+++ b/city-npc/Ptolus_City_NPC_Encounter.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1325" uniqueCount="730">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1329" uniqueCount="731">
   <si>
     <t xml:space="preserve">MORTAL</t>
   </si>
@@ -1088,6 +1088,9 @@
   </si>
   <si>
     <t xml:space="preserve">Balanced</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Active</t>
   </si>
   <si>
     <t xml:space="preserve">profession</t>
@@ -2539,7 +2542,7 @@
   <dimension ref="A2:AMJ25"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H22" activeCellId="0" sqref="H22"/>
+      <selection pane="topLeft" activeCell="H22" activeCellId="1" sqref="H5 H22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7578125" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2894,7 +2897,7 @@
   <dimension ref="B1:AE121"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F26" activeCellId="0" sqref="F26"/>
+      <selection pane="topLeft" activeCell="F26" activeCellId="1" sqref="H5 F26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7578125" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -5429,7 +5432,7 @@
   <dimension ref="A1:F34"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E23" activeCellId="0" sqref="E23"/>
+      <selection pane="topLeft" activeCell="E23" activeCellId="1" sqref="H5 E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -5684,7 +5687,7 @@
   <dimension ref="A2:AMJ118"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H17" activeCellId="0" sqref="H17"/>
+      <selection pane="topLeft" activeCell="H17" activeCellId="1" sqref="H5 H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7578125" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -5925,60 +5928,63 @@
       <c r="F5" s="13" t="n">
         <v>60</v>
       </c>
+      <c r="H5" s="0" t="s">
+        <v>354</v>
+      </c>
       <c r="I5" s="13" t="n">
         <v>95</v>
       </c>
       <c r="J5" s="0" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="K5" s="0" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="L5" s="13" t="n">
         <v>70</v>
       </c>
       <c r="M5" s="13"/>
       <c r="N5" s="0" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="O5" s="0" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="P5" s="1" t="n">
         <v>10</v>
       </c>
       <c r="R5" s="0" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="S5" s="15" t="n">
         <v>10</v>
       </c>
       <c r="U5" s="0" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="V5" s="13" t="n">
         <v>5</v>
       </c>
       <c r="X5" s="0" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="Y5" s="15" t="n">
         <v>10</v>
       </c>
       <c r="AA5" s="0" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="AB5" s="13" t="n">
         <v>10</v>
       </c>
       <c r="AD5" s="0" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="AE5" s="13" t="n">
         <v>80</v>
       </c>
       <c r="AG5" s="0" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="AH5" s="1" t="n">
         <v>10</v>
@@ -5986,77 +5992,77 @@
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="C6" s="1" t="n">
         <v>5</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="F6" s="13" t="n">
         <v>40</v>
       </c>
       <c r="H6" s="0" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="I6" s="13" t="n">
         <v>5</v>
       </c>
       <c r="J6" s="0" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="K6" s="0" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="L6" s="13" t="n">
         <v>30</v>
       </c>
       <c r="M6" s="13"/>
       <c r="N6" s="0" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="O6" s="0" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="P6" s="1" t="n">
         <v>10</v>
       </c>
       <c r="R6" s="0" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="S6" s="13" t="n">
         <v>40</v>
       </c>
       <c r="U6" s="0" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="V6" s="13" t="n">
         <v>15</v>
       </c>
       <c r="X6" s="0" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="Y6" s="13" t="n">
         <v>90</v>
       </c>
       <c r="AA6" s="0" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="AB6" s="13" t="n">
         <v>10</v>
       </c>
       <c r="AD6" s="0" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="AE6" s="13" t="n">
         <v>20</v>
       </c>
       <c r="AG6" s="0" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="AH6" s="1" t="n">
         <v>10</v>
@@ -6064,10 +6070,10 @@
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="C7" s="1" t="n">
         <v>5</v>
@@ -6077,22 +6083,22 @@
       <c r="L7" s="13"/>
       <c r="M7" s="13"/>
       <c r="N7" s="0" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="O7" s="0" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="P7" s="1" t="n">
         <v>10</v>
       </c>
       <c r="R7" s="0" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="S7" s="15" t="n">
         <v>10</v>
       </c>
       <c r="U7" s="0" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="V7" s="13" t="n">
         <v>20</v>
@@ -6100,13 +6106,13 @@
       <c r="Y7" s="15"/>
       <c r="AB7" s="15"/>
       <c r="AD7" s="0" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="AE7" s="1" t="n">
         <v>20</v>
       </c>
       <c r="AG7" s="0" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="AH7" s="1" t="n">
         <v>10</v>
@@ -6114,10 +6120,10 @@
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="C8" s="1" t="n">
         <v>5</v>
@@ -6134,22 +6140,22 @@
       </c>
       <c r="M8" s="13"/>
       <c r="N8" s="0" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="O8" s="0" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="P8" s="13" t="n">
         <v>10</v>
       </c>
       <c r="R8" s="0" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="S8" s="15" t="n">
         <v>20</v>
       </c>
       <c r="U8" s="0" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="V8" s="13" t="n">
         <v>10</v>
@@ -6158,43 +6164,46 @@
       <c r="AB8" s="15"/>
       <c r="AE8" s="15"/>
       <c r="AG8" s="0" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="AH8" s="1" t="n">
         <v>10</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H9" s="0" t="s">
+        <v>354</v>
+      </c>
       <c r="I9" s="13" t="n">
         <v>90</v>
       </c>
       <c r="J9" s="0" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="K9" s="0" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="L9" s="13" t="n">
         <v>75</v>
       </c>
       <c r="M9" s="6"/>
       <c r="N9" s="0" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="O9" s="0" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="P9" s="13" t="n">
         <v>60</v>
       </c>
       <c r="R9" s="0" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="S9" s="15" t="n">
         <v>10</v>
       </c>
       <c r="U9" s="0" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="V9" s="13" t="n">
         <v>20</v>
@@ -6203,7 +6212,7 @@
       <c r="AB9" s="15"/>
       <c r="AE9" s="15"/>
       <c r="AG9" s="0" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="AH9" s="1" t="n">
         <v>10</v>
@@ -6213,16 +6222,16 @@
       <c r="B10" s="8"/>
       <c r="C10" s="6"/>
       <c r="H10" s="0" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="I10" s="13" t="n">
         <v>10</v>
       </c>
       <c r="J10" s="0" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="K10" s="0" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="L10" s="13" t="n">
         <v>25</v>
@@ -6233,7 +6242,7 @@
         <v>110</v>
       </c>
       <c r="R10" s="0" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="S10" s="15" t="n">
         <v>10</v>
@@ -6243,7 +6252,7 @@
       <c r="AB10" s="15"/>
       <c r="AE10" s="15"/>
       <c r="AG10" s="0" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="AH10" s="1" t="n">
         <v>10</v>
@@ -6254,17 +6263,17 @@
       <c r="L11" s="0"/>
       <c r="M11" s="13"/>
       <c r="N11" s="0" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="O11" s="0" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="P11" s="1" t="n">
         <v>10</v>
       </c>
       <c r="S11" s="15"/>
       <c r="AG11" s="0" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="AH11" s="1" t="n">
         <v>10</v>
@@ -6281,47 +6290,50 @@
         <v>100</v>
       </c>
       <c r="N12" s="0" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="O12" s="0" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="P12" s="1" t="n">
         <v>10</v>
       </c>
       <c r="S12" s="15"/>
       <c r="AG12" s="0" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="AH12" s="1" t="n">
         <v>10</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H13" s="0" t="s">
+        <v>354</v>
+      </c>
       <c r="I13" s="13" t="n">
         <v>85</v>
       </c>
       <c r="J13" s="0" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="K13" s="0" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="L13" s="13" t="n">
         <v>80</v>
       </c>
       <c r="N13" s="0" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="O13" s="0" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="P13" s="1" t="n">
         <v>10</v>
       </c>
       <c r="S13" s="15"/>
       <c r="AG13" s="0" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="AH13" s="1" t="n">
         <v>10</v>
@@ -6329,33 +6341,33 @@
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H14" s="0" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="I14" s="13" t="n">
         <v>15</v>
       </c>
       <c r="J14" s="0" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="K14" s="0" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="L14" s="13" t="n">
         <v>20</v>
       </c>
       <c r="M14" s="6"/>
       <c r="N14" s="0" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="O14" s="0" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="P14" s="13" t="n">
         <v>10</v>
       </c>
       <c r="S14" s="15"/>
       <c r="AG14" s="0" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="AH14" s="1" t="n">
         <v>10</v>
@@ -6366,17 +6378,17 @@
       <c r="L15" s="0"/>
       <c r="M15" s="13"/>
       <c r="N15" s="0" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="O15" s="0" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="P15" s="13" t="n">
         <v>70</v>
       </c>
       <c r="S15" s="15"/>
       <c r="AG15" s="0" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="AH15" s="1" t="n">
         <v>10</v>
@@ -6399,37 +6411,40 @@
       </c>
       <c r="S16" s="15"/>
       <c r="AG16" s="0" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="AH16" s="1" t="n">
         <v>10</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H17" s="0" t="s">
+        <v>354</v>
+      </c>
       <c r="I17" s="13" t="n">
         <v>80</v>
       </c>
       <c r="J17" s="0" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="K17" s="0" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="L17" s="13" t="n">
         <v>85</v>
       </c>
       <c r="N17" s="0" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="O17" s="0" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="P17" s="1" t="n">
         <v>5</v>
       </c>
       <c r="S17" s="15"/>
       <c r="AG17" s="0" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="AH17" s="1" t="n">
         <v>10</v>
@@ -6437,32 +6452,32 @@
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H18" s="0" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="I18" s="13" t="n">
         <v>20</v>
       </c>
       <c r="J18" s="0" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="K18" s="0" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="L18" s="13" t="n">
         <v>15</v>
       </c>
       <c r="N18" s="0" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="O18" s="0" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="P18" s="1" t="n">
         <v>5</v>
       </c>
       <c r="S18" s="15"/>
       <c r="AG18" s="0" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="AH18" s="1" t="n">
         <v>10</v>
@@ -6473,17 +6488,17 @@
       <c r="L19" s="0"/>
       <c r="M19" s="6"/>
       <c r="N19" s="0" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="O19" s="0" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="P19" s="1" t="n">
         <v>5</v>
       </c>
       <c r="S19" s="15"/>
       <c r="AG19" s="0" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="AH19" s="1" t="n">
         <v>10</v>
@@ -6494,17 +6509,17 @@
       <c r="L20" s="0"/>
       <c r="M20" s="13"/>
       <c r="N20" s="0" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="O20" s="0" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="P20" s="13" t="n">
         <v>5</v>
       </c>
       <c r="S20" s="15"/>
       <c r="AG20" s="0" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="AH20" s="1" t="n">
         <v>10</v>
@@ -6515,17 +6530,17 @@
       <c r="L21" s="0"/>
       <c r="M21" s="13"/>
       <c r="N21" s="0" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="O21" s="0" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="P21" s="13" t="n">
         <v>80</v>
       </c>
       <c r="S21" s="15"/>
       <c r="AG21" s="0" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="AH21" s="1" t="n">
         <v>10</v>
@@ -6539,7 +6554,7 @@
       </c>
       <c r="S22" s="15"/>
       <c r="AG22" s="0" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="AH22" s="1" t="n">
         <v>10</v>
@@ -6548,17 +6563,17 @@
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="L23" s="0"/>
       <c r="N23" s="0" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="O23" s="0" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="P23" s="1" t="n">
         <v>5</v>
       </c>
       <c r="S23" s="15"/>
       <c r="AG23" s="0" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="AH23" s="1" t="n">
         <v>10</v>
@@ -6567,17 +6582,17 @@
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="L24" s="0"/>
       <c r="N24" s="0" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="O24" s="0" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="P24" s="1" t="n">
         <v>5</v>
       </c>
       <c r="S24" s="15"/>
       <c r="AG24" s="0" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="AH24" s="1" t="n">
         <v>10</v>
@@ -6585,17 +6600,17 @@
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="N25" s="0" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="O25" s="0" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="P25" s="1" t="n">
         <v>5</v>
       </c>
       <c r="S25" s="15"/>
       <c r="AG25" s="0" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="AH25" s="1" t="n">
         <v>10</v>
@@ -6603,17 +6618,17 @@
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="N26" s="0" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="O26" s="0" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="P26" s="13" t="n">
         <v>5</v>
       </c>
       <c r="S26" s="15"/>
       <c r="AG26" s="0" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="AH26" s="1" t="n">
         <v>10</v>
@@ -6621,17 +6636,17 @@
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="N27" s="0" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="O27" s="0" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="P27" s="13" t="n">
         <v>90</v>
       </c>
       <c r="S27" s="15"/>
       <c r="AG27" s="0" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="AH27" s="1" t="n">
         <v>10</v>
@@ -6640,7 +6655,7 @@
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="S28" s="15"/>
       <c r="AG28" s="0" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="AH28" s="1" t="n">
         <v>10</v>
@@ -6649,7 +6664,7 @@
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="S29" s="15"/>
       <c r="AG29" s="0" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="AH29" s="1" t="n">
         <v>10</v>
@@ -6658,7 +6673,7 @@
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="S30" s="15"/>
       <c r="AG30" s="0" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="AH30" s="1" t="n">
         <v>10</v>
@@ -6667,7 +6682,7 @@
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="S31" s="15"/>
       <c r="AG31" s="0" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="AH31" s="1" t="n">
         <v>10</v>
@@ -6676,7 +6691,7 @@
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="S32" s="15"/>
       <c r="AG32" s="0" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="AH32" s="1" t="n">
         <v>10</v>
@@ -6685,7 +6700,7 @@
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="S33" s="15"/>
       <c r="AG33" s="0" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="AH33" s="1" t="n">
         <v>10</v>
@@ -6695,7 +6710,7 @@
       <c r="P34" s="0"/>
       <c r="S34" s="13"/>
       <c r="AG34" s="0" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="AH34" s="1" t="n">
         <v>10</v>
@@ -6705,7 +6720,7 @@
       <c r="P35" s="0"/>
       <c r="S35" s="13"/>
       <c r="AG35" s="0" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="AH35" s="1" t="n">
         <v>10</v>
@@ -6715,7 +6730,7 @@
       <c r="P36" s="0"/>
       <c r="S36" s="0"/>
       <c r="AG36" s="0" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="AH36" s="1" t="n">
         <v>10</v>
@@ -6725,7 +6740,7 @@
       <c r="P37" s="0"/>
       <c r="S37" s="13"/>
       <c r="AG37" s="0" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="AH37" s="1" t="n">
         <v>10</v>
@@ -6735,7 +6750,7 @@
       <c r="P38" s="0"/>
       <c r="S38" s="0"/>
       <c r="AG38" s="0" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="AH38" s="1" t="n">
         <v>10</v>
@@ -6745,7 +6760,7 @@
       <c r="P39" s="0"/>
       <c r="S39" s="13"/>
       <c r="AG39" s="0" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="AH39" s="1" t="n">
         <v>10</v>
@@ -6755,7 +6770,7 @@
       <c r="P40" s="0"/>
       <c r="S40" s="15"/>
       <c r="AG40" s="0" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="AH40" s="1" t="n">
         <v>10</v>
@@ -6764,7 +6779,7 @@
     <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="S41" s="15"/>
       <c r="AG41" s="0" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="AH41" s="1" t="n">
         <v>10</v>
@@ -6773,7 +6788,7 @@
     <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="S42" s="15"/>
       <c r="AG42" s="0" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="AH42" s="1" t="n">
         <v>10</v>
@@ -6782,7 +6797,7 @@
     <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="S43" s="15"/>
       <c r="AG43" s="0" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="AH43" s="1" t="n">
         <v>10</v>
@@ -6791,7 +6806,7 @@
     <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="S44" s="15"/>
       <c r="AG44" s="0" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="AH44" s="1" t="n">
         <v>10</v>
@@ -6800,7 +6815,7 @@
     <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="S45" s="15"/>
       <c r="AG45" s="0" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="AH45" s="1" t="n">
         <v>10</v>
@@ -6809,7 +6824,7 @@
     <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="S46" s="15"/>
       <c r="AG46" s="0" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="AH46" s="1" t="n">
         <v>10</v>
@@ -6818,7 +6833,7 @@
     <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="S47" s="15"/>
       <c r="AG47" s="0" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="AH47" s="1" t="n">
         <v>10</v>
@@ -6827,7 +6842,7 @@
     <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="S48" s="15"/>
       <c r="AG48" s="0" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="AH48" s="1" t="n">
         <v>10</v>
@@ -6836,7 +6851,7 @@
     <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="S49" s="15"/>
       <c r="AG49" s="0" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="AH49" s="1" t="n">
         <v>10</v>
@@ -6845,7 +6860,7 @@
     <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="S50" s="15"/>
       <c r="AG50" s="0" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="AH50" s="1" t="n">
         <v>10</v>
@@ -6854,7 +6869,7 @@
     <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="S51" s="15"/>
       <c r="AG51" s="0" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="AH51" s="1" t="n">
         <v>10</v>
@@ -6863,7 +6878,7 @@
     <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="S52" s="15"/>
       <c r="AG52" s="0" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="AH52" s="1" t="n">
         <v>10</v>
@@ -6872,7 +6887,7 @@
     <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="S53" s="15"/>
       <c r="AG53" s="0" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="AH53" s="1" t="n">
         <v>10</v>
@@ -6881,7 +6896,7 @@
     <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="S54" s="15"/>
       <c r="AG54" s="0" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="AH54" s="1" t="n">
         <v>10</v>
@@ -6890,7 +6905,7 @@
     <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="S55" s="15"/>
       <c r="AG55" s="0" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="AH55" s="1" t="n">
         <v>10</v>
@@ -6899,7 +6914,7 @@
     <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="S56" s="15"/>
       <c r="AG56" s="0" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="AH56" s="1" t="n">
         <v>10</v>
@@ -6908,7 +6923,7 @@
     <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="S57" s="15"/>
       <c r="AG57" s="0" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="AH57" s="1" t="n">
         <v>10</v>
@@ -6917,7 +6932,7 @@
     <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="S58" s="15"/>
       <c r="AG58" s="0" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="AH58" s="1" t="n">
         <v>10</v>
@@ -6926,7 +6941,7 @@
     <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="S59" s="15"/>
       <c r="AG59" s="0" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="AH59" s="1" t="n">
         <v>10</v>
@@ -6935,7 +6950,7 @@
     <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="S60" s="15"/>
       <c r="AG60" s="0" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="AH60" s="1" t="n">
         <v>10</v>
@@ -6944,7 +6959,7 @@
     <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="S61" s="15"/>
       <c r="AG61" s="0" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="AH61" s="1" t="n">
         <v>10</v>
@@ -6953,7 +6968,7 @@
     <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="S62" s="15"/>
       <c r="AG62" s="0" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="AH62" s="1" t="n">
         <v>10</v>
@@ -6962,7 +6977,7 @@
     <row r="63" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="S63" s="15"/>
       <c r="AG63" s="0" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="AH63" s="1" t="n">
         <v>10</v>
@@ -6971,7 +6986,7 @@
     <row r="64" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="S64" s="15"/>
       <c r="AG64" s="0" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="AH64" s="1" t="n">
         <v>10</v>
@@ -6980,7 +6995,7 @@
     <row r="65" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="S65" s="15"/>
       <c r="AG65" s="0" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="AH65" s="1" t="n">
         <v>10</v>
@@ -6989,7 +7004,7 @@
     <row r="66" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="S66" s="15"/>
       <c r="AG66" s="0" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="AH66" s="1" t="n">
         <v>10</v>
@@ -6998,7 +7013,7 @@
     <row r="67" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="S67" s="15"/>
       <c r="AG67" s="0" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="AH67" s="1" t="n">
         <v>10</v>
@@ -7007,7 +7022,7 @@
     <row r="68" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="S68" s="15"/>
       <c r="AG68" s="0" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="AH68" s="1" t="n">
         <v>10</v>
@@ -7016,7 +7031,7 @@
     <row r="69" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="S69" s="15"/>
       <c r="AG69" s="0" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="AH69" s="1" t="n">
         <v>10</v>
@@ -7025,7 +7040,7 @@
     <row r="70" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="S70" s="15"/>
       <c r="AG70" s="0" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="AH70" s="1" t="n">
         <v>10</v>
@@ -7034,7 +7049,7 @@
     <row r="71" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="S71" s="15"/>
       <c r="AG71" s="0" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="AH71" s="1" t="n">
         <v>10</v>
@@ -7043,7 +7058,7 @@
     <row r="72" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="S72" s="15"/>
       <c r="AG72" s="0" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="AH72" s="1" t="n">
         <v>10</v>
@@ -7052,7 +7067,7 @@
     <row r="73" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="S73" s="15"/>
       <c r="AG73" s="0" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="AH73" s="1" t="n">
         <v>10</v>
@@ -7061,7 +7076,7 @@
     <row r="74" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="S74" s="15"/>
       <c r="AG74" s="0" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="AH74" s="1" t="n">
         <v>10</v>
@@ -7070,7 +7085,7 @@
     <row r="75" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="S75" s="15"/>
       <c r="AG75" s="0" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="AH75" s="1" t="n">
         <v>10</v>
@@ -7079,7 +7094,7 @@
     <row r="76" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="S76" s="15"/>
       <c r="AG76" s="0" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="AH76" s="1" t="n">
         <v>10</v>
@@ -7088,7 +7103,7 @@
     <row r="77" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="S77" s="15"/>
       <c r="AG77" s="0" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="AH77" s="1" t="n">
         <v>10</v>
@@ -7097,7 +7112,7 @@
     <row r="78" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="S78" s="15"/>
       <c r="AG78" s="0" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="AH78" s="1" t="n">
         <v>10</v>
@@ -7106,7 +7121,7 @@
     <row r="79" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="S79" s="15"/>
       <c r="AG79" s="0" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="AH79" s="1" t="n">
         <v>10</v>
@@ -7115,7 +7130,7 @@
     <row r="80" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="S80" s="15"/>
       <c r="AG80" s="0" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="AH80" s="1" t="n">
         <v>10</v>
@@ -7124,7 +7139,7 @@
     <row r="81" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="S81" s="15"/>
       <c r="AG81" s="0" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="AH81" s="1" t="n">
         <v>10</v>
@@ -7133,7 +7148,7 @@
     <row r="82" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="S82" s="15"/>
       <c r="AG82" s="0" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="AH82" s="1" t="n">
         <v>10</v>
@@ -7142,7 +7157,7 @@
     <row r="83" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="S83" s="15"/>
       <c r="AG83" s="0" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="AH83" s="1" t="n">
         <v>10</v>
@@ -7151,7 +7166,7 @@
     <row r="84" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="S84" s="15"/>
       <c r="AG84" s="0" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="AH84" s="1" t="n">
         <v>10</v>
@@ -7160,7 +7175,7 @@
     <row r="85" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="S85" s="15"/>
       <c r="AG85" s="0" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="AH85" s="1" t="n">
         <v>10</v>
@@ -7169,7 +7184,7 @@
     <row r="86" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="S86" s="15"/>
       <c r="AG86" s="0" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="AH86" s="1" t="n">
         <v>10</v>
@@ -7178,7 +7193,7 @@
     <row r="87" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="S87" s="15"/>
       <c r="AG87" s="0" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="AH87" s="1" t="n">
         <v>10</v>
@@ -7187,7 +7202,7 @@
     <row r="88" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="S88" s="15"/>
       <c r="AG88" s="0" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="AH88" s="1" t="n">
         <v>10</v>
@@ -7196,7 +7211,7 @@
     <row r="89" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="S89" s="15"/>
       <c r="AG89" s="0" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="AH89" s="1" t="n">
         <v>10</v>
@@ -7205,7 +7220,7 @@
     <row r="90" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="S90" s="15"/>
       <c r="AG90" s="0" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="AH90" s="1" t="n">
         <v>10</v>
@@ -7214,7 +7229,7 @@
     <row r="91" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="S91" s="15"/>
       <c r="AG91" s="0" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="AH91" s="1" t="n">
         <v>10</v>
@@ -7223,7 +7238,7 @@
     <row r="92" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="S92" s="15"/>
       <c r="AG92" s="0" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="AH92" s="1" t="n">
         <v>10</v>
@@ -7232,7 +7247,7 @@
     <row r="93" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="S93" s="15"/>
       <c r="AG93" s="0" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="AH93" s="1" t="n">
         <v>10</v>
@@ -7241,7 +7256,7 @@
     <row r="94" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="S94" s="15"/>
       <c r="AG94" s="0" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="AH94" s="1" t="n">
         <v>10</v>
@@ -7250,7 +7265,7 @@
     <row r="95" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="S95" s="15"/>
       <c r="AG95" s="0" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="AH95" s="1" t="n">
         <v>10</v>
@@ -7355,7 +7370,7 @@
   <dimension ref="A1:AY56"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G25" activeCellId="0" sqref="G25"/>
+      <selection pane="topLeft" activeCell="G25" activeCellId="1" sqref="H5 G25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7578125" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -7458,84 +7473,84 @@
     <row r="2" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="10"/>
       <c r="B2" s="9" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="C2" s="10"/>
       <c r="D2" s="10"/>
       <c r="E2" s="10"/>
       <c r="F2" s="10"/>
       <c r="G2" s="9" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="H2" s="10"/>
       <c r="I2" s="10"/>
       <c r="J2" s="9" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="K2" s="10"/>
       <c r="L2" s="10"/>
       <c r="M2" s="9" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="N2" s="10"/>
       <c r="O2" s="10"/>
       <c r="P2" s="9" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="Q2" s="10"/>
       <c r="R2" s="10"/>
       <c r="S2" s="9" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="T2" s="10"/>
       <c r="U2" s="10"/>
       <c r="V2" s="9" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="W2" s="10"/>
       <c r="X2" s="10"/>
       <c r="Y2" s="9" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="Z2" s="10"/>
       <c r="AA2" s="10"/>
       <c r="AB2" s="9" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="AC2" s="10"/>
       <c r="AD2" s="10"/>
       <c r="AE2" s="9" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="AF2" s="10"/>
       <c r="AG2" s="10"/>
       <c r="AH2" s="9" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="AI2" s="10"/>
       <c r="AJ2" s="10"/>
       <c r="AK2" s="9" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="AL2" s="10"/>
       <c r="AM2" s="10"/>
       <c r="AN2" s="9" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="AO2" s="10"/>
       <c r="AP2" s="10"/>
       <c r="AQ2" s="9" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="AR2" s="10"/>
       <c r="AS2" s="10"/>
       <c r="AT2" s="9" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="AU2" s="10"/>
       <c r="AV2" s="10"/>
       <c r="AW2" s="9" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="AX2" s="10"/>
       <c r="AY2" s="10"/>
@@ -7543,10 +7558,10 @@
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="10"/>
       <c r="B3" s="9" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="D3" s="9" t="n">
         <v>350</v>
@@ -7602,10 +7617,10 @@
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="10"/>
       <c r="B4" s="9" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="D4" s="9" t="n">
         <v>1</v>
@@ -7615,105 +7630,105 @@
       </c>
       <c r="F4" s="10"/>
       <c r="G4" s="9" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="H4" s="9" t="n">
         <v>110</v>
       </c>
       <c r="I4" s="10"/>
       <c r="J4" s="9" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="K4" s="9" t="n">
         <v>130</v>
       </c>
       <c r="L4" s="10"/>
       <c r="M4" s="9" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="N4" s="9" t="n">
         <v>110</v>
       </c>
       <c r="O4" s="10"/>
       <c r="P4" s="9" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="Q4" s="9" t="n">
         <v>290</v>
       </c>
       <c r="R4" s="10"/>
       <c r="S4" s="9" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="T4" s="9" t="n">
         <v>190</v>
       </c>
       <c r="U4" s="10"/>
       <c r="V4" s="9" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="W4" s="9" t="n">
         <v>190</v>
       </c>
       <c r="X4" s="10"/>
       <c r="Y4" s="9" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="Z4" s="9" t="n">
         <v>100</v>
       </c>
       <c r="AA4" s="10"/>
       <c r="AB4" s="9" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="AC4" s="9" t="n">
         <v>340</v>
       </c>
       <c r="AD4" s="10"/>
       <c r="AE4" s="9" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="AF4" s="9" t="n">
         <v>100</v>
       </c>
       <c r="AG4" s="10"/>
       <c r="AH4" s="9" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="AI4" s="9" t="n">
         <v>100</v>
       </c>
       <c r="AJ4" s="10"/>
       <c r="AK4" s="9" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="AL4" s="9" t="n">
         <v>100</v>
       </c>
       <c r="AM4" s="10"/>
       <c r="AN4" s="9" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="AO4" s="9" t="n">
         <v>110</v>
       </c>
       <c r="AP4" s="10"/>
       <c r="AQ4" s="9" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="AR4" s="9" t="n">
         <v>120</v>
       </c>
       <c r="AS4" s="10"/>
       <c r="AT4" s="9" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="AU4" s="9" t="n">
         <v>140</v>
       </c>
       <c r="AV4" s="10"/>
       <c r="AW4" s="9" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="AX4" s="9" t="n">
         <v>190</v>
@@ -7723,118 +7738,118 @@
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="10"/>
       <c r="B5" s="9" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="D5" s="9" t="n">
         <v>30</v>
       </c>
       <c r="E5" s="16" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="F5" s="10"/>
       <c r="G5" s="9" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="H5" s="9" t="n">
         <v>50</v>
       </c>
       <c r="I5" s="10"/>
       <c r="J5" s="9" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="K5" s="9" t="n">
         <v>10</v>
       </c>
       <c r="L5" s="10"/>
       <c r="M5" s="9" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="N5" s="9" t="n">
         <v>40</v>
       </c>
       <c r="O5" s="10"/>
       <c r="P5" s="9" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="Q5" s="9" t="n">
         <v>40</v>
       </c>
       <c r="R5" s="10"/>
       <c r="S5" s="9" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="T5" s="9" t="n">
         <v>40</v>
       </c>
       <c r="U5" s="10"/>
       <c r="V5" s="9" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="W5" s="9" t="n">
         <v>20</v>
       </c>
       <c r="X5" s="10"/>
       <c r="Y5" s="9" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="Z5" s="9" t="n">
         <v>100</v>
       </c>
       <c r="AA5" s="10"/>
       <c r="AB5" s="9" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="AC5" s="9" t="n">
         <v>40</v>
       </c>
       <c r="AD5" s="10"/>
       <c r="AE5" s="9" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="AF5" s="9" t="n">
         <v>100</v>
       </c>
       <c r="AG5" s="10"/>
       <c r="AH5" s="9" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="AI5" s="9" t="n">
         <v>90</v>
       </c>
       <c r="AJ5" s="10"/>
       <c r="AK5" s="9" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="AL5" s="9" t="n">
         <v>90</v>
       </c>
       <c r="AM5" s="10"/>
       <c r="AN5" s="9" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="AO5" s="9" t="n">
         <v>40</v>
       </c>
       <c r="AP5" s="10"/>
       <c r="AQ5" s="9" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="AR5" s="9" t="n">
         <v>40</v>
       </c>
       <c r="AS5" s="10"/>
       <c r="AT5" s="9" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="AU5" s="9" t="n">
         <v>20</v>
       </c>
       <c r="AV5" s="10"/>
       <c r="AW5" s="9" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="AX5" s="9" t="n">
         <v>80</v>
@@ -7844,55 +7859,55 @@
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="10"/>
       <c r="B6" s="9" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="D6" s="9" t="n">
         <v>20</v>
       </c>
       <c r="E6" s="16" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="F6" s="10"/>
       <c r="G6" s="9" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="H6" s="9" t="n">
         <v>30</v>
       </c>
       <c r="I6" s="10"/>
       <c r="J6" s="9" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="K6" s="9" t="n">
         <v>20</v>
       </c>
       <c r="L6" s="10"/>
       <c r="M6" s="9" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="N6" s="9" t="n">
         <v>20</v>
       </c>
       <c r="O6" s="10"/>
       <c r="P6" s="9" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="Q6" s="9" t="n">
         <v>20</v>
       </c>
       <c r="R6" s="10"/>
       <c r="S6" s="9" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="T6" s="9" t="n">
         <v>10</v>
       </c>
       <c r="U6" s="10"/>
       <c r="V6" s="9" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="W6" s="9" t="n">
         <v>40</v>
@@ -7902,7 +7917,7 @@
       <c r="Z6" s="10"/>
       <c r="AA6" s="10"/>
       <c r="AB6" s="9" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="AC6" s="9" t="n">
         <v>20</v>
@@ -7912,42 +7927,42 @@
       <c r="AF6" s="10"/>
       <c r="AG6" s="10"/>
       <c r="AH6" s="9" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="AI6" s="9" t="n">
         <v>10</v>
       </c>
       <c r="AJ6" s="10"/>
       <c r="AK6" s="9" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="AL6" s="9" t="n">
         <v>10</v>
       </c>
       <c r="AM6" s="10"/>
       <c r="AN6" s="9" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="AO6" s="9" t="n">
         <v>10</v>
       </c>
       <c r="AP6" s="10"/>
       <c r="AQ6" s="9" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="AR6" s="9" t="n">
         <v>60</v>
       </c>
       <c r="AS6" s="10"/>
       <c r="AT6" s="9" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="AU6" s="9" t="n">
         <v>10</v>
       </c>
       <c r="AV6" s="10"/>
       <c r="AW6" s="9" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="AX6" s="9" t="n">
         <v>10</v>
@@ -7957,55 +7972,55 @@
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="10"/>
       <c r="B7" s="9" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="D7" s="9" t="n">
         <v>1</v>
       </c>
       <c r="E7" s="16" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="F7" s="10"/>
       <c r="G7" s="9" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="H7" s="9" t="n">
         <v>20</v>
       </c>
       <c r="I7" s="10"/>
       <c r="J7" s="9" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="K7" s="9" t="n">
         <v>10</v>
       </c>
       <c r="L7" s="10"/>
       <c r="M7" s="9" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="N7" s="9" t="n">
         <v>40</v>
       </c>
       <c r="O7" s="10"/>
       <c r="P7" s="9" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="Q7" s="9" t="n">
         <v>10</v>
       </c>
       <c r="R7" s="10"/>
       <c r="S7" s="9" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="T7" s="9" t="n">
         <v>10</v>
       </c>
       <c r="U7" s="10"/>
       <c r="V7" s="9" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="W7" s="9" t="n">
         <v>20</v>
@@ -8015,7 +8030,7 @@
       <c r="Z7" s="10"/>
       <c r="AA7" s="10"/>
       <c r="AB7" s="9" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="AC7" s="9" t="n">
         <v>40</v>
@@ -8031,28 +8046,28 @@
       <c r="AL7" s="10"/>
       <c r="AM7" s="10"/>
       <c r="AN7" s="9" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="AO7" s="9" t="n">
         <v>10</v>
       </c>
       <c r="AP7" s="10"/>
       <c r="AQ7" s="9" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="AR7" s="9" t="n">
         <v>10</v>
       </c>
       <c r="AS7" s="10"/>
       <c r="AT7" s="9" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="AU7" s="9" t="n">
         <v>10</v>
       </c>
       <c r="AV7" s="10"/>
       <c r="AW7" s="9" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="AX7" s="9" t="n">
         <v>40</v>
@@ -8062,10 +8077,10 @@
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="10"/>
       <c r="B8" s="9" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="D8" s="9" t="n">
         <v>20</v>
@@ -8075,42 +8090,42 @@
       </c>
       <c r="F8" s="10"/>
       <c r="G8" s="9" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="H8" s="9" t="n">
         <v>10</v>
       </c>
       <c r="I8" s="10"/>
       <c r="J8" s="9" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="K8" s="9" t="n">
         <v>10</v>
       </c>
       <c r="L8" s="10"/>
       <c r="M8" s="9" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="N8" s="9" t="n">
         <v>10</v>
       </c>
       <c r="O8" s="10"/>
       <c r="P8" s="9" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="Q8" s="9" t="n">
         <v>20</v>
       </c>
       <c r="R8" s="10"/>
       <c r="S8" s="9" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="T8" s="9" t="n">
         <v>10</v>
       </c>
       <c r="U8" s="10"/>
       <c r="V8" s="9" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="W8" s="9" t="n">
         <v>20</v>
@@ -8120,7 +8135,7 @@
       <c r="Z8" s="10"/>
       <c r="AA8" s="10"/>
       <c r="AB8" s="9" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="AC8" s="9" t="n">
         <v>40</v>
@@ -8136,28 +8151,28 @@
       <c r="AL8" s="10"/>
       <c r="AM8" s="10"/>
       <c r="AN8" s="9" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="AO8" s="9" t="n">
         <v>40</v>
       </c>
       <c r="AP8" s="10"/>
       <c r="AQ8" s="9" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="AR8" s="9" t="n">
         <v>10</v>
       </c>
       <c r="AS8" s="10"/>
       <c r="AT8" s="9" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="AU8" s="9" t="n">
         <v>20</v>
       </c>
       <c r="AV8" s="10"/>
       <c r="AW8" s="9" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="AX8" s="9" t="n">
         <v>20</v>
@@ -8167,23 +8182,23 @@
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="10"/>
       <c r="B9" s="9" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="D9" s="9" t="n">
         <v>1</v>
       </c>
       <c r="E9" s="16" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="F9" s="10"/>
       <c r="G9" s="10"/>
       <c r="H9" s="10"/>
       <c r="I9" s="10"/>
       <c r="J9" s="9" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="K9" s="9" t="n">
         <v>20</v>
@@ -8193,21 +8208,21 @@
       <c r="N9" s="10"/>
       <c r="O9" s="10"/>
       <c r="P9" s="9" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="Q9" s="9" t="n">
         <v>20</v>
       </c>
       <c r="R9" s="10"/>
       <c r="S9" s="9" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="T9" s="9" t="n">
         <v>10</v>
       </c>
       <c r="U9" s="10"/>
       <c r="V9" s="9" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="W9" s="9" t="n">
         <v>20</v>
@@ -8217,7 +8232,7 @@
       <c r="Z9" s="10"/>
       <c r="AA9" s="10"/>
       <c r="AB9" s="9" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="AC9" s="9" t="n">
         <v>40</v>
@@ -8233,7 +8248,7 @@
       <c r="AL9" s="10"/>
       <c r="AM9" s="10"/>
       <c r="AN9" s="9" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="AO9" s="9" t="n">
         <v>10</v>
@@ -8243,14 +8258,14 @@
       <c r="AR9" s="10"/>
       <c r="AS9" s="10"/>
       <c r="AT9" s="9" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="AU9" s="9" t="n">
         <v>20</v>
       </c>
       <c r="AV9" s="10"/>
       <c r="AW9" s="9" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="AX9" s="9" t="n">
         <v>20</v>
@@ -8260,23 +8275,23 @@
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="10"/>
       <c r="B10" s="9" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="D10" s="9" t="n">
         <v>30</v>
       </c>
       <c r="E10" s="16" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="F10" s="10"/>
       <c r="G10" s="10"/>
       <c r="H10" s="10"/>
       <c r="I10" s="10"/>
       <c r="J10" s="9" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="K10" s="9" t="n">
         <v>20</v>
@@ -8286,21 +8301,21 @@
       <c r="N10" s="10"/>
       <c r="O10" s="10"/>
       <c r="P10" s="9" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="Q10" s="9" t="n">
         <v>20</v>
       </c>
       <c r="R10" s="10"/>
       <c r="S10" s="9" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="T10" s="9" t="n">
         <v>10</v>
       </c>
       <c r="U10" s="10"/>
       <c r="V10" s="9" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="W10" s="9" t="n">
         <v>20</v>
@@ -8310,7 +8325,7 @@
       <c r="Z10" s="10"/>
       <c r="AA10" s="10"/>
       <c r="AB10" s="9" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="AC10" s="9" t="n">
         <v>20</v>
@@ -8332,14 +8347,14 @@
       <c r="AR10" s="10"/>
       <c r="AS10" s="10"/>
       <c r="AT10" s="9" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="AU10" s="9" t="n">
         <v>20</v>
       </c>
       <c r="AV10" s="10"/>
       <c r="AW10" s="9" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="AX10" s="9" t="n">
         <v>10</v>
@@ -8349,23 +8364,23 @@
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="10"/>
       <c r="B11" s="9" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="D11" s="9" t="n">
         <v>40</v>
       </c>
       <c r="E11" s="16" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="F11" s="10"/>
       <c r="G11" s="10"/>
       <c r="H11" s="10"/>
       <c r="I11" s="10"/>
       <c r="J11" s="9" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="K11" s="9" t="n">
         <v>10</v>
@@ -8375,21 +8390,21 @@
       <c r="N11" s="10"/>
       <c r="O11" s="10"/>
       <c r="P11" s="9" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="Q11" s="9" t="n">
         <v>20</v>
       </c>
       <c r="R11" s="10"/>
       <c r="S11" s="9" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="T11" s="9" t="n">
         <v>10</v>
       </c>
       <c r="U11" s="10"/>
       <c r="V11" s="9" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="W11" s="9" t="n">
         <v>20</v>
@@ -8399,7 +8414,7 @@
       <c r="Z11" s="10"/>
       <c r="AA11" s="10"/>
       <c r="AB11" s="9" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="AC11" s="9" t="n">
         <v>20</v>
@@ -8421,14 +8436,14 @@
       <c r="AR11" s="10"/>
       <c r="AS11" s="10"/>
       <c r="AT11" s="9" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="AU11" s="9" t="n">
         <v>20</v>
       </c>
       <c r="AV11" s="10"/>
       <c r="AW11" s="9" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="AX11" s="9" t="n">
         <v>10</v>
@@ -8438,10 +8453,10 @@
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="10"/>
       <c r="B12" s="9" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="D12" s="9" t="n">
         <v>40</v>
@@ -8454,7 +8469,7 @@
       <c r="H12" s="10"/>
       <c r="I12" s="10"/>
       <c r="J12" s="9" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="K12" s="9" t="n">
         <v>10</v>
@@ -8464,21 +8479,21 @@
       <c r="N12" s="10"/>
       <c r="O12" s="10"/>
       <c r="P12" s="9" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="Q12" s="9" t="n">
         <v>20</v>
       </c>
       <c r="R12" s="10"/>
       <c r="S12" s="9" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="T12" s="9" t="n">
         <v>10</v>
       </c>
       <c r="U12" s="10"/>
       <c r="V12" s="9" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="W12" s="9" t="n">
         <v>20</v>
@@ -8488,7 +8503,7 @@
       <c r="Z12" s="10"/>
       <c r="AA12" s="10"/>
       <c r="AB12" s="9" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="AC12" s="9" t="n">
         <v>40</v>
@@ -8510,7 +8525,7 @@
       <c r="AR12" s="10"/>
       <c r="AS12" s="10"/>
       <c r="AT12" s="9" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="AU12" s="9" t="n">
         <v>10</v>
@@ -8523,23 +8538,23 @@
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="10"/>
       <c r="B13" s="9" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="C13" s="9" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="D13" s="9" t="n">
         <v>1</v>
       </c>
       <c r="E13" s="16" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="F13" s="10"/>
       <c r="G13" s="10"/>
       <c r="H13" s="10"/>
       <c r="I13" s="10"/>
       <c r="J13" s="9" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="K13" s="9" t="n">
         <v>10</v>
@@ -8549,21 +8564,21 @@
       <c r="N13" s="10"/>
       <c r="O13" s="10"/>
       <c r="P13" s="9" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="Q13" s="9" t="n">
         <v>20</v>
       </c>
       <c r="R13" s="10"/>
       <c r="S13" s="9" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="T13" s="9" t="n">
         <v>10</v>
       </c>
       <c r="U13" s="10"/>
       <c r="V13" s="9" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="W13" s="9" t="n">
         <v>10</v>
@@ -8573,7 +8588,7 @@
       <c r="Z13" s="10"/>
       <c r="AA13" s="10"/>
       <c r="AB13" s="9" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="AC13" s="9" t="n">
         <v>10</v>
@@ -8595,7 +8610,7 @@
       <c r="AR13" s="10"/>
       <c r="AS13" s="10"/>
       <c r="AT13" s="9" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="AU13" s="9" t="n">
         <v>10</v>
@@ -8608,10 +8623,10 @@
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="10"/>
       <c r="B14" s="9" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="C14" s="9" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="D14" s="9" t="n">
         <v>20</v>
@@ -8624,7 +8639,7 @@
       <c r="H14" s="10"/>
       <c r="I14" s="10"/>
       <c r="J14" s="9" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="K14" s="9" t="n">
         <v>10</v>
@@ -8634,14 +8649,14 @@
       <c r="N14" s="10"/>
       <c r="O14" s="10"/>
       <c r="P14" s="9" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="Q14" s="9" t="n">
         <v>20</v>
       </c>
       <c r="R14" s="10"/>
       <c r="S14" s="9" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="T14" s="9" t="n">
         <v>10</v>
@@ -8654,7 +8669,7 @@
       <c r="Z14" s="10"/>
       <c r="AA14" s="10"/>
       <c r="AB14" s="9" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="AC14" s="9" t="n">
         <v>20</v>
@@ -8685,10 +8700,10 @@
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="10"/>
       <c r="B15" s="9" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="C15" s="9" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="D15" s="9" t="n">
         <v>1</v>
@@ -8707,14 +8722,14 @@
       <c r="N15" s="10"/>
       <c r="O15" s="10"/>
       <c r="P15" s="9" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="Q15" s="9" t="n">
         <v>20</v>
       </c>
       <c r="R15" s="10"/>
       <c r="S15" s="9" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="T15" s="9" t="n">
         <v>10</v>
@@ -8727,7 +8742,7 @@
       <c r="Z15" s="10"/>
       <c r="AA15" s="10"/>
       <c r="AB15" s="9" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="AC15" s="9" t="n">
         <v>20</v>
@@ -8758,10 +8773,10 @@
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="10"/>
       <c r="B16" s="9" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="C16" s="9" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="D16" s="9" t="n">
         <v>1</v>
@@ -8780,14 +8795,14 @@
       <c r="N16" s="10"/>
       <c r="O16" s="10"/>
       <c r="P16" s="9" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="Q16" s="9" t="n">
         <v>20</v>
       </c>
       <c r="R16" s="10"/>
       <c r="S16" s="9" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="T16" s="9" t="n">
         <v>10</v>
@@ -8800,7 +8815,7 @@
       <c r="Z16" s="10"/>
       <c r="AA16" s="10"/>
       <c r="AB16" s="9" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="AC16" s="9" t="n">
         <v>20</v>
@@ -8831,10 +8846,10 @@
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="10"/>
       <c r="B17" s="9" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="C17" s="9" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="D17" s="9" t="n">
         <v>1</v>
@@ -8853,14 +8868,14 @@
       <c r="N17" s="10"/>
       <c r="O17" s="10"/>
       <c r="P17" s="9" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="Q17" s="9" t="n">
         <v>20</v>
       </c>
       <c r="R17" s="10"/>
       <c r="S17" s="9" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="T17" s="9" t="n">
         <v>10</v>
@@ -8873,7 +8888,7 @@
       <c r="Z17" s="10"/>
       <c r="AA17" s="10"/>
       <c r="AB17" s="9" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="AC17" s="9" t="n">
         <v>10</v>
@@ -8904,16 +8919,16 @@
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="10"/>
       <c r="B18" s="9" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="C18" s="9" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="D18" s="9" t="n">
         <v>1</v>
       </c>
       <c r="E18" s="16" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="F18" s="10"/>
       <c r="G18" s="10"/>
@@ -8926,14 +8941,14 @@
       <c r="N18" s="10"/>
       <c r="O18" s="10"/>
       <c r="P18" s="9" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="Q18" s="9" t="n">
         <v>10</v>
       </c>
       <c r="R18" s="10"/>
       <c r="S18" s="9" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="T18" s="9" t="n">
         <v>10</v>
@@ -8973,16 +8988,16 @@
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="10"/>
       <c r="B19" s="9" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="C19" s="9" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="D19" s="9" t="n">
         <v>20</v>
       </c>
       <c r="E19" s="16" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="F19" s="10"/>
       <c r="G19" s="10"/>
@@ -8995,14 +9010,14 @@
       <c r="N19" s="10"/>
       <c r="O19" s="10"/>
       <c r="P19" s="9" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="Q19" s="9" t="n">
         <v>10</v>
       </c>
       <c r="R19" s="10"/>
       <c r="S19" s="9" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="T19" s="9" t="n">
         <v>10</v>
@@ -9042,16 +9057,16 @@
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="10"/>
       <c r="B20" s="9" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="C20" s="9" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="D20" s="9" t="n">
         <v>20</v>
       </c>
       <c r="E20" s="16" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="F20" s="10"/>
       <c r="G20" s="10"/>
@@ -9067,7 +9082,7 @@
       <c r="Q20" s="10"/>
       <c r="R20" s="10"/>
       <c r="S20" s="9" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="T20" s="9" t="n">
         <v>10</v>
@@ -9107,16 +9122,16 @@
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="10"/>
       <c r="B21" s="9" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="C21" s="9" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="D21" s="9" t="n">
         <v>30</v>
       </c>
       <c r="E21" s="16" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="F21" s="10"/>
       <c r="G21" s="10"/>
@@ -9168,10 +9183,10 @@
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="10"/>
       <c r="B22" s="9" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="C22" s="9" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="D22" s="9" t="n">
         <v>20</v>
@@ -9229,16 +9244,16 @@
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="10"/>
       <c r="B23" s="9" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="C23" s="9" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="D23" s="9" t="n">
         <v>1</v>
       </c>
       <c r="E23" s="16" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="F23" s="10"/>
       <c r="G23" s="10"/>
@@ -9290,10 +9305,10 @@
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="10"/>
       <c r="B24" s="9" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="C24" s="9" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="D24" s="9" t="n">
         <v>20</v>
@@ -9351,16 +9366,16 @@
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="10"/>
       <c r="B25" s="9" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="C25" s="9" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="D25" s="9" t="n">
         <v>1</v>
       </c>
       <c r="E25" s="16" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="F25" s="10"/>
       <c r="G25" s="10"/>
@@ -9412,10 +9427,10 @@
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="10"/>
       <c r="B26" s="9" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="C26" s="9" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="D26" s="9" t="n">
         <v>30</v>
@@ -9577,7 +9592,7 @@
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="10"/>
       <c r="B29" s="9" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="C29" s="10"/>
       <c r="D29" s="10"/>
@@ -9632,10 +9647,10 @@
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="10"/>
       <c r="B30" s="9" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="C30" s="9" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="D30" s="10"/>
       <c r="E30" s="10"/>
@@ -9689,10 +9704,10 @@
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="10"/>
       <c r="B31" s="9" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="C31" s="9" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="D31" s="10"/>
       <c r="E31" s="10"/>
@@ -9746,10 +9761,10 @@
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="10"/>
       <c r="B32" s="9" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="C32" s="9" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="D32" s="10"/>
       <c r="E32" s="10"/>
@@ -9803,10 +9818,10 @@
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="10"/>
       <c r="B33" s="9" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="C33" s="9" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="D33" s="10"/>
       <c r="E33" s="10"/>
@@ -9860,10 +9875,10 @@
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="10"/>
       <c r="B34" s="9" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="C34" s="9" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="D34" s="10"/>
       <c r="E34" s="10"/>
@@ -9917,10 +9932,10 @@
     <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="10"/>
       <c r="B35" s="9" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="C35" s="9" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="D35" s="10"/>
       <c r="E35" s="10"/>
@@ -9974,10 +9989,10 @@
     <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="10"/>
       <c r="B36" s="9" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="C36" s="9" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="D36" s="10"/>
       <c r="E36" s="10"/>
@@ -10031,10 +10046,10 @@
     <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="10"/>
       <c r="B37" s="9" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="C37" s="9" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="D37" s="10"/>
       <c r="E37" s="10"/>
@@ -10088,10 +10103,10 @@
     <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="10"/>
       <c r="B38" s="9" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="C38" s="9" t="s">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="D38" s="10"/>
       <c r="E38" s="10"/>
@@ -10145,10 +10160,10 @@
     <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="10"/>
       <c r="B39" s="9" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="C39" s="9" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="D39" s="10"/>
       <c r="E39" s="10"/>
@@ -10202,10 +10217,10 @@
     <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="10"/>
       <c r="B40" s="9" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="C40" s="9" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="D40" s="10"/>
       <c r="E40" s="10"/>
@@ -10259,10 +10274,10 @@
     <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="10"/>
       <c r="B41" s="9" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="C41" s="9" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="D41" s="10"/>
       <c r="E41" s="10"/>
@@ -10316,10 +10331,10 @@
     <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="10"/>
       <c r="B42" s="9" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="C42" s="9" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="D42" s="10"/>
       <c r="E42" s="10"/>
@@ -10373,10 +10388,10 @@
     <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="10"/>
       <c r="B43" s="9" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="C43" s="9" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="D43" s="10"/>
       <c r="E43" s="10"/>
@@ -10430,10 +10445,10 @@
     <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="10"/>
       <c r="B44" s="9" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="C44" s="9" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="D44" s="10"/>
       <c r="E44" s="10"/>
@@ -10487,10 +10502,10 @@
     <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="10"/>
       <c r="B45" s="9" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="C45" s="9" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="D45" s="10"/>
       <c r="E45" s="10"/>
@@ -10544,10 +10559,10 @@
     <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="10"/>
       <c r="B46" s="9" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="C46" s="9" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="D46" s="10"/>
       <c r="E46" s="10"/>
@@ -10601,10 +10616,10 @@
     <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="10"/>
       <c r="B47" s="9" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="C47" s="9" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="D47" s="10"/>
       <c r="E47" s="10"/>
@@ -10658,10 +10673,10 @@
     <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="10"/>
       <c r="B48" s="9" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="C48" s="9" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="D48" s="10"/>
       <c r="E48" s="10"/>
@@ -10715,10 +10730,10 @@
     <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="10"/>
       <c r="B49" s="9" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="C49" s="9" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="D49" s="10"/>
       <c r="E49" s="10"/>
@@ -10772,10 +10787,10 @@
     <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="10"/>
       <c r="B50" s="9" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="C50" s="9" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="D50" s="10"/>
       <c r="E50" s="10"/>
@@ -10829,10 +10844,10 @@
     <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="10"/>
       <c r="B51" s="9" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="C51" s="9" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="D51" s="10"/>
       <c r="E51" s="10"/>
@@ -10886,10 +10901,10 @@
     <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="10"/>
       <c r="B52" s="9" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="C52" s="9" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="D52" s="10"/>
       <c r="E52" s="10"/>
@@ -10943,10 +10958,10 @@
     <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="10"/>
       <c r="B53" s="9" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="C53" s="9" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="D53" s="10"/>
       <c r="E53" s="10"/>
@@ -11075,7 +11090,7 @@
   <dimension ref="A1:Q114"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J34" activeCellId="0" sqref="J34"/>
+      <selection pane="topLeft" activeCell="J34" activeCellId="1" sqref="H5 J34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -11099,13 +11114,13 @@
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="8" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="B1" s="1"/>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="17" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="B2" s="1"/>
     </row>
@@ -11117,42 +11132,42 @@
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="18" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="B4" s="2" t="n">
         <f aca="false">SUM(B5:B40)</f>
         <v>170</v>
       </c>
       <c r="D4" s="18" t="s">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="E4" s="2" t="n">
         <f aca="false">SUM(E5:E40)</f>
         <v>340</v>
       </c>
       <c r="G4" s="18" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="H4" s="2" t="n">
         <f aca="false">SUM(H5:H40)</f>
         <v>230</v>
       </c>
       <c r="J4" s="18" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="K4" s="2" t="n">
         <f aca="false">SUM(K5:K40)</f>
         <v>60</v>
       </c>
       <c r="M4" s="18" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="N4" s="2" t="n">
         <f aca="false">SUM(N5:N40)</f>
         <v>10</v>
       </c>
       <c r="P4" s="18" t="s">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="Q4" s="2" t="n">
         <f aca="false">SUM(Q5:Q40)</f>
@@ -11161,37 +11176,37 @@
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="19" t="s">
-        <v>624</v>
+        <v>625</v>
       </c>
       <c r="B5" s="1" t="n">
         <v>10</v>
       </c>
       <c r="D5" s="19" t="s">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="E5" s="1" t="n">
         <v>10</v>
       </c>
       <c r="G5" s="19" t="s">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="H5" s="1" t="n">
         <v>10</v>
       </c>
       <c r="J5" s="19" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="K5" s="1" t="n">
         <v>10</v>
       </c>
       <c r="M5" s="20" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="N5" s="1" t="n">
         <v>10</v>
       </c>
       <c r="P5" s="21" t="s">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="Q5" s="22" t="n">
         <v>100</v>
@@ -11199,7 +11214,7 @@
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="20" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="B6" s="1" t="n">
         <v>10</v>
@@ -11217,13 +11232,13 @@
         <v>10</v>
       </c>
       <c r="J6" s="20" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="K6" s="1" t="n">
         <v>10</v>
       </c>
       <c r="P6" s="21" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="Q6" s="22" t="n">
         <v>10</v>
@@ -11231,31 +11246,31 @@
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="20" t="s">
-        <v>633</v>
+        <v>634</v>
       </c>
       <c r="B7" s="1" t="n">
         <v>10</v>
       </c>
       <c r="D7" s="20" t="s">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="E7" s="1" t="n">
         <v>10</v>
       </c>
       <c r="G7" s="20" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="H7" s="1" t="n">
         <v>10</v>
       </c>
       <c r="J7" s="20" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="K7" s="1" t="n">
         <v>10</v>
       </c>
       <c r="P7" s="21" t="s">
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="Q7" s="22" t="n">
         <v>10</v>
@@ -11263,31 +11278,31 @@
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="20" t="s">
-        <v>638</v>
+        <v>639</v>
       </c>
       <c r="B8" s="1" t="n">
         <v>10</v>
       </c>
       <c r="D8" s="20" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="E8" s="1" t="n">
         <v>10</v>
       </c>
       <c r="G8" s="20" t="s">
-        <v>639</v>
+        <v>640</v>
       </c>
       <c r="H8" s="1" t="n">
         <v>10</v>
       </c>
       <c r="J8" s="20" t="s">
-        <v>640</v>
+        <v>641</v>
       </c>
       <c r="K8" s="1" t="n">
         <v>10</v>
       </c>
       <c r="P8" s="21" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="Q8" s="22" t="n">
         <v>10</v>
@@ -11295,13 +11310,13 @@
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="20" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="B9" s="1" t="n">
         <v>10</v>
       </c>
       <c r="D9" s="19" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="E9" s="1" t="n">
         <v>10</v>
@@ -11313,13 +11328,13 @@
         <v>10</v>
       </c>
       <c r="J9" s="20" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="K9" s="1" t="n">
         <v>10</v>
       </c>
       <c r="P9" s="21" t="s">
-        <v>645</v>
+        <v>646</v>
       </c>
       <c r="Q9" s="22" t="n">
         <v>10</v>
@@ -11327,7 +11342,7 @@
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="20" t="s">
-        <v>646</v>
+        <v>647</v>
       </c>
       <c r="B10" s="1" t="n">
         <v>10</v>
@@ -11339,19 +11354,19 @@
         <v>10</v>
       </c>
       <c r="G10" s="20" t="s">
-        <v>647</v>
+        <v>648</v>
       </c>
       <c r="H10" s="1" t="n">
         <v>10</v>
       </c>
       <c r="J10" s="20" t="s">
-        <v>648</v>
+        <v>649</v>
       </c>
       <c r="K10" s="1" t="n">
         <v>10</v>
       </c>
       <c r="P10" s="21" t="s">
-        <v>649</v>
+        <v>650</v>
       </c>
       <c r="Q10" s="22" t="n">
         <v>10</v>
@@ -11359,25 +11374,25 @@
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="20" t="s">
-        <v>650</v>
+        <v>651</v>
       </c>
       <c r="B11" s="1" t="n">
         <v>10</v>
       </c>
       <c r="D11" s="20" t="s">
-        <v>651</v>
+        <v>652</v>
       </c>
       <c r="E11" s="1" t="n">
         <v>10</v>
       </c>
       <c r="G11" s="20" t="s">
-        <v>652</v>
+        <v>653</v>
       </c>
       <c r="H11" s="1" t="n">
         <v>10</v>
       </c>
       <c r="P11" s="21" t="s">
-        <v>653</v>
+        <v>654</v>
       </c>
       <c r="Q11" s="22" t="n">
         <v>10</v>
@@ -11385,25 +11400,25 @@
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="20" t="s">
-        <v>654</v>
+        <v>655</v>
       </c>
       <c r="B12" s="1" t="n">
         <v>10</v>
       </c>
       <c r="D12" s="20" t="s">
-        <v>655</v>
+        <v>656</v>
       </c>
       <c r="E12" s="1" t="n">
         <v>10</v>
       </c>
       <c r="G12" s="20" t="s">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="H12" s="1" t="n">
         <v>10</v>
       </c>
       <c r="P12" s="21" t="s">
-        <v>657</v>
+        <v>658</v>
       </c>
       <c r="Q12" s="22" t="n">
         <v>10</v>
@@ -11411,25 +11426,25 @@
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="20" t="s">
-        <v>658</v>
+        <v>659</v>
       </c>
       <c r="B13" s="1" t="n">
         <v>10</v>
       </c>
       <c r="D13" s="20" t="s">
-        <v>659</v>
+        <v>660</v>
       </c>
       <c r="E13" s="1" t="n">
         <v>10</v>
       </c>
       <c r="G13" s="20" t="s">
-        <v>660</v>
+        <v>661</v>
       </c>
       <c r="H13" s="1" t="n">
         <v>10</v>
       </c>
       <c r="P13" s="21" t="s">
-        <v>661</v>
+        <v>662</v>
       </c>
       <c r="Q13" s="22" t="n">
         <v>10</v>
@@ -11437,25 +11452,25 @@
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="20" t="s">
-        <v>662</v>
+        <v>663</v>
       </c>
       <c r="B14" s="1" t="n">
         <v>10</v>
       </c>
       <c r="D14" s="20" t="s">
-        <v>663</v>
+        <v>664</v>
       </c>
       <c r="E14" s="1" t="n">
         <v>10</v>
       </c>
       <c r="G14" s="20" t="s">
-        <v>652</v>
+        <v>653</v>
       </c>
       <c r="H14" s="1" t="n">
         <v>10</v>
       </c>
       <c r="P14" s="21" t="s">
-        <v>664</v>
+        <v>665</v>
       </c>
       <c r="Q14" s="22" t="n">
         <v>10</v>
@@ -11463,13 +11478,13 @@
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="20" t="s">
-        <v>647</v>
+        <v>648</v>
       </c>
       <c r="B15" s="1" t="n">
         <v>10</v>
       </c>
       <c r="D15" s="20" t="s">
-        <v>665</v>
+        <v>666</v>
       </c>
       <c r="E15" s="1" t="n">
         <v>10</v>
@@ -11481,7 +11496,7 @@
         <v>10</v>
       </c>
       <c r="P15" s="21" t="s">
-        <v>666</v>
+        <v>667</v>
       </c>
       <c r="Q15" s="22" t="n">
         <v>10</v>
@@ -11489,25 +11504,25 @@
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="20" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="B16" s="1" t="n">
         <v>10</v>
       </c>
       <c r="D16" s="20" t="s">
-        <v>667</v>
+        <v>668</v>
       </c>
       <c r="E16" s="1" t="n">
         <v>10</v>
       </c>
       <c r="G16" s="20" t="s">
-        <v>668</v>
+        <v>669</v>
       </c>
       <c r="H16" s="1" t="n">
         <v>10</v>
       </c>
       <c r="P16" s="21" t="s">
-        <v>669</v>
+        <v>670</v>
       </c>
       <c r="Q16" s="22" t="n">
         <v>10</v>
@@ -11515,25 +11530,25 @@
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="20" t="s">
-        <v>670</v>
+        <v>671</v>
       </c>
       <c r="B17" s="1" t="n">
         <v>10</v>
       </c>
       <c r="D17" s="20" t="s">
-        <v>671</v>
+        <v>672</v>
       </c>
       <c r="E17" s="1" t="n">
         <v>10</v>
       </c>
       <c r="G17" s="20" t="s">
-        <v>672</v>
+        <v>673</v>
       </c>
       <c r="H17" s="1" t="n">
         <v>10</v>
       </c>
       <c r="P17" s="21" t="s">
-        <v>673</v>
+        <v>674</v>
       </c>
       <c r="Q17" s="22" t="n">
         <v>500</v>
@@ -11541,25 +11556,25 @@
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="20" t="s">
-        <v>674</v>
+        <v>675</v>
       </c>
       <c r="B18" s="1" t="n">
         <v>10</v>
       </c>
       <c r="D18" s="20" t="s">
-        <v>675</v>
+        <v>676</v>
       </c>
       <c r="E18" s="1" t="n">
         <v>10</v>
       </c>
       <c r="G18" s="20" t="s">
-        <v>676</v>
+        <v>677</v>
       </c>
       <c r="H18" s="1" t="n">
         <v>10</v>
       </c>
       <c r="P18" s="21" t="s">
-        <v>677</v>
+        <v>678</v>
       </c>
       <c r="Q18" s="22" t="n">
         <v>50</v>
@@ -11567,7 +11582,7 @@
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="20" t="s">
-        <v>678</v>
+        <v>679</v>
       </c>
       <c r="B19" s="1" t="n">
         <v>10</v>
@@ -11579,13 +11594,13 @@
         <v>10</v>
       </c>
       <c r="G19" s="20" t="s">
-        <v>679</v>
+        <v>680</v>
       </c>
       <c r="H19" s="1" t="n">
         <v>10</v>
       </c>
       <c r="P19" s="21" t="s">
-        <v>680</v>
+        <v>681</v>
       </c>
       <c r="Q19" s="22" t="n">
         <v>50</v>
@@ -11593,25 +11608,25 @@
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="20" t="s">
-        <v>660</v>
+        <v>661</v>
       </c>
       <c r="B20" s="1" t="n">
         <v>10</v>
       </c>
       <c r="D20" s="20" t="s">
-        <v>660</v>
+        <v>661</v>
       </c>
       <c r="E20" s="1" t="n">
         <v>10</v>
       </c>
       <c r="G20" s="20" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="H20" s="1" t="n">
         <v>10</v>
       </c>
       <c r="P20" s="21" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="Q20" s="22" t="n">
         <v>50</v>
@@ -11625,19 +11640,19 @@
         <v>10</v>
       </c>
       <c r="D21" s="20" t="s">
-        <v>682</v>
+        <v>683</v>
       </c>
       <c r="E21" s="1" t="n">
         <v>10</v>
       </c>
       <c r="G21" s="20" t="s">
-        <v>647</v>
+        <v>648</v>
       </c>
       <c r="H21" s="1" t="n">
         <v>10</v>
       </c>
       <c r="P21" s="21" t="s">
-        <v>683</v>
+        <v>684</v>
       </c>
       <c r="Q21" s="22" t="n">
         <v>50</v>
@@ -11645,19 +11660,19 @@
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D22" s="20" t="s">
-        <v>684</v>
+        <v>685</v>
       </c>
       <c r="E22" s="1" t="n">
         <v>10</v>
       </c>
       <c r="G22" s="20" t="s">
-        <v>685</v>
+        <v>686</v>
       </c>
       <c r="H22" s="1" t="n">
         <v>10</v>
       </c>
       <c r="P22" s="21" t="s">
-        <v>686</v>
+        <v>687</v>
       </c>
       <c r="Q22" s="22" t="n">
         <v>50</v>
@@ -11665,19 +11680,19 @@
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D23" s="20" t="s">
-        <v>687</v>
+        <v>688</v>
       </c>
       <c r="E23" s="1" t="n">
         <v>10</v>
       </c>
       <c r="G23" s="20" t="s">
-        <v>688</v>
+        <v>689</v>
       </c>
       <c r="H23" s="1" t="n">
         <v>10</v>
       </c>
       <c r="P23" s="21" t="s">
-        <v>689</v>
+        <v>690</v>
       </c>
       <c r="Q23" s="22" t="n">
         <v>50</v>
@@ -11687,19 +11702,19 @@
       <c r="A24" s="20"/>
       <c r="B24" s="1"/>
       <c r="D24" s="20" t="s">
-        <v>690</v>
+        <v>691</v>
       </c>
       <c r="E24" s="1" t="n">
         <v>10</v>
       </c>
       <c r="G24" s="20" t="s">
-        <v>691</v>
+        <v>692</v>
       </c>
       <c r="H24" s="1" t="n">
         <v>10</v>
       </c>
       <c r="P24" s="21" t="s">
-        <v>692</v>
+        <v>693</v>
       </c>
       <c r="Q24" s="22" t="n">
         <v>50</v>
@@ -11709,19 +11724,19 @@
       <c r="A25" s="20"/>
       <c r="B25" s="1"/>
       <c r="D25" s="20" t="s">
-        <v>693</v>
+        <v>694</v>
       </c>
       <c r="E25" s="1" t="n">
         <v>10</v>
       </c>
       <c r="G25" s="20" t="s">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="H25" s="1" t="n">
         <v>10</v>
       </c>
       <c r="P25" s="21" t="s">
-        <v>694</v>
+        <v>695</v>
       </c>
       <c r="Q25" s="22" t="n">
         <v>50</v>
@@ -11729,19 +11744,19 @@
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D26" s="20" t="s">
-        <v>695</v>
+        <v>696</v>
       </c>
       <c r="E26" s="1" t="n">
         <v>10</v>
       </c>
       <c r="G26" s="20" t="s">
-        <v>676</v>
+        <v>677</v>
       </c>
       <c r="H26" s="1" t="n">
         <v>10</v>
       </c>
       <c r="P26" s="21" t="s">
-        <v>696</v>
+        <v>697</v>
       </c>
       <c r="Q26" s="22" t="n">
         <v>50</v>
@@ -11749,19 +11764,19 @@
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D27" s="20" t="s">
-        <v>697</v>
+        <v>698</v>
       </c>
       <c r="E27" s="1" t="n">
         <v>10</v>
       </c>
       <c r="G27" s="20" t="s">
-        <v>679</v>
+        <v>680</v>
       </c>
       <c r="H27" s="1" t="n">
         <v>10</v>
       </c>
       <c r="P27" s="21" t="s">
-        <v>698</v>
+        <v>699</v>
       </c>
       <c r="Q27" s="22" t="n">
         <v>50</v>
@@ -11769,13 +11784,13 @@
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D28" s="20" t="s">
-        <v>699</v>
+        <v>700</v>
       </c>
       <c r="E28" s="1" t="n">
         <v>10</v>
       </c>
       <c r="P28" s="21" t="s">
-        <v>700</v>
+        <v>701</v>
       </c>
       <c r="Q28" s="22" t="n">
         <v>50</v>
@@ -11783,13 +11798,13 @@
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D29" s="20" t="s">
-        <v>701</v>
+        <v>702</v>
       </c>
       <c r="E29" s="1" t="n">
         <v>10</v>
       </c>
       <c r="P29" s="21" t="s">
-        <v>702</v>
+        <v>703</v>
       </c>
       <c r="Q29" s="22" t="n">
         <v>100</v>
@@ -11797,13 +11812,13 @@
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D30" s="20" t="s">
-        <v>703</v>
+        <v>704</v>
       </c>
       <c r="E30" s="1" t="n">
         <v>10</v>
       </c>
       <c r="P30" s="21" t="s">
-        <v>704</v>
+        <v>705</v>
       </c>
       <c r="Q30" s="22" t="n">
         <v>10</v>
@@ -11811,13 +11826,13 @@
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D31" s="20" t="s">
-        <v>705</v>
+        <v>706</v>
       </c>
       <c r="E31" s="1" t="n">
         <v>10</v>
       </c>
       <c r="P31" s="21" t="s">
-        <v>706</v>
+        <v>707</v>
       </c>
       <c r="Q31" s="22" t="n">
         <v>10</v>
@@ -11825,13 +11840,13 @@
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D32" s="20" t="s">
-        <v>705</v>
+        <v>706</v>
       </c>
       <c r="E32" s="1" t="n">
         <v>10</v>
       </c>
       <c r="P32" s="21" t="s">
-        <v>707</v>
+        <v>708</v>
       </c>
       <c r="Q32" s="22" t="n">
         <v>10</v>
@@ -11839,13 +11854,13 @@
     </row>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D33" s="20" t="s">
-        <v>708</v>
+        <v>709</v>
       </c>
       <c r="E33" s="1" t="n">
         <v>10</v>
       </c>
       <c r="P33" s="21" t="s">
-        <v>709</v>
+        <v>710</v>
       </c>
       <c r="Q33" s="22" t="n">
         <v>10</v>
@@ -11853,13 +11868,13 @@
     </row>
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D34" s="20" t="s">
-        <v>710</v>
+        <v>711</v>
       </c>
       <c r="E34" s="1" t="n">
         <v>10</v>
       </c>
       <c r="P34" s="21" t="s">
-        <v>711</v>
+        <v>712</v>
       </c>
       <c r="Q34" s="22" t="n">
         <v>10</v>
@@ -11867,13 +11882,13 @@
     </row>
     <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D35" s="20" t="s">
-        <v>712</v>
+        <v>713</v>
       </c>
       <c r="E35" s="1" t="n">
         <v>10</v>
       </c>
       <c r="P35" s="21" t="s">
-        <v>713</v>
+        <v>714</v>
       </c>
       <c r="Q35" s="22" t="n">
         <v>10</v>
@@ -11881,13 +11896,13 @@
     </row>
     <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D36" s="20" t="s">
-        <v>714</v>
+        <v>715</v>
       </c>
       <c r="E36" s="1" t="n">
         <v>10</v>
       </c>
       <c r="P36" s="21" t="s">
-        <v>715</v>
+        <v>716</v>
       </c>
       <c r="Q36" s="22" t="n">
         <v>10</v>
@@ -11895,13 +11910,13 @@
     </row>
     <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D37" s="20" t="s">
-        <v>716</v>
+        <v>717</v>
       </c>
       <c r="E37" s="1" t="n">
         <v>10</v>
       </c>
       <c r="P37" s="21" t="s">
-        <v>717</v>
+        <v>718</v>
       </c>
       <c r="Q37" s="22" t="n">
         <v>10</v>
@@ -11909,13 +11924,13 @@
     </row>
     <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D38" s="20" t="s">
-        <v>718</v>
+        <v>719</v>
       </c>
       <c r="E38" s="1" t="n">
         <v>10</v>
       </c>
       <c r="P38" s="21" t="s">
-        <v>719</v>
+        <v>720</v>
       </c>
       <c r="Q38" s="22" t="n">
         <v>10</v>
@@ -11923,7 +11938,7 @@
     </row>
     <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="P39" s="21" t="s">
-        <v>720</v>
+        <v>721</v>
       </c>
       <c r="Q39" s="22" t="n">
         <v>10</v>
@@ -11931,7 +11946,7 @@
     </row>
     <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="P40" s="21" t="s">
-        <v>721</v>
+        <v>722</v>
       </c>
       <c r="Q40" s="22" t="n">
         <v>10</v>
@@ -12073,7 +12088,7 @@
   <dimension ref="A1:W131"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="D1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="M8" activeCellId="0" sqref="M8"/>
+      <selection pane="topLeft" activeCell="M8" activeCellId="1" sqref="H5 M8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.66015625" defaultRowHeight="12.95" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -12095,7 +12110,7 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="8" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="17"/>
@@ -12105,7 +12120,7 @@
       <c r="G1" s="17"/>
       <c r="H1" s="1"/>
       <c r="I1" s="17" t="s">
-        <v>722</v>
+        <v>723</v>
       </c>
       <c r="J1" s="1"/>
       <c r="K1" s="17"/>
@@ -12113,13 +12128,13 @@
       <c r="M1" s="17"/>
       <c r="N1" s="1"/>
       <c r="O1" s="8" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="P1" s="10"/>
     </row>
     <row r="2" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="B2" s="1"/>
       <c r="C2" s="17"/>
@@ -12135,7 +12150,7 @@
       <c r="M2" s="17"/>
       <c r="N2" s="1"/>
       <c r="O2" s="0" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="P2" s="10"/>
     </row>
@@ -12209,80 +12224,80 @@
     </row>
     <row r="6" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="2" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="B6" s="2" t="n">
         <f aca="false">SUM(B7:B15)</f>
         <v>100</v>
       </c>
       <c r="C6" s="18" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="D6" s="2" t="n">
         <f aca="false">SUM(D7:D15)</f>
         <v>100</v>
       </c>
       <c r="E6" s="18" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="F6" s="2" t="n">
         <f aca="false">SUM(F7:F15)</f>
         <v>100</v>
       </c>
       <c r="G6" s="18" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="H6" s="2" t="n">
         <f aca="false">SUM(H7:H15)</f>
         <v>100</v>
       </c>
       <c r="I6" s="18" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="J6" s="2" t="n">
         <f aca="false">SUM(J7:J15)</f>
         <v>0</v>
       </c>
       <c r="K6" s="18" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="L6" s="2" t="n">
         <f aca="false">SUM(L7:L15)</f>
         <v>100</v>
       </c>
       <c r="M6" s="18" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="N6" s="2" t="n">
         <f aca="false">SUM(N7:N15)</f>
         <v>100</v>
       </c>
       <c r="O6" s="2" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="P6" s="10"/>
     </row>
     <row r="7" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="19" t="s">
-        <v>624</v>
+        <v>625</v>
       </c>
       <c r="B7" s="1" t="n">
         <v>100</v>
       </c>
       <c r="C7" s="20" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="D7" s="1" t="n">
         <v>20</v>
       </c>
       <c r="E7" s="20" t="s">
-        <v>650</v>
+        <v>651</v>
       </c>
       <c r="F7" s="1" t="n">
         <v>30</v>
       </c>
       <c r="G7" s="20" t="s">
-        <v>662</v>
+        <v>663</v>
       </c>
       <c r="H7" s="1" t="n">
         <v>10</v>
@@ -12290,19 +12305,19 @@
       <c r="I7" s="20"/>
       <c r="J7" s="1"/>
       <c r="K7" s="20" t="s">
-        <v>674</v>
+        <v>675</v>
       </c>
       <c r="L7" s="1" t="n">
         <v>100</v>
       </c>
       <c r="M7" s="20" t="s">
-        <v>678</v>
+        <v>679</v>
       </c>
       <c r="N7" s="1" t="n">
         <v>60</v>
       </c>
       <c r="O7" s="19" t="s">
-        <v>624</v>
+        <v>625</v>
       </c>
       <c r="P7" s="10"/>
     </row>
@@ -12310,19 +12325,19 @@
       <c r="A8" s="19"/>
       <c r="B8" s="1"/>
       <c r="C8" s="20" t="s">
-        <v>633</v>
+        <v>634</v>
       </c>
       <c r="D8" s="1" t="n">
         <v>20</v>
       </c>
       <c r="E8" s="20" t="s">
-        <v>654</v>
+        <v>655</v>
       </c>
       <c r="F8" s="1" t="n">
         <v>40</v>
       </c>
       <c r="G8" s="20" t="s">
-        <v>647</v>
+        <v>648</v>
       </c>
       <c r="H8" s="1" t="n">
         <v>40</v>
@@ -12332,7 +12347,7 @@
       <c r="K8" s="20"/>
       <c r="L8" s="1"/>
       <c r="M8" s="20" t="s">
-        <v>660</v>
+        <v>661</v>
       </c>
       <c r="N8" s="1" t="n">
         <v>20</v>
@@ -12344,19 +12359,19 @@
       <c r="A9" s="19"/>
       <c r="B9" s="1"/>
       <c r="C9" s="20" t="s">
-        <v>638</v>
+        <v>639</v>
       </c>
       <c r="D9" s="1" t="n">
         <v>20</v>
       </c>
       <c r="E9" s="20" t="s">
-        <v>658</v>
+        <v>659</v>
       </c>
       <c r="F9" s="1" t="n">
         <v>30</v>
       </c>
       <c r="G9" s="20" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="H9" s="1" t="n">
         <v>40</v>
@@ -12378,7 +12393,7 @@
       <c r="A10" s="19"/>
       <c r="B10" s="1"/>
       <c r="C10" s="20" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="D10" s="1" t="n">
         <v>20</v>
@@ -12386,7 +12401,7 @@
       <c r="E10" s="20"/>
       <c r="F10" s="1"/>
       <c r="G10" s="20" t="s">
-        <v>670</v>
+        <v>671</v>
       </c>
       <c r="H10" s="1" t="n">
         <v>10</v>
@@ -12404,7 +12419,7 @@
       <c r="A11" s="19"/>
       <c r="B11" s="1"/>
       <c r="C11" s="20" t="s">
-        <v>646</v>
+        <v>647</v>
       </c>
       <c r="D11" s="1" t="n">
         <v>20</v>
@@ -12496,62 +12511,62 @@
     </row>
     <row r="16" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A16" s="2" t="s">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="B16" s="2" t="n">
         <f aca="false">SUM(B17:B25)</f>
         <v>100</v>
       </c>
       <c r="C16" s="18" t="s">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="D16" s="2" t="n">
         <f aca="false">SUM(D17:D25)</f>
         <v>100</v>
       </c>
       <c r="E16" s="18" t="s">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="F16" s="2" t="n">
         <f aca="false">SUM(F17:F25)</f>
         <v>100</v>
       </c>
       <c r="G16" s="18" t="s">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="H16" s="2" t="n">
         <f aca="false">SUM(H17:H25)</f>
         <v>100</v>
       </c>
       <c r="I16" s="18" t="s">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="J16" s="2" t="n">
         <f aca="false">SUM(J17:J25)</f>
         <v>0</v>
       </c>
       <c r="K16" s="18" t="s">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="L16" s="2" t="n">
         <f aca="false">SUM(L17:L25)</f>
         <v>100</v>
       </c>
       <c r="M16" s="18" t="s">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="N16" s="2" t="n">
         <f aca="false">SUM(N17:N25)</f>
         <v>590</v>
       </c>
       <c r="O16" s="2" t="s">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="P16" s="10"/>
     </row>
     <row r="17" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A17" s="19" t="s">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="B17" s="1" t="n">
         <v>100</v>
@@ -12563,7 +12578,7 @@
         <v>25</v>
       </c>
       <c r="E17" s="20" t="s">
-        <v>651</v>
+        <v>652</v>
       </c>
       <c r="F17" s="1" t="n">
         <v>10</v>
@@ -12577,19 +12592,19 @@
       <c r="I17" s="20"/>
       <c r="J17" s="1"/>
       <c r="K17" s="20" t="s">
-        <v>699</v>
+        <v>700</v>
       </c>
       <c r="L17" s="1" t="n">
         <v>20</v>
       </c>
       <c r="M17" s="20" t="s">
-        <v>705</v>
+        <v>706</v>
       </c>
       <c r="N17" s="1" t="n">
         <v>10</v>
       </c>
       <c r="O17" s="19" t="s">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="P17" s="10"/>
     </row>
@@ -12597,19 +12612,19 @@
       <c r="A18" s="19"/>
       <c r="B18" s="1"/>
       <c r="C18" s="20" t="s">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="D18" s="1" t="n">
         <v>25</v>
       </c>
       <c r="E18" s="20" t="s">
-        <v>655</v>
+        <v>656</v>
       </c>
       <c r="F18" s="1" t="n">
         <v>35</v>
       </c>
       <c r="G18" s="20" t="s">
-        <v>660</v>
+        <v>661</v>
       </c>
       <c r="H18" s="1" t="n">
         <v>5</v>
@@ -12617,13 +12632,13 @@
       <c r="I18" s="20"/>
       <c r="J18" s="1"/>
       <c r="K18" s="20" t="s">
-        <v>701</v>
+        <v>702</v>
       </c>
       <c r="L18" s="1" t="n">
         <v>30</v>
       </c>
       <c r="M18" s="20" t="s">
-        <v>705</v>
+        <v>706</v>
       </c>
       <c r="N18" s="1" t="n">
         <v>20</v>
@@ -12635,19 +12650,19 @@
       <c r="A19" s="19"/>
       <c r="B19" s="1"/>
       <c r="C19" s="20" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="D19" s="1" t="n">
         <v>30</v>
       </c>
       <c r="E19" s="20" t="s">
-        <v>659</v>
+        <v>660</v>
       </c>
       <c r="F19" s="1" t="n">
         <v>10</v>
       </c>
       <c r="G19" s="20" t="s">
-        <v>682</v>
+        <v>683</v>
       </c>
       <c r="H19" s="1" t="n">
         <v>5</v>
@@ -12655,13 +12670,13 @@
       <c r="I19" s="20"/>
       <c r="J19" s="1"/>
       <c r="K19" s="20" t="s">
-        <v>703</v>
+        <v>704</v>
       </c>
       <c r="L19" s="1" t="n">
         <v>50</v>
       </c>
       <c r="M19" s="20" t="s">
-        <v>708</v>
+        <v>709</v>
       </c>
       <c r="N19" s="1" t="n">
         <f aca="false">30*5</f>
@@ -12674,19 +12689,19 @@
       <c r="A20" s="19"/>
       <c r="B20" s="1"/>
       <c r="C20" s="19" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="D20" s="1" t="n">
         <v>10</v>
       </c>
       <c r="E20" s="20" t="s">
-        <v>663</v>
+        <v>664</v>
       </c>
       <c r="F20" s="1" t="n">
         <v>10</v>
       </c>
       <c r="G20" s="20" t="s">
-        <v>684</v>
+        <v>685</v>
       </c>
       <c r="H20" s="1" t="n">
         <v>20</v>
@@ -12696,7 +12711,7 @@
       <c r="K20" s="20"/>
       <c r="L20" s="1"/>
       <c r="M20" s="20" t="s">
-        <v>710</v>
+        <v>711</v>
       </c>
       <c r="N20" s="1" t="n">
         <f aca="false">5*70</f>
@@ -12715,13 +12730,13 @@
         <v>10</v>
       </c>
       <c r="E21" s="20" t="s">
-        <v>665</v>
+        <v>666</v>
       </c>
       <c r="F21" s="1" t="n">
         <v>5</v>
       </c>
       <c r="G21" s="20" t="s">
-        <v>687</v>
+        <v>688</v>
       </c>
       <c r="H21" s="1" t="n">
         <v>30</v>
@@ -12731,7 +12746,7 @@
       <c r="K21" s="20"/>
       <c r="L21" s="1"/>
       <c r="M21" s="20" t="s">
-        <v>712</v>
+        <v>713</v>
       </c>
       <c r="N21" s="1" t="n">
         <v>10</v>
@@ -12745,13 +12760,13 @@
       <c r="C22" s="20"/>
       <c r="D22" s="1"/>
       <c r="E22" s="20" t="s">
-        <v>667</v>
+        <v>668</v>
       </c>
       <c r="F22" s="1" t="n">
         <v>20</v>
       </c>
       <c r="G22" s="20" t="s">
-        <v>690</v>
+        <v>691</v>
       </c>
       <c r="H22" s="1" t="n">
         <v>20</v>
@@ -12761,7 +12776,7 @@
       <c r="K22" s="20"/>
       <c r="L22" s="1"/>
       <c r="M22" s="20" t="s">
-        <v>714</v>
+        <v>715</v>
       </c>
       <c r="N22" s="1" t="n">
         <v>10</v>
@@ -12775,13 +12790,13 @@
       <c r="C23" s="23"/>
       <c r="D23" s="1"/>
       <c r="E23" s="20" t="s">
-        <v>671</v>
+        <v>672</v>
       </c>
       <c r="F23" s="1" t="n">
         <v>5</v>
       </c>
       <c r="G23" s="20" t="s">
-        <v>693</v>
+        <v>694</v>
       </c>
       <c r="H23" s="1" t="n">
         <v>5</v>
@@ -12791,7 +12806,7 @@
       <c r="K23" s="20"/>
       <c r="L23" s="1"/>
       <c r="M23" s="20" t="s">
-        <v>716</v>
+        <v>717</v>
       </c>
       <c r="N23" s="1" t="n">
         <v>20</v>
@@ -12805,13 +12820,13 @@
       <c r="C24" s="20"/>
       <c r="D24" s="1"/>
       <c r="E24" s="20" t="s">
-        <v>675</v>
+        <v>676</v>
       </c>
       <c r="F24" s="1" t="n">
         <v>5</v>
       </c>
       <c r="G24" s="20" t="s">
-        <v>695</v>
+        <v>696</v>
       </c>
       <c r="H24" s="1" t="n">
         <v>5</v>
@@ -12821,7 +12836,7 @@
       <c r="K24" s="20"/>
       <c r="L24" s="1"/>
       <c r="M24" s="20" t="s">
-        <v>718</v>
+        <v>719</v>
       </c>
       <c r="N24" s="1" t="n">
         <v>20</v>
@@ -12837,7 +12852,7 @@
       <c r="E25" s="20"/>
       <c r="F25" s="1"/>
       <c r="G25" s="20" t="s">
-        <v>697</v>
+        <v>698</v>
       </c>
       <c r="H25" s="1" t="n">
         <v>5</v>
@@ -12853,62 +12868,62 @@
     </row>
     <row r="26" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A26" s="2" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="B26" s="2" t="n">
         <f aca="false">SUM(B27:B35)</f>
         <v>100</v>
       </c>
       <c r="C26" s="18" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="D26" s="2" t="n">
         <f aca="false">SUM(D27:D35)</f>
         <v>100</v>
       </c>
       <c r="E26" s="18" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="F26" s="2" t="n">
         <f aca="false">SUM(F27:F35)</f>
         <v>100</v>
       </c>
       <c r="G26" s="18" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="H26" s="2" t="n">
         <f aca="false">SUM(H27:H35)</f>
         <v>100</v>
       </c>
       <c r="I26" s="18" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="J26" s="2" t="n">
         <f aca="false">SUM(J27:J35)</f>
         <v>0</v>
       </c>
       <c r="K26" s="18" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="L26" s="2" t="n">
         <f aca="false">SUM(L27:L35)</f>
         <v>100</v>
       </c>
       <c r="M26" s="18" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="N26" s="2" t="n">
         <f aca="false">SUM(N27:N35)</f>
         <v>100</v>
       </c>
       <c r="O26" s="2" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="P26" s="10"/>
     </row>
     <row r="27" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A27" s="19" t="s">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="B27" s="1" t="n">
         <v>100</v>
@@ -12926,7 +12941,7 @@
         <v>35</v>
       </c>
       <c r="G27" s="20" t="s">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="H27" s="1" t="n">
         <v>30</v>
@@ -12940,13 +12955,13 @@
         <v>20</v>
       </c>
       <c r="M27" s="20" t="s">
-        <v>691</v>
+        <v>692</v>
       </c>
       <c r="N27" s="1" t="n">
         <v>40</v>
       </c>
       <c r="O27" s="19" t="s">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="P27" s="10"/>
     </row>
@@ -12954,19 +12969,19 @@
       <c r="A28" s="19"/>
       <c r="B28" s="1"/>
       <c r="C28" s="20" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="D28" s="1" t="n">
         <v>30</v>
       </c>
       <c r="E28" s="20" t="s">
-        <v>647</v>
+        <v>648</v>
       </c>
       <c r="F28" s="1" t="n">
         <v>35</v>
       </c>
       <c r="G28" s="20" t="s">
-        <v>660</v>
+        <v>661</v>
       </c>
       <c r="H28" s="1" t="n">
         <v>40</v>
@@ -12974,13 +12989,13 @@
       <c r="I28" s="20"/>
       <c r="J28" s="1"/>
       <c r="K28" s="20" t="s">
-        <v>668</v>
+        <v>669</v>
       </c>
       <c r="L28" s="1" t="n">
         <v>20</v>
       </c>
       <c r="M28" s="20" t="s">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="N28" s="1" t="n">
         <v>40</v>
@@ -12992,19 +13007,19 @@
       <c r="A29" s="19"/>
       <c r="B29" s="1"/>
       <c r="C29" s="20" t="s">
-        <v>639</v>
+        <v>640</v>
       </c>
       <c r="D29" s="1" t="n">
         <v>30</v>
       </c>
       <c r="E29" s="20" t="s">
-        <v>652</v>
+        <v>653</v>
       </c>
       <c r="F29" s="1" t="n">
         <v>30</v>
       </c>
       <c r="G29" s="20" t="s">
-        <v>652</v>
+        <v>653</v>
       </c>
       <c r="H29" s="1" t="n">
         <v>30</v>
@@ -13012,13 +13027,13 @@
       <c r="I29" s="20"/>
       <c r="J29" s="1"/>
       <c r="K29" s="20" t="s">
-        <v>672</v>
+        <v>673</v>
       </c>
       <c r="L29" s="1" t="n">
         <v>10</v>
       </c>
       <c r="M29" s="20" t="s">
-        <v>676</v>
+        <v>677</v>
       </c>
       <c r="N29" s="1" t="n">
         <v>10</v>
@@ -13038,13 +13053,13 @@
       <c r="I30" s="20"/>
       <c r="J30" s="1"/>
       <c r="K30" s="20" t="s">
-        <v>676</v>
+        <v>677</v>
       </c>
       <c r="L30" s="1" t="n">
         <v>10</v>
       </c>
       <c r="M30" s="20" t="s">
-        <v>679</v>
+        <v>680</v>
       </c>
       <c r="N30" s="1" t="n">
         <v>10</v>
@@ -13064,7 +13079,7 @@
       <c r="I31" s="20"/>
       <c r="J31" s="1"/>
       <c r="K31" s="20" t="s">
-        <v>679</v>
+        <v>680</v>
       </c>
       <c r="L31" s="1" t="n">
         <v>10</v>
@@ -13086,7 +13101,7 @@
       <c r="I32" s="20"/>
       <c r="J32" s="1"/>
       <c r="K32" s="20" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="L32" s="1" t="n">
         <v>10</v>
@@ -13108,7 +13123,7 @@
       <c r="I33" s="20"/>
       <c r="J33" s="1"/>
       <c r="K33" s="20" t="s">
-        <v>647</v>
+        <v>648</v>
       </c>
       <c r="L33" s="1" t="n">
         <v>10</v>
@@ -13130,7 +13145,7 @@
       <c r="I34" s="20"/>
       <c r="J34" s="1"/>
       <c r="K34" s="20" t="s">
-        <v>685</v>
+        <v>686</v>
       </c>
       <c r="L34" s="1" t="n">
         <v>5</v>
@@ -13152,7 +13167,7 @@
       <c r="I35" s="20"/>
       <c r="J35" s="1"/>
       <c r="K35" s="20" t="s">
-        <v>688</v>
+        <v>689</v>
       </c>
       <c r="L35" s="1" t="n">
         <v>5</v>
@@ -13164,80 +13179,80 @@
     </row>
     <row r="36" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A36" s="2" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="B36" s="2" t="n">
         <f aca="false">SUM(B37:B45)</f>
         <v>100</v>
       </c>
       <c r="C36" s="18" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="D36" s="2" t="n">
         <f aca="false">SUM(D37:D45)</f>
         <v>100</v>
       </c>
       <c r="E36" s="18" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="F36" s="2" t="n">
         <f aca="false">SUM(F37:F45)</f>
         <v>100</v>
       </c>
       <c r="G36" s="18" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="H36" s="2" t="n">
         <f aca="false">SUM(H37:H45)</f>
         <v>100</v>
       </c>
       <c r="I36" s="18" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="J36" s="2" t="n">
         <f aca="false">SUM(J37:J45)</f>
         <v>0</v>
       </c>
       <c r="K36" s="18" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="L36" s="2" t="n">
         <f aca="false">SUM(L37:L45)</f>
         <v>100</v>
       </c>
       <c r="M36" s="18" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="N36" s="2" t="n">
         <f aca="false">SUM(N37:N45)</f>
         <v>100</v>
       </c>
       <c r="O36" s="2" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="P36" s="10"/>
     </row>
     <row r="37" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A37" s="19" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="B37" s="1" t="n">
         <v>100</v>
       </c>
       <c r="C37" s="20" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="D37" s="1" t="n">
         <v>100</v>
       </c>
       <c r="E37" s="20" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="F37" s="1" t="n">
         <v>100</v>
       </c>
       <c r="G37" s="20" t="s">
-        <v>723</v>
+        <v>724</v>
       </c>
       <c r="H37" s="1" t="n">
         <v>100</v>
@@ -13245,19 +13260,19 @@
       <c r="I37" s="20"/>
       <c r="J37" s="1"/>
       <c r="K37" s="20" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="L37" s="1" t="n">
         <v>100</v>
       </c>
       <c r="M37" s="20" t="s">
-        <v>648</v>
+        <v>649</v>
       </c>
       <c r="N37" s="1" t="n">
         <v>100</v>
       </c>
       <c r="O37" s="19" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="P37" s="10"/>
     </row>
@@ -13407,80 +13422,80 @@
     </row>
     <row r="46" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A46" s="18" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="B46" s="2" t="n">
         <f aca="false">SUM(B47:B55)</f>
         <v>100</v>
       </c>
       <c r="C46" s="18" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="D46" s="2" t="n">
         <f aca="false">SUM(D47:D55)</f>
         <v>100</v>
       </c>
       <c r="E46" s="18" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="F46" s="2" t="n">
         <f aca="false">SUM(F47:F55)</f>
         <v>100</v>
       </c>
       <c r="G46" s="18" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="H46" s="2" t="n">
         <f aca="false">SUM(H47:H55)</f>
         <v>100</v>
       </c>
       <c r="I46" s="18" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="J46" s="2" t="n">
         <f aca="false">SUM(J47:J55)</f>
         <v>0</v>
       </c>
       <c r="K46" s="18" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="L46" s="2" t="n">
         <f aca="false">SUM(L47:L55)</f>
         <v>100</v>
       </c>
       <c r="M46" s="18" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="N46" s="2" t="n">
         <f aca="false">SUM(N47:N55)</f>
         <v>100</v>
       </c>
       <c r="O46" s="18" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="P46" s="10"/>
     </row>
     <row r="47" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A47" s="20" t="s">
-        <v>724</v>
+        <v>725</v>
       </c>
       <c r="B47" s="1" t="n">
         <v>100</v>
       </c>
       <c r="C47" s="20" t="s">
-        <v>725</v>
+        <v>726</v>
       </c>
       <c r="D47" s="1" t="n">
         <v>100</v>
       </c>
       <c r="E47" s="20" t="s">
-        <v>726</v>
+        <v>727</v>
       </c>
       <c r="F47" s="1" t="n">
         <v>100</v>
       </c>
       <c r="G47" s="20" t="s">
-        <v>727</v>
+        <v>728</v>
       </c>
       <c r="H47" s="1" t="n">
         <v>100</v>
@@ -13488,19 +13503,19 @@
       <c r="I47" s="20"/>
       <c r="J47" s="1"/>
       <c r="K47" s="20" t="s">
-        <v>728</v>
+        <v>729</v>
       </c>
       <c r="L47" s="1" t="n">
         <v>100</v>
       </c>
       <c r="M47" s="20" t="s">
-        <v>729</v>
+        <v>730</v>
       </c>
       <c r="N47" s="1" t="n">
         <v>100</v>
       </c>
       <c r="O47" s="20" t="s">
-        <v>724</v>
+        <v>725</v>
       </c>
       <c r="P47" s="10"/>
     </row>
@@ -13650,78 +13665,78 @@
     </row>
     <row r="56" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A56" s="5" t="s">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="B56" s="5" t="n">
         <f aca="false">SUM(B57:B67)</f>
         <v>650</v>
       </c>
       <c r="C56" s="5" t="s">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="D56" s="5" t="n">
         <v>650</v>
       </c>
       <c r="E56" s="5" t="s">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="F56" s="5" t="n">
         <f aca="false">SUM(F57:F67)</f>
         <v>670</v>
       </c>
       <c r="G56" s="5" t="s">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="H56" s="5" t="n">
         <v>650</v>
       </c>
       <c r="I56" s="5" t="s">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="J56" s="5" t="n">
         <f aca="false">SUM(J57:J71)</f>
         <v>0</v>
       </c>
       <c r="K56" s="5" t="s">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="L56" s="5" t="n">
         <f aca="false">SUM(L57:L64)</f>
         <v>620</v>
       </c>
       <c r="M56" s="5" t="s">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="N56" s="5" t="n">
         <f aca="false">SUM(N57:N64)</f>
         <v>600</v>
       </c>
       <c r="O56" s="5" t="s">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="P56" s="10"/>
     </row>
     <row r="57" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A57" s="21" t="s">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="B57" s="22" t="n">
         <v>500</v>
       </c>
       <c r="C57" s="21" t="s">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="D57" s="22" t="n">
         <v>500</v>
       </c>
       <c r="E57" s="21" t="s">
-        <v>673</v>
+        <v>674</v>
       </c>
       <c r="F57" s="22" t="n">
         <v>500</v>
       </c>
       <c r="G57" s="21" t="s">
-        <v>673</v>
+        <v>674</v>
       </c>
       <c r="H57" s="22" t="n">
         <v>500</v>
@@ -13729,43 +13744,43 @@
       <c r="I57" s="21"/>
       <c r="J57" s="22"/>
       <c r="K57" s="21" t="s">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="L57" s="22" t="n">
         <v>500</v>
       </c>
       <c r="M57" s="21" t="s">
-        <v>702</v>
+        <v>703</v>
       </c>
       <c r="N57" s="22" t="n">
         <v>500</v>
       </c>
       <c r="O57" s="21" t="s">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="P57" s="10"/>
     </row>
     <row r="58" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A58" s="21" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="B58" s="22" t="n">
         <v>20</v>
       </c>
       <c r="C58" s="21" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="D58" s="22" t="n">
         <v>20</v>
       </c>
       <c r="E58" s="21" t="s">
-        <v>677</v>
+        <v>678</v>
       </c>
       <c r="F58" s="22" t="n">
         <v>20</v>
       </c>
       <c r="G58" s="21" t="s">
-        <v>677</v>
+        <v>678</v>
       </c>
       <c r="H58" s="22" t="n">
         <v>20</v>
@@ -13773,43 +13788,43 @@
       <c r="I58" s="21"/>
       <c r="J58" s="22"/>
       <c r="K58" s="21" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="L58" s="22" t="n">
         <v>20</v>
       </c>
       <c r="M58" s="21" t="s">
-        <v>704</v>
+        <v>705</v>
       </c>
       <c r="N58" s="22" t="n">
         <v>20</v>
       </c>
       <c r="O58" s="21" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="P58" s="10"/>
     </row>
     <row r="59" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A59" s="21" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="B59" s="22" t="n">
         <v>10</v>
       </c>
       <c r="C59" s="21" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="D59" s="22" t="n">
         <v>10</v>
       </c>
       <c r="E59" s="21" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="F59" s="22" t="n">
         <v>10</v>
       </c>
       <c r="G59" s="21" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="H59" s="22" t="n">
         <v>10</v>
@@ -13817,43 +13832,43 @@
       <c r="I59" s="21"/>
       <c r="J59" s="22"/>
       <c r="K59" s="21" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="L59" s="22" t="n">
         <v>10</v>
       </c>
       <c r="M59" s="21" t="s">
-        <v>707</v>
+        <v>708</v>
       </c>
       <c r="N59" s="22" t="n">
         <v>20</v>
       </c>
       <c r="O59" s="21" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="P59" s="10"/>
     </row>
     <row r="60" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A60" s="21" t="s">
-        <v>645</v>
+        <v>646</v>
       </c>
       <c r="B60" s="22" t="n">
         <v>10</v>
       </c>
       <c r="C60" s="21" t="s">
-        <v>645</v>
+        <v>646</v>
       </c>
       <c r="D60" s="22" t="n">
         <v>10</v>
       </c>
       <c r="E60" s="21" t="s">
-        <v>683</v>
+        <v>684</v>
       </c>
       <c r="F60" s="22" t="n">
         <v>10</v>
       </c>
       <c r="G60" s="21" t="s">
-        <v>683</v>
+        <v>684</v>
       </c>
       <c r="H60" s="22" t="n">
         <v>10</v>
@@ -13861,43 +13876,43 @@
       <c r="I60" s="21"/>
       <c r="J60" s="22"/>
       <c r="K60" s="21" t="s">
-        <v>645</v>
+        <v>646</v>
       </c>
       <c r="L60" s="22" t="n">
         <v>10</v>
       </c>
       <c r="M60" s="21" t="s">
-        <v>709</v>
+        <v>710</v>
       </c>
       <c r="N60" s="22" t="n">
         <v>20</v>
       </c>
       <c r="O60" s="21" t="s">
-        <v>645</v>
+        <v>646</v>
       </c>
       <c r="P60" s="10"/>
     </row>
     <row r="61" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A61" s="21" t="s">
-        <v>649</v>
+        <v>650</v>
       </c>
       <c r="B61" s="22" t="n">
         <v>20</v>
       </c>
       <c r="C61" s="21" t="s">
-        <v>649</v>
+        <v>650</v>
       </c>
       <c r="D61" s="22" t="n">
         <v>20</v>
       </c>
       <c r="E61" s="21" t="s">
-        <v>686</v>
+        <v>687</v>
       </c>
       <c r="F61" s="22" t="n">
         <v>20</v>
       </c>
       <c r="G61" s="21" t="s">
-        <v>686</v>
+        <v>687</v>
       </c>
       <c r="H61" s="22" t="n">
         <v>20</v>
@@ -13905,43 +13920,43 @@
       <c r="I61" s="21"/>
       <c r="J61" s="22"/>
       <c r="K61" s="21" t="s">
-        <v>649</v>
+        <v>650</v>
       </c>
       <c r="L61" s="22" t="n">
         <v>20</v>
       </c>
       <c r="M61" s="21" t="s">
-        <v>711</v>
+        <v>712</v>
       </c>
       <c r="N61" s="22" t="n">
         <v>10</v>
       </c>
       <c r="O61" s="21" t="s">
-        <v>649</v>
+        <v>650</v>
       </c>
       <c r="P61" s="10"/>
     </row>
     <row r="62" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A62" s="21" t="s">
-        <v>653</v>
+        <v>654</v>
       </c>
       <c r="B62" s="22" t="n">
         <v>20</v>
       </c>
       <c r="C62" s="21" t="s">
-        <v>653</v>
+        <v>654</v>
       </c>
       <c r="D62" s="22" t="n">
         <v>20</v>
       </c>
       <c r="E62" s="21" t="s">
-        <v>689</v>
+        <v>690</v>
       </c>
       <c r="F62" s="22" t="n">
         <v>20</v>
       </c>
       <c r="G62" s="21" t="s">
-        <v>689</v>
+        <v>690</v>
       </c>
       <c r="H62" s="22" t="n">
         <v>20</v>
@@ -13949,43 +13964,43 @@
       <c r="I62" s="21"/>
       <c r="J62" s="22"/>
       <c r="K62" s="21" t="s">
-        <v>653</v>
+        <v>654</v>
       </c>
       <c r="L62" s="22" t="n">
         <v>20</v>
       </c>
       <c r="M62" s="21" t="s">
-        <v>713</v>
+        <v>714</v>
       </c>
       <c r="N62" s="22" t="n">
         <v>10</v>
       </c>
       <c r="O62" s="21" t="s">
-        <v>653</v>
+        <v>654</v>
       </c>
       <c r="P62" s="10"/>
     </row>
     <row r="63" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A63" s="21" t="s">
-        <v>657</v>
+        <v>658</v>
       </c>
       <c r="B63" s="22" t="n">
         <v>20</v>
       </c>
       <c r="C63" s="21" t="s">
-        <v>657</v>
+        <v>658</v>
       </c>
       <c r="D63" s="22" t="n">
         <v>20</v>
       </c>
       <c r="E63" s="21" t="s">
-        <v>692</v>
+        <v>693</v>
       </c>
       <c r="F63" s="22" t="n">
         <v>40</v>
       </c>
       <c r="G63" s="21" t="s">
-        <v>692</v>
+        <v>693</v>
       </c>
       <c r="H63" s="22" t="n">
         <v>40</v>
@@ -13993,43 +14008,43 @@
       <c r="I63" s="21"/>
       <c r="J63" s="22"/>
       <c r="K63" s="21" t="s">
-        <v>657</v>
+        <v>658</v>
       </c>
       <c r="L63" s="22" t="n">
         <v>20</v>
       </c>
       <c r="M63" s="21" t="s">
-        <v>715</v>
+        <v>716</v>
       </c>
       <c r="N63" s="22" t="n">
         <v>10</v>
       </c>
       <c r="O63" s="21" t="s">
-        <v>657</v>
+        <v>658</v>
       </c>
       <c r="P63" s="10"/>
     </row>
     <row r="64" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A64" s="21" t="s">
-        <v>661</v>
+        <v>662</v>
       </c>
       <c r="B64" s="22" t="n">
         <v>20</v>
       </c>
       <c r="C64" s="21" t="s">
-        <v>661</v>
+        <v>662</v>
       </c>
       <c r="D64" s="22" t="n">
         <v>20</v>
       </c>
       <c r="E64" s="21" t="s">
-        <v>694</v>
+        <v>695</v>
       </c>
       <c r="F64" s="22" t="n">
         <v>20</v>
       </c>
       <c r="G64" s="21" t="s">
-        <v>694</v>
+        <v>695</v>
       </c>
       <c r="H64" s="22" t="n">
         <v>20</v>
@@ -14037,43 +14052,43 @@
       <c r="I64" s="21"/>
       <c r="J64" s="22"/>
       <c r="K64" s="21" t="s">
-        <v>661</v>
+        <v>662</v>
       </c>
       <c r="L64" s="22" t="n">
         <v>20</v>
       </c>
       <c r="M64" s="21" t="s">
-        <v>717</v>
+        <v>718</v>
       </c>
       <c r="N64" s="22" t="n">
         <v>10</v>
       </c>
       <c r="O64" s="21" t="s">
-        <v>661</v>
+        <v>662</v>
       </c>
       <c r="P64" s="10"/>
     </row>
     <row r="65" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A65" s="21" t="s">
-        <v>664</v>
+        <v>665</v>
       </c>
       <c r="B65" s="22" t="n">
         <v>10</v>
       </c>
       <c r="C65" s="21" t="s">
-        <v>664</v>
+        <v>665</v>
       </c>
       <c r="D65" s="22" t="n">
         <v>10</v>
       </c>
       <c r="E65" s="21" t="s">
-        <v>696</v>
+        <v>697</v>
       </c>
       <c r="F65" s="22" t="n">
         <v>10</v>
       </c>
       <c r="G65" s="21" t="s">
-        <v>696</v>
+        <v>697</v>
       </c>
       <c r="H65" s="22" t="n">
         <v>10</v>
@@ -14081,43 +14096,43 @@
       <c r="I65" s="21"/>
       <c r="J65" s="22"/>
       <c r="K65" s="21" t="s">
-        <v>664</v>
+        <v>665</v>
       </c>
       <c r="L65" s="22" t="n">
         <v>10</v>
       </c>
       <c r="M65" s="21" t="s">
-        <v>719</v>
+        <v>720</v>
       </c>
       <c r="N65" s="22" t="n">
         <v>10</v>
       </c>
       <c r="O65" s="21" t="s">
-        <v>664</v>
+        <v>665</v>
       </c>
       <c r="P65" s="10"/>
     </row>
     <row r="66" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A66" s="21" t="s">
-        <v>666</v>
+        <v>667</v>
       </c>
       <c r="B66" s="22" t="n">
         <v>10</v>
       </c>
       <c r="C66" s="21" t="s">
-        <v>666</v>
+        <v>667</v>
       </c>
       <c r="D66" s="22" t="n">
         <v>10</v>
       </c>
       <c r="E66" s="21" t="s">
-        <v>698</v>
+        <v>699</v>
       </c>
       <c r="F66" s="22" t="n">
         <v>10</v>
       </c>
       <c r="G66" s="21" t="s">
-        <v>698</v>
+        <v>699</v>
       </c>
       <c r="H66" s="22" t="n">
         <v>10</v>
@@ -14125,43 +14140,43 @@
       <c r="I66" s="21"/>
       <c r="J66" s="22"/>
       <c r="K66" s="21" t="s">
-        <v>666</v>
+        <v>667</v>
       </c>
       <c r="L66" s="22" t="n">
         <v>10</v>
       </c>
       <c r="M66" s="21" t="s">
-        <v>720</v>
+        <v>721</v>
       </c>
       <c r="N66" s="22" t="n">
         <v>10</v>
       </c>
       <c r="O66" s="21" t="s">
-        <v>666</v>
+        <v>667</v>
       </c>
       <c r="P66" s="10"/>
     </row>
     <row r="67" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A67" s="21" t="s">
-        <v>669</v>
+        <v>670</v>
       </c>
       <c r="B67" s="22" t="n">
         <v>10</v>
       </c>
       <c r="C67" s="21" t="s">
-        <v>669</v>
+        <v>670</v>
       </c>
       <c r="D67" s="22" t="n">
         <v>10</v>
       </c>
       <c r="E67" s="21" t="s">
-        <v>700</v>
+        <v>701</v>
       </c>
       <c r="F67" s="22" t="n">
         <v>10</v>
       </c>
       <c r="G67" s="21" t="s">
-        <v>700</v>
+        <v>701</v>
       </c>
       <c r="H67" s="22" t="n">
         <v>10</v>
@@ -14169,19 +14184,19 @@
       <c r="I67" s="21"/>
       <c r="J67" s="22"/>
       <c r="K67" s="21" t="s">
-        <v>669</v>
+        <v>670</v>
       </c>
       <c r="L67" s="22" t="n">
         <v>10</v>
       </c>
       <c r="M67" s="21" t="s">
-        <v>721</v>
+        <v>722</v>
       </c>
       <c r="N67" s="22" t="n">
         <v>10</v>
       </c>
       <c r="O67" s="21" t="s">
-        <v>669</v>
+        <v>670</v>
       </c>
       <c r="P67" s="10"/>
     </row>

--- a/city-npc/Ptolus_City_NPC_Encounter.xlsx
+++ b/city-npc/Ptolus_City_NPC_Encounter.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="3"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="START" sheetId="1" state="visible" r:id="rId2"/>
@@ -2542,7 +2542,7 @@
   <dimension ref="A2:AMJ25"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H22" activeCellId="1" sqref="H5 H22"/>
+      <selection pane="topLeft" activeCell="H22" activeCellId="0" sqref="H22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7578125" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2896,8 +2896,8 @@
   </sheetPr>
   <dimension ref="B1:AE121"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F26" activeCellId="1" sqref="H5 F26"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G16" activeCellId="0" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7578125" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -5432,7 +5432,7 @@
   <dimension ref="A1:F34"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E23" activeCellId="1" sqref="H5 E23"/>
+      <selection pane="topLeft" activeCell="E23" activeCellId="0" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -5686,8 +5686,8 @@
   </sheetPr>
   <dimension ref="A2:AMJ118"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H17" activeCellId="1" sqref="H5 H17"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E22" activeCellId="0" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7578125" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -7370,7 +7370,7 @@
   <dimension ref="A1:AY56"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G25" activeCellId="1" sqref="H5 G25"/>
+      <selection pane="topLeft" activeCell="G25" activeCellId="0" sqref="G25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7578125" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -11090,7 +11090,7 @@
   <dimension ref="A1:Q114"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J34" activeCellId="1" sqref="H5 J34"/>
+      <selection pane="topLeft" activeCell="J34" activeCellId="0" sqref="J34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -12088,7 +12088,7 @@
   <dimension ref="A1:W131"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="D1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="M8" activeCellId="1" sqref="H5 M8"/>
+      <selection pane="topLeft" activeCell="M8" activeCellId="0" sqref="M8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.66015625" defaultRowHeight="12.95" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
